--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2A81F4-6F7E-8144-A36B-6E65B0EA45EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1406F349-9C3B-7B44-8387-E719DE0AAA91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
-    <sheet name="2_standardize" sheetId="1" r:id="rId1"/>
-    <sheet name="0_auto" sheetId="2" r:id="rId2"/>
+    <sheet name="parse" sheetId="1" r:id="rId1"/>
+    <sheet name="map_parse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="484">
   <si>
     <t>bea_supply</t>
   </si>
@@ -1344,156 +1344,15 @@
     <t>Path: ["..", "data", "mapsources", "WiNDC", "windc_datastream", "core_maps"]</t>
   </si>
   <si>
-    <t>PathOut: ["..", "data", "coremaps", "std", "bea.csv"]</t>
-  </si>
-  <si>
-    <t>- {col: bea_code, type: String}</t>
-  </si>
-  <si>
-    <t>- {col: bea_desc, type: String}</t>
-  </si>
-  <si>
-    <t>- {col: bea_windc, type: String}</t>
-  </si>
-  <si>
-    <t>- {col: category, type: Any}</t>
-  </si>
-  <si>
-    <t>- {from: from, to: bea_code}</t>
-  </si>
-  <si>
-    <t>- {from: description, to: bea_desc}</t>
-  </si>
-  <si>
-    <t>- {from: to, to: bea_windc}</t>
-  </si>
-  <si>
-    <t>- {name: bea_all.csv, descriptor: summary}</t>
-  </si>
-  <si>
-    <t>- {name: bea_all_detailed.csv, descriptor: detail}</t>
-  </si>
-  <si>
     <t>Path: ["..", "data", "mapsources", "WiNDC", "windc_datastream", "core_maps", "gams"]</t>
   </si>
   <si>
-    <t>PathOut: ["..", "data", "coremaps", "std", "gsp.csv"]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name: map_gsp.csv</t>
   </si>
   <si>
     <t>Path: ["..", "data", "mapsources", "NAICS"]</t>
   </si>
   <si>
-    <t>PathOut: ["..", "data", "coremaps", "std", "naics.csv"]</t>
-  </si>
-  <si>
-    <t>name: "2-6 digit_2017_Codes.xlsx"</t>
-  </si>
-  <si>
-    <t>sheet: tbl_2017_title_description_coun</t>
-  </si>
-  <si>
-    <t>range: B1:C2198</t>
-  </si>
-  <si>
-    <t>descriptor: 2017</t>
-  </si>
-  <si>
-    <t>- {from: 2017 NAICS US Code, to: naics_code}</t>
-  </si>
-  <si>
-    <t>- {from: 2017 NAICS US Title, to: naics_desc}</t>
-  </si>
-  <si>
-    <t>on: "(?&lt;naics_level&gt;\\d*)"</t>
-  </si>
-  <si>
-    <t>input: naics_code</t>
-  </si>
-  <si>
-    <t>output: naics_level</t>
-  </si>
-  <si>
-    <t>col: naics_level</t>
-  </si>
-  <si>
-    <t>from: [2,3,4,5,6]</t>
-  </si>
-  <si>
-    <t>to:</t>
-  </si>
-  <si>
-    <t>- sector</t>
-  </si>
-  <si>
-    <t>- subsector</t>
-  </si>
-  <si>
-    <t>- industry_group</t>
-  </si>
-  <si>
-    <t>- naics_industry</t>
-  </si>
-  <si>
-    <t>- national_industry</t>
-  </si>
-  <si>
-    <t>PathOut: ["..", "data", "coremaps", "std", "regions.csv"]</t>
-  </si>
-  <si>
-    <t>PathOut: ["..", "data", "coremaps", "std", "sgf.csv"]</t>
-  </si>
-  <si>
-    <t>- {col: from, type: Any}</t>
-  </si>
-  <si>
-    <t>- {col: sgf_desc, type: String}</t>
-  </si>
-  <si>
-    <t>- {col: sgf_windc, type: Any}</t>
-  </si>
-  <si>
-    <t>- {col: units, type: String}</t>
-  </si>
-  <si>
-    <t>- col: from</t>
-  </si>
-  <si>
-    <t>val: missing</t>
-  </si>
-  <si>
-    <t>operation: "=="</t>
-  </si>
-  <si>
-    <t>val: unique</t>
-  </si>
-  <si>
-    <t>file: ../mapsources/WiNDC/windc_datastream/core_maps/gams/map_sgf.csv</t>
-  </si>
-  <si>
-    <t>from: from</t>
-  </si>
-  <si>
-    <t>to: to</t>
-  </si>
-  <si>
-    <t>input: sgf_desc</t>
-  </si>
-  <si>
-    <t>output: sgf_windc</t>
-  </si>
-  <si>
-    <t>- {name: map_seds_energy_tech.csv, descriptor: tech}</t>
-  </si>
-  <si>
-    <t>- {name: map_emissions.csv,        descriptor: emissions}</t>
-  </si>
-  <si>
-    <t>PathOut: ["..", "data", "coremaps", "std", "tech.csv"]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name: sgf.csv</t>
   </si>
   <si>
@@ -1507,6 +1366,126 @@
   </si>
   <si>
     <t xml:space="preserve">  descriptor: gsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: "2-6 digit_2017_Codes.xlsx"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sheet: tbl_2017_title_description_coun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  range: B1:C2198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  descriptor: 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  output: naics_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: bea_all.csv, descriptor: summary}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: map_emissions.csv,        descriptor: emissions}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: bea_all_detailed.csv, descriptor: detail}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: map_seds_energy_tech.csv, descriptor: tech}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: bea_code, type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: from, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: bea_desc, type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sgf_desc, type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: bea_windc, type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sgf_windc, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: category, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: from, to: bea_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: 2017 NAICS US Code, to: naics_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: description, to: bea_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: 2017 NAICS US Title, to: naics_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: to, to: bea_windc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  file:   ../mapsources/WiNDC/windc_datastream/core_maps/gams/map_sgf.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  on:     "(?&lt;naics_level&gt;\\d*)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col: naics_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from: [2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - subsector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - industry_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - naics_industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - national_industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col: from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val: unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  output: sgf_windc</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "parse", "bea.csv"]</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "parse", "gsp.csv"]</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "parse", "naics.csv"]</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "parse", "regions.csv"]</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "parse", "sgf.csv"]</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "parse", "tech.csv"]</t>
   </si>
 </sst>
 </file>
@@ -1929,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F1FC0-97F0-044C-906D-1FF8A7B5F9B8}">
   <dimension ref="A1:V148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6506,11 +6485,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6544,10 +6523,10 @@
         <v>435</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>435</v>
@@ -6556,7 +6535,7 @@
         <v>435</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="17" customFormat="1"/>
@@ -6565,22 +6544,22 @@
         <v>353</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="17" customFormat="1"/>
@@ -6609,52 +6588,52 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>451</v>
-      </c>
       <c r="E10" s="16" t="s">
-        <v>488</v>
+        <v>441</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>452</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="D12" s="16" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="D13" s="16" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="17" customFormat="1"/>
@@ -6677,34 +6656,34 @@
     </row>
     <row r="19" spans="1:6">
       <c r="B19" s="16" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" s="16" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="16" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" s="16" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>473</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="17" customFormat="1"/>
@@ -6721,23 +6700,23 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="16" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="16" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="16" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1"/>
@@ -6757,17 +6736,17 @@
     </row>
     <row r="41" spans="1:4">
       <c r="D41" s="16" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="D42" s="16" t="s">
-        <v>458</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="D43" s="16" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="17" customFormat="1"/>
@@ -6793,27 +6772,27 @@
     </row>
     <row r="54" spans="1:6">
       <c r="F54" s="16" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="F55" s="16" t="s">
-        <v>479</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="F56" s="16" t="s">
-        <v>480</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="F57" s="16" t="s">
-        <v>481</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="F58" s="16" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="17" customFormat="1"/>
@@ -6827,42 +6806,42 @@
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="16" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="16" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="16" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="16" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="16" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="D66" s="16" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="D67" s="16" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="D68" s="16" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="17" customFormat="1"/>
@@ -6876,32 +6855,32 @@
     </row>
     <row r="72" spans="1:6">
       <c r="F72" s="16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="F73" s="16" t="s">
-        <v>475</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="F74" s="16" t="s">
-        <v>476</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="F75" s="16" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="F76" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="F77" s="16" t="s">
-        <v>476</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1406F349-9C3B-7B44-8387-E719DE0AAA91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAA3A3B-B161-0147-817B-4C8B6B2FFCE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
-    <sheet name="parse" sheetId="1" r:id="rId1"/>
-    <sheet name="map_parse" sheetId="2" r:id="rId2"/>
+    <sheet name="map_parse" sheetId="2" r:id="rId1"/>
+    <sheet name="map_scale" sheetId="3" r:id="rId2"/>
+    <sheet name="parse" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="639">
   <si>
     <t>bea_supply</t>
   </si>
@@ -159,18 +160,12 @@
     <t xml:space="preserve">    output: industry_desc</t>
   </si>
   <si>
-    <t xml:space="preserve">  - file:   [std, regions.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    input:  region_desc</t>
   </si>
   <si>
     <t xml:space="preserve">    output: region_desc</t>
   </si>
   <si>
-    <t># - file:   [std, units.csv]</t>
-  </si>
-  <si>
     <t>#   from:   from</t>
   </si>
   <si>
@@ -228,42 +223,9 @@
     <t>PathOut: ["..", "data", "output", "gsp_metro.csv"]</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: SAGDP2N__ALL_AREAS_1997_2017.csv, descriptor: SAGDP2N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: MAGDP2_2001_2017_ALL_AREAS.csv, descriptor: MAGDP2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP3N__ALL_AREAS_1997_2017.csv, descriptor: SAGDP3N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: MAGDP8_2001_2017_ALL_AREAS.csv, descriptor: MAGDP8}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP4N__ALL_AREAS_1997_2017.csv, descriptor: SAGDP4N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: MAGDP9_2001_2017_ALL_AREAS.csv, descriptor: MAGDP9}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP5N__ALL_AREAS_1997_2017.csv, descriptor: SAGDP5N}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {name: MAGDP10_2001_2017_ALL_AREAS.csv, descriptor: MAGP10}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: SAGDP6N__ALL_AREAS_1997_2017.csv, descriptor: SAGDP6N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP7N__ALL_AREAS_1997_2017.csv, descriptor: SAGDP7N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP8N__ALL_AREAS_1997_2017.csv, descriptor: SAGDP8N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP9N__ALL_AREAS_1997_2017.csv, descriptor: SAGDP9N}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {name: SAGDP11N__ALL_AREAS_1998_2017.csv, descriptor: SAGDP11N}</t>
   </si>
   <si>
@@ -306,18 +268,12 @@
     <t xml:space="preserve">  on:  [region_code, region_desc, component, units, industry_id, industry_code, industry_desc]</t>
   </si>
   <si>
-    <t xml:space="preserve">  - file:   [std, gsp.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    input:  component</t>
   </si>
   <si>
     <t xml:space="preserve">    output: component</t>
   </si>
   <si>
-    <t># - file:   scale/census_cbsa.csv</t>
-  </si>
-  <si>
     <t>#   from:   cbsa_code</t>
   </si>
   <si>
@@ -453,9 +409,6 @@
     <t xml:space="preserve">  - {col: shipmt_dist_routed_units, val: routed distance in miles}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - file:   [std, naics.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    from:   naics_code</t>
   </si>
   <si>
@@ -525,9 +478,6 @@
     <t>XLSXInput:</t>
   </si>
   <si>
-    <t xml:space="preserve">  name: 97states.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name:  98states.xlsx</t>
   </si>
   <si>
@@ -540,36 +490,24 @@
     <t xml:space="preserve">  - {name: SGF_2014_00A1.csv, descriptor: 2014}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: sgf_1997.csv, descriptor: 1997}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  sheet: 97stspr</t>
   </si>
   <si>
     <t xml:space="preserve">  sheet: 98STABS</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: 00statess.xlsx, sheet: TabStateGovFinSS (US-WY), range: "A3:EX64", descriptor: 2000}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {name: SGF_2013_SGF003.csv, descriptor: 2013}</t>
   </si>
   <si>
     <t xml:space="preserve">  - {name: SGF_2015_00A1.csv, descriptor: 2015}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: sgf_1998.csv, descriptor: 1998}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  range: A4:D2759</t>
   </si>
   <si>
     <t xml:space="preserve">  range: A4:AZ56</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: 01statess.xlsx, sheet: 01stus-wy, range: "A3:EX64", descriptor: 2001}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {name: SGF_2016_00A1.csv, descriptor: 2016}</t>
   </si>
   <si>
@@ -582,42 +520,15 @@
     <t xml:space="preserve">  descriptor: 1998</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: 02statess.xlsx, sheet: 0200usst, range: "A3:CY64", descriptor: 2002}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {name: sgf_2012-2013.csv, descriptor: 2012-2013}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: 03statess.xlsx, sheet: 0300usst, range: "A3:CY65", descriptor: 2003}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {name: sgf_2014-2016.csv, descriptor: 2014-2016}</t>
   </si>
   <si>
     <t xml:space="preserve">  - {name: 04statess.xlsx, sheet: 2004 State Finance (US-WY), range: "A3:AZ64", descriptor: 2004}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: 05statess.xlsx, sheet: Sheet1, range: "A3:AZ64", descriptor: 2005}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: 06statess.xlsx, sheet: 2006 State US-WY, range: "A3:AZ64", descriptor: 2006}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: 07statess.xlsx, sheet: 2007 US-WY, range: "A3:AZ64", descriptor: 2007}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: 08statess.xlsx, sheet: 2008 US-WY, range: "A3:AZ64", descriptor: 2008}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: 09statess.xlsx, sheet: 2009 US-WY, range: "A3:AZ64", descriptor: 2009}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: 10statess.xlsx, sheet: 2010 US-WY, range: "A3:AZ64", descriptor: 2010}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: 11statess.xlsx, sheet: 2011 US-WY, range: "A3:AZ64", descriptor: 2011}</t>
-  </si>
-  <si>
     <t>Describe:</t>
   </si>
   <si>
@@ -672,9 +583,6 @@
     <t>Group:</t>
   </si>
   <si>
-    <t xml:space="preserve">  file:   [std, regions.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  from:   from</t>
   </si>
   <si>
@@ -699,12 +607,6 @@
     <t xml:space="preserve">  var: sgf_desc</t>
   </si>
   <si>
-    <t xml:space="preserve">  file:   [std, sgf.csv]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - file:   [std, sgf.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  to:     [sgf_desc, sgf_windc, units]</t>
   </si>
   <si>
@@ -1020,9 +922,6 @@
     <t xml:space="preserve">    val: crude oil composite acquisition cost by refiners</t>
   </si>
   <si>
-    <t xml:space="preserve">  file:   [std, tech.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  input:  source</t>
   </si>
   <si>
@@ -1158,9 +1057,6 @@
     <t xml:space="preserve">    from:   bea_desc</t>
   </si>
   <si>
-    <t xml:space="preserve">  - file:   [std, bea.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  from: "..."</t>
   </si>
   <si>
@@ -1278,9 +1174,6 @@
     <t xml:space="preserve">  range: A6:PC412</t>
   </si>
   <si>
-    <t xml:space="preserve">  name: GCP_Release_1.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">  sheet: Current Dollar GDP</t>
   </si>
   <si>
@@ -1383,9 +1276,6 @@
     <t xml:space="preserve">  output: naics_level</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: bea_all.csv, descriptor: summary}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {name: map_emissions.csv,        descriptor: emissions}</t>
   </si>
   <si>
@@ -1395,30 +1285,12 @@
     <t xml:space="preserve">  - {name: map_seds_energy_tech.csv, descriptor: tech}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: bea_code, type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: from, type: Any}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: bea_desc, type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: sgf_desc, type: String}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: bea_windc, type: String}</t>
   </si>
   <si>
     <t xml:space="preserve">  - {col: sgf_windc, type: Any}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: category, type: Any}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {from: from, to: bea_code}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {from: 2017 NAICS US Code, to: naics_code}</t>
   </si>
   <si>
@@ -1428,12 +1300,6 @@
     <t xml:space="preserve">  - {from: 2017 NAICS US Title, to: naics_desc}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {from: to, to: bea_windc}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  file:   ../mapsources/WiNDC/windc_datastream/core_maps/gams/map_sgf.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">  on:     "(?&lt;naics_level&gt;\\d*)"</t>
   </si>
   <si>
@@ -1486,13 +1352,613 @@
   </si>
   <si>
     <t>PathOut: ["..", "data", "coremaps", "parse", "tech.csv"]</t>
+  </si>
+  <si>
+    <t>Path: ["..", "data", "mapsources", "WiNDC", "windc_build", "build_files", "maps"]</t>
+  </si>
+  <si>
+    <t>missing_temp_bea_det</t>
+  </si>
+  <si>
+    <t>gsp</t>
+  </si>
+  <si>
+    <t>naics</t>
+  </si>
+  <si>
+    <t>regions</t>
+  </si>
+  <si>
+    <t>sgf</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "parse", "units.csv"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: units.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  descriptor: units</t>
+  </si>
+  <si>
+    <t>Complete: true</t>
+  </si>
+  <si>
+    <t>Complete: false</t>
+  </si>
+  <si>
+    <t>census_cbsa</t>
+  </si>
+  <si>
+    <t>Path: ["..", "data", "mapsources", "Census", "CBSA"]</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "scale", "census_cbsa.csv"]</t>
+  </si>
+  <si>
+    <t># - name: list1_Sep_2018.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col: updated</t>
+  </si>
+  <si>
+    <t>Path: ["..", "data", "mapsources", "Census", "CBSA_Cities"]</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "scale", "census_cbsa_cities.csv"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: state_code, type: Any}</t>
+  </si>
+  <si>
+    <t>census_cbsa_cities</t>
+  </si>
+  <si>
+    <t>Path: ["..", "data", "mapsources", "Census", "NECTA_Cities"]</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "scale", "census_necta_cities.csv"]</t>
+  </si>
+  <si>
+    <t>census_necta_cities</t>
+  </si>
+  <si>
+    <t>census_necta</t>
+  </si>
+  <si>
+    <t>Path: ["..", "data", "mapsources", "Census", "NECTA"]</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "scale", "census_necta.csv"]</t>
+  </si>
+  <si>
+    <t># - name: list3_Sep_2018.xlsx</t>
+  </si>
+  <si>
+    <t>PathOut: ["..", "data", "coremaps", "scale", "naics_codes.csv"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: state_code,  type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: state_code,    type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: county_code, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: cbsa_code,  type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: necta_code, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: county_code,   type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: csa_code,    type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: place_code, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: cousub_code,   type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: cbsa_code,   type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: cbsa_desc,  type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: necta_desc, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: cnecta_code,   type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: metdiv_code, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: place_desc, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: necta_code,    type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: state_desc,  type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: memi,       type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: nmemi,      type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: nectadiv_code, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: county_desc, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: cbsapci,    type: Bool}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: nectapci,   type: Bool}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: cnecta_desc,   type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: csa_desc,    type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: necta_desc,    type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: cbsa_desc,   type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: nectadiv_desc, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: metdiv_desc, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: place_desc,    type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: memi,        type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: nmemi,         type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: central_yn,  type: Bool}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: nectapci,      type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: CBSA Code,                                         to: cbsa_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: CBSA Code,                                  to: cbsa_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: FIPS State Code,                 to: state_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: FIPS State Code,                               to: state_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: CBSA Title,                                        to: cbsa_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: CBSA Title,                                 to: cbsa_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: NECTA Code,                      to: necta_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: FIPS County Code,                              to: county_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: CSA Code,                                          to: csa_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Principal City Name,                        to: place_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: NECTA Title,                     to: necta_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: NECTA Code,                                    to: necta_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: CSA Title,                                         to: csa_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: FIPS Place Code,                            to: place_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: FIPS Place Code,                 to: place_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: NECTA Title,                                   to: necta_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: [Metropolitan Division Code, Metro Division Code], to: metdiv_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: FIPS State Code,                            to: state_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Principal City Name,             to: place_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: NECTA Division Code,                           to: nectadiv_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Metropolitan Division Title,                       to: metdiv_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Metropolitan/Micropolitan Statistical Area, to: memi}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Metropolitan/Micropolitan NECTA, to: nmemi}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: NECTA Division Title,                          to: nectadiv_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: State Name,                                        to: state_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Combined NECTA Code,                           to: cnecta_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: FIPS State Code,                                   to: state_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Combined NECTA Title,                          to: cnecta_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: County/County Equivalent,                          to: county_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: [FIPS MCD Code, FIPS County Subdivision Code], to: cousub_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: FIPS County Code,                                  to: county_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: City or Town Name,                             to: place_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Metropolitan/Micropolitan Statistical Area,        to: memi}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Metropolitan/Micropolitan NECTA,               to: nmemi}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Central/Outlying County,                           to: central_yn}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: cbsapci, val: true}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: nectapci, val: true}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - name: list1.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - name: list4.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - name: list3.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sheet: List 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sheet: List4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sheet: List 3</t>
+  </si>
+  <si>
+    <t>#   range: A3:L1918</t>
+  </si>
+  <si>
+    <t>#   sheet: List 1</t>
+  </si>
+  <si>
+    <t>#   descriptor: 2018-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    sheet: List 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    range: A3:L1885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    descriptor: 2013-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from: [Central, Outlying]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:   [1, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col:  central_yn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:   [1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from: [Metropolitan Statistical Area, Micropolitan Statistical Area]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col:  memi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from: [Metropolitan Statistical Area, Micropolitan Statistical Area]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    range: A3:F61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: place_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - on:     "(?&lt;place_desc&gt;.*) city"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  place_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - on:     "(?&lt;place_desc&gt;.*) town"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from: [Metropolitan NECTA, Micropolitan NECTA]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:   [1, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col:  nmemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from:   [state_code, necta_code, place_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  file:   [scale, census_necta_cities.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:     [nectapci]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  input:  [state_code, necta_code, place_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  output: [nectapci]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:   [1, 2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from: [Metropolitan NECTA, Micropolitan NECTA]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col:  nmemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col:  nectapci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from: missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:   false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  output: level</t>
+  </si>
+  <si>
+    <t># - {col: updated,    type: Date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    range: A3:K876</t>
+  </si>
+  <si>
+    <t>#   sheet: List 3</t>
+  </si>
+  <si>
+    <t>#   range: A3:K891</t>
+  </si>
+  <si>
+    <t># - name: list2_Sep_2018.xlsx</t>
+  </si>
+  <si>
+    <t>#   sheet: List 2</t>
+  </si>
+  <si>
+    <t>#   range: A3:F1271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - name: list2.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    range: A3:F1252</t>
+  </si>
+  <si>
+    <t># - name: list4_Sep_2018.xlsx</t>
+  </si>
+  <si>
+    <t>#   sheet: List 4</t>
+  </si>
+  <si>
+    <t>#   range: A3:F62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col:  memi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:   [1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  on:     "(?&lt;level&gt;\\d*)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  file:   [parse, regions.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   [parse, bea.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   [parse, gsp.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   [parse, regions.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   [parse, naics.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  file:   [parse, sgf.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   [parse, sgf.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  file:   [parse, tech.csv]</t>
+  </si>
+  <si>
+    <t># - file:   [parse, units.csv]</t>
+  </si>
+  <si>
+    <t># - file:   [scale, census_cbsa.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 03statess.xlsx, sheet: 0300usst,                   range: "A3:CY65", descriptor: 2003}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 01statess.xlsx, sheet: 01stus-wy,                  range: "A3:EX64", descriptor: 2001}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 02statess.xlsx, sheet: 0200usst,                   range: "A3:CY64", descriptor: 2002}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 06statess.xlsx, sheet: 2006 State US-WY,           range: "A3:AZ64", descriptor: 2006}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 05statess.xlsx, sheet: Sheet1,                     range: "A3:AZ64", descriptor: 2005}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 07statess.xlsx, sheet: 2007 US-WY,                 range: "A3:AZ64", descriptor: 2007}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 08statess.xlsx, sheet: 2008 US-WY,                 range: "A3:AZ64", descriptor: 2008}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 09statess.xlsx, sheet: 2009 US-WY,                 range: "A3:AZ64", descriptor: 2009}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 10statess.xlsx, sheet: 2010 US-WY,                 range: "A3:AZ64", descriptor: 2010}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 11statess.xlsx, sheet: 2011 US-WY,                 range: "A3:AZ64", descriptor: 2011}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: 00statess.xlsx, sheet: TabStateGovFinSS (US-WY),   range: "A3:EX64", descriptor: 2000}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name:  97states.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP2N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP2N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP3N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP3N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP4N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP4N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP5N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP5N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP6N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP6N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP7N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP7N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP8N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP8N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP9N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP9N}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: MAGDP2_2001_2017_ALL_AREAS.csv,  descriptor: MAGDP2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: MAGDP8_2001_2017_ALL_AREAS.csv,  descriptor: MAGDP8}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: MAGDP9_2001_2017_ALL_AREAS.csv,  descriptor: MAGDP9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name:  GCP_Release_1.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: sgf_1997.csv,      descriptor: 1997}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: sgf_1998.csv,      descriptor: 1998}</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: category,  type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: bea_code,  type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: bea_desc,  type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: from,        to: bea_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: to,          to: bea_windc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sgf_desc,  type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: from,      type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  file:   [.., mapsources, WiNDC, windc_datastream, core_maps, gams, map_sgf.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: bea_all.csv,          descriptor: summary}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1529,8 +1995,20 @@
       <color theme="0"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1555,6 +2033,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1568,7 +2052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1588,10 +2072,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1905,14 +2393,1406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F1FC0-97F0-044C-906D-1FF8A7B5F9B8}">
-  <dimension ref="A1:V148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="15"/>
+    <col min="2" max="2" width="93" style="15" customWidth="1"/>
+    <col min="3" max="3" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="102" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="93.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="18" customFormat="1">
+      <c r="B1" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="16" customFormat="1"/>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="16" customFormat="1"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="16" customFormat="1"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="C10" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="C11" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="E12" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="16" customFormat="1"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="16" customFormat="1"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="16" customFormat="1"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="15" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="16" customFormat="1"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="16" customFormat="1"/>
+    <row r="40" spans="1:5">
+      <c r="A40" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="E41" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="E42" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="E43" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="16" customFormat="1"/>
+    <row r="45" spans="1:5">
+      <c r="A45" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="16" customFormat="1"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="16" customFormat="1"/>
+    <row r="53" spans="1:7">
+      <c r="A53" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="G54" s="15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="G55" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="G56" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="G57" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="G58" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="16" customFormat="1"/>
+    <row r="60" spans="1:7">
+      <c r="A60" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="E61" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="E62" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="E63" s="15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="E64" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="E65" s="15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="E66" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="E67" s="15" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="E68" s="15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="16" customFormat="1"/>
+    <row r="71" spans="1:7">
+      <c r="A71" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="G72" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="G73" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="G74" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="G75" s="15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="G76" s="15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="G77" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4987CBB-E748-D040-83F8-8A97947A4656}">
+  <dimension ref="A1:F90"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="93" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="6" width="93" style="4"/>
+    <col min="7" max="16384" width="93" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="B24" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="B26" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" s="19" t="s">
+        <v>532</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" s="19" t="s">
+        <v>534</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" s="20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="D60" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="D61" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="D62" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="D63" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="D64" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="D65" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="E76" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="E77" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="E78" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="E79" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="E80" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="B83" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="B84" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="B85" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="B86" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="B87" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="B88" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F1FC0-97F0-044C-906D-1FF8A7B5F9B8}">
+  <dimension ref="A1:V150"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1928,7 +3808,7 @@
     <col min="10" max="10" width="75.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="51.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="101" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92.83203125" style="13" customWidth="1"/>
     <col min="15" max="16" width="56.5" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="54.5" style="13" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="84.5" style="13" bestFit="1" customWidth="1"/>
@@ -1966,60 +3846,60 @@
         <v>7</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2075,71 +3955,69 @@
       <c r="V4" s="7"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>105</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>285</v>
+        <v>449</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>286</v>
+        <v>449</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>269</v>
+        <v>449</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="14" customFormat="1">
@@ -2149,8 +4027,8 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -2163,70 +4041,70 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>9</v>
+        <v>318</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>160</v>
+        <v>90</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>270</v>
+        <v>214</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="14" customFormat="1">
@@ -2236,8 +4114,8 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -2250,354 +4128,389 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>162</v>
+        <v>319</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="14" customFormat="1">
+      <c r="A10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="U9" s="4" t="s">
+      <c r="S11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="1"/>
-      <c r="B10" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1"/>
       <c r="B12" s="13" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>615</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>623</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+        <v>626</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="L12" s="1" t="s">
-        <v>175</v>
+        <v>614</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="O12" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="P12" s="1" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="R12" s="1"/>
+        <v>627</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="S12" s="1" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1"/>
       <c r="B13" s="13" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>616</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>624</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+        <v>379</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="L13" s="1" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+        <v>613</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="Q13" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" s="1"/>
+        <v>628</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="S13" s="1" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+        <v>261</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1"/>
+      <c r="B14" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>365</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>617</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>380</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="N14" s="1" t="s">
-        <v>184</v>
+        <v>604</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="Q14" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="T14" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1"/>
+      <c r="B15" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>363</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" s="1"/>
+        <v>618</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>381</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="N15" s="1" t="s">
-        <v>186</v>
+        <v>605</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="T15" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -2605,7 +4518,7 @@
     <row r="16" spans="1:22">
       <c r="A16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>619</v>
       </c>
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
@@ -2614,15 +4527,17 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>187</v>
+        <v>603</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -2630,7 +4545,7 @@
     <row r="17" spans="1:22">
       <c r="A17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>620</v>
       </c>
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
@@ -2639,7 +4554,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -2647,7 +4562,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -2655,7 +4570,7 @@
     <row r="18" spans="1:22">
       <c r="A18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>76</v>
+        <v>621</v>
       </c>
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
@@ -2664,7 +4579,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>189</v>
+        <v>607</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2672,14 +4587,16 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>622</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2687,7 +4604,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>190</v>
+        <v>606</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2695,14 +4612,16 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2710,7 +4629,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>191</v>
+        <v>608</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2718,7 +4637,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -2733,7 +4652,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>192</v>
+        <v>609</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2741,7 +4660,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -2756,645 +4675,613 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>193</v>
+        <v>610</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" s="14" customFormat="1">
-      <c r="A23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>194</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="P24" s="2"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="1"/>
-      <c r="B25" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="1:22" s="14" customFormat="1">
-      <c r="A26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+    <row r="25" spans="1:22" s="14" customFormat="1">
+      <c r="A25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" s="14" customFormat="1">
+      <c r="A28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="U29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="U28" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="V28" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="U29" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="V29" s="5" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="T30" s="5" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>431</v>
+        <v>15</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>394</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="S31" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="T31" s="5" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
+      </c>
+      <c r="V31" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="S32" s="1"/>
+        <v>220</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="T32" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="U32" s="5"/>
+        <v>280</v>
+      </c>
+      <c r="U32" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="V32" s="1" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>18</v>
+        <v>395</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
+        <v>308</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="R33" s="5" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
+      <c r="T33" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="V33" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="R34" s="5" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
+      <c r="T34" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="U34" s="5"/>
       <c r="V34" s="1" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="1"/>
       <c r="J35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -3402,24 +5289,43 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="V35" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="1"/>
+      <c r="B36" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="F36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="1"/>
       <c r="J36" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="5"/>
@@ -3428,16 +5334,30 @@
       <c r="O36" s="5"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
+      <c r="R36" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="V36" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="5"/>
@@ -3446,7 +5366,9 @@
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
+      <c r="R37" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -3454,11 +5376,15 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="I38" s="1"/>
       <c r="J38" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="5"/>
@@ -3467,7 +5393,6 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -3475,11 +5400,9 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="5"/>
@@ -3500,7 +5423,7 @@
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="5"/>
@@ -3521,7 +5444,7 @@
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="5"/>
@@ -3542,7 +5465,7 @@
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="5"/>
@@ -3563,7 +5486,7 @@
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="5"/>
@@ -3584,7 +5507,7 @@
       <c r="G44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="5"/>
@@ -3605,7 +5528,7 @@
       <c r="G45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="5"/>
@@ -3626,7 +5549,7 @@
       <c r="G46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="5"/>
@@ -3647,7 +5570,7 @@
       <c r="G47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="5"/>
@@ -3668,7 +5591,7 @@
       <c r="G48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="5"/>
@@ -3689,7 +5612,7 @@
       <c r="G49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="5"/>
@@ -3710,7 +5633,7 @@
       <c r="G50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="5"/>
@@ -3725,279 +5648,260 @@
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
     </row>
-    <row r="51" spans="1:22" s="14" customFormat="1">
-      <c r="A51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
+    <row r="51" spans="1:22">
+      <c r="A51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:22" s="14" customFormat="1">
+      <c r="A53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H54" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P54" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S52" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="13" customHeight="1">
-      <c r="A53" s="1"/>
-      <c r="B53" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="S53" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="13" customHeight="1">
-      <c r="A54" s="1"/>
-      <c r="B54" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1" t="s">
-        <v>259</v>
+        <v>21</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="T54" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="U54" s="1"/>
       <c r="V54" s="1" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="13" customHeight="1">
       <c r="A55" s="1"/>
+      <c r="B55" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>369</v>
+      </c>
       <c r="F55" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="P55" s="1" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="U55" s="1"/>
       <c r="V55" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="13" customHeight="1">
       <c r="A56" s="1"/>
+      <c r="B56" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>368</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>423</v>
+        <v>397</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="4"/>
+      <c r="R56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="V56" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="13" customHeight="1">
       <c r="A57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>388</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -4006,24 +5910,33 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
+      <c r="R57" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
+      <c r="V57" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4031,11 +5944,11 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
+      <c r="S58" s="4"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
@@ -4043,19 +5956,23 @@
     <row r="59" spans="1:22">
       <c r="A59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I59" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="P59" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -4063,37 +5980,43 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="1:22" s="14" customFormat="1">
-      <c r="A60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
+    <row r="60" spans="1:22">
+      <c r="A60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22">
-      <c r="A61" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="A61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
@@ -4105,36 +6028,36 @@
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
     </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
+    <row r="62" spans="1:22" s="14" customFormat="1">
+      <c r="A62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -4155,7 +6078,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>214</v>
+        <v>593</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -4176,7 +6099,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -4197,7 +6120,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -4210,106 +6133,84 @@
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
     </row>
-    <row r="67" spans="1:22" s="14" customFormat="1">
-      <c r="A67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
+    <row r="67" spans="1:22">
+      <c r="A67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="2"/>
-      <c r="H68" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="L68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-      <c r="R68" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
-      <c r="V68" s="1" t="s">
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="1:22" s="14" customFormat="1">
+      <c r="A69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22">
-      <c r="A69" s="1"/>
-      <c r="F69" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J69" s="1"/>
-      <c r="K69" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22">
-      <c r="A70" s="1"/>
-      <c r="F70" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="13" t="s">
-        <v>420</v>
+        <v>27</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="4" t="s">
-        <v>348</v>
+        <v>27</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -4318,30 +6219,30 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
       <c r="V70" s="1" t="s">
-        <v>281</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="1"/>
       <c r="F71" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G71" s="2"/>
-      <c r="H71" s="13" t="s">
-        <v>421</v>
+      <c r="H71" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="4" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -4350,61 +6251,83 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
       <c r="V71" s="1" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="1"/>
       <c r="F72" s="2" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="H72" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J72" s="1"/>
-      <c r="K72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
+      <c r="R72" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
+      <c r="V72" s="1" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="1"/>
       <c r="F73" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="H73" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J73" s="1"/>
-      <c r="K73" s="4"/>
+      <c r="K73" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
+      <c r="R73" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
+      <c r="V73" s="1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="1"/>
       <c r="F74" s="2" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G74" s="2"/>
       <c r="I74" s="2"/>
@@ -4422,347 +6345,309 @@
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
     </row>
-    <row r="75" spans="1:22" s="14" customFormat="1">
-      <c r="A75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
+    <row r="75" spans="1:22">
+      <c r="A75" s="1"/>
+      <c r="F75" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="1"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="F76" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="K76" s="4"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
-      <c r="T76" s="4" t="s">
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="1"/>
+    </row>
+    <row r="77" spans="1:22" s="14" customFormat="1">
+      <c r="A77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U76" s="4" t="s">
+      <c r="C78" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="V76" s="1"/>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="A77" s="1"/>
-      <c r="B77" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="N77" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="U77" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="V77" s="1"/>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="A78" s="1"/>
-      <c r="B78" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>405</v>
-      </c>
       <c r="D78" s="13" t="s">
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>405</v>
+        <v>31</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="4" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U78" s="4" t="s">
-        <v>321</v>
+        <v>31</v>
       </c>
       <c r="V78" s="1"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="1"/>
       <c r="B79" s="13" t="s">
-        <v>34</v>
+        <v>343</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>34</v>
+        <v>343</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>34</v>
+        <v>343</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>34</v>
+        <v>343</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>34</v>
+        <v>396</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="4" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>34</v>
+        <v>186</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
       <c r="T79" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="U79" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="1"/>
+      <c r="B80" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U80" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="V80" s="1"/>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="1"/>
+      <c r="B81" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="U79" s="4" t="s">
+      <c r="C81" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="V79" s="1"/>
-    </row>
-    <row r="80" spans="1:22" s="14" customFormat="1">
-      <c r="A80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="A81" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="D81" s="13" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
+      <c r="M81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-      <c r="R81" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S81" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
       <c r="T81" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="U81" s="1" t="s">
-        <v>134</v>
+        <v>34</v>
+      </c>
+      <c r="U81" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="V81" s="1"/>
     </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="1"/>
-      <c r="B82" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="S82" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="T82" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="U82" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="V82" s="1"/>
+    <row r="82" spans="1:22" s="14" customFormat="1">
+      <c r="A82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="B83" s="13" t="s">
-        <v>372</v>
+        <v>119</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>372</v>
+        <v>119</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>372</v>
+        <v>119</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -4771,761 +6656,791 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1" t="s">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="T83" s="4" t="s">
-        <v>324</v>
+        <v>119</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>325</v>
+        <v>119</v>
       </c>
       <c r="V83" s="1"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="1"/>
+      <c r="B84" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K84" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-      <c r="R84" s="1"/>
+      <c r="R84" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="S84" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="T84" s="4"/>
-      <c r="U84" s="1"/>
+        <v>289</v>
+      </c>
+      <c r="T84" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="V84" s="1"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="1"/>
+      <c r="B85" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>338</v>
+      </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K85" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
+      <c r="R85" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="S85" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="T85" s="4"/>
-      <c r="U85" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="T85" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="V85" s="1"/>
     </row>
-    <row r="86" spans="1:22" s="14" customFormat="1">
-      <c r="A86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
+    <row r="86" spans="1:22">
+      <c r="A86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="T86" s="4"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B87" s="13" t="s">
+      <c r="A87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="T87" s="4"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+    </row>
+    <row r="88" spans="1:22" s="14" customFormat="1">
+      <c r="A88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D89" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="E89" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H87" s="13" t="s">
+      <c r="H89" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J89" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M87" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N87" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O87" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P87" s="1" t="s">
+      <c r="P89" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="Q87" s="1"/>
-      <c r="R87" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S87" s="1"/>
-      <c r="T87" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U87" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V87" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22">
-      <c r="A88" s="1"/>
-      <c r="B88" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S88" s="1"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="V88" s="1"/>
-    </row>
-    <row r="89" spans="1:22">
-      <c r="A89" s="1"/>
-      <c r="B89" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="Q89" s="1"/>
       <c r="R89" s="1" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="S89" s="1"/>
-      <c r="T89" s="1"/>
+      <c r="T89" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="U89" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="V89" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="1"/>
       <c r="B90" s="13" t="s">
-        <v>381</v>
+        <v>594</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>408</v>
+        <v>594</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>381</v>
+        <v>594</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>408</v>
+        <v>594</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>38</v>
+        <v>595</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>38</v>
+        <v>595</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>141</v>
+        <v>597</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>141</v>
+        <v>597</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>223</v>
+        <v>598</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>224</v>
+        <v>599</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>224</v>
+        <v>599</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>224</v>
+        <v>599</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>224</v>
+        <v>599</v>
       </c>
       <c r="Q90" s="1"/>
       <c r="R90" s="1" t="s">
-        <v>141</v>
+        <v>597</v>
       </c>
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
       <c r="U90" s="4" t="s">
-        <v>214</v>
+        <v>600</v>
       </c>
       <c r="V90" s="1"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="1"/>
       <c r="B91" s="13" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="Q91" s="1"/>
       <c r="R91" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
       <c r="U91" s="4" t="s">
-        <v>329</v>
+        <v>182</v>
       </c>
       <c r="V91" s="1"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="1"/>
       <c r="B92" s="13" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="Q92" s="1"/>
       <c r="R92" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
       <c r="U92" s="4" t="s">
-        <v>330</v>
+        <v>183</v>
       </c>
       <c r="V92" s="1"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="1"/>
       <c r="B93" s="13" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L93" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="M93" s="1" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="Q93" s="1"/>
       <c r="R93" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="S93" s="1"/>
-      <c r="T93" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="T93" s="1"/>
+      <c r="U93" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="V93" s="1"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="1"/>
       <c r="B94" s="13" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L94" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="M94" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="Q94" s="1"/>
       <c r="R94" s="1" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="S94" s="1"/>
-      <c r="T94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U94" s="1"/>
-      <c r="V94" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="T94" s="1"/>
+      <c r="U94" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="V94" s="1"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="1"/>
       <c r="B95" s="13" t="s">
-        <v>384</v>
+        <v>594</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>384</v>
+        <v>594</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>384</v>
+        <v>594</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>384</v>
+        <v>594</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>95</v>
+        <v>602</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="S95" s="1"/>
       <c r="T95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="U95" s="1"/>
       <c r="V95" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="1"/>
       <c r="B96" s="13" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="S96" s="1"/>
       <c r="T96" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="U96" s="1"/>
       <c r="V96" s="1" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="1"/>
       <c r="B97" s="13" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="Q97" s="1"/>
       <c r="R97" s="1" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="S97" s="1"/>
       <c r="T97" s="1" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="U97" s="1"/>
       <c r="V97" s="1" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="B98" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="I98" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
+      <c r="M98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="Q98" s="1"/>
       <c r="R98" s="1" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
+      <c r="T98" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="U98" s="1"/>
       <c r="V98" s="1" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="B99" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="I99" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
+      <c r="M99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="Q99" s="1"/>
       <c r="R99" s="1" t="s">
-        <v>37</v>
+        <v>196</v>
       </c>
       <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
+      <c r="T99" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="U99" s="1"/>
       <c r="V99" s="1" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:22">
@@ -5533,7 +7448,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>46</v>
+        <v>601</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -5544,13 +7459,13 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
       <c r="R100" s="1" t="s">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1" t="s">
-        <v>46</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -5558,7 +7473,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -5569,13 +7484,13 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
       <c r="R101" s="1" t="s">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
       <c r="U101" s="1"/>
       <c r="V101" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -5583,7 +7498,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -5594,179 +7509,127 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
       <c r="R102" s="1" t="s">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
       <c r="U102" s="1"/>
       <c r="V102" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" s="14" customFormat="1">
-      <c r="A103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="A103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="I103" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="104" spans="1:22">
-      <c r="A104" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I104" s="2"/>
-      <c r="J104" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="I104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
+      <c r="R104" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
       <c r="U104" s="1"/>
       <c r="V104" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22">
-      <c r="A105" s="1"/>
-      <c r="B105" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I105" s="2"/>
-      <c r="J105" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1" t="s">
-        <v>230</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" s="14" customFormat="1">
+      <c r="A105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+      <c r="M105" s="7"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7"/>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
     </row>
     <row r="106" spans="1:22">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="B106" s="13" t="s">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="1" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>350</v>
+        <v>83</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>232</v>
+        <v>83</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
@@ -5774,50 +7637,50 @@
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
       <c r="V106" s="1" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="1"/>
       <c r="B107" s="13" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
@@ -5825,50 +7688,110 @@
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="1"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
+      <c r="B108" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="I108" s="2"/>
       <c r="J108" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K108" s="4"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
       <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
+      <c r="V108" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="1"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
+      <c r="B109" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="I109" s="2"/>
       <c r="J109" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="K109" s="4"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
       <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
+      <c r="V109" s="1" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="1"/>
@@ -5876,7 +7799,7 @@
       <c r="G110" s="4"/>
       <c r="I110" s="2"/>
       <c r="J110" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="K110" s="4"/>
       <c r="L110" s="1"/>
@@ -5897,7 +7820,7 @@
       <c r="G111" s="4"/>
       <c r="I111" s="2"/>
       <c r="J111" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="K111" s="4"/>
       <c r="L111" s="1"/>
@@ -5918,7 +7841,7 @@
       <c r="G112" s="4"/>
       <c r="I112" s="2"/>
       <c r="J112" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K112" s="4"/>
       <c r="L112" s="1"/>
@@ -5939,7 +7862,7 @@
       <c r="G113" s="4"/>
       <c r="I113" s="2"/>
       <c r="J113" s="1" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="K113" s="4"/>
       <c r="L113" s="1"/>
@@ -5954,236 +7877,231 @@
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
     </row>
-    <row r="114" spans="1:22" s="14" customFormat="1">
-      <c r="A114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
+    <row r="114" spans="1:22">
+      <c r="A114" s="1"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K114" s="4"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
     </row>
     <row r="115" spans="1:22">
-      <c r="A115" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K115" s="1"/>
-      <c r="L115" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N115" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K115" s="4"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="R115" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="R115" s="1"/>
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
-      <c r="V115" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22">
-      <c r="A116" s="1"/>
-      <c r="F116" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K116" s="1"/>
-      <c r="L116" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="N116" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S116" s="1"/>
-      <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
-      <c r="V116" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="V115" s="1"/>
+    </row>
+    <row r="116" spans="1:22" s="14" customFormat="1">
+      <c r="A116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7"/>
+      <c r="L116" s="7"/>
+      <c r="M116" s="7"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="7"/>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7"/>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="F117" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H117" s="13" t="s">
-        <v>427</v>
+        <v>47</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
       <c r="U117" s="1"/>
       <c r="V117" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>240</v>
+        <v>87</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>390</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="2" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="O118" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>52</v>
+        <v>203</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="Q118" s="1"/>
       <c r="R118" s="1" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
       <c r="U118" s="1"/>
       <c r="V118" s="1" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>391</v>
+      </c>
       <c r="I119" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K119" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="K119" s="1"/>
       <c r="L119" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
       <c r="U119" s="1"/>
       <c r="V119" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="I120" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K120" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="K120" s="1"/>
       <c r="L120" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="Q120" s="1"/>
+      <c r="R120" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
       <c r="U120" s="1"/>
       <c r="V120" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -6191,71 +8109,78 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" s="2" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
       <c r="V121" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
       <c r="I122" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="K122" s="3"/>
+      <c r="L122" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="V122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="1"/>
-      <c r="F123" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
       <c r="I123" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="K123" s="3"/>
+      <c r="L123" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-      <c r="V123" s="1"/>
+      <c r="V123" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -6268,6 +8193,15 @@
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="1"/>
+      <c r="F125" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -6279,6 +8213,15 @@
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="1"/>
+      <c r="F126" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -6363,6 +8306,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
+      <c r="V133" s="1"/>
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="1"/>
@@ -6373,6 +8317,7 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
+      <c r="V134" s="1"/>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="1"/>
@@ -6435,6 +8380,7 @@
       <c r="Q140" s="1"/>
     </row>
     <row r="141" spans="1:22">
+      <c r="A141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
@@ -6444,6 +8390,7 @@
       <c r="Q141" s="1"/>
     </row>
     <row r="142" spans="1:22">
+      <c r="A142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -6463,425 +8410,36 @@
     </row>
     <row r="144" spans="1:22">
       <c r="K144" s="1"/>
-    </row>
-    <row r="145" spans="11:11">
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+    </row>
+    <row r="145" spans="11:17">
       <c r="K145" s="1"/>
-    </row>
-    <row r="146" spans="11:11">
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+    </row>
+    <row r="146" spans="11:17">
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="11:11">
+    <row r="147" spans="11:17">
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="11:11">
+    <row r="148" spans="11:17">
       <c r="K148" s="1"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
-  <dimension ref="A1:G77"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="16"/>
-    <col min="2" max="2" width="92.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="102" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="92.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="102" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="17" customFormat="1"/>
-    <row r="5" spans="1:7">
-      <c r="A5" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="17" customFormat="1"/>
-    <row r="7" spans="1:7">
-      <c r="A7" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1"/>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="16" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="D13" s="16" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="17" customFormat="1"/>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="17" customFormat="1"/>
-    <row r="18" spans="1:6">
-      <c r="A18" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="B20" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" s="16" t="s">
-        <v>459</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="17" customFormat="1"/>
-    <row r="24" spans="1:6">
-      <c r="A24" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" s="16" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="17" customFormat="1"/>
-    <row r="33" spans="1:4">
-      <c r="A33" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="17" customFormat="1"/>
-    <row r="40" spans="1:4">
-      <c r="A40" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="D41" s="16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="D42" s="16" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="D43" s="16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="17" customFormat="1"/>
-    <row r="45" spans="1:4">
-      <c r="A45" s="16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="17" customFormat="1"/>
-    <row r="50" spans="1:6">
-      <c r="A50" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="17" customFormat="1"/>
-    <row r="53" spans="1:6">
-      <c r="A53" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="F54" s="16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="F55" s="16" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="F56" s="16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="F57" s="16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="F58" s="16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="17" customFormat="1"/>
-    <row r="60" spans="1:6">
-      <c r="A60" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="D61" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="D62" s="16" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="D63" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="D64" s="16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="D65" s="16" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="D66" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="D67" s="16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="D68" s="16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="17" customFormat="1"/>
-    <row r="71" spans="1:6">
-      <c r="A71" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="F72" s="16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="F73" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="F74" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="F75" s="16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="F76" s="16" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="F77" s="16" t="s">
-        <v>52</v>
-      </c>
+    <row r="149" spans="11:17">
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="11:17">
+      <c r="K150" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D5E0D8-4D3B-E647-9EB4-D94AC4808D35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116683E-2C44-7C4E-A34A-2F7A192E0326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_parse" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="678">
   <si>
     <t>bea_supply</t>
   </si>
@@ -2060,6 +2060,15 @@
   </si>
   <si>
     <t xml:space="preserve">    from: "(D)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col:  category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from: goods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:   gds</t>
   </si>
 </sst>
 </file>
@@ -2500,11 +2509,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3025,21 +3034,57 @@
       <c r="A61" s="15" t="s">
         <v>302</v>
       </c>
+      <c r="C61" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="G61" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:10">
+      <c r="C62" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>675</v>
+      </c>
       <c r="G62" s="15" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:10">
+      <c r="C63" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>676</v>
+      </c>
       <c r="G63" s="15" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:10">
+      <c r="C64" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>677</v>
+      </c>
       <c r="G64" s="15" t="s">
         <v>379</v>
       </c>
@@ -4062,11 +4107,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F1FC0-97F0-044C-906D-1FF8A7B5F9B8}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H102" sqref="H102"/>
+      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116683E-2C44-7C4E-A34A-2F7A192E0326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DAFF50-3C4F-8B4B-BEBA-6EEE92F00A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="-2640" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_parse" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="676">
   <si>
     <t>bea_supply</t>
   </si>
@@ -1201,9 +1201,6 @@
     <t xml:space="preserve">  output: sgf_windc</t>
   </si>
   <si>
-    <t>missing_temp_bea_det</t>
-  </si>
-  <si>
     <t>gsp</t>
   </si>
   <si>
@@ -1847,9 +1844,6 @@
   </si>
   <si>
     <t>Path: [.., data, mapsources]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, mapsources, WiNDC, windc_build, build_files, maps]</t>
   </si>
   <si>
     <t>Path: [.., data, mapsources, WiNDC, windc_datastream, core_maps]</t>
@@ -2507,51 +2501,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="15"/>
-    <col min="2" max="4" width="93" style="15" customWidth="1"/>
-    <col min="5" max="5" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="92.83203125" style="15" customWidth="1"/>
-    <col min="7" max="8" width="67" style="15" customWidth="1"/>
-    <col min="9" max="9" width="92.83203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="102" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="93.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="92.83203125" style="15" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="15"/>
+    <col min="2" max="3" width="93" style="15" customWidth="1"/>
+    <col min="4" max="4" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.83203125" style="15" customWidth="1"/>
+    <col min="6" max="7" width="67" style="15" customWidth="1"/>
+    <col min="8" max="8" width="92.83203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="102" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="93.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="92.83203125" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1">
+    <row r="1" spans="1:11" s="9" customFormat="1">
       <c r="B1" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>389</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>596</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>391</v>
@@ -2560,133 +2554,127 @@
         <v>392</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="E2" s="15" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1"/>
-    <row r="4" spans="1:12">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="D2" s="15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="16" customFormat="1"/>
+    <row r="4" spans="1:11">
       <c r="B4" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>396</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>396</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1"/>
-    <row r="6" spans="1:12">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="16" customFormat="1"/>
+    <row r="6" spans="1:11">
       <c r="A6" s="15" t="s">
         <v>291</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>607</v>
-      </c>
       <c r="H6" s="15" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>603</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1"/>
-    <row r="8" spans="1:12">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="16" customFormat="1"/>
+    <row r="8" spans="1:11">
       <c r="A8" s="15" t="s">
         <v>292</v>
       </c>
+      <c r="B8" s="15" t="s">
+        <v>660</v>
+      </c>
       <c r="C8" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>663</v>
+        <v>607</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="I8" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="K8" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="16" customFormat="1"/>
-    <row r="10" spans="1:12">
+    </row>
+    <row r="9" spans="1:11" s="16" customFormat="1"/>
+    <row r="10" spans="1:11">
       <c r="A10" s="15" t="s">
         <v>293</v>
       </c>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="15" t="s">
         <v>8</v>
       </c>
@@ -2697,474 +2685,471 @@
         <v>8</v>
       </c>
       <c r="F10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>129</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="15" t="s">
+        <v>666</v>
+      </c>
       <c r="C11" s="15" t="s">
-        <v>668</v>
+        <v>371</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="D12" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="F11" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="F12" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="L11" s="15" t="s">
+      <c r="I12" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="E12" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="F12" s="15" t="s">
+    <row r="13" spans="1:11">
+      <c r="E13" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="F13" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="F13" s="15" t="s">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="E14" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="I13" s="15" t="s">
+      <c r="F14" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="F14" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="16" customFormat="1"/>
-    <row r="16" spans="1:12">
+    <row r="15" spans="1:11" s="16" customFormat="1"/>
+    <row r="16" spans="1:11">
       <c r="A16" s="15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="16" customFormat="1"/>
-    <row r="19" spans="1:10">
+    <row r="18" spans="1:9" s="16" customFormat="1"/>
+    <row r="19" spans="1:9">
       <c r="A19" s="15" t="s">
         <v>295</v>
       </c>
+      <c r="B19" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="C19" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="F19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="15" t="s">
+        <v>565</v>
+      </c>
       <c r="C20" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="G20" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="C21" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="F21" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="15" t="s">
+        <v>373</v>
+      </c>
       <c r="C22" s="15" t="s">
         <v>373</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="J22" s="15" t="s">
+      <c r="F22" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:9">
+      <c r="B23" s="15" t="s">
+        <v>564</v>
+      </c>
       <c r="C23" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="J23" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="16" customFormat="1"/>
-    <row r="25" spans="1:10">
+    <row r="24" spans="1:9" s="16" customFormat="1"/>
+    <row r="25" spans="1:9">
       <c r="A25" s="15" t="s">
         <v>296</v>
       </c>
+      <c r="B25" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="C25" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="15" t="s">
+        <v>567</v>
+      </c>
       <c r="C26" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>567</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="15" t="s">
+        <v>375</v>
+      </c>
       <c r="C27" s="15" t="s">
         <v>375</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="F27" s="15" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="B28" s="15" t="s">
+        <v>568</v>
+      </c>
       <c r="C28" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="16" customFormat="1"/>
-    <row r="34" spans="1:7">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="16" customFormat="1"/>
+    <row r="34" spans="1:6">
       <c r="A34" s="15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="16" customFormat="1"/>
-    <row r="41" spans="1:7">
+    <row r="40" spans="1:6" s="16" customFormat="1"/>
+    <row r="41" spans="1:6">
       <c r="A41" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="F41" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="G42" s="15" t="s">
+    <row r="42" spans="1:6">
+      <c r="F42" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="G43" s="15" t="s">
+    <row r="43" spans="1:6">
+      <c r="F43" s="15" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="G44" s="15" t="s">
+    <row r="44" spans="1:6">
+      <c r="F44" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="16" customFormat="1"/>
-    <row r="46" spans="1:7">
+    <row r="45" spans="1:6" s="16" customFormat="1"/>
+    <row r="46" spans="1:6">
       <c r="A46" s="15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="16" customFormat="1"/>
-    <row r="51" spans="1:10">
+    <row r="50" spans="1:9" s="16" customFormat="1"/>
+    <row r="51" spans="1:9">
       <c r="A51" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="16" customFormat="1"/>
-    <row r="54" spans="1:10">
+    <row r="53" spans="1:9" s="16" customFormat="1"/>
+    <row r="54" spans="1:9">
       <c r="A54" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="J54" s="15" t="s">
+      <c r="I54" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="J55" s="15" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="J56" s="15" t="s">
+    <row r="55" spans="1:9">
+      <c r="I55" s="15" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="I56" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="J57" s="15" t="s">
+    <row r="57" spans="1:9">
+      <c r="I57" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="J58" s="15" t="s">
+    <row r="58" spans="1:9">
+      <c r="I58" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="J59" s="15" t="s">
+    <row r="59" spans="1:9">
+      <c r="I59" s="15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="16" customFormat="1"/>
-    <row r="61" spans="1:10">
+    <row r="60" spans="1:9" s="16" customFormat="1"/>
+    <row r="61" spans="1:9">
       <c r="A61" s="15" t="s">
         <v>302</v>
       </c>
+      <c r="B61" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="C61" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E61" s="15" t="s">
+      <c r="F61" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G61" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+    </row>
+    <row r="62" spans="1:9">
+      <c r="B62" s="15" t="s">
+        <v>673</v>
+      </c>
       <c r="C62" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="B63" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="D64" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="G62" s="15" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="C63" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="C64" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="G64" s="15" t="s">
+      <c r="F64" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="G65" s="15" t="s">
+    <row r="65" spans="1:9">
+      <c r="F65" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="G66" s="15" t="s">
+    <row r="66" spans="1:9">
+      <c r="F66" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
-      <c r="G67" s="15" t="s">
+    <row r="67" spans="1:9">
+      <c r="F67" s="15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
-      <c r="G68" s="15" t="s">
+    <row r="68" spans="1:9">
+      <c r="F68" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="G69" s="15" t="s">
+    <row r="69" spans="1:9">
+      <c r="F69" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="16" customFormat="1"/>
-    <row r="72" spans="1:10">
+    <row r="71" spans="1:9" s="16" customFormat="1"/>
+    <row r="72" spans="1:9">
       <c r="A72" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="J72" s="15" t="s">
+      <c r="I72" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="J73" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="J74" s="15" t="s">
+    <row r="73" spans="1:9">
+      <c r="I73" s="15" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="I74" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="J75" s="15" t="s">
+    <row r="75" spans="1:9">
+      <c r="I75" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="J76" s="15" t="s">
+    <row r="76" spans="1:9">
+      <c r="I76" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
-      <c r="J77" s="15" t="s">
+    <row r="77" spans="1:9">
+      <c r="I77" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="J78" s="15" t="s">
+    <row r="78" spans="1:9">
+      <c r="I78" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
-      <c r="J79" s="15" t="s">
+    <row r="79" spans="1:9">
+      <c r="I79" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="J80" s="15" t="s">
+    <row r="80" spans="1:9">
+      <c r="I80" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="81" spans="10:10">
-      <c r="J81" s="15" t="s">
+    <row r="81" spans="9:9">
+      <c r="I81" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3178,11 +3163,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4987CBB-E748-D040-83F8-8A97947A4656}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1"/>
+      <selection activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="93" defaultRowHeight="14"/>
@@ -3195,36 +3181,36 @@
     <row r="1" spans="1:6" s="18" customFormat="1">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>404</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3240,19 +3226,19 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3268,19 +3254,19 @@
         <v>292</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3313,120 +3299,120 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3456,16 +3442,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3498,184 +3484,184 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>431</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3705,131 +3691,131 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3866,50 +3852,50 @@
     </row>
     <row r="60" spans="1:6">
       <c r="D60" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3946,10 +3932,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3970,27 +3956,27 @@
     </row>
     <row r="76" spans="1:6">
       <c r="E76" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="E77" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="E78" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="E79" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="E80" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4020,68 +4006,68 @@
     </row>
     <row r="83" spans="1:6">
       <c r="B83" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4107,11 +4093,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F1FC0-97F0-044C-906D-1FF8A7B5F9B8}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F69" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4223,67 +4210,67 @@
     <row r="4" spans="1:22" s="5" customFormat="1"/>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1"/>
@@ -4292,67 +4279,67 @@
         <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>634</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1">
@@ -4364,67 +4351,67 @@
         <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="R9" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1"/>
@@ -4510,13 +4497,13 @@
         <v>333</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
@@ -4528,7 +4515,7 @@
         <v>276</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>130</v>
@@ -4543,7 +4530,7 @@
         <v>133</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>197</v>
@@ -4575,10 +4562,10 @@
         <v>331</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>345</v>
@@ -4599,7 +4586,7 @@
         <v>135</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>136</v>
@@ -4608,7 +4595,7 @@
         <v>137</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>198</v>
@@ -4640,10 +4627,10 @@
         <v>334</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>346</v>
@@ -4655,7 +4642,7 @@
         <v>139</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>140</v>
@@ -4684,7 +4671,7 @@
         <v>332</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>55</v>
@@ -4699,7 +4686,7 @@
         <v>143</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>144</v>
@@ -4713,10 +4700,10 @@
     </row>
     <row r="16" spans="1:22">
       <c r="F16" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>145</v>
@@ -4727,7 +4714,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="F17" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>146</v>
@@ -4738,10 +4725,10 @@
     </row>
     <row r="18" spans="1:22">
       <c r="F18" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>244</v>
@@ -4749,10 +4736,10 @@
     </row>
     <row r="19" spans="1:22">
       <c r="F19" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>245</v>
@@ -4763,7 +4750,7 @@
         <v>56</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>246</v>
@@ -4771,7 +4758,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="N21" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>247</v>
@@ -4779,7 +4766,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="N22" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>248</v>
@@ -4787,7 +4774,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="N23" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>249</v>
@@ -4795,7 +4782,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="N24" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="5" customFormat="1"/>
@@ -5813,7 +5800,7 @@
     </row>
     <row r="64" spans="1:22">
       <c r="L64" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -6206,7 +6193,7 @@
         <v>308</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>112</v>
@@ -6310,55 +6297,55 @@
     </row>
     <row r="90" spans="1:22">
       <c r="B90" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="I90" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="I90" s="13" t="s">
-        <v>667</v>
-      </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="K90" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="N90" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="U90" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6575,52 +6562,52 @@
     </row>
     <row r="95" spans="1:22">
       <c r="B95" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6825,19 +6812,19 @@
     </row>
     <row r="100" spans="1:22">
       <c r="F100" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -6876,13 +6863,13 @@
     </row>
     <row r="103" spans="1:22">
       <c r="F103" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="R103" s="1" t="s">
         <v>215</v>
@@ -6893,13 +6880,13 @@
     </row>
     <row r="104" spans="1:22">
       <c r="F104" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="R104" s="1" t="s">
         <v>216</v>
@@ -7028,7 +7015,7 @@
         <v>78</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="1" t="s">

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DAFF50-3C4F-8B4B-BEBA-6EEE92F00A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30449316-00E0-544D-875B-127883D6B76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2640" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_parse" sheetId="2" r:id="rId1"/>
     <sheet name="map_scale" sheetId="3" r:id="rId2"/>
-    <sheet name="parse" sheetId="1" r:id="rId3"/>
+    <sheet name="parse" sheetId="4" r:id="rId3"/>
+    <sheet name="parse_0" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="702">
   <si>
     <t>bea_supply</t>
   </si>
@@ -1159,9 +1160,6 @@
     <t xml:space="preserve">  - {col: bea_windc, type: String}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: sgf_windc, type: Any}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {from: description, to: bea_desc}</t>
   </si>
   <si>
@@ -1198,9 +1196,6 @@
     <t xml:space="preserve">    val: unique</t>
   </si>
   <si>
-    <t xml:space="preserve">  output: sgf_windc</t>
-  </si>
-  <si>
     <t>gsp</t>
   </si>
   <si>
@@ -1222,12 +1217,6 @@
     <t xml:space="preserve">  descriptor: units</t>
   </si>
   <si>
-    <t>Complete: true</t>
-  </si>
-  <si>
-    <t>Complete: false</t>
-  </si>
-  <si>
     <t>census_cbsa</t>
   </si>
   <si>
@@ -1744,15 +1733,6 @@
     <t xml:space="preserve">  - {from: to,          to: bea_windc}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: sgf_desc,  type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: from,      type: Any}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  file:   [.., mapsources, WiNDC, windc_datastream, core_maps, gams, map_sgf.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {name: bea_all.csv,          descriptor: summary}</t>
   </si>
   <si>
@@ -1768,12 +1748,6 @@
     <t xml:space="preserve">  - {col: naics_desc,  type: String}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - col: ["line_num_1997", "line_num_1998", "line_num_1999", "line_num_2000", "line_num_2001", "line_num_2002", "line_num_2003", "line_num_2004", "line_num_2005", "line_num_2006", "line_num_2007", "line_num_2008", "line_num_2009", "line_num_2010", "line_num_2011"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {from: to, to: sgf_windc}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: national_industry_code, type: String}</t>
   </si>
   <si>
@@ -2063,6 +2037,111 @@
   </si>
   <si>
     <t xml:space="preserve">  to:   gds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name:  cfs_2012_pum_file_users_guide_App_A (Jun 2015).xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sheet: App A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  range: A2:C46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  descriptor: sctg</t>
+  </si>
+  <si>
+    <t>PathOut: [.., data, coremaps, parse, sctg.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sctg_desc,  type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sctg_code,  type: Any}</t>
+  </si>
+  <si>
+    <t>sctg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Description, to: sctg_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: SCTG,        to: sctg_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: SCTG Group,  to: sctg_group}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  file:   ../mapsources/WiNDC/windc_build/build_files/maps/mapcfs.map</t>
+  </si>
+  <si>
+    <t># file:   [.., mapsources, WiNDC, windc_build, build_files, maps, mapcfs.map]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  input:  sctg_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from:   missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: windc_code, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  output: windc_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:     missing_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: to, to: sgf_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col: [line_num_1997, line_num_1998, line_num_1999, line_num_2000, line_num_2001, line_num_2002, line_num_2003, line_num_2004, line_num_2005, line_num_2006, line_num_2007, line_num_2008, line_num_2009, line_num_2010, line_num_2011]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   [.., mapsources, WiNDC, windc_datastream, core_maps, gams, map_sgf.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: sgf_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  sgf_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: windc_code</t>
+  </si>
+  <si>
+    <t># - file:   [.., mapsources, WiNDC, windc_build, build_files, maps, mapsgf.map]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: units,      type: Any}</t>
+  </si>
+  <si>
+    <t># - {col: sctg_group, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   ../mapsources/WiNDC/windc_build/build_files/maps/mapsgf.map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from:   missing_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:     missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sgf_code,   type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: from,       type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sgf_desc,   type: String}</t>
+  </si>
+  <si>
+    <t>Editable: true</t>
+  </si>
+  <si>
+    <t>Editable: false</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2259,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2501,13 +2590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2517,158 +2606,170 @@
     <col min="4" max="4" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="92.83203125" style="15" customWidth="1"/>
     <col min="6" max="7" width="67" style="15" customWidth="1"/>
-    <col min="8" max="8" width="92.83203125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="102" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="93.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="92.83203125" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="15"/>
+    <col min="8" max="9" width="92.83203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="102" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="93.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="92.83203125" style="15" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1">
+    <row r="1" spans="1:12" s="9" customFormat="1">
       <c r="B1" s="9" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>362</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="9" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="D2" s="15" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="16" customFormat="1"/>
-    <row r="4" spans="1:11">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="16" customFormat="1"/>
+    <row r="4" spans="1:12">
       <c r="B4" s="15" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>396</v>
+        <v>701</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>396</v>
+        <v>700</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>395</v>
+        <v>701</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="16" customFormat="1"/>
-    <row r="6" spans="1:11">
+        <v>700</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="16" customFormat="1"/>
+    <row r="6" spans="1:12">
       <c r="A6" s="15" t="s">
         <v>291</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="16" customFormat="1"/>
-    <row r="8" spans="1:11">
+        <v>595</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="16" customFormat="1"/>
+    <row r="8" spans="1:12">
       <c r="A8" s="15" t="s">
         <v>292</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>611</v>
+        <v>671</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>612</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="16" customFormat="1"/>
-    <row r="10" spans="1:11">
+        <v>602</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="16" customFormat="1"/>
+    <row r="10" spans="1:12">
       <c r="A10" s="15" t="s">
         <v>293</v>
       </c>
@@ -2693,104 +2794,119 @@
       <c r="H10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="B11" s="15" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>371</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>365</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="I11" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="J11" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="D12" s="15" t="s">
         <v>371</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>366</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="I12" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="E13" s="15" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>367</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>591</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="E14" s="15" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>368</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="16" customFormat="1"/>
-    <row r="16" spans="1:11">
+        <v>592</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="16" customFormat="1"/>
+    <row r="16" spans="1:12">
       <c r="A16" s="15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="16" customFormat="1"/>
-    <row r="19" spans="1:9">
+    <row r="18" spans="1:10" s="16" customFormat="1"/>
+    <row r="19" spans="1:10">
       <c r="A19" s="15" t="s">
         <v>295</v>
       </c>
@@ -2809,42 +2925,51 @@
       <c r="I19" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="B20" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F20" s="15" t="s">
         <v>204</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>673</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="B21" s="15" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>672</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="B22" s="15" t="s">
         <v>373</v>
       </c>
@@ -2855,301 +2980,375 @@
         <v>373</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="I22" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="J24" s="15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="16" customFormat="1"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="B27" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="B28" s="15" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="15" t="s">
+      <c r="C28" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="16" customFormat="1"/>
-    <row r="25" spans="1:9">
-      <c r="A25" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="16" customFormat="1"/>
-    <row r="34" spans="1:6">
-      <c r="A34" s="15" t="s">
+      <c r="I29" s="15" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="16" customFormat="1"/>
+    <row r="35" spans="1:6">
+      <c r="A35" s="15" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="16" customFormat="1"/>
-    <row r="41" spans="1:6">
-      <c r="A41" s="15" t="s">
+    <row r="41" spans="1:6" s="16" customFormat="1"/>
+    <row r="42" spans="1:6">
+      <c r="A42" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F42" s="15" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="F42" s="15" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="F43" s="15" t="s">
-        <v>287</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="F44" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="F45" s="15" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="16" customFormat="1"/>
-    <row r="46" spans="1:6">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:6" s="16" customFormat="1"/>
+    <row r="47" spans="1:6">
+      <c r="A47" s="15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="16" customFormat="1"/>
-    <row r="51" spans="1:9">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:10" s="16" customFormat="1"/>
+    <row r="52" spans="1:10">
+      <c r="A52" s="15" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="16" customFormat="1"/>
-    <row r="54" spans="1:9">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:10" s="16" customFormat="1"/>
+    <row r="55" spans="1:10">
+      <c r="A55" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="I55" s="15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="I55" s="15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="I56" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>679</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="I57" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>678</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="I58" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>681</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="I59" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="16" customFormat="1"/>
-    <row r="61" spans="1:9">
-      <c r="A61" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="I60" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="I61" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="J62" s="15" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="J63" s="15" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="J64" s="15" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="J65" s="15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="J66" s="15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="16" customFormat="1"/>
+    <row r="68" spans="1:10">
+      <c r="A68" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B68" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D68" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F61" s="15" t="s">
+      <c r="F68" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="B62" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="F62" s="15" t="s">
+    <row r="69" spans="1:10">
+      <c r="B69" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="B70" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="F70" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="B63" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="F63" s="15" t="s">
+    <row r="71" spans="1:10">
+      <c r="B71" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="F71" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="B64" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="F64" s="15" t="s">
+    <row r="72" spans="1:10">
+      <c r="F72" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="F65" s="15" t="s">
+    <row r="73" spans="1:10">
+      <c r="F73" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="F66" s="15" t="s">
+    <row r="74" spans="1:10">
+      <c r="F74" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="F67" s="15" t="s">
+    <row r="75" spans="1:10">
+      <c r="F75" s="15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="F68" s="15" t="s">
+    <row r="76" spans="1:10">
+      <c r="F76" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="F69" s="15" t="s">
+    <row r="78" spans="1:10" s="16" customFormat="1"/>
+    <row r="79" spans="1:10">
+      <c r="A79" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="J80" s="15" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="16" customFormat="1"/>
-    <row r="72" spans="1:9">
-      <c r="A72" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="I72" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="I73" s="15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="I74" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="I75" s="15" t="s">
+    <row r="84" spans="10:10">
+      <c r="J84" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="I76" s="15" t="s">
+    <row r="86" spans="10:10">
+      <c r="J86" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10">
+      <c r="J87" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="I77" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="I78" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="I79" s="15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="I80" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="81" spans="9:9">
-      <c r="I81" s="15" t="s">
+    <row r="88" spans="10:10">
+      <c r="J88" s="15" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3164,11 +3363,11 @@
   <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B33" sqref="B33"/>
       <selection pane="topRight" activeCell="B33" sqref="B33"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="93" defaultRowHeight="14"/>
@@ -3181,36 +3380,36 @@
     <row r="1" spans="1:6" s="18" customFormat="1">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>401</v>
-      </c>
       <c r="D1" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>396</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3226,19 +3425,19 @@
         <v>291</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3254,19 +3453,19 @@
         <v>292</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3299,120 +3498,120 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3442,16 +3641,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3484,184 +3683,184 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="2" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3691,131 +3890,131 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="10" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="10" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="10" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="10" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="10" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="10" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="10" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="10" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3852,50 +4051,50 @@
     </row>
     <row r="60" spans="1:6">
       <c r="D60" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3932,10 +4131,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3956,27 +4155,27 @@
     </row>
     <row r="76" spans="1:6">
       <c r="E76" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="E77" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="E78" s="2" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="E79" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="E80" s="2" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4006,68 +4205,68 @@
     </row>
     <row r="83" spans="1:6">
       <c r="B83" s="2" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4090,15 +4289,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F1FC0-97F0-044C-906D-1FF8A7B5F9B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B33" sqref="B33"/>
       <selection pane="topRight" activeCell="B33" sqref="B33"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4210,67 +4409,67 @@
     <row r="4" spans="1:22" s="5" customFormat="1"/>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>395</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1"/>
@@ -4279,67 +4478,67 @@
         <v>291</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="R7" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="T7" s="2" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1">
@@ -4351,67 +4550,67 @@
         <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="P9" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="R9" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="U9" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1"/>
@@ -4497,13 +4696,13 @@
         <v>333</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
@@ -4515,7 +4714,7 @@
         <v>276</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>130</v>
@@ -4530,7 +4729,7 @@
         <v>133</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>197</v>
@@ -4562,10 +4761,10 @@
         <v>331</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>345</v>
@@ -4586,7 +4785,7 @@
         <v>135</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>136</v>
@@ -4595,7 +4794,7 @@
         <v>137</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>198</v>
@@ -4627,10 +4826,10 @@
         <v>334</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>346</v>
@@ -4642,7 +4841,7 @@
         <v>139</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>140</v>
@@ -4671,7 +4870,7 @@
         <v>332</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>55</v>
@@ -4686,7 +4885,7 @@
         <v>143</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>144</v>
@@ -4700,10 +4899,10 @@
     </row>
     <row r="16" spans="1:22">
       <c r="F16" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>145</v>
@@ -4714,7 +4913,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="F17" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>146</v>
@@ -4725,10 +4924,10 @@
     </row>
     <row r="18" spans="1:22">
       <c r="F18" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>244</v>
@@ -4736,10 +4935,10 @@
     </row>
     <row r="19" spans="1:22">
       <c r="F19" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>245</v>
@@ -4750,7 +4949,7 @@
         <v>56</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>246</v>
@@ -4758,7 +4957,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="N21" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>247</v>
@@ -4766,7 +4965,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="N22" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>248</v>
@@ -4774,7 +4973,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="N23" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>249</v>
@@ -4782,7 +4981,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="N24" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="5" customFormat="1"/>
@@ -5800,7 +5999,7 @@
     </row>
     <row r="64" spans="1:22">
       <c r="L64" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -6193,7 +6392,7 @@
         <v>308</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>112</v>
@@ -6297,55 +6496,55 @@
     </row>
     <row r="90" spans="1:22">
       <c r="B90" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F90" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="M90" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="O90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="U90" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="I90" s="13" t="s">
-        <v>665</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="M90" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -6562,52 +6761,52 @@
     </row>
     <row r="95" spans="1:22">
       <c r="B95" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="96" spans="1:22">
@@ -6812,19 +7011,19 @@
     </row>
     <row r="100" spans="1:22">
       <c r="F100" s="1" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -6863,13 +7062,13 @@
     </row>
     <row r="103" spans="1:22">
       <c r="F103" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="R103" s="1" t="s">
         <v>215</v>
@@ -6880,13 +7079,13 @@
     </row>
     <row r="104" spans="1:22">
       <c r="F104" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="R104" s="1" t="s">
         <v>216</v>
@@ -7015,7 +7214,3286 @@
         <v>78</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>672</v>
+        <v>663</v>
+      </c>
+      <c r="I108" s="2"/>
+      <c r="J108" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22">
+      <c r="B109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I109" s="2"/>
+      <c r="J109" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22">
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:22">
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:22">
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:22">
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:22">
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="1:22">
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:22" s="5" customFormat="1"/>
+    <row r="117" spans="1:22">
+      <c r="A117" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22">
+      <c r="F118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22">
+      <c r="F119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22">
+      <c r="F120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V120" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22">
+      <c r="I121" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K121" s="3"/>
+      <c r="L121" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="V121" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22">
+      <c r="I122" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K122" s="3"/>
+      <c r="L122" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="V122" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22">
+      <c r="I123" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K123" s="3"/>
+      <c r="L123" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V123" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22">
+      <c r="F124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="F125" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="F126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F1FC0-97F0-044C-906D-1FF8A7B5F9B8}">
+  <dimension ref="A1:V126"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="C90" sqref="C90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="97.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92.83203125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="56.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="54.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="84.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="101" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="51.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="63.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="8" customFormat="1">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="5" customFormat="1"/>
+    <row r="5" spans="1:22">
+      <c r="B5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="5" customFormat="1"/>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="5" customFormat="1">
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="5" customFormat="1"/>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="B12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="B13" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="B14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="F16" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="F17" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="F18" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="F19" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="F20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="N21" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="N22" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="N23" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="N24" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="5" customFormat="1"/>
+    <row r="26" spans="1:22">
+      <c r="A26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="R27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="5" customFormat="1">
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="B30" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="B31" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="B32" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="U34" s="4"/>
+      <c r="V34" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22">
+      <c r="F38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="2:22">
+      <c r="J39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+    </row>
+    <row r="40" spans="2:22">
+      <c r="J40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="J41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+    </row>
+    <row r="42" spans="2:22">
+      <c r="J42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+    </row>
+    <row r="43" spans="2:22">
+      <c r="J43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="J44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="J45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="J46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+    </row>
+    <row r="47" spans="2:22">
+      <c r="J47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="J48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="J49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="J50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="J51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="J52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+    </row>
+    <row r="53" spans="1:22" s="5" customFormat="1">
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="B55" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="T55" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="B56" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="F57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="F58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="F59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="F60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="F61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" s="5" customFormat="1"/>
+    <row r="63" spans="1:22">
+      <c r="A63" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="L64" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="L65" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="L66" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="L67" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="L68" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" s="5" customFormat="1"/>
+    <row r="70" spans="1:22">
+      <c r="A70" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="F71" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="V71" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="F72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="F73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="F74" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="F75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="F76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:22" s="5" customFormat="1"/>
+    <row r="78" spans="1:22">
+      <c r="A78" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="B79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="T79" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U79" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="B80" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="B81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U81" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" s="5" customFormat="1">
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="B84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S84" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="B85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S85" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="U85" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="J86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="S86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="T86" s="2"/>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="J87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T87" s="2"/>
+    </row>
+    <row r="88" spans="1:22" s="5" customFormat="1"/>
+    <row r="89" spans="1:22">
+      <c r="A89" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U89" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V89" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="B90" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="B91" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="U91" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="B92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U92" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="B93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="U93" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
+      <c r="B94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="U94" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
+      <c r="B95" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
+      <c r="B96" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V96" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
+      <c r="B97" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
+      <c r="B98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="V98" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
+      <c r="B99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T99" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V99" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
+      <c r="F100" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="V100" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22">
+      <c r="F101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V101" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
+      <c r="F102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22">
+      <c r="F103" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="V103" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22">
+      <c r="F104" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="V104" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" s="5" customFormat="1"/>
+    <row r="106" spans="1:22">
+      <c r="A106" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I106" s="2"/>
+      <c r="J106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V106" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22">
+      <c r="B107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107" s="2"/>
+      <c r="J107" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22">
+      <c r="B108" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="1" t="s">

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30449316-00E0-544D-875B-127883D6B76F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1D9654-558C-5749-AB3C-CCAF5B503274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_parse" sheetId="2" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t xml:space="preserve">  val: value</t>
   </si>
   <si>
-    <t>Map2:</t>
-  </si>
-  <si>
     <t xml:space="preserve">    from:   from</t>
   </si>
   <si>
@@ -2142,6 +2139,9 @@
   </si>
   <si>
     <t>Editable: false</t>
+  </si>
+  <si>
+    <t>Map:</t>
   </si>
 </sst>
 </file>
@@ -2592,11 +2592,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2616,162 +2616,162 @@
   <sheetData>
     <row r="1" spans="1:12" s="9" customFormat="1">
       <c r="B1" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>650</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>390</v>
-      </c>
       <c r="L1" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="D2" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1"/>
     <row r="4" spans="1:12">
       <c r="B4" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="G4" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>701</v>
-      </c>
       <c r="K4" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1"/>
     <row r="6" spans="1:12">
       <c r="A6" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="H6" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="L6" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="16" customFormat="1"/>
     <row r="8" spans="1:12">
       <c r="A8" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>652</v>
-      </c>
       <c r="D8" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="J8" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="I8" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="J8" s="17" t="s">
+      <c r="K8" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="15" t="s">
         <v>603</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1"/>
     <row r="10" spans="1:12">
       <c r="A10" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>8</v>
@@ -2786,7 +2786,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>8</v>
@@ -2795,7 +2795,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>8</v>
@@ -2809,106 +2809,106 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="15" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="D12" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>372</v>
-      </c>
       <c r="L12" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="E13" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="E14" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="16" customFormat="1"/>
     <row r="16" spans="1:12">
       <c r="A16" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="16" customFormat="1"/>
     <row r="19" spans="1:10">
       <c r="A19" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>11</v>
@@ -2931,90 +2931,90 @@
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="B22" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="J24" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="16" customFormat="1"/>
     <row r="26" spans="1:10">
       <c r="A26" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>19</v>
@@ -3037,65 +3037,65 @@
     </row>
     <row r="27" spans="1:10">
       <c r="B27" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="B28" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="B29" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="16" customFormat="1"/>
     <row r="35" spans="1:6">
       <c r="A35" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="16" customFormat="1"/>
     <row r="42" spans="1:6">
       <c r="A42" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>25</v>
@@ -3103,253 +3103,253 @@
     </row>
     <row r="43" spans="1:6">
       <c r="F43" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="F44" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="F45" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="16" customFormat="1"/>
     <row r="47" spans="1:6">
       <c r="A47" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:10" s="16" customFormat="1"/>
     <row r="52" spans="1:10">
       <c r="A52" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="1:10" s="16" customFormat="1"/>
     <row r="55" spans="1:10">
       <c r="A55" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="I56" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="I57" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="I58" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="I59" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="I60" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="I61" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="J62" s="15" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="J63" s="15" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="J64" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="J65" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="J66" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="16" customFormat="1"/>
     <row r="68" spans="1:10">
       <c r="A68" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="B69" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="B70" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="B71" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="F72" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="F73" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="F74" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="F75" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="F76" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="16" customFormat="1"/>
     <row r="79" spans="1:10">
       <c r="A79" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="J80" s="15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="81" spans="10:10">
       <c r="J81" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="10:10">
       <c r="J82" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="10:10">
       <c r="J83" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="10:10">
       <c r="J84" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="10:10">
       <c r="J85" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="10:10">
       <c r="J86" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="10:10">
       <c r="J87" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="10:10">
       <c r="J88" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3380,36 +3380,36 @@
     <row r="1" spans="1:6" s="18" customFormat="1">
       <c r="A1" s="12"/>
       <c r="B1" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>399</v>
-      </c>
       <c r="F1" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3422,22 +3422,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="D5" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,22 +3450,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>609</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3478,19 +3478,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -3498,120 +3498,120 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3624,33 +3624,33 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3663,7 +3663,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -3683,184 +3683,184 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3873,7 +3873,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>19</v>
@@ -3890,131 +3890,131 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4027,7 +4027,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4040,7 +4040,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>25</v>
@@ -4051,50 +4051,50 @@
     </row>
     <row r="60" spans="1:6">
       <c r="D60" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4107,7 +4107,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4120,21 +4120,21 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4147,35 +4147,35 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="E76" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="E77" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="E78" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="E79" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="E80" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4188,85 +4188,85 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="B83" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4279,7 +4279,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -4292,12 +4292,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B33" sqref="B33"/>
       <selection pane="topRight" activeCell="B33" sqref="B33"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4350,195 +4350,195 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="S1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="V1" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1"/>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1"/>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="T7" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>644</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1">
@@ -4547,88 +4547,88 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="Q9" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="S9" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="U9" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1"/>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -4637,7 +4637,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>8</v>
@@ -4649,13 +4649,13 @@
         <v>8</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>8</v>
@@ -4670,10 +4670,10 @@
         <v>8</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>8</v>
@@ -4684,374 +4684,374 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="Q12" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="V12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="Q13" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="V13" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="S14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="S15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="F16" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="F17" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="F18" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="F19" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="N21" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="N22" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="N23" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="N24" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="5" customFormat="1"/>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="B27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="5" customFormat="1">
@@ -5061,7 +5061,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -5129,16 +5129,16 @@
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
@@ -5153,57 +5153,57 @@
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S30" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T30" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="T30" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="U30" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="B31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -5212,63 +5212,63 @@
         <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="V31" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="B32" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
@@ -5283,125 +5283,125 @@
         <v>14</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S32" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="U32" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="T32" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="V32" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T33" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="U33" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="U33" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="V33" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>14</v>
@@ -5410,58 +5410,58 @@
         <v>16</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>16</v>
@@ -5470,10 +5470,10 @@
         <v>17</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -5482,24 +5482,24 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>16</v>
@@ -5514,7 +5514,7 @@
         <v>18</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -5523,10 +5523,10 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -5540,7 +5540,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -5549,7 +5549,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -5560,7 +5560,7 @@
         <v>18</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="J39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="J40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="41" spans="2:22">
       <c r="J41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="J42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="43" spans="2:22">
       <c r="J43" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="44" spans="2:22">
       <c r="J44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="45" spans="2:22">
       <c r="J45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -5655,7 +5655,7 @@
     </row>
     <row r="46" spans="2:22">
       <c r="J46" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="47" spans="2:22">
       <c r="J47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="48" spans="2:22">
       <c r="J48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="J49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="J50" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -5715,7 +5715,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="J51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="J52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>19</v>
@@ -5810,222 +5810,222 @@
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="R55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S55" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T55" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="V55" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P56" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="R56" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="F57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="F58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:22">
       <c r="F59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="F60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="F61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:22" s="5" customFormat="1"/>
     <row r="63" spans="1:22">
       <c r="A63" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="L64" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="L65" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="L66" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="L67" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="L68" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:22" s="5" customFormat="1"/>
     <row r="70" spans="1:22">
       <c r="A70" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>25</v>
@@ -6049,23 +6049,23 @@
     </row>
     <row r="71" spans="1:22">
       <c r="F71" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -6074,19 +6074,19 @@
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -6095,24 +6095,24 @@
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="F74" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G74" s="2"/>
       <c r="I74" s="2"/>
@@ -6120,7 +6120,7 @@
     </row>
     <row r="75" spans="1:22">
       <c r="F75" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" s="2"/>
       <c r="I75" s="2"/>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="76" spans="1:22">
       <c r="F76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" s="2"/>
       <c r="I76" s="2"/>
@@ -6137,7 +6137,7 @@
     <row r="77" spans="1:22" s="5" customFormat="1"/>
     <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>29</v>
@@ -6181,57 +6181,57 @@
     </row>
     <row r="79" spans="1:22">
       <c r="B79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="U79" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="B80" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>31</v>
@@ -6246,19 +6246,19 @@
         <v>31</v>
       </c>
       <c r="M80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O80" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -6307,987 +6307,987 @@
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:22">
       <c r="B84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:22">
       <c r="B85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S85" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T85" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="U85" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="U85" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="J86" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="1:22">
       <c r="J87" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="1:22" s="5" customFormat="1"/>
     <row r="89" spans="1:22">
       <c r="A89" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
     </row>
     <row r="90" spans="1:22">
       <c r="B90" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="D90" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="F90" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I90" s="13" t="s">
-        <v>656</v>
-      </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="K90" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="N90" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="U90" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="91" spans="1:22">
       <c r="B91" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:22">
       <c r="B92" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="N92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:22">
       <c r="B93" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:22">
       <c r="B94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L94" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M94" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M94" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="N94" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="B95" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="D95" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="B96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="B97" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="B98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:22">
       <c r="B99" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:22">
       <c r="F100" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:22">
       <c r="F101" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="F102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="F103" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="F104" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:22" s="5" customFormat="1"/>
     <row r="106" spans="1:22">
       <c r="A106" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:22">
       <c r="B107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="B108" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N108" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="O108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:22">
       <c r="B109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -7295,7 +7295,7 @@
       <c r="G110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K110" s="2"/>
     </row>
@@ -7304,7 +7304,7 @@
       <c r="G111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K111" s="2"/>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="G112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K112" s="2"/>
     </row>
@@ -7322,7 +7322,7 @@
       <c r="G113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K113" s="2"/>
     </row>
@@ -7331,7 +7331,7 @@
       <c r="G114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K114" s="2"/>
     </row>
@@ -7340,221 +7340,221 @@
       <c r="G115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:22" s="5" customFormat="1"/>
     <row r="117" spans="1:22">
       <c r="A117" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:22">
       <c r="F118" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L118" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M118" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="N118" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N118" s="2" t="s">
+      <c r="O118" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O118" s="1" t="s">
+      <c r="P118" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="P118" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="R118" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:22">
       <c r="F119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:22">
       <c r="F120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:22">
       <c r="I121" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:22">
       <c r="I122" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122" s="3"/>
       <c r="L122" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:22">
       <c r="I123" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:22">
       <c r="F124" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:22">
       <c r="F125" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:22">
       <c r="F126" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7629,195 +7629,195 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="S1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="V1" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1"/>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1"/>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="D7" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>616</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>640</v>
-      </c>
       <c r="T7" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>644</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1">
@@ -7826,88 +7826,88 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="Q9" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="S9" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="U9" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1"/>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -7916,7 +7916,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>8</v>
@@ -7928,13 +7928,13 @@
         <v>8</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>8</v>
@@ -7949,10 +7949,10 @@
         <v>8</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>8</v>
@@ -7963,374 +7963,374 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="Q12" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="S12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="V12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="Q13" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="S13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>237</v>
-      </c>
       <c r="V13" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="S14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="S15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="F16" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="F17" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="F18" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="F19" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="N21" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="N22" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="N23" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="N24" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="5" customFormat="1"/>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="B27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="5" customFormat="1">
@@ -8340,7 +8340,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -8408,16 +8408,16 @@
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
@@ -8432,57 +8432,57 @@
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="S30" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="T30" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="T30" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="U30" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="B31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -8491,63 +8491,63 @@
         <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R31" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="V31" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="B32" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
@@ -8562,125 +8562,125 @@
         <v>14</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S32" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="U32" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="T32" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="V32" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T33" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="U33" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="U33" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="V33" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>14</v>
@@ -8689,58 +8689,58 @@
         <v>16</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>16</v>
@@ -8749,10 +8749,10 @@
         <v>17</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -8761,24 +8761,24 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>16</v>
@@ -8793,7 +8793,7 @@
         <v>18</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -8802,10 +8802,10 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -8819,7 +8819,7 @@
         <v>18</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -8828,7 +8828,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -8839,7 +8839,7 @@
         <v>18</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="J39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="J40" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="41" spans="2:22">
       <c r="J41" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="J42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="43" spans="2:22">
       <c r="J43" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -8910,7 +8910,7 @@
     </row>
     <row r="44" spans="2:22">
       <c r="J44" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="45" spans="2:22">
       <c r="J45" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -8934,7 +8934,7 @@
     </row>
     <row r="46" spans="2:22">
       <c r="J46" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -8946,7 +8946,7 @@
     </row>
     <row r="47" spans="2:22">
       <c r="J47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
@@ -8958,7 +8958,7 @@
     </row>
     <row r="48" spans="2:22">
       <c r="J48" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="J49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="J50" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="J51" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -9006,7 +9006,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="J52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -9027,7 +9027,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>19</v>
@@ -9089,222 +9089,222 @@
     </row>
     <row r="55" spans="1:22">
       <c r="B55" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N55" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="M55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="R55" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S55" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="T55" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="V55" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:22">
       <c r="B56" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L56" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P56" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="R56" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:22">
       <c r="F57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>22</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:22">
       <c r="F58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S58" s="2"/>
     </row>
     <row r="59" spans="1:22">
       <c r="F59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="F60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="F61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:22" s="5" customFormat="1"/>
     <row r="63" spans="1:22">
       <c r="A63" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="L64" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="L65" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="L66" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="L67" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="L68" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:22" s="5" customFormat="1"/>
     <row r="70" spans="1:22">
       <c r="A70" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>25</v>
@@ -9328,23 +9328,23 @@
     </row>
     <row r="71" spans="1:22">
       <c r="F71" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -9353,19 +9353,19 @@
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -9374,24 +9374,24 @@
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="74" spans="1:22">
       <c r="F74" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G74" s="2"/>
       <c r="I74" s="2"/>
@@ -9399,7 +9399,7 @@
     </row>
     <row r="75" spans="1:22">
       <c r="F75" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" s="2"/>
       <c r="I75" s="2"/>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="76" spans="1:22">
       <c r="F76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" s="2"/>
       <c r="I76" s="2"/>
@@ -9416,7 +9416,7 @@
     <row r="77" spans="1:22" s="5" customFormat="1"/>
     <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>29</v>
@@ -9460,57 +9460,57 @@
     </row>
     <row r="79" spans="1:22">
       <c r="B79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="T79" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="T79" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="U79" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="B80" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>31</v>
@@ -9525,19 +9525,19 @@
         <v>31</v>
       </c>
       <c r="M80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O80" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>31</v>
       </c>
       <c r="U80" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -9586,987 +9586,987 @@
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:22">
       <c r="B84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:22">
       <c r="B85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S85" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T85" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="T85" s="2" t="s">
+      <c r="U85" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="U85" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="J86" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S86" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T86" s="2"/>
     </row>
     <row r="87" spans="1:22">
       <c r="J87" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S87" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T87" s="2"/>
     </row>
     <row r="88" spans="1:22" s="5" customFormat="1"/>
     <row r="89" spans="1:22">
       <c r="A89" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>33</v>
+        <v>701</v>
       </c>
     </row>
     <row r="90" spans="1:22">
       <c r="B90" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="D90" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="F90" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="I90" s="13" t="s">
-        <v>656</v>
-      </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="K90" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="N90" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="U90" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="91" spans="1:22">
       <c r="B91" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:22">
       <c r="B92" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M92" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="N92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:22">
       <c r="B93" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:22">
       <c r="B94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L94" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M94" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M94" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="N94" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="B95" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="D95" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="B96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97" spans="1:22">
       <c r="B97" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:22">
       <c r="B98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="99" spans="1:22">
       <c r="B99" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:22">
       <c r="F100" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:22">
       <c r="F101" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:22">
       <c r="F102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:22">
       <c r="F103" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:22">
       <c r="F104" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:22" s="5" customFormat="1"/>
     <row r="106" spans="1:22">
       <c r="A106" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:22">
       <c r="B107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108" spans="1:22">
       <c r="B108" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N108" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="O108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:22">
       <c r="B109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -10574,7 +10574,7 @@
       <c r="G110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K110" s="2"/>
     </row>
@@ -10583,7 +10583,7 @@
       <c r="G111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K111" s="2"/>
     </row>
@@ -10592,7 +10592,7 @@
       <c r="G112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K112" s="2"/>
     </row>
@@ -10601,7 +10601,7 @@
       <c r="G113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K113" s="2"/>
     </row>
@@ -10610,7 +10610,7 @@
       <c r="G114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K114" s="2"/>
     </row>
@@ -10619,221 +10619,221 @@
       <c r="G115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K115" s="2"/>
     </row>
     <row r="116" spans="1:22" s="5" customFormat="1"/>
     <row r="117" spans="1:22">
       <c r="A117" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:22">
       <c r="F118" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L118" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M118" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="M118" s="1" t="s">
+      <c r="N118" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N118" s="2" t="s">
+      <c r="O118" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="O118" s="1" t="s">
+      <c r="P118" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="P118" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="R118" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:22">
       <c r="F119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:22">
       <c r="F120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:22">
       <c r="I121" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:22">
       <c r="I122" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K122" s="3"/>
       <c r="L122" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:22">
       <c r="I123" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:22">
       <c r="F124" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:22">
       <c r="F125" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:22">
       <c r="F126" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1D9654-558C-5749-AB3C-CCAF5B503274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB17E3-D6F4-B145-951A-ED0339A455F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_parse" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="703">
   <si>
     <t>bea_supply</t>
   </si>
@@ -2069,12 +2069,6 @@
     <t xml:space="preserve">  - {from: SCTG Group,  to: sctg_group}</t>
   </si>
   <si>
-    <t xml:space="preserve">  file:   ../mapsources/WiNDC/windc_build/build_files/maps/mapcfs.map</t>
-  </si>
-  <si>
-    <t># file:   [.., mapsources, WiNDC, windc_build, build_files, maps, mapcfs.map]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  input:  sctg_code</t>
   </si>
   <si>
@@ -2108,18 +2102,12 @@
     <t xml:space="preserve">    output: windc_code</t>
   </si>
   <si>
-    <t># - file:   [.., mapsources, WiNDC, windc_build, build_files, maps, mapsgf.map]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: units,      type: Any}</t>
   </si>
   <si>
     <t># - {col: sctg_group, type: Any}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - file:   ../mapsources/WiNDC/windc_build/build_files/maps/mapsgf.map</t>
-  </si>
-  <si>
     <t xml:space="preserve">    from:   missing_1</t>
   </si>
   <si>
@@ -2142,6 +2130,21 @@
   </si>
   <si>
     <t>Map:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  file:   [.., mapsources, WiNDC, windc_build, build_files, maps, mapcfs.map]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   [.., mapsources, WiNDC, windc_build, build_files, maps, mapsgf.map]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col: value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    operation: "&lt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val: 10.0</t>
   </si>
 </sst>
 </file>
@@ -2592,11 +2595,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2657,37 +2660,37 @@
     <row r="3" spans="1:12" s="16" customFormat="1"/>
     <row r="4" spans="1:12">
       <c r="B4" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1"/>
@@ -2946,7 +2949,7 @@
         <v>672</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2966,7 +2969,7 @@
         <v>671</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2983,10 +2986,10 @@
         <v>567</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3000,15 +3003,15 @@
         <v>559</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="J24" s="15" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="16" customFormat="1"/>
@@ -3052,7 +3055,7 @@
         <v>675</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3134,23 +3137,23 @@
         <v>300</v>
       </c>
       <c r="I55" s="15" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="I56" s="15" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="I57" s="15" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J57" s="15" t="s">
         <v>33</v>
@@ -3158,7 +3161,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="I58" s="15" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J58" s="15" t="s">
         <v>34</v>
@@ -3166,7 +3169,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="I59" s="15" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="J59" s="15" t="s">
         <v>174</v>
@@ -3174,43 +3177,35 @@
     </row>
     <row r="60" spans="1:10">
       <c r="I60" s="15" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="I61" s="15" t="s">
-        <v>682</v>
-      </c>
       <c r="J61" s="15" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="J62" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="J63" s="15" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="J64" s="15" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="J65" s="15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="J66" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="16" customFormat="1"/>
@@ -3309,7 +3304,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="J80" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81" spans="10:10">
@@ -3397,19 +3392,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4150,7 +4145,7 @@
         <v>300</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4290,14 +4285,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B33" sqref="B33"/>
       <selection pane="topRight" activeCell="B33" sqref="B33"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomRight" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomRight" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4409,67 +4404,67 @@
     <row r="4" spans="1:22" s="5" customFormat="1"/>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1"/>
@@ -6437,61 +6432,61 @@
         <v>300</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="90" spans="1:22">
@@ -7555,6 +7550,21 @@
       </c>
       <c r="I126" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22">
+      <c r="F127" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="F128" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="1" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -7688,67 +7698,67 @@
     <row r="4" spans="1:22" s="5" customFormat="1"/>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1"/>
@@ -9716,61 +9726,61 @@
         <v>300</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="P89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="V89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="90" spans="1:22">

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB17E3-D6F4-B145-951A-ED0339A455F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32327C01-5585-A545-B6A9-7977F810D6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="700">
   <si>
     <t>bea_supply</t>
   </si>
@@ -2136,15 +2136,6 @@
   </si>
   <si>
     <t xml:space="preserve">  - file:   [.., mapsources, WiNDC, windc_build, build_files, maps, mapsgf.map]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - col: value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    operation: "&lt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    val: 10.0</t>
   </si>
 </sst>
 </file>
@@ -4285,14 +4276,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B33" sqref="B33"/>
       <selection pane="topRight" activeCell="B33" sqref="B33"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomRight" activeCell="F129" sqref="F129"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -7550,21 +7541,6 @@
       </c>
       <c r="I126" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22">
-      <c r="F127" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22">
-      <c r="F128" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="129" spans="6:6">
-      <c r="F129" s="1" t="s">
-        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32327C01-5585-A545-B6A9-7977F810D6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4154836E-CC5C-0943-8883-DAE0B980712E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_parse" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="723">
   <si>
     <t>bea_supply</t>
   </si>
@@ -2136,6 +2136,75 @@
   </si>
   <si>
     <t xml:space="preserve">  - file:   [.., mapsources, WiNDC, windc_build, build_files, maps, mapsgf.map]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: seds.csv</t>
+  </si>
+  <si>
+    <t>msn</t>
+  </si>
+  <si>
+    <t>PathOut: [.., data, coremaps, parse, msn.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sector_desc, type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: source_desc, type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: msn_desc,    type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: msn_code,    type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: full_desc, to: msn_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: from,      to: msn_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: source,    to: source_code}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: sector,    to: sector_code}</t>
+  </si>
+  <si>
+    <t># Match:</t>
+  </si>
+  <si>
+    <t>#   output: ["source_code", "sector_code", "units"]</t>
+  </si>
+  <si>
+    <t>#   on:     (?&lt;source_code&gt;.{2})(?&lt;sector_code&gt;.{2})(?&lt;units&gt;.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   [parse, msn.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from:   msn_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:     [source_code, sector_code, units]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: [source_code, sector_code, units]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: msn,       to: msn_code}</t>
+  </si>
+  <si>
+    <t>#   input:  msn_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  msn_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:   0.0</t>
+  </si>
+  <si>
+    <t># - {col: msn,         type: String}</t>
   </si>
 </sst>
 </file>
@@ -2584,13 +2653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J80" sqref="J80"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2598,17 +2667,17 @@
     <col min="1" max="1" width="10.83203125" style="15"/>
     <col min="2" max="3" width="93" style="15" customWidth="1"/>
     <col min="4" max="4" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.83203125" style="15" customWidth="1"/>
-    <col min="6" max="7" width="67" style="15" customWidth="1"/>
-    <col min="8" max="9" width="92.83203125" style="15" customWidth="1"/>
-    <col min="10" max="10" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="102" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="93.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="92.83203125" style="15" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="15"/>
+    <col min="5" max="6" width="92.83203125" style="15" customWidth="1"/>
+    <col min="7" max="8" width="67" style="15" customWidth="1"/>
+    <col min="9" max="10" width="92.83203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="102" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="93.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92.83203125" style="15" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1">
+    <row r="1" spans="1:13" s="9" customFormat="1">
       <c r="B1" s="9" t="s">
         <v>648</v>
       </c>
@@ -2622,34 +2691,37 @@
         <v>385</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>701</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="D2" s="15" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1"/>
-    <row r="4" spans="1:12">
+    <row r="3" spans="1:13" s="16" customFormat="1"/>
+    <row r="4" spans="1:13">
       <c r="B4" s="15" t="s">
         <v>695</v>
       </c>
@@ -2663,10 +2735,10 @@
         <v>695</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>696</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>695</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>695</v>
@@ -2675,17 +2747,20 @@
         <v>695</v>
       </c>
       <c r="J4" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>696</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>695</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="16" customFormat="1"/>
-    <row r="6" spans="1:12">
+      <c r="M4" s="15" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="16" customFormat="1"/>
+    <row r="6" spans="1:13">
       <c r="A6" s="15" t="s">
         <v>290</v>
       </c>
@@ -2702,29 +2777,32 @@
         <v>592</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="H6" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="L6" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="M6" s="15" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1"/>
-    <row r="8" spans="1:12">
+    <row r="7" spans="1:13" s="16" customFormat="1"/>
+    <row r="8" spans="1:13">
       <c r="A8" s="15" t="s">
         <v>291</v>
       </c>
@@ -2740,30 +2818,33 @@
       <c r="E8" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="J8" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="K8" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="L8" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="M8" s="15" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="16" customFormat="1"/>
-    <row r="10" spans="1:12">
+    <row r="9" spans="1:13" s="16" customFormat="1"/>
+    <row r="10" spans="1:13">
       <c r="A10" s="15" t="s">
         <v>292</v>
       </c>
@@ -2779,29 +2860,32 @@
       <c r="E10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="17" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" s="15" t="s">
         <v>656</v>
       </c>
@@ -2815,28 +2899,31 @@
         <v>581</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="M11" s="15" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="D12" s="15" t="s">
         <v>370</v>
       </c>
@@ -2844,63 +2931,66 @@
         <v>582</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="I12" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="J12" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="K12" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="L12" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="M12" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="E13" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="J13" s="15" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="E14" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="I14" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="J14" s="15" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="16" customFormat="1"/>
-    <row r="16" spans="1:12">
+    <row r="15" spans="1:13" s="16" customFormat="1"/>
+    <row r="16" spans="1:13">
       <c r="A16" s="15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="16" customFormat="1"/>
-    <row r="19" spans="1:10">
+    <row r="18" spans="1:11" s="16" customFormat="1"/>
+    <row r="19" spans="1:11">
       <c r="A19" s="15" t="s">
         <v>294</v>
       </c>
@@ -2916,14 +3006,17 @@
       <c r="F19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="G19" s="15" t="s">
         <v>11</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="B20" s="15" t="s">
         <v>560</v>
       </c>
@@ -2934,16 +3027,19 @@
         <v>560</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="G20" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="J20" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="K20" s="15" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="B21" s="15" t="s">
         <v>561</v>
       </c>
@@ -2954,16 +3050,19 @@
         <v>561</v>
       </c>
       <c r="F21" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="G21" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="J21" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="K21" s="15" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="B22" s="15" t="s">
         <v>372</v>
       </c>
@@ -2974,16 +3073,19 @@
         <v>372</v>
       </c>
       <c r="F22" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="J22" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="K22" s="15" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="B23" s="15" t="s">
         <v>559</v>
       </c>
@@ -2993,348 +3095,381 @@
       <c r="D23" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="F23" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>689</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="15" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="J24" s="15" t="s">
+    <row r="24" spans="1:11">
+      <c r="F24" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="16" customFormat="1"/>
-    <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+    <row r="25" spans="1:11">
+      <c r="F25" s="15" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="F26" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="16" customFormat="1"/>
+    <row r="29" spans="1:11">
+      <c r="A29" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="G29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J29" s="15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="15" t="s">
+      <c r="K29" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D30" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F30" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="G30" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="J30" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="K30" s="15" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="B28" s="15" t="s">
+    <row r="31" spans="1:11">
+      <c r="B31" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F31" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="G31" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="J31" s="15" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="15" t="s">
+    <row r="32" spans="1:11">
+      <c r="B32" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="F32" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="16" customFormat="1"/>
-    <row r="35" spans="1:6">
-      <c r="A35" s="15" t="s">
+    <row r="33" spans="1:7">
+      <c r="F33" s="15" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="16" customFormat="1"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="15" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="16" customFormat="1"/>
-    <row r="42" spans="1:6">
-      <c r="A42" s="15" t="s">
+    <row r="44" spans="1:7" s="16" customFormat="1"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="G45" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="F43" s="15" t="s">
+    <row r="46" spans="1:7">
+      <c r="G46" s="15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="F44" s="15" t="s">
+    <row r="47" spans="1:7">
+      <c r="G47" s="15" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="F45" s="15" t="s">
+    <row r="48" spans="1:7">
+      <c r="G48" s="15" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="16" customFormat="1"/>
-    <row r="47" spans="1:6">
-      <c r="A47" s="15" t="s">
+    <row r="49" spans="1:11" s="16" customFormat="1"/>
+    <row r="50" spans="1:11">
+      <c r="A50" s="15" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="16" customFormat="1"/>
-    <row r="52" spans="1:10">
-      <c r="A52" s="15" t="s">
+    <row r="54" spans="1:11" s="16" customFormat="1"/>
+    <row r="55" spans="1:11">
+      <c r="A55" s="15" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="16" customFormat="1"/>
-    <row r="55" spans="1:10">
-      <c r="A55" s="15" t="s">
+    <row r="57" spans="1:11" s="16" customFormat="1"/>
+    <row r="58" spans="1:11">
+      <c r="A58" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="J58" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="J55" s="15" t="s">
+      <c r="K58" s="15" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="I56" s="15" t="s">
+    <row r="59" spans="1:11">
+      <c r="J59" s="15" t="s">
         <v>698</v>
       </c>
-      <c r="J56" s="15" t="s">
+      <c r="K59" s="15" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="I57" s="15" t="s">
+    <row r="60" spans="1:11">
+      <c r="J60" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="J57" s="15" t="s">
+      <c r="K60" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="I58" s="15" t="s">
+    <row r="61" spans="1:11">
+      <c r="J61" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="J58" s="15" t="s">
+      <c r="K61" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="I59" s="15" t="s">
+    <row r="62" spans="1:11">
+      <c r="J62" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="J59" s="15" t="s">
+      <c r="K62" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="I60" s="15" t="s">
+    <row r="63" spans="1:11">
+      <c r="J63" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="J60" s="15" t="s">
+      <c r="K63" s="15" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="J61" s="15" t="s">
+    <row r="64" spans="1:11">
+      <c r="K64" s="15" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="J62" s="15" t="s">
+    <row r="65" spans="1:11">
+      <c r="K65" s="15" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="J63" s="15" t="s">
+    <row r="66" spans="1:11">
+      <c r="K66" s="15" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="J64" s="15" t="s">
+    <row r="67" spans="1:11">
+      <c r="K67" s="15" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
-      <c r="J65" s="15" t="s">
+    <row r="68" spans="1:11">
+      <c r="K68" s="15" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="16" customFormat="1"/>
-    <row r="68" spans="1:10">
-      <c r="A68" s="15" t="s">
+    <row r="70" spans="1:11" s="16" customFormat="1"/>
+    <row r="71" spans="1:11">
+      <c r="A71" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B71" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="15" t="s">
+      <c r="D71" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="G71" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="B69" s="15" t="s">
+    <row r="72" spans="1:11">
+      <c r="B72" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D72" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="G72" s="15" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
-      <c r="B70" s="15" t="s">
+    <row r="73" spans="1:11">
+      <c r="B73" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D73" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="G73" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
-      <c r="B71" s="15" t="s">
+    <row r="74" spans="1:11">
+      <c r="B74" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D74" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="F71" s="15" t="s">
+      <c r="G74" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
-      <c r="F72" s="15" t="s">
+    <row r="75" spans="1:11">
+      <c r="G75" s="15" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="F73" s="15" t="s">
+    <row r="76" spans="1:11">
+      <c r="G76" s="15" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
-      <c r="F74" s="15" t="s">
+    <row r="77" spans="1:11">
+      <c r="G77" s="15" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
-      <c r="F75" s="15" t="s">
+    <row r="78" spans="1:11">
+      <c r="G78" s="15" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
-      <c r="F76" s="15" t="s">
+    <row r="79" spans="1:11">
+      <c r="G79" s="15" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="16" customFormat="1"/>
-    <row r="79" spans="1:10">
-      <c r="A79" s="15" t="s">
+    <row r="81" spans="1:11" s="16" customFormat="1"/>
+    <row r="82" spans="1:11">
+      <c r="A82" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="J79" s="15" t="s">
+      <c r="K82" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
-      <c r="J80" s="15" t="s">
+    <row r="83" spans="1:11">
+      <c r="K83" s="15" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="81" spans="10:10">
-      <c r="J81" s="15" t="s">
+    <row r="84" spans="1:11">
+      <c r="K84" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="10:10">
-      <c r="J82" s="15" t="s">
+    <row r="85" spans="1:11">
+      <c r="K85" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="10:10">
-      <c r="J83" s="15" t="s">
+    <row r="86" spans="1:11">
+      <c r="K86" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="10:10">
-      <c r="J84" s="15" t="s">
+    <row r="87" spans="1:11">
+      <c r="K87" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="10:10">
-      <c r="J85" s="15" t="s">
+    <row r="88" spans="1:11">
+      <c r="K88" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="10:10">
-      <c r="J86" s="15" t="s">
+    <row r="89" spans="1:11">
+      <c r="K89" s="15" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="87" spans="10:10">
-      <c r="J87" s="15" t="s">
+    <row r="90" spans="1:11">
+      <c r="K90" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="88" spans="10:10">
-      <c r="J88" s="15" t="s">
+    <row r="91" spans="1:11">
+      <c r="K91" s="15" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4279,11 +4414,11 @@
   <dimension ref="A1:V126"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B33" sqref="B33"/>
       <selection pane="topRight" activeCell="B33" sqref="B33"/>
       <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5305,7 +5440,7 @@
         <v>256</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>219</v>
+        <v>722</v>
       </c>
     </row>
     <row r="33" spans="2:22">
@@ -5512,7 +5647,7 @@
         <v>205</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -5920,7 +6055,7 @@
         <v>208</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>225</v>
+        <v>718</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -5940,6 +6075,9 @@
         <v>160</v>
       </c>
       <c r="S58" s="2"/>
+      <c r="V58" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="59" spans="1:22">
       <c r="F59" s="1" t="s">
@@ -6030,7 +6168,7 @@
         <v>25</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>25</v>
+        <v>711</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -6051,7 +6189,7 @@
         <v>209</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>226</v>
+        <v>713</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -6072,7 +6210,7 @@
         <v>210</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>227</v>
+        <v>719</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -6093,7 +6231,7 @@
         <v>211</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>228</v>
+        <v>712</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -6532,6 +6670,9 @@
       <c r="U90" s="2" t="s">
         <v>529</v>
       </c>
+      <c r="V90" s="1" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="91" spans="1:22">
       <c r="B91" s="1" t="s">
@@ -6585,6 +6726,9 @@
       <c r="U91" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="V91" s="1" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="92" spans="1:22">
       <c r="B92" s="1" t="s">
@@ -6638,6 +6782,9 @@
       <c r="U92" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="V92" s="1" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="93" spans="1:22">
       <c r="B93" s="1" t="s">
@@ -6691,6 +6838,9 @@
       <c r="U93" s="2" t="s">
         <v>269</v>
       </c>
+      <c r="V93" s="1" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="94" spans="1:22">
       <c r="B94" s="1" t="s">
@@ -6744,6 +6894,9 @@
       <c r="U94" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="V94" s="1" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="95" spans="1:22">
       <c r="B95" s="1" t="s">
@@ -7009,7 +7162,7 @@
         <v>525</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>530</v>
+        <v>654</v>
       </c>
     </row>
     <row r="101" spans="1:22">
@@ -7026,7 +7179,7 @@
         <v>33</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -7043,7 +7196,7 @@
         <v>34</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:22">
@@ -7060,7 +7213,7 @@
         <v>214</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>41</v>
+        <v>657</v>
       </c>
     </row>
     <row r="104" spans="1:22">
@@ -7077,7 +7230,7 @@
         <v>215</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>42</v>
+        <v>658</v>
       </c>
     </row>
     <row r="105" spans="1:22" s="5" customFormat="1"/>
@@ -7273,7 +7426,7 @@
         <v>182</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>182</v>
+        <v>721</v>
       </c>
     </row>
     <row r="110" spans="1:22">

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91BE8F6-0B9B-F841-933C-A098AF3C243F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35AD15-8010-0D4F-965D-88C6240791B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_parse" sheetId="2" r:id="rId1"/>
     <sheet name="map_scale" sheetId="3" r:id="rId2"/>
     <sheet name="parse" sheetId="4" r:id="rId3"/>
+    <sheet name="map_bluenote" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="788">
   <si>
     <t>bea_supply</t>
   </si>
@@ -154,9 +155,6 @@
     <t xml:space="preserve">    output: region_desc</t>
   </si>
   <si>
-    <t>#   from:   from</t>
-  </si>
-  <si>
     <t>Drop:</t>
   </si>
   <si>
@@ -259,9 +257,6 @@
     <t xml:space="preserve">  - col:  value</t>
   </si>
   <si>
-    <t xml:space="preserve">    from: ["missing", "(NA)", "(D)", "(H)", "(L)", "(T)"]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    to:   0</t>
   </si>
   <si>
@@ -280,9 +275,6 @@
     <t xml:space="preserve">  descriptor: cfs</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: shipmt_id,                type: Int}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: orig_state,               type: String}</t>
   </si>
   <si>
@@ -301,9 +293,6 @@
     <t xml:space="preserve">  - {col: naics_code,               type: Int}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: naics_level,              type: String}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: sctg,                     type: String}</t>
   </si>
   <si>
@@ -544,21 +533,9 @@
     <t xml:space="preserve">  var: sgf_desc</t>
   </si>
   <si>
-    <t xml:space="preserve">  to:     [sgf_desc, sgf_windc, units]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    to:     [sgf_desc, sgf_windc, units]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    input:  sgf_desc</t>
   </si>
   <si>
-    <t xml:space="preserve">  output: [sgf_desc, sgf_windc, units]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    output: [sgf_desc, sgf_windc, units]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    input:  state</t>
   </si>
   <si>
@@ -571,21 +548,12 @@
     <t xml:space="preserve">  from: missing</t>
   </si>
   <si>
-    <t xml:space="preserve">  from: ["missing", "-"]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  to:   0</t>
   </si>
   <si>
     <t xml:space="preserve">  - col: [Percent, Per]</t>
   </si>
   <si>
-    <t xml:space="preserve">  - col: sgf_windc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  col: [sgf_desc, state]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - col: [GEO.id, GEO.id2]</t>
   </si>
   <si>
@@ -640,9 +608,6 @@
     <t xml:space="preserve">  - {col: naics_code,  type: String}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: naics_level, type: Any}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: units,       type: String}</t>
   </si>
   <si>
@@ -850,9 +815,6 @@
     <t xml:space="preserve">  - {col: naics_code, type: String}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: value,      type: Int}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {from: upper,           to: lower}</t>
   </si>
   <si>
@@ -868,9 +830,6 @@
     <t xml:space="preserve">  output: naics_code</t>
   </si>
   <si>
-    <t xml:space="preserve">  from: ["(D)", "(H)", "(L)"]</t>
-  </si>
-  <si>
     <t>TODO</t>
   </si>
   <si>
@@ -1579,9 +1538,6 @@
     <t xml:space="preserve">  - file:   [parse, naics.csv]</t>
   </si>
   <si>
-    <t xml:space="preserve">  file:   [parse, sgf.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - file:   [parse, sgf.csv]</t>
   </si>
   <si>
@@ -1975,9 +1931,6 @@
     <t xml:space="preserve">  val: thousands of us dollars (USD)</t>
   </si>
   <si>
-    <t xml:space="preserve">    from: "(D)"</t>
-  </si>
-  <si>
     <t xml:space="preserve">  col:  category</t>
   </si>
   <si>
@@ -2089,6 +2042,9 @@
     <t xml:space="preserve">  - file:   [.., mapsources, WiNDC, windc_build, build_files, maps, mapsgf.map]</t>
   </si>
   <si>
+    <t>seds</t>
+  </si>
+  <si>
     <t xml:space="preserve">  name: seds.csv</t>
   </si>
   <si>
@@ -2152,12 +2108,6 @@
     <t xml:space="preserve">    input:  msn_code</t>
   </si>
   <si>
-    <t xml:space="preserve">  to:   0.0</t>
-  </si>
-  <si>
-    <t># - {col: msn,         type: String}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  val: btu per kilowatthour</t>
   </si>
   <si>
@@ -2173,21 +2123,9 @@
     <t xml:space="preserve">  - name: [Manual, units_append.csv]</t>
   </si>
   <si>
-    <t xml:space="preserve">  from: us dollars per million btu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  to:   us dollars (USD) per million btu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  col:  to</t>
-  </si>
-  <si>
     <t xml:space="preserve">  col: from</t>
   </si>
   <si>
-    <t xml:space="preserve">  val: unique</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - name: [Manual, regions_append.csv]</t>
   </si>
   <si>
@@ -2221,37 +2159,247 @@
     <t>OPERATE</t>
   </si>
   <si>
-    <t># - file:   [parse, units_standardize.csv]</t>
-  </si>
-  <si>
-    <t>#   to:     [factor, to]</t>
-  </si>
-  <si>
-    <t>#   input:  units_clean</t>
-  </si>
-  <si>
-    <t>#   output: [factor, units]</t>
-  </si>
-  <si>
-    <t># - {col: units_clean,type: String}</t>
-  </si>
-  <si>
-    <t># - {col: factor,     type: Float64}</t>
-  </si>
-  <si>
-    <t># - {col: factor,                   type: Float64}</t>
-  </si>
-  <si>
-    <t># - {col: units,                    type: Any}</t>
-  </si>
-  <si>
-    <t>#   input:  shipmt_value_units</t>
+    <t xml:space="preserve">    output: [factor, units]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  shipmt_value_units</t>
   </si>
   <si>
     <t xml:space="preserve">    input:  to</t>
   </si>
   <si>
-    <t xml:space="preserve">    output: [factor, factor_to]</t>
+    <t xml:space="preserve">    to:   0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col:  factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:   1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: [factor, units_factor]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: value,                    type: Float64}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: units,                    type: String}</t>
+  </si>
+  <si>
+    <t># - {col: naics_level,              type: String}</t>
+  </si>
+  <si>
+    <t>Operate:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  operation: "*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from:   units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:     units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  input:  [shipmt_value, wgt_factor, factor]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  output: value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  input:  [value, factor]</t>
+  </si>
+  <si>
+    <t># - {col: units_0,    type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: value_0,    type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: value,      type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: factor,     type: Any}</t>
+  </si>
+  <si>
+    <t># - {col: value_0,    type: Any}</t>
+  </si>
+  <si>
+    <t># - {col: factor,     type: Any}</t>
+  </si>
+  <si>
+    <t># - {col: naics_level, type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: units_0,    type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:     units_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col: [Program, Period, Week Ending, Geo Level, Ag District, Ag District Code, County, County ANSI, Zip Code, Region, Watershed, watershed_code, Commodity, Data Item, Domain, CV (%)]</t>
+  </si>
+  <si>
+    <t># - {col: shipmt_id,                type: Int}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from: [missing, (NA), (D), (H), (L), (T)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col:  to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from: us dollars per million btu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:   us dollars (USD) per million btu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:     [to, factor, units_factor]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: [units, factor, units_factor]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from: (D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from: [(D), (H), (L)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from: [missing, -]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: windc_code,type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sgf_code,  type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  val: [missing, unique]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: [sgf_desc, sgf_code, windc_code, units]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:     [sgf_desc, sgf_code, windc_code, units]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: sgf_desc,  type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col: [Item, state]</t>
+  </si>
+  <si>
+    <t># - col: sgf_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col: missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:     [missing_1, missing_2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  output: [windc_code, windc_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: windc_desc, type: Any}</t>
+  </si>
+  <si>
+    <t># - {col: sctg_desc,  type: Any}</t>
+  </si>
+  <si>
+    <t>GAMSInput:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col:  [industry_id, windc_code, windc_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: mapgsp.map</t>
+  </si>
+  <si>
+    <t>gsp_industry</t>
+  </si>
+  <si>
+    <t>PathOut: [.., data, coremaps, bluenote, gsp_industry.csv]</t>
+  </si>
+  <si>
+    <t>Path: [.., data, mapsources, WiNDC, windc_build, build_files, maps]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  input:  windc_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  output: [windc_desc, industry_code]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  on:     (?&lt;windc_desc&gt;.*) \((?&lt;industry_code&gt;.*)\)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: mappce.map</t>
+  </si>
+  <si>
+    <t>PathOut: [.., data, coremaps, bluenote, pce.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col:  [a, b, a_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: mapseds.map</t>
+  </si>
+  <si>
+    <t>PathOut: [.., data, coremaps, bluenote, seds.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [.., data, coremaps, bluenote, sgf.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: mapsgf.map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col:  [windc_code, sgf_code, windc_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: mapbea_detailed.map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col:  [windc_det_code, windc_sum_code, windc_det_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  input:  windc_det_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  on:     (?&lt;windc_det_desc&gt;.*) \((?&lt;bea_code&gt;.*)\)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  output: [windc_det_desc, bea_code]</t>
+  </si>
+  <si>
+    <t>utd_naics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col:  [naics_code, windc_code, naics_desc]</t>
+  </si>
+  <si>
+    <t>PathOut: [.., data, coremaps, bluenote, utd_naics.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: mapusatrd.map</t>
+  </si>
+  <si>
+    <t>cfs_sctg</t>
+  </si>
+  <si>
+    <t>PathOut: [.., data, coremaps, bluenote, cfs_sctg.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [.., data, coremaps, bluenote, bea_detail.csv]</t>
   </si>
 </sst>
 </file>
@@ -2281,19 +2429,10 @@
       <name val="Menlo Regular"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Menlo Regular"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Menlo Regular"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2302,8 +2441,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo Regular"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2328,6 +2479,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2341,7 +2498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2355,21 +2512,173 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2710,669 +3019,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M30" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N63" sqref="N63"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I64" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="15"/>
-    <col min="2" max="3" width="93" style="15" customWidth="1"/>
-    <col min="4" max="4" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="92.83203125" style="15" customWidth="1"/>
-    <col min="7" max="8" width="67" style="15" customWidth="1"/>
-    <col min="9" max="10" width="92.83203125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="92.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="102" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="92.83203125" style="15" customWidth="1"/>
-    <col min="14" max="14" width="93.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="92.83203125" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="3" width="93" style="2" customWidth="1"/>
+    <col min="4" max="4" width="92.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="92.83203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="67" style="2" customWidth="1"/>
+    <col min="9" max="10" width="92.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="92.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="102" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="92.83203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="93.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="92.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="9" customFormat="1">
-      <c r="B1" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H1" s="9" t="s">
+    <row r="1" spans="1:14" s="11" customFormat="1">
+      <c r="B1" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="D2" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="6" customFormat="1"/>
+    <row r="4" spans="1:14">
+      <c r="B4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1"/>
+    <row r="6" spans="1:14">
+      <c r="A6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1"/>
+    <row r="8" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="L8" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="6" customFormat="1"/>
+    <row r="10" spans="1:14">
+      <c r="A10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="D12" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="E13" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="E14" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="6" customFormat="1"/>
+    <row r="16" spans="1:14">
+      <c r="A16" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1"/>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="B22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="D2" s="15" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="16" customFormat="1"/>
-    <row r="4" spans="1:14">
-      <c r="B4" s="15" t="s">
+      <c r="K23" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="F24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="F25" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="F26" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="6" customFormat="1"/>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="B31" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="B32" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="F33" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="16" customFormat="1"/>
-    <row r="6" spans="1:14">
-      <c r="A6" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>719</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="16" customFormat="1"/>
-    <row r="8" spans="1:14">
-      <c r="A8" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>585</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="16" customFormat="1"/>
-    <row r="10" spans="1:14">
-      <c r="A10" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>567</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>720</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="D12" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>721</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="E13" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="J13" s="15" t="s">
+    </row>
+    <row r="37" spans="1:7" s="6" customFormat="1"/>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="6" customFormat="1"/>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="G46" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="G47" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="G48" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="6" customFormat="1"/>
+    <row r="50" spans="1:14">
+      <c r="A50" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="6" customFormat="1"/>
+    <row r="55" spans="1:14">
+      <c r="A55" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="6" customFormat="1"/>
+    <row r="58" spans="1:14">
+      <c r="A58" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="J59" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="N13" s="15" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="E14" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="16" customFormat="1"/>
-    <row r="16" spans="1:14">
-      <c r="A16" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="16" customFormat="1"/>
-    <row r="19" spans="1:11">
-      <c r="A19" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>663</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="F24" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="F25" s="15" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="F26" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="16" customFormat="1"/>
-    <row r="29" spans="1:11">
-      <c r="A29" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="B30" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="B31" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>691</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="F33" s="15" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="16" customFormat="1"/>
-    <row r="38" spans="1:7">
-      <c r="A38" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="16" customFormat="1"/>
-    <row r="45" spans="1:7">
-      <c r="A45" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="G46" s="15" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="G47" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="G48" s="15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" s="16" customFormat="1"/>
-    <row r="50" spans="1:14">
-      <c r="A50" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="16" customFormat="1"/>
-    <row r="55" spans="1:14">
-      <c r="A55" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="16" customFormat="1"/>
-    <row r="58" spans="1:14">
-      <c r="A58" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="K58" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="N58" s="15" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="J59" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>668</v>
-      </c>
       <c r="N59" s="1" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:14">
-      <c r="J60" s="15" t="s">
-        <v>662</v>
-      </c>
-      <c r="K60" s="15" t="s">
+      <c r="J60" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -3380,229 +3690,263 @@
       </c>
     </row>
     <row r="61" spans="1:14">
-      <c r="J61" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="K61" s="15" t="s">
+      <c r="J61" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="62" spans="1:14">
-      <c r="J62" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="K62" s="15" t="s">
-        <v>171</v>
+      <c r="J62" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="J63" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="K64" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="K65" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="K66" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="K67" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="K68" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="K69" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="K70" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="K71" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="K72" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="K73" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" s="6" customFormat="1"/>
+    <row r="75" spans="1:14">
+      <c r="A75" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="B76" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="B77" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
-      <c r="J63" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="K63" s="15" t="s">
-        <v>669</v>
-      </c>
-      <c r="N63" s="1" t="s">
+    <row r="78" spans="1:14">
+      <c r="B78" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="N78" s="2" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
-      <c r="K64" s="15" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="K65" s="15" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="K66" s="15" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="K67" s="15" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="K68" s="15" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" s="16" customFormat="1"/>
-    <row r="71" spans="1:14">
-      <c r="A71" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="N71" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="B72" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="N72" s="15" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="B73" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="N73" s="15" t="s">
+    <row r="79" spans="1:14">
+      <c r="G79" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="G80" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="G81" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="N81" s="2" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
-      <c r="B74" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="N74" s="15" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="G75" s="15" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="G76" s="15" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="G77" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="G78" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="G79" s="15" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" s="16" customFormat="1"/>
     <row r="82" spans="1:14">
-      <c r="A82" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="K82" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="N82" s="15" t="s">
-        <v>40</v>
+      <c r="G82" s="2" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:14">
-      <c r="K83" s="15" t="s">
-        <v>667</v>
-      </c>
-      <c r="N83" s="15" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="K84" s="15" t="s">
+      <c r="G83" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="6" customFormat="1"/>
+    <row r="86" spans="1:14">
+      <c r="A86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="K87" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="K88" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="K89" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N84" s="15" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="K85" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="N85" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="K86" s="15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="K87" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="K88" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="K89" s="15" t="s">
-        <v>372</v>
+      <c r="N89" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:14">
-      <c r="K90" s="15" t="s">
-        <v>373</v>
+      <c r="K90" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:14">
-      <c r="K91" s="15" t="s">
-        <v>43</v>
+      <c r="K91" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="K92" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="K93" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="K94" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="K95" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N59:N63">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N59)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3617,52 +3961,52 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B33" sqref="B33"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="93" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="6" width="93" style="2"/>
-    <col min="7" max="16384" width="93" style="14"/>
+    <col min="7" max="16384" width="93" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>375</v>
+    <row r="1" spans="1:6" s="14" customFormat="1">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3675,22 +4019,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3703,22 +4047,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3731,19 +4075,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -3751,120 +4095,120 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3877,33 +4221,33 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3916,7 +4260,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>11</v>
@@ -3936,184 +4280,184 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="2" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="2" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4126,9 +4470,9 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B38" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4142,132 +4486,132 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="B41" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D39" s="2" t="s">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="10" t="s">
+      <c r="D43" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D40" s="2" t="s">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="10" t="s">
+      <c r="D44" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D41" s="2" t="s">
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="10" t="s">
+    <row r="46" spans="1:6">
+      <c r="B46" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D42" s="2" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="10" t="s">
+    <row r="48" spans="1:6">
+      <c r="B48" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D43" s="2" t="s">
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="10" t="s">
+    <row r="50" spans="1:6">
+      <c r="B50" s="10" t="s">
         <v>441</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="B49" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="B50" s="11" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4280,7 +4624,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4293,7 +4637,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>25</v>
@@ -4304,50 +4648,50 @@
     </row>
     <row r="60" spans="1:6">
       <c r="D60" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4360,7 +4704,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4373,21 +4717,21 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="2" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4400,35 +4744,35 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="E76" s="2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="E77" s="2" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="E78" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="E79" s="2" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="E80" s="2" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4441,85 +4785,85 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="B83" s="2" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="2" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" s="2" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" s="2" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4532,7 +4876,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4543,14 +4887,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B33" sqref="B33"/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
-      <selection pane="bottomRight" activeCell="F102" sqref="F102:F106"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J63" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B31" sqref="B31"/>
+      <selection pane="topRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4603,195 +4947,195 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1"/>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1"/>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="N7" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="R7" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>627</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1">
@@ -4800,88 +5144,88 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="R9" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="V9" s="1" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1"/>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -4890,7 +5234,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>8</v>
@@ -4902,13 +5246,13 @@
         <v>8</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>8</v>
@@ -4923,10 +5267,10 @@
         <v>8</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>8</v>
@@ -4937,374 +5281,374 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="R13" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="F16" s="1" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="F17" s="1" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="F18" s="1" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="F19" s="1" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="N21" s="1" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="N22" s="1" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="N23" s="1" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="N24" s="1" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="5" customFormat="1"/>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="P26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="B27" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="5" customFormat="1">
@@ -5314,7 +5658,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -5382,16 +5726,16 @@
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="4" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>12</v>
@@ -5406,57 +5750,57 @@
         <v>12</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>81</v>
+        <v>734</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="B31" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -5465,63 +5809,63 @@
         <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="B32" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
@@ -5536,125 +5880,125 @@
         <v>14</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>147</v>
+        <v>258</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>749</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>706</v>
+        <v>675</v>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>148</v>
+        <v>704</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>14</v>
@@ -5663,58 +6007,58 @@
         <v>16</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>732</v>
+        <v>82</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>656</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>149</v>
+        <v>744</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>149</v>
+        <v>744</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>149</v>
+        <v>744</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>149</v>
+        <v>744</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>149</v>
+        <v>744</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>16</v>
@@ -5723,36 +6067,46 @@
         <v>17</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
-        <v>201</v>
+        <v>730</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>16</v>
@@ -5767,22 +6121,29 @@
         <v>18</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -5796,10 +6157,10 @@
         <v>18</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>672</v>
+        <v>716</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>724</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -5808,7 +6169,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -5819,42 +6180,94 @@
         <v>18</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>724</v>
+      </c>
       <c r="Q38" s="4"/>
+      <c r="V38" s="4" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="39" spans="2:22">
-      <c r="J39" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="K39" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>728</v>
+      </c>
       <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
+      <c r="R39" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="40" spans="2:22">
+      <c r="F40" s="4" t="s">
+        <v>731</v>
+      </c>
       <c r="J40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22">
+      <c r="F41" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="2:22">
-      <c r="J41" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -5862,11 +6275,16 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+      <c r="R41" s="1" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="42" spans="2:22">
+      <c r="F42" s="1" t="s">
+        <v>727</v>
+      </c>
       <c r="J42" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -5878,7 +6296,7 @@
     </row>
     <row r="43" spans="2:22">
       <c r="J43" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -5890,7 +6308,7 @@
     </row>
     <row r="44" spans="2:22">
       <c r="J44" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -5902,7 +6320,7 @@
     </row>
     <row r="45" spans="2:22">
       <c r="J45" s="2" t="s">
-        <v>96</v>
+        <v>715</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -5914,7 +6332,7 @@
     </row>
     <row r="46" spans="2:22">
       <c r="J46" s="2" t="s">
-        <v>97</v>
+        <v>714</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -5925,9 +6343,6 @@
       <c r="R46" s="4"/>
     </row>
     <row r="47" spans="2:22">
-      <c r="J47" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -5938,7 +6353,7 @@
     </row>
     <row r="48" spans="2:22">
       <c r="J48" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -5949,9 +6364,6 @@
       <c r="R48" s="4"/>
     </row>
     <row r="49" spans="1:22">
-      <c r="J49" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -5962,7 +6374,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="J50" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -5974,7 +6386,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="J51" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -5986,7 +6398,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="J52" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -5997,8 +6409,8 @@
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="1:22">
-      <c r="J53" s="1" t="s">
-        <v>734</v>
+      <c r="J53" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -6009,8 +6421,8 @@
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="1:22">
-      <c r="J54" s="1" t="s">
-        <v>735</v>
+      <c r="J54" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -6020,1643 +6432,1752 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:22" s="5" customFormat="1">
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
+    <row r="55" spans="1:22">
+      <c r="J55" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B56" s="1" t="s">
+      <c r="J56" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="J57" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+    </row>
+    <row r="58" spans="1:22" s="5" customFormat="1">
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="S59" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T56" s="1" t="s">
+      <c r="T59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V56" s="1" t="s">
+      <c r="V59" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
-      <c r="B57" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F57" s="1" t="s">
+    <row r="60" spans="1:22">
+      <c r="B60" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="B61" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="L57" s="1" t="s">
+      <c r="H61" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="N57" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="T57" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22">
-      <c r="B58" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22">
-      <c r="F59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22">
-      <c r="F60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S60" s="2"/>
-      <c r="V60" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22">
-      <c r="F61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>158</v>
+      <c r="R61" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="F62" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="F63" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" s="5" customFormat="1"/>
+        <v>58</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S63" s="2"/>
+      <c r="V63" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="F64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>160</v>
+      <c r="F65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="L66" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22">
-      <c r="L67" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
+      <c r="F66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" s="5" customFormat="1"/>
     <row r="68" spans="1:22">
+      <c r="A68" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="L68" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="L69" s="1" t="s">
-        <v>163</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="L70" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" s="5" customFormat="1"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="L71" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="72" spans="1:22">
-      <c r="A72" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="L72" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="L73" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" s="5" customFormat="1"/>
+    <row r="75" spans="1:22">
+      <c r="A75" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22">
-      <c r="F73" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" s="2"/>
-      <c r="H73" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="F74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G74" s="2"/>
-      <c r="H74" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22">
-      <c r="F75" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="1" t="s">
-        <v>338</v>
+        <v>25</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="F76" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="K76" s="2"/>
+      <c r="H76" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="77" spans="1:22">
       <c r="F77" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="K77" s="2"/>
+      <c r="H77" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="78" spans="1:22">
       <c r="F78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="F79" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="F80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="F81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:22" s="5" customFormat="1"/>
-    <row r="80" spans="1:22">
-      <c r="A80" s="1" t="s">
+      <c r="G81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:22" s="5" customFormat="1"/>
+    <row r="83" spans="1:22">
+      <c r="A83" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U83" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="B84" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U80" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="B81" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I81" s="1" t="s">
+      <c r="C84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I84" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M81" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="N81" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="T81" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="U81" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="B82" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F82" s="1" t="s">
+      <c r="M84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="B85" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T82" s="2" t="s">
+      <c r="M85" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T85" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U82" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="B83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T83" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U83" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" s="5" customFormat="1">
-      <c r="M84" s="6"/>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="A85" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S85" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="T85" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U85" s="1" t="s">
-        <v>106</v>
+      <c r="U85" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="B86" s="1" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>209</v>
+        <v>32</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>255</v>
+        <v>32</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22">
-      <c r="B87" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="T87" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>708</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" s="5" customFormat="1">
+      <c r="M87" s="6"/>
     </row>
     <row r="88" spans="1:22">
+      <c r="A88" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="J88" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="T88" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="U88" s="1" t="s">
-        <v>707</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:22">
+      <c r="B89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="J89" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="T89" s="2"/>
-    </row>
-    <row r="90" spans="1:22" s="5" customFormat="1"/>
+        <v>243</v>
+      </c>
+      <c r="T89" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="U89" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="B90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="U90" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="R91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="U91" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="V91" s="1" t="s">
-        <v>681</v>
+      <c r="J91" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S91" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T91" s="2"/>
+      <c r="U91" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="92" spans="1:22">
-      <c r="B92" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>639</v>
-      </c>
       <c r="J92" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="R92" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="U92" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22">
-      <c r="B93" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="M93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="U93" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
+        <v>106</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="T92" s="2"/>
+    </row>
+    <row r="93" spans="1:22" s="5" customFormat="1"/>
     <row r="94" spans="1:22">
+      <c r="A94" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="B94" s="1" t="s">
-        <v>304</v>
+        <v>665</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>328</v>
+        <v>665</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>304</v>
+        <v>665</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>328</v>
+        <v>665</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>34</v>
+        <v>665</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>34</v>
+        <v>665</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>112</v>
+        <v>665</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>169</v>
+        <v>665</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>170</v>
+        <v>665</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>170</v>
+        <v>665</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>170</v>
+        <v>665</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>170</v>
+        <v>665</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>112</v>
+        <v>665</v>
+      </c>
+      <c r="T94" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>162</v>
+        <v>665</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>700</v>
+        <v>665</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="B95" s="1" t="s">
-        <v>303</v>
+        <v>621</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>326</v>
+        <v>622</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>303</v>
+        <v>621</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>326</v>
+        <v>622</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>66</v>
+        <v>497</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>66</v>
+        <v>497</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>35</v>
+        <v>498</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>624</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>113</v>
+        <v>499</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>113</v>
+        <v>499</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>163</v>
+        <v>500</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>171</v>
+        <v>500</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>171</v>
+        <v>500</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>171</v>
+        <v>500</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>171</v>
+        <v>500</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>113</v>
+        <v>499</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>260</v>
+        <v>501</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="B96" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
     </row>
     <row r="97" spans="2:22">
       <c r="B97" s="1" t="s">
-        <v>636</v>
+        <v>290</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>637</v>
+        <v>314</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>636</v>
+        <v>290</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>637</v>
+        <v>314</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>512</v>
+        <v>34</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>512</v>
+        <v>34</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>512</v>
+        <v>108</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>512</v>
+        <v>108</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>512</v>
+        <v>748</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>512</v>
+        <v>748</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>512</v>
+        <v>748</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>512</v>
+        <v>748</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="T97" s="1" t="s">
-        <v>512</v>
+        <v>108</v>
+      </c>
+      <c r="U97" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>512</v>
+        <v>685</v>
       </c>
     </row>
     <row r="98" spans="2:22">
       <c r="B98" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>33</v>
+        <v>109</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>33</v>
+        <v>109</v>
+      </c>
+      <c r="U98" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>33</v>
+        <v>689</v>
       </c>
     </row>
     <row r="99" spans="2:22">
       <c r="B99" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>34</v>
+        <v>110</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>34</v>
+        <v>747</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>34</v>
+        <v>747</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>34</v>
+        <v>747</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>34</v>
+        <v>747</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T99" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
+      </c>
+      <c r="U99" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>34</v>
+        <v>686</v>
       </c>
     </row>
     <row r="100" spans="2:22">
       <c r="B100" s="1" t="s">
-        <v>308</v>
+        <v>621</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>308</v>
+        <v>622</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>308</v>
+        <v>621</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>308</v>
+        <v>622</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>37</v>
+        <v>498</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>70</v>
+        <v>502</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>37</v>
+        <v>498</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>115</v>
+        <v>498</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>174</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="2:22">
       <c r="B101" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="F101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T101" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V101" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="2:22">
+      <c r="B102" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V102" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="2:22">
+      <c r="B103" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="T103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="V103" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="2:22">
+      <c r="B104" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I101" s="1" t="s">
+      <c r="G104" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="R101" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="T101" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="V101" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" spans="2:22">
-      <c r="F102" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="V102" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="103" spans="2:22">
-      <c r="F103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="2:22">
-      <c r="F104" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J104" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>729</v>
+        <v>112</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>34</v>
+        <v>167</v>
+      </c>
+      <c r="T104" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="2:22">
       <c r="F105" s="1" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>736</v>
+        <v>623</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>730</v>
+        <v>623</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>211</v>
+        <v>498</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
     </row>
     <row r="106" spans="2:22">
       <c r="F106" s="1" t="s">
-        <v>642</v>
+        <v>33</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>642</v>
+        <v>33</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>731</v>
+        <v>33</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>731</v>
+        <v>33</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="112" spans="2:22" s="5" customFormat="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="2:22">
+      <c r="F107" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V107" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="108" spans="2:22">
+      <c r="F108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="109" spans="2:22">
+      <c r="F109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="110" spans="2:22">
+      <c r="J110" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="111" spans="2:22">
+      <c r="J111" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="2:22">
+      <c r="J112" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I113" s="2"/>
       <c r="J113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K113" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V113" s="1" t="s">
-        <v>72</v>
+        <v>708</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="114" spans="1:22">
-      <c r="B114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I114" s="2"/>
       <c r="J114" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="V114" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22">
-      <c r="B115" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="I115" s="2"/>
-      <c r="J115" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="L115" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="V115" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
+        <v>707</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" s="5" customFormat="1"/>
     <row r="116" spans="1:22">
+      <c r="A116" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="B116" s="1" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="1" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>705</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:22">
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
+      <c r="B117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="I117" s="2"/>
       <c r="J117" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K117" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="V117" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="118" spans="1:22">
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
+      <c r="B118" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>741</v>
+      </c>
       <c r="I118" s="2"/>
       <c r="J118" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K118" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V118" s="1" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="119" spans="1:22">
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
+      <c r="B119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="I119" s="2"/>
       <c r="J119" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K119" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="K119" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V119" s="1" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="120" spans="1:22">
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K120" s="2"/>
     </row>
@@ -7665,7 +8186,7 @@
       <c r="G121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="K121" s="2"/>
     </row>
@@ -7674,240 +8195,1345 @@
       <c r="G122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:22" s="5" customFormat="1"/>
+    <row r="123" spans="1:22">
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K123" s="2"/>
+    </row>
     <row r="124" spans="1:22">
-      <c r="A124" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="1:22">
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:22" s="5" customFormat="1"/>
+    <row r="127" spans="1:22">
+      <c r="A127" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V127" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22">
+      <c r="F128" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I128" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L124" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N124" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R124" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V124" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22">
-      <c r="F125" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I125" s="1" t="s">
+      <c r="K128" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V128" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22">
+      <c r="F129" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L125" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N125" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="R125" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="V125" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22">
-      <c r="F126" s="1" t="s">
+      <c r="G129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R129" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="V129" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22">
+      <c r="F130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I126" s="1" t="s">
+      <c r="H130" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I130" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L126" s="2" t="s">
+      <c r="K130" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L130" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M126" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N126" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O126" s="1" t="s">
+      <c r="M130" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P126" s="1" t="s">
+      <c r="N130" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O130" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R126" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="V126" s="1" t="s">
+      <c r="P130" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="127" spans="1:22">
-      <c r="F127" s="1" t="s">
+      <c r="R130" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V130" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22">
+      <c r="I131" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="K131" s="3"/>
+      <c r="L131" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="P131" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="V131" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N127" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R127" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V127" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22">
-      <c r="I128" s="1" t="s">
+    </row>
+    <row r="132" spans="1:22">
+      <c r="I132" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K128" s="3"/>
-      <c r="L128" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V128" s="1" t="s">
+      <c r="K132" s="3"/>
+      <c r="L132" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="129" spans="1:22">
-      <c r="I129" s="1" t="s">
+      <c r="M132" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V132" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22">
+      <c r="I133" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K129" s="3"/>
-      <c r="L129" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V129" s="1" t="s">
+      <c r="K133" s="3"/>
+      <c r="L133" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="130" spans="1:22">
-      <c r="I130" s="1" t="s">
+      <c r="M133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V133" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22">
+      <c r="F134" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K130" s="3"/>
-      <c r="L130" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V130" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="131" spans="1:22">
-      <c r="F131" s="1" t="s">
+      <c r="I134" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22">
+      <c r="F135" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I135" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22">
-      <c r="F132" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22">
-      <c r="F133" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" s="5" customFormat="1"/>
-    <row r="135" spans="1:22">
-      <c r="A135" s="1" t="s">
-        <v>727</v>
+    </row>
+    <row r="136" spans="1:22">
+      <c r="F136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" s="5" customFormat="1"/>
+    <row r="138" spans="1:22">
+      <c r="A138" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="V138" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22">
+      <c r="F139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="R139" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="V139" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22">
+      <c r="F140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="R140" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="V140" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22">
+      <c r="F141" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="R141" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="V141" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22">
+      <c r="F142" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="R142" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="V142" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22">
+      <c r="F143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="R143" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="V143" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A87:T88 V87:XFD88 A89:XFD1048576 A1:XFD86">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="col: units">
+  <conditionalFormatting sqref="A90:T91 V90:XFD91 J40:J46 J48 J50:J57 A105:E109 Q105:U109 A178:XFD1048576 A172:J177 L172:XFD177 A34:J38 K45:XFD57 K34:K35 S110:XFD114 K37:K39 A110:Q114 A39:I57 W105:XFD109 G105:J109 A1:XFD29 A58:XFD89 L41:XFD44 A30:K33 Q30:XFD40 A137:XFD171 A134:K136 M134:XFD136 A115:XFD133 A92:XFD104">
+    <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U87:U88">
+  <conditionalFormatting sqref="U90:U91">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",U90)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V105:V109">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",V105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K105:K109">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",K105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R110:R114">
+    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",R110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:F109">
+    <cfRule type="containsText" dxfId="11" priority="24" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",F105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L105:L109">
+    <cfRule type="containsText" dxfId="10" priority="22" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",L105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:L37 L30:L31">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",L30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M105:M109">
+    <cfRule type="containsText" dxfId="8" priority="20" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",M105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O34:O37 O30:O31">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",O30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34:N37 N30:N31">
+    <cfRule type="containsText" dxfId="6" priority="18" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",N30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N105:N109">
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",N105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O105:O109">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",O105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P105:P109">
+    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",P105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:M37 M30:M31">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",M30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34:P37 P30:P31">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",P30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38:P40">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="col: units">
-      <formula>NOT(ISERROR(SEARCH("col: units",U87)))</formula>
+      <formula>NOT(ISERROR(SEARCH("col: units",L38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E3C27-1365-884B-A69E-493300A2017A}">
+  <dimension ref="A1:I86"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="77.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.83203125" style="15" customWidth="1"/>
+    <col min="5" max="9" width="73.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="19" customFormat="1" ht="13">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="20" customFormat="1" ht="13">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="13">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="20" customFormat="1" ht="13">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="13">
+      <c r="A6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="20" customFormat="1" ht="13">
+      <c r="A7" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="13">
+      <c r="A8" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="20" customFormat="1" ht="13">
+      <c r="A9" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="13">
+      <c r="A10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" s="20" customFormat="1" ht="13">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="13">
+      <c r="A16" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" s="20" customFormat="1" ht="13">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="13">
+      <c r="A19" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" s="20" customFormat="1" ht="13">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" ht="13">
+      <c r="A29" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" ht="13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" ht="13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" ht="13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="13">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="13">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" s="20" customFormat="1" ht="13">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="13">
+      <c r="A38" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="13">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="13">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="13">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="13">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="13">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" s="20" customFormat="1" ht="13">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" ht="13">
+      <c r="A45" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="13">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="13">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="13">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="20" customFormat="1" ht="13">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" ht="13">
+      <c r="A50" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="13">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" ht="13">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" ht="13">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" s="20" customFormat="1" ht="13">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" ht="13">
+      <c r="A55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="13">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" s="20" customFormat="1" ht="13">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" ht="13">
+      <c r="A58" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" ht="13">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="13">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" ht="13">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="13">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" ht="13">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" ht="13">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="13">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="13">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" ht="13">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" ht="13">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="13">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="13">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" ht="13">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="13">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="13">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" s="20" customFormat="1" ht="13">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" ht="13">
+      <c r="A75" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="13">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" ht="13">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="13">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" ht="13">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" ht="13">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" ht="13">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" ht="13">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" ht="13">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" ht="13">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" s="20" customFormat="1" ht="13">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" ht="13">
+      <c r="A86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE35AD15-8010-0D4F-965D-88C6240791B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEF7497-0510-A846-BC7C-DC279B21E6DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="23600" yWindow="0" windowWidth="10000" windowHeight="21000" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_parse" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="794">
   <si>
     <t>bea_supply</t>
   </si>
@@ -65,12 +65,6 @@
     <t>CSVInput:</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: SAEXP1_1997_2017_ALL_AREAS_.csv, descriptor: SAEXP1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAEXP2_1997_2017_ALL_AREAS_.csv, descriptor: SAEXP2}</t>
-  </si>
-  <si>
     <t>Order:</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t xml:space="preserve">    input:  industry_desc</t>
   </si>
   <si>
-    <t xml:space="preserve">    output: industry_desc</t>
-  </si>
-  <si>
     <t xml:space="preserve">    input:  region_desc</t>
   </si>
   <si>
@@ -188,12 +179,6 @@
     <t># TODO: industry_code, units, region/region level, region_code 00998</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: MAGDP10_2001_2017_ALL_AREAS.csv, descriptor: MAGP10}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP11N__ALL_AREAS_1998_2017.csv, descriptor: SAGDP11N}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: component,     type: String}</t>
   </si>
   <si>
@@ -1583,39 +1568,6 @@
     <t xml:space="preserve">  name:  97states.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: SAGDP2N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP2N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP3N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP3N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP4N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP4N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP5N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP5N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP6N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP6N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP7N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP7N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP8N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP8N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: SAGDP9N__ALL_AREAS_1997_2017.csv,  descriptor: SAGDP9N}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: MAGDP2_2001_2017_ALL_AREAS.csv,  descriptor: MAGDP2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: MAGDP8_2001_2017_ALL_AREAS.csv,  descriptor: MAGDP8}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: MAGDP9_2001_2017_ALL_AREAS.csv,  descriptor: MAGDP9}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name:  GCP_Release_1.xlsx</t>
   </si>
   <si>
@@ -2400,6 +2352,72 @@
   </si>
   <si>
     <t>PathOut: [.., data, coremaps, bluenote, bea_detail.csv]</t>
+  </si>
+  <si>
+    <t># - {col: region_code,   type: String}</t>
+  </si>
+  <si>
+    <t># - {col: industry_code, type: String}</t>
+  </si>
+  <si>
+    <t># - {col: industry_desc, type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col: [IndustryClassification, Description, region_code]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP2N__ALL_AREAS_1997_2017.csv,  descriptor: gdp}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP3N__ALL_AREAS_1997_2017.csv,  descriptor: taxsbd}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP4N__ALL_AREAS_1997_2017.csv,  descriptor: cmp}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP5N__ALL_AREAS_1997_2017.csv,  descriptor: sbd}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP6N__ALL_AREAS_1997_2017.csv,  descriptor: tax}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP7N__ALL_AREAS_1997_2017.csv,  descriptor: gos}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP8N__ALL_AREAS_1997_2017.csv,  descriptor: qty}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAGDP9N__ALL_AREAS_1997_2017.csv,  descriptor: rgdp}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: MAGDP2_2001_2017_ALL_AREAS.csv,  descriptor: gdp}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: MAGDP8_2001_2017_ALL_AREAS.csv,  descriptor: qty}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: MAGDP9_2001_2017_ALL_AREAS.csv,  descriptor: rgdp}</t>
+  </si>
+  <si>
+    <t># - {name: SAGDP11N__ALL_AREAS_1998_2017.csv, descriptor: Contributions to percent change in real GDP}</t>
+  </si>
+  <si>
+    <t># - {name: MAGDP10_2001_2017_ALL_AREAS.csv, descriptor: Per capita real GDP by metropolitan area}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: SAEXP1_1997_2017_ALL_AREAS_.csv, descriptor: Total personal consumption expenditures (PCE) by state}</t>
+  </si>
+  <si>
+    <t># Describe:</t>
+  </si>
+  <si>
+    <t>#  col: component</t>
+  </si>
+  <si>
+    <t># - {name: SAEXP2_1997_2017_ALL_AREAS_.csv, descriptor: Per capita personal consumption expenditures (PCE) by state}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: windc_code,    type: String}</t>
   </si>
 </sst>
 </file>
@@ -3047,186 +3065,186 @@
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="D2" s="2" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1"/>
     <row r="4" spans="1:14">
       <c r="B4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1"/>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1"/>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1"/>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -3244,7 +3262,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>8</v>
@@ -3253,7 +3271,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>8</v>
@@ -3270,678 +3288,678 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="2" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="M11" s="2" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="D12" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="E13" s="2" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="E14" s="2" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1"/>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1"/>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="B20" s="2" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" s="2" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="2" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="F24" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="2" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="F26" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="6" customFormat="1"/>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="2" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="B32" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="F33" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1"/>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="6" customFormat="1"/>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="G46" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="G47" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="G48" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="6" customFormat="1"/>
     <row r="50" spans="1:14">
       <c r="A50" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="6" customFormat="1"/>
     <row r="55" spans="1:14">
       <c r="A55" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="6" customFormat="1"/>
     <row r="58" spans="1:14">
       <c r="A58" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="J59" s="2" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="J60" s="2" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="J61" s="2" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="J62" s="2" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="J63" s="2" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="K64" s="2" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="K65" s="2" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="K66" s="2" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="K67" s="2" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="K68" s="2" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="K69" s="2" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="K70" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="K71" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="K72" s="2" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="K73" s="2" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="6" customFormat="1"/>
     <row r="75" spans="1:14">
       <c r="A75" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="B76" s="2" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="B77" s="2" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="B78" s="2" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="G79" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="G80" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="G81" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="G82" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="G83" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="6" customFormat="1"/>
     <row r="86" spans="1:14">
       <c r="A86" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="K87" s="2" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="K88" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="K89" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="K90" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="K91" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="K92" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="K93" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="K94" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="K95" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3977,36 +3995,36 @@
     <row r="1" spans="1:6" s="14" customFormat="1">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>370</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4019,22 +4037,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4047,22 +4065,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4075,19 +4093,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -4095,120 +4113,120 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>493</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4221,33 +4239,33 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4260,204 +4278,204 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4470,148 +4488,148 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="9" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="9" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="9" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="9" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="9" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="9" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="10" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4624,7 +4642,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4637,61 +4655,61 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="D60" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4704,7 +4722,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4717,21 +4735,21 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4744,35 +4762,35 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="E76" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="E77" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="E78" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="E79" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="E80" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4785,85 +4803,85 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="B83" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4876,7 +4894,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4889,12 +4907,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
   <dimension ref="A1:V143"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J63" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="K77" sqref="K77"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4947,195 +4965,195 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="S1" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="5" customFormat="1"/>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1"/>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="N7" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="S7" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="U7" s="2" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1">
@@ -5144,88 +5162,88 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="T9" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1"/>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -5234,7 +5252,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>8</v>
@@ -5246,13 +5264,13 @@
         <v>8</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>8</v>
@@ -5267,10 +5285,10 @@
         <v>8</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>8</v>
@@ -5281,374 +5299,392 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>515</v>
+        <v>776</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>523</v>
+        <v>784</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>9</v>
+        <v>789</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>516</v>
+        <v>777</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>524</v>
+        <v>785</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>10</v>
+        <v>792</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>517</v>
+        <v>778</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>525</v>
+        <v>786</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>518</v>
+        <v>779</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>788</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="F16" s="1" t="s">
-        <v>519</v>
+        <v>780</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="F17" s="1" t="s">
-        <v>520</v>
+        <v>781</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="F18" s="1" t="s">
-        <v>521</v>
+        <v>782</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="F19" s="1" t="s">
-        <v>522</v>
+        <v>783</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>787</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="N21" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="N22" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="N23" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="N24" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="5" customFormat="1"/>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>790</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P26" s="2"/>
       <c r="R26" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:22">
       <c r="B27" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>791</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="5" customFormat="1">
@@ -5658,509 +5694,512 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="B31" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>13</v>
+        <v>772</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>13</v>
+        <v>772</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="B32" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>16</v>
+        <v>793</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>54</v>
+        <v>773</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>774</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="2:22">
       <c r="F37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -6169,105 +6208,105 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="2:22">
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="V38" s="4" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="2:22">
       <c r="K39" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="F40" s="4" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="F41" s="4" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -6276,15 +6315,15 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="1" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="F42" s="1" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -6296,7 +6335,7 @@
     </row>
     <row r="43" spans="2:22">
       <c r="J43" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -6308,7 +6347,7 @@
     </row>
     <row r="44" spans="2:22">
       <c r="J44" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -6320,7 +6359,7 @@
     </row>
     <row r="45" spans="2:22">
       <c r="J45" s="2" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -6332,7 +6371,7 @@
     </row>
     <row r="46" spans="2:22">
       <c r="J46" s="2" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -6353,7 +6392,7 @@
     </row>
     <row r="48" spans="2:22">
       <c r="J48" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -6374,7 +6413,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="J50" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -6386,7 +6425,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="J51" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -6398,7 +6437,7 @@
     </row>
     <row r="52" spans="1:22">
       <c r="J52" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -6410,7 +6449,7 @@
     </row>
     <row r="53" spans="1:22">
       <c r="J53" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -6422,7 +6461,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="J54" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -6434,7 +6473,7 @@
     </row>
     <row r="55" spans="1:22">
       <c r="J55" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -6446,7 +6485,7 @@
     </row>
     <row r="56" spans="1:22">
       <c r="J56" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
@@ -6458,7 +6497,7 @@
     </row>
     <row r="57" spans="1:22">
       <c r="J57" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
@@ -6479,374 +6518,374 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:22">
       <c r="F62" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
     </row>
     <row r="63" spans="1:22">
       <c r="F63" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="S63" s="2"/>
       <c r="V63" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:22">
       <c r="F64" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="F65" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="F66" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:22" s="5" customFormat="1"/>
     <row r="68" spans="1:22">
       <c r="A68" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="L69" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="L70" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="L71" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="L72" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="L73" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:22" s="5" customFormat="1"/>
     <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="F76" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="F77" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="F78" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="F79" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G79" s="2"/>
       <c r="I79" s="2"/>
@@ -6854,7 +6893,7 @@
     </row>
     <row r="80" spans="1:22">
       <c r="F80" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G80" s="2"/>
       <c r="I80" s="2"/>
@@ -6862,7 +6901,7 @@
     </row>
     <row r="81" spans="1:22">
       <c r="F81" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G81" s="2"/>
       <c r="I81" s="2"/>
@@ -6871,169 +6910,169 @@
     <row r="82" spans="1:22" s="5" customFormat="1"/>
     <row r="83" spans="1:22">
       <c r="A83" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T83" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:22">
       <c r="B84" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="T84" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:22">
       <c r="B85" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="T85" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:22">
       <c r="B86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:22" s="5" customFormat="1">
@@ -7041,1135 +7080,1135 @@
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="T88" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U88" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:22">
       <c r="B89" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:22">
       <c r="B90" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" spans="1:22">
       <c r="J91" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="T91" s="2"/>
       <c r="U91" s="1" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
     </row>
     <row r="92" spans="1:22">
       <c r="J92" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="1:22" s="5" customFormat="1"/>
     <row r="94" spans="1:22">
       <c r="A94" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="B95" s="1" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="B96" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
     </row>
     <row r="97" spans="2:22">
       <c r="B97" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
     </row>
     <row r="98" spans="2:22">
       <c r="B98" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="99" spans="2:22">
       <c r="B99" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>36</v>
+        <v>639</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="100" spans="2:22">
       <c r="B100" s="1" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101" spans="2:22">
       <c r="B101" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="2:22">
       <c r="B102" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V102" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" spans="2:22">
       <c r="B103" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="2:22">
       <c r="B104" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="2:22">
       <c r="F105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="2:22">
       <c r="F106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="2:22">
       <c r="F107" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="108" spans="2:22">
       <c r="F108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="109" spans="2:22">
       <c r="F109" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="110" spans="2:22">
       <c r="J110" s="1" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="111" spans="2:22">
       <c r="J111" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R111" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="2:22">
       <c r="J112" s="1" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
     </row>
     <row r="113" spans="1:22">
       <c r="J113" s="1" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="R113" s="1" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="114" spans="1:22">
       <c r="J114" s="1" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
     </row>
     <row r="115" spans="1:22" s="5" customFormat="1"/>
     <row r="116" spans="1:22">
       <c r="A116" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:22">
       <c r="B117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:22">
       <c r="B118" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:22">
       <c r="B119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8177,7 +8216,7 @@
       <c r="G120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K120" s="2"/>
     </row>
@@ -8186,7 +8225,7 @@
       <c r="G121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K121" s="2"/>
     </row>
@@ -8195,7 +8234,7 @@
       <c r="G122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K122" s="2"/>
     </row>
@@ -8204,7 +8243,7 @@
       <c r="G123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K123" s="2"/>
     </row>
@@ -8213,7 +8252,7 @@
       <c r="G124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K124" s="2"/>
     </row>
@@ -8222,469 +8261,478 @@
       <c r="G125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K125" s="2"/>
     </row>
     <row r="126" spans="1:22" s="5" customFormat="1"/>
     <row r="127" spans="1:22">
       <c r="A127" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128" spans="1:22">
       <c r="F128" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="R128" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:22">
       <c r="F129" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:22">
       <c r="F130" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:22">
+      <c r="F131" s="1" t="s">
+        <v>775</v>
+      </c>
       <c r="I131" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K131" s="3"/>
       <c r="L131" s="2" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:22">
+      <c r="F132" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I132" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K132" s="3"/>
       <c r="L132" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:22">
+      <c r="F133" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I133" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K133" s="3"/>
       <c r="L133" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:22">
       <c r="F134" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" spans="1:22">
       <c r="F135" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:22">
       <c r="F136" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:22" s="5" customFormat="1"/>
     <row r="138" spans="1:22">
       <c r="A138" s="1" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="139" spans="1:22">
       <c r="F139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="140" spans="1:22">
       <c r="F140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
     </row>
     <row r="141" spans="1:22">
       <c r="F141" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
     </row>
     <row r="142" spans="1:22">
       <c r="F142" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
     </row>
     <row r="143" spans="1:22">
       <c r="F143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A90:T91 V90:XFD91 J40:J46 J48 J50:J57 A105:E109 Q105:U109 A178:XFD1048576 A172:J177 L172:XFD177 A34:J38 K45:XFD57 K34:K35 S110:XFD114 K37:K39 A110:Q114 A39:I57 W105:XFD109 G105:J109 A1:XFD29 A58:XFD89 L41:XFD44 A30:K33 Q30:XFD40 A137:XFD171 A134:K136 M134:XFD136 A115:XFD133 A92:XFD104">
+  <conditionalFormatting sqref="A90:T91 V90:XFD91 J40:J46 J48 J50:J57 A105:E109 Q105:U109 A178:XFD1048576 A172:J177 L172:XFD177 K45:XFD57 K34:K35 S110:XFD114 K37:K39 A110:Q114 W105:XFD109 G105:J109 A58:XFD89 L41:XFD44 A30:K33 Q30:XFD40 A137:XFD171 A134:K136 M134:XFD136 A92:XFD104 A115:XFD133 A1:XFD29 A39:I46 A47:H47 A48:I57 A34:J38">
     <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
     </cfRule>
@@ -8777,8 +8825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E3C27-1365-884B-A69E-493300A2017A}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -8794,25 +8842,25 @@
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13">
@@ -8831,25 +8879,25 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="13">
@@ -8860,34 +8908,34 @@
     </row>
     <row r="6" spans="1:9" ht="13">
       <c r="A6" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A7" s="6" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -8895,34 +8943,34 @@
     </row>
     <row r="8" spans="1:9" ht="13">
       <c r="A8" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="16" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A9" s="6" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8930,86 +8978,86 @@
     </row>
     <row r="10" spans="1:9" ht="13">
       <c r="A10" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="I11" s="17" t="s">
         <v>768</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>771</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>774</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -9017,7 +9065,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -9029,7 +9077,7 @@
     </row>
     <row r="16" spans="1:9" ht="13">
       <c r="A16" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9049,11 +9097,11 @@
     </row>
     <row r="19" spans="1:4" ht="13">
       <c r="A19" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -9061,7 +9109,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -9069,7 +9117,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -9077,7 +9125,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -9085,7 +9133,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -9093,7 +9141,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -9123,11 +9171,11 @@
     </row>
     <row r="29" spans="1:4" ht="13">
       <c r="A29" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2"/>
     </row>
@@ -9135,7 +9183,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -9143,7 +9191,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -9151,7 +9199,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -9187,7 +9235,7 @@
     </row>
     <row r="38" spans="1:5" ht="13">
       <c r="A38" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9231,15 +9279,15 @@
     </row>
     <row r="45" spans="1:5" ht="13">
       <c r="A45" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="13">
@@ -9247,10 +9295,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="17" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13">
@@ -9258,10 +9306,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="17" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13">
@@ -9269,10 +9317,10 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="17" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="20" customFormat="1" ht="13">
@@ -9283,7 +9331,7 @@
     </row>
     <row r="50" spans="1:4" ht="13">
       <c r="A50" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9315,7 +9363,7 @@
     </row>
     <row r="55" spans="1:4" ht="13">
       <c r="A55" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9335,11 +9383,11 @@
     </row>
     <row r="58" spans="1:4" ht="13">
       <c r="A58" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -9347,7 +9395,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -9355,7 +9403,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -9363,7 +9411,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -9371,7 +9419,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -9379,7 +9427,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -9451,11 +9499,11 @@
     </row>
     <row r="75" spans="1:4" ht="13">
       <c r="A75" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D75" s="2"/>
     </row>
@@ -9463,7 +9511,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -9471,7 +9519,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -9479,7 +9527,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -9527,7 +9575,7 @@
     </row>
     <row r="86" spans="1:4" ht="13">
       <c r="A86" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEF7497-0510-A846-BC7C-DC279B21E6DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CCC5F1-4034-C64F-B405-82DEA2840693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23600" yWindow="0" windowWidth="10000" windowHeight="21000" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
@@ -4908,11 +4908,11 @@
   <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6100,7 +6100,7 @@
         <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>14</v>
+        <v>774</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>78</v>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CCC5F1-4034-C64F-B405-82DEA2840693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E859EC-4AAE-F84D-A5D7-EB30FBFC3F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23600" yWindow="0" windowWidth="10000" windowHeight="21000" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_parse" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="805">
   <si>
     <t>bea_supply</t>
   </si>
@@ -452,9 +452,6 @@
     <t xml:space="preserve">  - {col: state,     type: String}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: sgf_windc, type: String}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: units,     type: String}</t>
   </si>
   <si>
@@ -569,12 +566,6 @@
     <t>census_utd</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {name: "State Imports by NAICS Commodities.csv", descriptor: import}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {name: "State Exports by NAICS Commodities.csv", descriptor: export}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  col: flow</t>
   </si>
   <si>
@@ -626,9 +617,6 @@
     <t xml:space="preserve">    output: country</t>
   </si>
   <si>
-    <t xml:space="preserve">  val: 2017 through November</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name: Complete_SEDS_update.csv</t>
   </si>
   <si>
@@ -2418,6 +2406,51 @@
   </si>
   <si>
     <t xml:space="preserve">  - {col: windc_code,    type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: "State Imports by NAICS Commodities.csv", descriptor: imports}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: "State Exports by NAICS Commodities.csv", descriptor: exports}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: from, type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: to,   type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  from: federa offshore, pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  to:   federal offshore, pacific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col:  to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col: year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val: 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    operation: "&lt;"</t>
+  </si>
+  <si>
+    <t># - {col: sgf_windc, type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val: 2017 through November</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col: country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val: world total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    operation: "!="</t>
   </si>
 </sst>
 </file>
@@ -3040,11 +3073,11 @@
   <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I44" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3065,186 +3098,186 @@
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>359</v>
-      </c>
       <c r="M1" s="11" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="D2" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1"/>
     <row r="4" spans="1:14">
       <c r="B4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1"/>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1"/>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="L8" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="M8" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1"/>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -3288,124 +3321,124 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="D12" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="E13" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="E14" s="2" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1"/>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1"/>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -3422,6 +3455,9 @@
       <c r="G19" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="J19" s="2" t="s">
         <v>9</v>
       </c>
@@ -3431,115 +3467,121 @@
     </row>
     <row r="20" spans="1:11">
       <c r="B20" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>792</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>523</v>
+        <v>519</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>793</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="F24" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="F26" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="6" customFormat="1"/>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -3565,79 +3607,79 @@
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="B32" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="F33" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1"/>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="6" customFormat="1"/>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>23</v>
@@ -3645,60 +3687,60 @@
     </row>
     <row r="46" spans="1:7">
       <c r="G46" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="G47" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="G48" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="6" customFormat="1"/>
     <row r="50" spans="1:14">
       <c r="A50" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="6" customFormat="1"/>
     <row r="55" spans="1:14">
       <c r="A55" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="6" customFormat="1"/>
     <row r="58" spans="1:14">
       <c r="A58" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="J59" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="J60" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>31</v>
@@ -3709,65 +3751,65 @@
     </row>
     <row r="61" spans="1:14">
       <c r="J61" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="J62" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="J63" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="K64" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="K65" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="K66" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="K67" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="K68" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="K69" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3782,18 +3824,18 @@
     </row>
     <row r="72" spans="1:14">
       <c r="K72" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="K73" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="6" customFormat="1"/>
     <row r="75" spans="1:14">
       <c r="A75" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>66</v>
@@ -3807,99 +3849,111 @@
       <c r="G75" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="I75" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="N75" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="B76" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>796</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="B77" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>794</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="B78" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>795</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="G79" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="G80" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="G81" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="G82" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="G83" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="6" customFormat="1"/>
     <row r="86" spans="1:14">
       <c r="A86" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>36</v>
@@ -3910,10 +3964,10 @@
     </row>
     <row r="87" spans="1:14">
       <c r="K87" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -3921,7 +3975,7 @@
         <v>38</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -3929,12 +3983,12 @@
         <v>39</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="K90" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -3949,12 +4003,12 @@
     </row>
     <row r="93" spans="1:14">
       <c r="K93" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="K94" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -3995,36 +4049,36 @@
     <row r="1" spans="1:6" s="14" customFormat="1">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>364</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4037,22 +4091,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4065,22 +4119,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4093,7 +4147,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>116</v>
@@ -4113,120 +4167,120 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4239,7 +4293,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>134</v>
@@ -4256,16 +4310,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4278,7 +4332,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
@@ -4298,184 +4352,184 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4488,7 +4542,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>17</v>
@@ -4505,131 +4559,131 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="9" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="9" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="9" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4642,7 +4696,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4655,7 +4709,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>23</v>
@@ -4666,50 +4720,50 @@
     </row>
     <row r="60" spans="1:6">
       <c r="D60" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4722,7 +4776,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4735,7 +4789,7 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>97</v>
@@ -4746,10 +4800,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4762,35 +4816,35 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="E76" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="E77" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="E78" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="E79" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="E80" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4803,7 +4857,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>66</v>
@@ -4820,68 +4874,68 @@
     </row>
     <row r="83" spans="1:6">
       <c r="B83" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4894,7 +4948,7 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4908,11 +4962,11 @@
   <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J112" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomRight" activeCell="L129" sqref="L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4968,51 +5022,51 @@
         <v>71</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="Q1" s="8" t="s">
         <v>115</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>45</v>
@@ -5024,136 +5078,136 @@
     <row r="4" spans="1:22" s="5" customFormat="1"/>
     <row r="5" spans="1:22">
       <c r="B5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:22" s="5" customFormat="1"/>
     <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>596</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:22" s="5" customFormat="1">
@@ -5162,76 +5216,76 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="L9" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="5" customFormat="1"/>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>116</v>
@@ -5299,37 +5353,37 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>117</v>
@@ -5344,54 +5398,54 @@
         <v>120</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>177</v>
+        <v>790</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>121</v>
@@ -5400,7 +5454,7 @@
         <v>122</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>123</v>
@@ -5409,45 +5463,45 @@
         <v>124</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>178</v>
+        <v>791</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>125</v>
@@ -5456,7 +5510,7 @@
         <v>126</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>127</v>
@@ -5465,33 +5519,33 @@
         <v>128</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="B15" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>129</v>
@@ -5500,109 +5554,109 @@
         <v>130</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>131</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="F16" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>132</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="F17" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>133</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="F18" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:22">
       <c r="F19" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:22">
       <c r="F20" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="N21" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:22">
       <c r="N22" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="N23" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="N24" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:22" s="5" customFormat="1"/>
     <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>134</v>
@@ -5617,13 +5671,13 @@
         <v>134</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>134</v>
@@ -5659,13 +5713,13 @@
         <v>135</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>135</v>
@@ -5681,10 +5735,10 @@
       </c>
       <c r="P27" s="2"/>
       <c r="R27" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:22" s="5" customFormat="1">
@@ -5694,7 +5748,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
@@ -5762,16 +5816,16 @@
     </row>
     <row r="30" spans="1:22">
       <c r="B30" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -5786,10 +5840,10 @@
         <v>10</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>136</v>
@@ -5810,51 +5864,51 @@
         <v>136</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="B31" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>137</v>
@@ -5875,33 +5929,33 @@
         <v>137</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="B32" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
@@ -5919,54 +5973,54 @@
         <v>75</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>138</v>
+        <v>800</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>47</v>
@@ -5975,7 +6029,7 @@
         <v>47</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>13</v>
@@ -5984,51 +6038,51 @@
         <v>76</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="2:22">
       <c r="B34" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>48</v>
@@ -6040,58 +6094,58 @@
         <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>77</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="U34" s="4"/>
       <c r="V34" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="2:22">
       <c r="B35" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>49</v>
@@ -6100,52 +6154,52 @@
         <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -6160,26 +6214,26 @@
         <v>79</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:22">
@@ -6196,10 +6250,10 @@
         <v>16</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -6208,7 +6262,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="2:22">
@@ -6222,88 +6276,88 @@
         <v>80</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="V38" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="39" spans="2:22">
       <c r="K39" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="F40" s="4" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="F41" s="4" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>86</v>
@@ -6315,12 +6369,12 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="F42" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>87</v>
@@ -6359,7 +6413,7 @@
     </row>
     <row r="45" spans="2:22">
       <c r="J45" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -6371,7 +6425,7 @@
     </row>
     <row r="46" spans="2:22">
       <c r="J46" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -6518,7 +6572,7 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>17</v>
@@ -6580,16 +6634,16 @@
     </row>
     <row r="60" spans="1:22">
       <c r="B60" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>50</v>
@@ -6598,7 +6652,7 @@
         <v>50</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>18</v>
@@ -6607,48 +6661,48 @@
         <v>95</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M60" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>95</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="B61" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>51</v>
@@ -6657,7 +6711,7 @@
         <v>51</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>19</v>
@@ -6666,22 +6720,22 @@
         <v>96</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P61" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="R61" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -6692,19 +6746,19 @@
         <v>52</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -6715,17 +6769,17 @@
         <v>53</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S63" s="2"/>
       <c r="V63" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -6739,7 +6793,7 @@
         <v>22</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -6750,7 +6804,7 @@
         <v>55</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -6764,41 +6818,41 @@
     <row r="67" spans="1:22" s="5" customFormat="1"/>
     <row r="68" spans="1:22">
       <c r="A68" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="L69" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="L70" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="L71" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="L72" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:22">
       <c r="L73" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:22" s="5" customFormat="1"/>
     <row r="75" spans="1:22">
       <c r="A75" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>23</v>
@@ -6817,7 +6871,7 @@
         <v>23</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -6826,19 +6880,19 @@
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="V76" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -6847,19 +6901,19 @@
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="V77" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -6868,19 +6922,19 @@
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -6910,7 +6964,7 @@
     <row r="82" spans="1:22" s="5" customFormat="1"/>
     <row r="83" spans="1:22">
       <c r="A83" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>27</v>
@@ -6954,16 +7008,16 @@
     </row>
     <row r="84" spans="1:22">
       <c r="B84" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>59</v>
@@ -6972,39 +7026,39 @@
         <v>59</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="M84" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O84" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="T84" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="O84" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T84" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="U84" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:22">
       <c r="B85" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>29</v>
@@ -7019,19 +7073,19 @@
         <v>29</v>
       </c>
       <c r="M85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O85" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="N85" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="T85" s="2" t="s">
         <v>29</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -7080,7 +7134,7 @@
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>97</v>
@@ -7118,72 +7172,72 @@
     </row>
     <row r="89" spans="1:22">
       <c r="B89" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="S89" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="T89" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:22">
       <c r="B90" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>99</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="T90" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" spans="1:22">
@@ -7191,11 +7245,11 @@
         <v>100</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="T91" s="2"/>
       <c r="U91" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -7203,141 +7257,141 @@
         <v>101</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="T92" s="2"/>
     </row>
     <row r="93" spans="1:22" s="5" customFormat="1"/>
     <row r="94" spans="1:22">
       <c r="A94" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="95" spans="1:22">
       <c r="B95" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="U95" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I95" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="U95" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="V95" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="96" spans="1:22">
       <c r="B96" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>31</v>
@@ -7376,24 +7430,24 @@
         <v>102</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="97" spans="2:22">
       <c r="B97" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>32</v>
@@ -7414,42 +7468,42 @@
         <v>103</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>103</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="98" spans="2:22">
       <c r="B98" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>60</v>
@@ -7458,7 +7512,7 @@
         <v>60</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>33</v>
@@ -7470,42 +7524,42 @@
         <v>104</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R98" s="1" t="s">
         <v>104</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="99" spans="2:22">
       <c r="B99" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>61</v>
@@ -7514,10 +7568,10 @@
         <v>61</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>105</v>
@@ -7526,92 +7580,92 @@
         <v>105</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="R99" s="1" t="s">
         <v>105</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="100" spans="2:22">
       <c r="B100" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="F100" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G100" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="I100" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="2:22">
       <c r="B101" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>31</v>
@@ -7652,16 +7706,16 @@
     </row>
     <row r="102" spans="2:22">
       <c r="B102" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>32</v>
@@ -7702,16 +7756,16 @@
     </row>
     <row r="103" spans="2:22">
       <c r="B103" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>34</v>
@@ -7726,42 +7780,42 @@
         <v>106</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V103" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="2:22">
       <c r="B104" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>35</v>
@@ -7776,63 +7830,63 @@
         <v>107</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="2:22">
       <c r="F105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="106" spans="2:22">
@@ -7872,7 +7926,7 @@
     </row>
     <row r="107" spans="2:22">
       <c r="F107" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>32</v>
@@ -7881,106 +7935,106 @@
         <v>32</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="R107" s="1" t="s">
         <v>32</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="108" spans="2:22">
       <c r="F108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="109" spans="2:22">
       <c r="F109" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="110" spans="2:22">
       <c r="J110" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="R110" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="111" spans="2:22">
@@ -7993,32 +8047,32 @@
     </row>
     <row r="112" spans="2:22">
       <c r="J112" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="R112" s="1" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="113" spans="1:22">
       <c r="J113" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="R113" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="114" spans="1:22">
       <c r="J114" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="R114" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="115" spans="1:22" s="5" customFormat="1"/>
     <row r="116" spans="1:22">
       <c r="A116" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>66</v>
@@ -8069,16 +8123,16 @@
     </row>
     <row r="117" spans="1:22">
       <c r="B117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>67</v>
@@ -8094,22 +8148,22 @@
         <v>108</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V117" s="1" t="s">
         <v>67</v>
@@ -8117,64 +8171,64 @@
     </row>
     <row r="118" spans="1:22">
       <c r="B118" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="1" t="s">
         <v>109</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:22">
       <c r="B119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>68</v>
@@ -8190,25 +8244,25 @@
         <v>110</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -8268,7 +8322,7 @@
     <row r="126" spans="1:22" s="5" customFormat="1"/>
     <row r="127" spans="1:22">
       <c r="A127" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>36</v>
@@ -8301,6 +8355,12 @@
         <v>36</v>
       </c>
       <c r="R127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T127" s="1" t="s">
         <v>36</v>
       </c>
       <c r="V127" s="1" t="s">
@@ -8315,34 +8375,34 @@
         <v>69</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="L128" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="O128" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="M128" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="N128" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="O128" s="1" t="s">
+      <c r="P128" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="P128" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="R128" s="1" t="s">
-        <v>135</v>
+        <v>797</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -8353,13 +8413,13 @@
         <v>38</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L129" s="2" t="s">
         <v>38</v>
@@ -8368,7 +8428,7 @@
         <v>70</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>38</v>
@@ -8377,7 +8437,7 @@
         <v>38</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>196</v>
+        <v>801</v>
       </c>
       <c r="V129" s="1" t="s">
         <v>38</v>
@@ -8391,13 +8451,13 @@
         <v>39</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L130" s="2" t="s">
         <v>39</v>
@@ -8406,7 +8466,7 @@
         <v>39</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>39</v>
@@ -8415,7 +8475,7 @@
         <v>39</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
       <c r="V130" s="1" t="s">
         <v>39</v>
@@ -8423,29 +8483,23 @@
     </row>
     <row r="131" spans="1:22">
       <c r="F131" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K131" s="3"/>
-      <c r="L131" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="M131" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="O131" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="P131" s="2" t="s">
-        <v>735</v>
+      <c r="R131" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="S131" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="T131" s="1" t="s">
+        <v>797</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>40</v>
+        <v>797</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -8453,26 +8507,20 @@
         <v>38</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K132" s="3"/>
-      <c r="L132" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>41</v>
+      <c r="R132" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="T132" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>41</v>
+        <v>798</v>
       </c>
     </row>
     <row r="133" spans="1:22">
@@ -8480,26 +8528,20 @@
         <v>39</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K133" s="3"/>
-      <c r="L133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>42</v>
+      <c r="R133" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="T133" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>42</v>
+        <v>799</v>
       </c>
     </row>
     <row r="134" spans="1:22">
@@ -8510,7 +8552,25 @@
         <v>43</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="P134" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -8521,7 +8581,25 @@
         <v>70</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V135" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:22">
@@ -8532,207 +8610,225 @@
         <v>39</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V136" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:22" s="5" customFormat="1"/>
     <row r="138" spans="1:22">
       <c r="A138" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="139" spans="1:22">
       <c r="F139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="140" spans="1:22">
       <c r="F140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="141" spans="1:22">
       <c r="F141" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="142" spans="1:22">
       <c r="F142" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="143" spans="1:22">
       <c r="F143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A90:T91 V90:XFD91 J40:J46 J48 J50:J57 A105:E109 Q105:U109 A178:XFD1048576 A172:J177 L172:XFD177 K45:XFD57 K34:K35 S110:XFD114 K37:K39 A110:Q114 W105:XFD109 G105:J109 A58:XFD89 L41:XFD44 A30:K33 Q30:XFD40 A137:XFD171 A134:K136 M134:XFD136 A92:XFD104 A115:XFD133 A1:XFD29 A39:I46 A47:H47 A48:I57 A34:J38">
+  <conditionalFormatting sqref="A90:T91 V90:XFD91 J40:J46 J48 J50:J57 A105:E109 Q105:U109 A178:XFD1048576 A172:J177 L172:XFD177 K45:XFD57 K34:K35 S110:XFD114 K37:K39 A110:Q114 W105:XFD109 G105:J109 A58:XFD89 L41:XFD44 A30:K33 Q30:XFD40 A92:XFD104 A1:XFD29 A39:I46 A47:H47 A48:I57 A34:J38 A141:XFD171 A138:H140 J138:XFD140 A131:K133 A137:XFD137 A134:V136 X134:XFD136 A115:XFD126 A128:XFD130 V127:XFD127 A127:T127 Q131:XFD133">
     <cfRule type="containsText" dxfId="16" priority="30" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
     </cfRule>
@@ -8842,25 +8938,25 @@
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13">
@@ -8879,25 +8975,25 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="13">
@@ -8908,34 +9004,34 @@
     </row>
     <row r="6" spans="1:9" ht="13">
       <c r="A6" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A7" s="6" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -8943,34 +9039,34 @@
     </row>
     <row r="8" spans="1:9" ht="13">
       <c r="A8" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="16" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F8" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>756</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>757</v>
-      </c>
       <c r="I8" s="16" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A9" s="6" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8978,86 +9074,86 @@
     </row>
     <row r="10" spans="1:9" ht="13">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -9065,7 +9161,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -9077,7 +9173,7 @@
     </row>
     <row r="16" spans="1:9" ht="13">
       <c r="A16" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -9097,7 +9193,7 @@
     </row>
     <row r="19" spans="1:4" ht="13">
       <c r="A19" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -9109,7 +9205,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -9117,7 +9213,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -9125,7 +9221,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -9133,7 +9229,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -9141,7 +9237,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -9171,7 +9267,7 @@
     </row>
     <row r="29" spans="1:4" ht="13">
       <c r="A29" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -9183,7 +9279,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -9191,7 +9287,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -9199,7 +9295,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -9235,7 +9331,7 @@
     </row>
     <row r="38" spans="1:5" ht="13">
       <c r="A38" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9279,7 +9375,7 @@
     </row>
     <row r="45" spans="1:5" ht="13">
       <c r="A45" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9295,10 +9391,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="17" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13">
@@ -9306,10 +9402,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="17" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13">
@@ -9317,10 +9413,10 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="17" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="20" customFormat="1" ht="13">
@@ -9331,7 +9427,7 @@
     </row>
     <row r="50" spans="1:4" ht="13">
       <c r="A50" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9363,7 +9459,7 @@
     </row>
     <row r="55" spans="1:4" ht="13">
       <c r="A55" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9383,11 +9479,11 @@
     </row>
     <row r="58" spans="1:4" ht="13">
       <c r="A58" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -9395,7 +9491,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -9403,7 +9499,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -9411,7 +9507,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -9419,7 +9515,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -9427,7 +9523,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -9499,7 +9595,7 @@
     </row>
     <row r="75" spans="1:4" ht="13">
       <c r="A75" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
@@ -9511,7 +9607,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -9519,7 +9615,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -9527,7 +9623,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -9575,7 +9671,7 @@
     </row>
     <row r="86" spans="1:4" ht="13">
       <c r="A86" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728BAE0C-59AC-3C4F-8BCD-0A89E6A0A618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FE406A-6686-A343-92BC-14E23AF0FDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="855">
   <si>
     <t>bea_supply</t>
   </si>
@@ -840,60 +840,15 @@
     <t xml:space="preserve">  from: "..."</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {from: IOCode, to: input_bea_code}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {from: Name,   to: input_bea_desc}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  on:  [input_bea_code, input_bea_desc]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var: output_bea_desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    input:  output_bea_desc</t>
-  </si>
-  <si>
     <t xml:space="preserve">    to:     [bea_code, bea_windc]</t>
   </si>
   <si>
-    <t xml:space="preserve">    output: [output_bea_code, output_bea_windc]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    from:   [bea_code, bea_desc]</t>
   </si>
   <si>
     <t xml:space="preserve">    to:     bea_windc</t>
   </si>
   <si>
-    <t xml:space="preserve">    input:  [input_bea_code, input_bea_desc]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    output: input_bea_windc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: input_bea_windc,  type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: output_bea_windc, type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: output_bea_code,  type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: input_bea_code,   type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: year,             type: Int}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: units,            type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: value,            type: Int}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name:  Use_SUT_Framework_1997-2017_SUM.xlsx</t>
   </si>
   <si>
@@ -912,27 +867,12 @@
     <t xml:space="preserve">  sheet:      [2007, 2012]</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {from: Commodity Description, to: input_bea_desc}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {from: Code,                  to: input_bea_code}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  var: output_bea_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    input:  output_bea_code</t>
-  </si>
-  <si>
     <t xml:space="preserve">    from:   bea_code</t>
   </si>
   <si>
     <t xml:space="preserve">    to:     [bea_desc, bea_windc]</t>
   </si>
   <si>
-    <t xml:space="preserve">    output: [output_bea_desc, output_bea_windc]</t>
-  </si>
-  <si>
     <t># !!!! missing AND 0 values. Should we drop missing or make 0?</t>
   </si>
   <si>
@@ -2587,6 +2527,81 @@
   </si>
   <si>
     <t># !!!! Why is this dropped?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: IOCode, to: input_bea}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Code,                  to: input_bea}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var: output_bea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  output_bea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  var: output_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  output_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  [input_bea, input_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Name,   to: input_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: Commodity Description, to: input_desc}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  on:  [input_bea, input_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  col: yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: yr,         type: Int}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: value,      type: Int}</t>
+  </si>
+  <si>
+    <t># - {col: input_bea,  type: String}</t>
+  </si>
+  <si>
+    <t># - {col: output_bea, type: String}</t>
+  </si>
+  <si>
+    <t>- {col: bea_windc, from: upper, to: lower}</t>
+  </si>
+  <si>
+    <t>- {col:  category, from: goods, to: gds}</t>
+  </si>
+  <si>
+    <t>- {col: category,  from: goods, to: gds}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: i,  type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: j,  type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: [output_bea, j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: [output_desc, j]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: j,     type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: i,     type: String}</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2730,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3258,7 +3303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E3C27-1365-884B-A69E-493300A2017A}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3275,25 +3320,25 @@
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13">
@@ -3312,25 +3357,25 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="13">
@@ -3345,30 +3390,30 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A7" s="6" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3380,30 +3425,30 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="16" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A9" s="6" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3418,79 +3463,79 @@
         <v>107</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -3498,7 +3543,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -3542,7 +3587,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -3550,7 +3595,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -3558,7 +3603,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -3566,7 +3611,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -3574,7 +3619,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -3616,7 +3661,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -3624,7 +3669,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -3632,7 +3677,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -3728,10 +3773,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="17" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13">
@@ -3739,10 +3784,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="17" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13">
@@ -3750,10 +3795,10 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="17" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="20" customFormat="1" ht="13">
@@ -3820,7 +3865,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -3828,7 +3873,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -3836,7 +3881,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -3844,7 +3889,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -3852,7 +3897,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -3860,7 +3905,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -3944,7 +3989,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="D76" s="2"/>
     </row>
@@ -3952,7 +3997,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="D77" s="2"/>
     </row>
@@ -3960,7 +4005,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="D78" s="2"/>
     </row>
@@ -4024,11 +4069,11 @@
   <dimension ref="A1:N95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="N63" sqref="N63"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4049,90 +4094,90 @@
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="D2" s="2" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1"/>
     <row r="4" spans="1:14">
       <c r="B4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1"/>
@@ -4141,43 +4186,43 @@
         <v>247</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1"/>
@@ -4186,43 +4231,43 @@
         <v>248</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1"/>
@@ -4272,112 +4317,112 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="2" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="D12" s="2" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="E13" s="2" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="E14" s="2" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1"/>
@@ -4418,97 +4463,97 @@
     </row>
     <row r="20" spans="1:11">
       <c r="B20" s="2" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>172</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" s="2" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>186</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="2" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4516,12 +4561,12 @@
         <v>187</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="2" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4558,67 +4603,67 @@
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="2" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="B32" s="2" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="F33" s="2" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1"/>
@@ -4638,7 +4683,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="G46" s="2" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4648,7 +4693,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="G48" s="2" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="6" customFormat="1"/>
@@ -4669,29 +4714,29 @@
         <v>257</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="J59" s="2" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="J60" s="2" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>31</v>
@@ -4702,65 +4747,65 @@
     </row>
     <row r="61" spans="1:14">
       <c r="J61" s="2" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="J62" s="2" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>150</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="J63" s="2" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="K64" s="2" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="K65" s="2" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="K66" s="2" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="K67" s="2" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="K68" s="2" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="K69" s="2" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4775,12 +4820,12 @@
     </row>
     <row r="72" spans="1:14">
       <c r="K72" s="2" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="K73" s="2" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="6" customFormat="1"/>
@@ -4794,9 +4839,6 @@
       <c r="C75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="G75" s="2" t="s">
         <v>62</v>
       </c>
@@ -4809,96 +4851,81 @@
     </row>
     <row r="76" spans="1:14">
       <c r="B76" s="2" t="s">
-        <v>601</v>
+        <v>847</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>601</v>
+        <v>846</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="B77" s="2" t="s">
-        <v>602</v>
+        <v>845</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>602</v>
+        <v>845</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
     </row>
     <row r="78" spans="1:14">
-      <c r="B78" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="G78" s="2" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="G79" s="2" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="G80" s="2" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="G81" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="G82" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="G83" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="6" customFormat="1"/>
@@ -4915,10 +4942,10 @@
     </row>
     <row r="87" spans="1:14">
       <c r="K87" s="2" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4939,10 +4966,10 @@
     </row>
     <row r="90" spans="1:14">
       <c r="K90" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4950,7 +4977,7 @@
         <v>66</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4963,12 +4990,12 @@
     </row>
     <row r="93" spans="1:14">
       <c r="K93" s="2" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="K94" s="2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4978,7 +5005,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N59:N63">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N59)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5009,36 +5036,36 @@
     <row r="1" spans="1:6" s="14" customFormat="1">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5054,19 +5081,19 @@
         <v>247</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5082,19 +5109,19 @@
         <v>248</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5127,120 +5154,120 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5270,16 +5297,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5312,184 +5339,184 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="2" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="2" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="2" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5519,131 +5546,131 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="9" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="9" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="9" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="9" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="9" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="9" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="9" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="9" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="9" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="9" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="9" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="10" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5680,50 +5707,50 @@
     </row>
     <row r="60" spans="1:6">
       <c r="D60" s="2" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="2" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="2" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="2" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5760,10 +5787,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5779,32 +5806,32 @@
         <v>257</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="E76" s="2" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="E77" s="2" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="E78" s="2" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="E79" s="2" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="E80" s="2" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5834,68 +5861,68 @@
     </row>
     <row r="83" spans="1:6">
       <c r="B83" s="2" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="2" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="2" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="B86" s="2" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" s="2" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" s="2" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5922,11 +5949,11 @@
   <dimension ref="A1:X144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J106" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="J130" sqref="J130"/>
+      <selection pane="bottomRight" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5983,10 +6010,10 @@
         <v>67</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>235</v>
@@ -6030,10 +6057,10 @@
         <v>246</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>45</v>
@@ -6045,73 +6072,73 @@
     <row r="4" spans="1:24" s="5" customFormat="1"/>
     <row r="5" spans="1:24">
       <c r="B5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1"/>
@@ -6120,73 +6147,73 @@
         <v>247</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="M7" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="W7" s="2" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="5" customFormat="1">
@@ -6198,73 +6225,73 @@
         <v>248</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="U9" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="X9" s="1" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="5" customFormat="1"/>
@@ -6347,40 +6374,40 @@
         <v>260</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>236</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>108</v>
@@ -6395,10 +6422,10 @@
         <v>111</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>193</v>
@@ -6418,34 +6445,34 @@
         <v>263</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>237</v>
@@ -6457,7 +6484,7 @@
         <v>113</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>114</v>
@@ -6466,10 +6493,10 @@
         <v>115</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>196</v>
@@ -6489,22 +6516,22 @@
         <v>262</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>262</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>116</v>
@@ -6513,7 +6540,7 @@
         <v>117</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>118</v>
@@ -6533,22 +6560,22 @@
         <v>261</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>120</v>
@@ -6557,7 +6584,7 @@
         <v>121</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>122</v>
@@ -6571,10 +6598,10 @@
     </row>
     <row r="16" spans="1:24">
       <c r="F16" s="1" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>123</v>
@@ -6585,7 +6612,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="F17" s="1" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>124</v>
@@ -6596,10 +6623,10 @@
     </row>
     <row r="18" spans="1:24">
       <c r="F18" s="1" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>205</v>
@@ -6607,10 +6634,10 @@
     </row>
     <row r="19" spans="1:24">
       <c r="F19" s="1" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>206</v>
@@ -6618,10 +6645,10 @@
     </row>
     <row r="20" spans="1:24">
       <c r="F20" s="1" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>207</v>
@@ -6629,7 +6656,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="P21" s="1" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>208</v>
@@ -6637,7 +6664,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="P22" s="1" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>209</v>
@@ -6645,7 +6672,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="P23" s="1" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>210</v>
@@ -6653,7 +6680,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="P24" s="1" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="5" customFormat="1"/>
@@ -6674,13 +6701,13 @@
         <v>125</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>125</v>
@@ -6704,25 +6731,25 @@
     </row>
     <row r="27" spans="1:24">
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>840</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>126</v>
+        <v>840</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>126</v>
+        <v>840</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>126</v>
+        <v>840</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>126</v>
@@ -6825,16 +6852,16 @@
     </row>
     <row r="30" spans="1:24">
       <c r="B30" s="4" t="s">
-        <v>282</v>
+        <v>841</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>282</v>
+        <v>841</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>282</v>
+        <v>841</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>282</v>
+        <v>841</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -6849,13 +6876,13 @@
         <v>10</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>238</v>
@@ -6896,37 +6923,37 @@
     </row>
     <row r="31" spans="1:24">
       <c r="B31" s="4" t="s">
-        <v>281</v>
+        <v>843</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>281</v>
+        <v>843</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>281</v>
+        <v>843</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>281</v>
+        <v>843</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>239</v>
@@ -6967,16 +6994,16 @@
     </row>
     <row r="32" spans="1:24">
       <c r="B32" s="4" t="s">
-        <v>278</v>
+        <v>848</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>278</v>
+        <v>848</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>278</v>
+        <v>854</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>278</v>
+        <v>854</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
@@ -6991,34 +7018,34 @@
         <v>12</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>240</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="T32" s="4" t="s">
         <v>170</v>
@@ -7033,21 +7060,21 @@
         <v>218</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" s="4" t="s">
-        <v>280</v>
+        <v>844</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>280</v>
+        <v>844</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>280</v>
+        <v>844</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>280</v>
+        <v>844</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>47</v>
@@ -7056,7 +7083,7 @@
         <v>47</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>13</v>
@@ -7065,28 +7092,28 @@
         <v>71</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>129</v>
@@ -7106,16 +7133,16 @@
     </row>
     <row r="34" spans="2:24">
       <c r="B34" s="4" t="s">
-        <v>279</v>
+        <v>850</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>279</v>
+        <v>850</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>279</v>
+        <v>853</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>279</v>
+        <v>853</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>48</v>
@@ -7127,34 +7154,34 @@
         <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>130</v>
@@ -7172,19 +7199,19 @@
     </row>
     <row r="35" spans="2:24">
       <c r="B35" s="4" t="s">
-        <v>283</v>
+        <v>788</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>283</v>
+        <v>788</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>283</v>
+        <v>788</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>283</v>
+        <v>788</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>49</v>
@@ -7193,19 +7220,19 @@
         <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>129</v>
@@ -7224,7 +7251,7 @@
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>173</v>
@@ -7232,19 +7259,19 @@
     </row>
     <row r="36" spans="2:24">
       <c r="B36" s="4" t="s">
-        <v>284</v>
+        <v>842</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>284</v>
+        <v>842</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>284</v>
+        <v>842</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>284</v>
+        <v>842</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -7256,7 +7283,7 @@
         <v>15</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -7297,12 +7324,12 @@
         <v>16</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="4" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -7322,63 +7349,63 @@
         <v>16</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="4" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="S38" s="4"/>
       <c r="X38" s="4" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="2:24">
       <c r="M39" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="S39" s="4"/>
       <c r="T39" s="4" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
     </row>
     <row r="40" spans="2:24">
       <c r="F40" s="4" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>73</v>
@@ -7386,31 +7413,31 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="N40" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="2:24">
       <c r="F41" s="4" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>78</v>
@@ -7424,12 +7451,12 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="1" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
     </row>
     <row r="42" spans="2:24">
       <c r="F42" s="1" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>79</v>
@@ -7474,7 +7501,7 @@
     </row>
     <row r="45" spans="2:24">
       <c r="J45" s="2" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -7488,7 +7515,7 @@
     </row>
     <row r="46" spans="2:24">
       <c r="J46" s="2" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -7719,16 +7746,16 @@
     </row>
     <row r="60" spans="1:24">
       <c r="B60" s="1" t="s">
-        <v>267</v>
+        <v>830</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>292</v>
+        <v>831</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>267</v>
+        <v>830</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>292</v>
+        <v>831</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>50</v>
@@ -7737,13 +7764,13 @@
         <v>50</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -7780,16 +7807,16 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" s="1" t="s">
-        <v>268</v>
+        <v>837</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>291</v>
+        <v>838</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>268</v>
+        <v>837</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>291</v>
+        <v>838</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>51</v>
@@ -7798,13 +7825,13 @@
         <v>51</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -7835,13 +7862,13 @@
         <v>52</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>137</v>
@@ -7850,7 +7877,7 @@
         <v>176</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -7861,7 +7888,7 @@
         <v>53</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>21</v>
@@ -7918,7 +7945,7 @@
     </row>
     <row r="69" spans="1:24">
       <c r="N69" s="1" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:24">
@@ -7963,7 +7990,7 @@
         <v>23</v>
       </c>
       <c r="X75" s="1" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
     </row>
     <row r="76" spans="1:24">
@@ -7972,7 +7999,7 @@
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="1" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>24</v>
@@ -7984,7 +8011,7 @@
         <v>177</v>
       </c>
       <c r="X76" s="1" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
     </row>
     <row r="77" spans="1:24">
@@ -7993,7 +8020,7 @@
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="1" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>25</v>
@@ -8005,7 +8032,7 @@
         <v>178</v>
       </c>
       <c r="X77" s="1" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78" spans="1:24">
@@ -8014,7 +8041,7 @@
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>26</v>
@@ -8026,7 +8053,7 @@
         <v>179</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
     </row>
     <row r="79" spans="1:24">
@@ -8100,16 +8127,16 @@
     </row>
     <row r="84" spans="1:24">
       <c r="B84" s="1" t="s">
-        <v>269</v>
+        <v>839</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>269</v>
+        <v>839</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>269</v>
+        <v>839</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>269</v>
+        <v>839</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>59</v>
@@ -8118,7 +8145,7 @@
         <v>59</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>28</v>
@@ -8141,16 +8168,16 @@
     </row>
     <row r="85" spans="1:24">
       <c r="B85" s="1" t="s">
-        <v>270</v>
+        <v>834</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>293</v>
+        <v>832</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>270</v>
+        <v>834</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>293</v>
+        <v>832</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>29</v>
@@ -8311,7 +8338,7 @@
         <v>264</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>90</v>
@@ -8329,7 +8356,7 @@
         <v>227</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
     </row>
     <row r="91" spans="1:24">
@@ -8341,7 +8368,7 @@
       </c>
       <c r="V91" s="2"/>
       <c r="W91" s="1" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -8359,123 +8386,123 @@
         <v>257</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="T94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="W94" s="2" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="X94" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95" spans="1:24">
       <c r="B95" s="1" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
     </row>
     <row r="96" spans="1:24">
@@ -8483,13 +8510,13 @@
         <v>265</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>31</v>
@@ -8507,7 +8534,7 @@
         <v>31</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="M96" s="3" t="s">
         <v>93</v>
@@ -8534,21 +8561,21 @@
         <v>142</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="2:24">
       <c r="B97" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>32</v>
@@ -8566,25 +8593,25 @@
         <v>32</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="M97" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="T97" s="1" t="s">
         <v>94</v>
@@ -8593,21 +8620,21 @@
         <v>143</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98" spans="2:24">
       <c r="B98" s="1" t="s">
-        <v>271</v>
+        <v>835</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>294</v>
+        <v>833</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>271</v>
+        <v>835</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>294</v>
+        <v>833</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>60</v>
@@ -8616,16 +8643,16 @@
         <v>60</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>33</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="M98" s="3" t="s">
         <v>95</v>
@@ -8652,21 +8679,21 @@
         <v>230</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
     </row>
     <row r="99" spans="2:24">
       <c r="B99" s="1" t="s">
-        <v>273</v>
+        <v>851</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>297</v>
+        <v>852</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>273</v>
+        <v>851</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>297</v>
+        <v>852</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>61</v>
@@ -8675,34 +8702,34 @@
         <v>61</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="Q99" s="1" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="T99" s="1" t="s">
         <v>96</v>
@@ -8711,77 +8738,77 @@
         <v>231</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
     </row>
     <row r="100" spans="2:24">
       <c r="B100" s="1" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="Q100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="R100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="T100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="V100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="2:24">
       <c r="B101" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>31</v>
@@ -8816,22 +8843,22 @@
     </row>
     <row r="102" spans="2:24">
       <c r="B102" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>32</v>
@@ -8866,16 +8893,16 @@
     </row>
     <row r="103" spans="2:24">
       <c r="B103" s="1" t="s">
-        <v>276</v>
+        <v>836</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>276</v>
+        <v>836</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>276</v>
+        <v>836</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>276</v>
+        <v>836</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>34</v>
@@ -8887,7 +8914,7 @@
         <v>34</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>151</v>
@@ -8916,16 +8943,16 @@
     </row>
     <row r="104" spans="2:24">
       <c r="B104" s="1" t="s">
-        <v>277</v>
+        <v>849</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>277</v>
+        <v>849</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>277</v>
+        <v>849</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>277</v>
+        <v>849</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>35</v>
@@ -8937,7 +8964,7 @@
         <v>35</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="M104" s="3" t="s">
         <v>152</v>
@@ -8966,40 +8993,40 @@
     </row>
     <row r="105" spans="2:24">
       <c r="F105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="Q105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="R105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="X105" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="106" spans="2:24">
@@ -9042,7 +9069,7 @@
     </row>
     <row r="107" spans="2:24">
       <c r="F107" s="1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>32</v>
@@ -9054,112 +9081,112 @@
         <v>32</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="Q107" s="1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="R107" s="1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="T107" s="1" t="s">
         <v>32</v>
       </c>
       <c r="X107" s="1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
     </row>
     <row r="108" spans="2:24">
       <c r="F108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>97</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="R108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="T108" s="1" t="s">
         <v>182</v>
       </c>
       <c r="X108" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
     </row>
     <row r="109" spans="2:24">
       <c r="F109" s="1" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>98</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="R109" s="1" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="T109" s="1" t="s">
         <v>183</v>
       </c>
       <c r="X109" s="1" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
     </row>
     <row r="110" spans="2:24">
       <c r="J110" s="1" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="2:24">
@@ -9172,26 +9199,26 @@
     </row>
     <row r="112" spans="2:24">
       <c r="J112" s="1" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="T112" s="1" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
     </row>
     <row r="113" spans="1:24">
       <c r="J113" s="1" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
     </row>
     <row r="114" spans="1:24">
       <c r="J114" s="1" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
     </row>
     <row r="115" spans="1:24" s="5" customFormat="1"/>
@@ -9308,20 +9335,20 @@
         <v>154</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="1" t="s">
         <v>100</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="N118" s="1" t="s">
         <v>154</v>
@@ -9330,7 +9357,7 @@
         <v>154</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="Q118" s="1" t="s">
         <v>154</v>
@@ -9339,7 +9366,7 @@
         <v>154</v>
       </c>
       <c r="X118" s="1" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="1:24">
@@ -9387,7 +9414,7 @@
         <v>155</v>
       </c>
       <c r="X119" s="1" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -9506,25 +9533,25 @@
         <v>65</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>156</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="Q128" s="1" t="s">
         <v>157</v>
@@ -9533,10 +9560,10 @@
         <v>158</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="X128" s="1" t="s">
         <v>191</v>
@@ -9550,16 +9577,16 @@
         <v>38</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>38</v>
@@ -9577,10 +9604,10 @@
         <v>38</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="X129" s="1" t="s">
         <v>38</v>
@@ -9600,7 +9627,7 @@
         <v>39</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>160</v>
@@ -9621,7 +9648,7 @@
         <v>39</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="T130" s="1" t="s">
         <v>39</v>
@@ -9632,32 +9659,32 @@
     </row>
     <row r="131" spans="1:24">
       <c r="F131" s="1" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="M131" s="3"/>
       <c r="S131" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="X131" s="1" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
     </row>
     <row r="132" spans="1:24">
@@ -9671,20 +9698,20 @@
         <v>44</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="M132" s="3"/>
       <c r="T132" s="1" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="X132" s="1" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
     </row>
     <row r="133" spans="1:24">
@@ -9698,20 +9725,20 @@
         <v>39</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="M133" s="3"/>
       <c r="T133" s="1" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="X133" s="1" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -9725,19 +9752,19 @@
         <v>40</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="Q134" s="2" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="X134" s="1" t="s">
         <v>40</v>
@@ -9804,377 +9831,392 @@
     <row r="137" spans="1:24" s="5" customFormat="1"/>
     <row r="138" spans="1:24">
       <c r="A138" s="1" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="X138" s="1" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
     </row>
     <row r="139" spans="1:24">
       <c r="F139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="X139" s="1" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
     </row>
     <row r="140" spans="1:24">
       <c r="F140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="X140" s="1" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
     </row>
     <row r="141" spans="1:24">
       <c r="F141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="X141" s="1" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
     </row>
     <row r="142" spans="1:24">
       <c r="F142" s="1" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="X142" s="1" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
     </row>
     <row r="143" spans="1:24">
       <c r="F143" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="X143" s="1" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
     </row>
     <row r="144" spans="1:24">
       <c r="F144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="X144" s="1" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="X90:XFD91 J40:K46 J48:K48 J50:K57 A105:E109 S105:W109 N173:XFD178 U110:XFD114 M37:M39 Y105:XFD109 N41:XFD44 S30:XFD40 Z134:XFD136 X127:XFD127 S131:XFD133 J138:K138 J139:J141 M1:XFD29 M92:XFD104 M30:M35 M127:V127 M115:XFD126 M134:X136 M131:M133 M137:XFD172 M45:XFD89 M110:S114 M179:XFD1048576 M90:V91 A39:I46 A47:H47 A48:I57 A34:K38 A145:K1048576 A138:H141 A33:J33 A142:J144 A1:K32 J100:J104 G105:K109 A95:I104 J95:K99 A58:K93 A94:J94 L50:L93 L105:L138 K94:K104 A110:K128 K129:K131 A132:K137 A129:I131 M128:R130 T128:XFD130 S129:S131">
-    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="col: units">
+  <conditionalFormatting sqref="X90:XFD91 J40:K46 J48:K48 J50:K57 A105:E109 S105:W109 N173:XFD178 U110:XFD114 M37:M39 Y105:XFD109 N41:XFD44 S30:XFD40 Z134:XFD136 X127:XFD127 S131:XFD133 J138:K138 J139:J141 M1:XFD29 M92:XFD104 M30:M35 M127:V127 M115:XFD126 M134:X136 M131:M133 M137:XFD172 M45:XFD89 M110:S114 M179:XFD1048576 M90:V91 A39:I46 A47:H47 A48:I57 A37:K38 A145:K1048576 A138:H141 A142:J144 J100:J104 G105:K109 A95:I104 J95:K99 A58:K93 A94:J94 L50:L93 L105:L138 K94:K104 A110:K128 K129:K131 A132:K137 A129:I131 M128:R130 T128:XFD130 S129:S131 A1:K29 F30:K32 F33:J33 A30:B36 F34:K36">
+    <cfRule type="containsText" dxfId="24" priority="38" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:W91">
-    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",W90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X105:X109">
-    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",X105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M105:M109">
-    <cfRule type="containsText" dxfId="18" priority="32" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",M105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T110:T114">
-    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",T110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F109">
-    <cfRule type="containsText" dxfId="16" priority="29" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",F105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105:N109">
-    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N37 N30:N31">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O105:O109">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",O105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34:Q37 Q30:Q31">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",Q30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:P37 P30:P31">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",P30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105:P109">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="13" priority="24" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",P105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q105:Q109">
-    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",Q105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R105:R109">
-    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",R105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O37 O30:O31">
-    <cfRule type="containsText" dxfId="7" priority="17" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",O30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R37 R30:R31">
-    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",R30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:R40">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K139:K144">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",K139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:L46 L48 L34:L38 L145:L1048576 L1:L32">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L139:L144">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",L139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",J133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:C36">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",C30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D36">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",D30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E36">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="col: units">
-      <formula>NOT(ISERROR(SEARCH("col: units",J133)))</formula>
+      <formula>NOT(ISERROR(SEARCH("col: units",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10202,7 +10244,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="8" customFormat="1">
       <c r="B1" s="8" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10213,7 +10255,7 @@
     <row r="4" spans="1:2" s="5" customFormat="1"/>
     <row r="5" spans="1:2">
       <c r="B5" s="2" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1"/>
@@ -10222,7 +10264,7 @@
         <v>247</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="5" customFormat="1"/>
@@ -10231,7 +10273,7 @@
         <v>248</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="5" customFormat="1"/>
@@ -10245,12 +10287,12 @@
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="1" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="1" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="5" customFormat="1"/>
@@ -10270,32 +10312,32 @@
     </row>
     <row r="30" spans="1:2">
       <c r="B30" s="2" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="B31" s="2" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="B32" s="2" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
     </row>
     <row r="36" spans="2:2">
@@ -10398,12 +10440,12 @@
         <v>257</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="B95" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -10418,17 +10460,17 @@
     </row>
     <row r="98" spans="2:2">
       <c r="B98" s="1" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" s="1" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="1" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="2:2">
@@ -10443,12 +10485,12 @@
     </row>
     <row r="103" spans="2:2">
       <c r="B103" s="1" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" s="1" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
     </row>
     <row r="115" spans="1:1" s="5" customFormat="1"/>
@@ -10466,7 +10508,7 @@
     <row r="137" spans="1:1" s="5" customFormat="1"/>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FE406A-6686-A343-92BC-14E23AF0FDDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964CE547-9CD0-1B42-923E-C7C639CEC783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="853">
   <si>
     <t>bea_supply</t>
   </si>
@@ -2583,25 +2583,19 @@
     <t>- {col: category,  from: goods, to: gds}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: i,  type: String}</t>
-  </si>
-  <si>
     <t xml:space="preserve">    output: i</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: j,  type: String}</t>
-  </si>
-  <si>
     <t xml:space="preserve">    output: [output_bea, j]</t>
   </si>
   <si>
     <t xml:space="preserve">    output: [output_desc, j]</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: j,     type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: i,     type: String}</t>
+    <t xml:space="preserve">  - {col: i,          type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: j,          type: String}</t>
   </si>
 </sst>
 </file>
@@ -2730,7 +2724,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5005,7 +5019,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N59:N63">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N59)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5949,11 +5963,11 @@
   <dimension ref="A1:X144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="B104" sqref="B104"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6994,16 +7008,16 @@
     </row>
     <row r="32" spans="1:24">
       <c r="B32" s="4" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>12</v>
@@ -7133,16 +7147,16 @@
     </row>
     <row r="34" spans="2:24">
       <c r="B34" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>48</v>
@@ -8684,16 +8698,16 @@
     </row>
     <row r="99" spans="2:24">
       <c r="B99" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>61</v>
@@ -8943,16 +8957,16 @@
     </row>
     <row r="104" spans="2:24">
       <c r="B104" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>35</v>
@@ -10100,123 +10114,133 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="X90:XFD91 J40:K46 J48:K48 J50:K57 A105:E109 S105:W109 N173:XFD178 U110:XFD114 M37:M39 Y105:XFD109 N41:XFD44 S30:XFD40 Z134:XFD136 X127:XFD127 S131:XFD133 J138:K138 J139:J141 M1:XFD29 M92:XFD104 M30:M35 M127:V127 M115:XFD126 M134:X136 M131:M133 M137:XFD172 M45:XFD89 M110:S114 M179:XFD1048576 M90:V91 A39:I46 A47:H47 A48:I57 A37:K38 A145:K1048576 A138:H141 A142:J144 J100:J104 G105:K109 A95:I104 J95:K99 A58:K93 A94:J94 L50:L93 L105:L138 K94:K104 A110:K128 K129:K131 A132:K137 A129:I131 M128:R130 T128:XFD130 S129:S131 A1:K29 F30:K32 F33:J33 A30:B36 F34:K36">
-    <cfRule type="containsText" dxfId="24" priority="38" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="26" priority="40" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:W91">
-    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",W90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X105:X109">
-    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",X105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M105:M109">
-    <cfRule type="containsText" dxfId="21" priority="35" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",M105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T110:T114">
-    <cfRule type="containsText" dxfId="20" priority="34" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",T110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F109">
-    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="21" priority="34" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",F105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105:N109">
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N37 N30:N31">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O105:O109">
-    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",O105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34:Q37 Q30:Q31">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",Q30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:P37 P30:P31">
-    <cfRule type="containsText" dxfId="14" priority="26" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",P30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105:P109">
-    <cfRule type="containsText" dxfId="13" priority="24" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",P105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q105:Q109">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",Q105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R105:R109">
-    <cfRule type="containsText" dxfId="11" priority="22" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="13" priority="24" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",R105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O37 O30:O31">
-    <cfRule type="containsText" dxfId="10" priority="20" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",O30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R37 R30:R31">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",R30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:R40">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K139:K144">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",K139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:L46 L48 L34:L38 L145:L1048576 L1:L32">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L139:L144">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",L139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",J133)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C36">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="col: units">
+  <conditionalFormatting sqref="C30:C31 C35:C36 C33">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D36">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="col: units">
+  <conditionalFormatting sqref="D30:D31 D35:D36 D33">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E36">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="col: units">
+  <conditionalFormatting sqref="E30:E31 E35:E36 E33">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",E30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34:E34">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",C34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:E32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="col: units">
+      <formula>NOT(ISERROR(SEARCH("col: units",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10513,7 +10537,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A39:A57 D134:XFD136 A33 B40:B46 B48 B50:B57 A58:XFD133 A34:B38 A134:B136 A30:B32 A137:XFD1048576 C30:XFD57 A1:XFD29">
-    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="2" priority="17" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964CE547-9CD0-1B42-923E-C7C639CEC783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9D012F-2400-E94E-A691-B51CED9346F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="-2640" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_bluenote" sheetId="5" r:id="rId1"/>
@@ -2724,7 +2724,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5019,7 +5029,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N59:N63">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N59)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5963,11 +5973,11 @@
   <dimension ref="A1:X144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32:E32"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10114,132 +10124,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="X90:XFD91 J40:K46 J48:K48 J50:K57 A105:E109 S105:W109 N173:XFD178 U110:XFD114 M37:M39 Y105:XFD109 N41:XFD44 S30:XFD40 Z134:XFD136 X127:XFD127 S131:XFD133 J138:K138 J139:J141 M1:XFD29 M92:XFD104 M30:M35 M127:V127 M115:XFD126 M134:X136 M131:M133 M137:XFD172 M45:XFD89 M110:S114 M179:XFD1048576 M90:V91 A39:I46 A47:H47 A48:I57 A37:K38 A145:K1048576 A138:H141 A142:J144 J100:J104 G105:K109 A95:I104 J95:K99 A58:K93 A94:J94 L50:L93 L105:L138 K94:K104 A110:K128 K129:K131 A132:K137 A129:I131 M128:R130 T128:XFD130 S129:S131 A1:K29 F30:K32 F33:J33 A30:B36 F34:K36">
-    <cfRule type="containsText" dxfId="26" priority="40" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="27" priority="40" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:W91">
-    <cfRule type="containsText" dxfId="25" priority="39" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",W90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X105:X109">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",X105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M105:M109">
-    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="24" priority="37" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",M105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T110:T114">
-    <cfRule type="containsText" dxfId="22" priority="36" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="23" priority="36" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",T110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F105:F109">
-    <cfRule type="containsText" dxfId="21" priority="34" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="22" priority="34" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",F105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N105:N109">
-    <cfRule type="containsText" dxfId="20" priority="32" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="21" priority="32" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N37 N30:N31">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O105:O109">
-    <cfRule type="containsText" dxfId="18" priority="30" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",O105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34:Q37 Q30:Q31">
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="18" priority="16" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",Q30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:P37 P30:P31">
-    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="17" priority="28" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",P30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P105:P109">
-    <cfRule type="containsText" dxfId="15" priority="26" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="16" priority="26" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",P105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q105:Q109">
-    <cfRule type="containsText" dxfId="14" priority="25" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="15" priority="25" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",Q105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R105:R109">
-    <cfRule type="containsText" dxfId="13" priority="24" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",R105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O37 O30:O31">
-    <cfRule type="containsText" dxfId="12" priority="22" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="13" priority="22" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",O30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34:R37 R30:R31">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",R30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:R40">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",N38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K139:K144">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",K139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40:L46 L48 L34:L38 L145:L1048576 L1:L32">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L139:L144">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",L139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J133">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",J133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C31 C35:C36 C33">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D31 D35:D36 D33">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31 E35:E36 E33">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:E34">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10256,7 +10266,7 @@
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -10537,7 +10547,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A39:A57 D134:XFD136 A33 B40:B46 B48 B50:B57 A58:XFD133 A34:B38 A134:B136 A30:B32 A137:XFD1048576 C30:XFD57 A1:XFD29">
-    <cfRule type="containsText" dxfId="2" priority="17" operator="containsText" text="col: units">
+    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="col: units">
       <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFDE404-4A9A-2B4C-A173-EA7F7748CD18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2945202A-7134-784B-8547-CA1755E4182C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17840" yWindow="0" windowWidth="15760" windowHeight="21000" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="-2640" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_bluenote" sheetId="5" r:id="rId1"/>
     <sheet name="map_parse" sheetId="2" r:id="rId2"/>
     <sheet name="map_scale" sheetId="3" r:id="rId3"/>
     <sheet name="parse" sheetId="4" r:id="rId4"/>
-    <sheet name="calibrate" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="857">
   <si>
     <t>bea_supply</t>
   </si>
@@ -111,12 +110,6 @@
     <t>#   operation: "=="</t>
   </si>
   <si>
-    <t># TODO: industry_code, units</t>
-  </si>
-  <si>
-    <t># TODO: industry_code, units, region/region level, region_code 00998</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {from: Unit,                   to: units}</t>
   </si>
   <si>
@@ -1035,57 +1028,15 @@
     <t xml:space="preserve">  - col:  central_yn</t>
   </si>
   <si>
-    <t xml:space="preserve">    to:   [1,2]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    from: [Metropolitan Statistical Area, Micropolitan Statistical Area]</t>
   </si>
   <si>
     <t xml:space="preserve">  - col:  memi</t>
   </si>
   <si>
-    <t xml:space="preserve">  from: [Metropolitan Statistical Area, Micropolitan Statistical Area]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    range: A3:F61</t>
   </si>
   <si>
-    <t xml:space="preserve">    output: place_desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - on:     "(?&lt;place_desc&gt;.*) city"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    input:  place_desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - on:     "(?&lt;place_desc&gt;.*) town"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from: [Metropolitan NECTA, Micropolitan NECTA]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  to:   [1, 2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  col:  nmemi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from:   [state_code, necta_code, place_desc]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  file:   [scale, census_necta_cities.csv]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  to:     [nectapci]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  input:  [state_code, necta_code, place_desc]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  output: [nectapci]</t>
-  </si>
-  <si>
     <t xml:space="preserve">    to:   [1, 2]</t>
   </si>
   <si>
@@ -1104,9 +1055,6 @@
     <t xml:space="preserve">    to:   false</t>
   </si>
   <si>
-    <t># - {col: updated,    type: Date}</t>
-  </si>
-  <si>
     <t xml:space="preserve">    range: A3:K876</t>
   </si>
   <si>
@@ -1140,12 +1088,6 @@
     <t>#   range: A3:F62</t>
   </si>
   <si>
-    <t xml:space="preserve">  col:  memi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  to:   [1,2]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  file:   [parse, regions.csv]</t>
   </si>
   <si>
@@ -1302,162 +1244,6 @@
     <t xml:space="preserve">    descriptor: cfs_export_country</t>
   </si>
   <si>
-    <t>Path: [.., data, mapsources]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, mapsources, WiNDC, windc_datastream, core_maps]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, mapsources, WiNDC, windc_datastream, core_maps, gams]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, mapsources, NAICS]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, parse, gsp.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, parse, bea.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, parse, naics.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, parse, pce.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, parse, regions.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, parse, sgf.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, parse, tech.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, parse, units.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, mapsources, Census, CBSA]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, mapsources, Census, CBSA_Cities]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, scale, census_cbsa_cities.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, scale, census_cbsa.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, scale, census_necta_cities.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, mapsources, Census, NECTA_Cities]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, mapsources, Census, NECTA]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, scale, census_necta.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, coremaps, parse]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, scale, naics_codes.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, datasources, BEA, IO]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, datasources, BEA_2007_2012]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, gsp_state.csv]</t>
-  </si>
-  <si>
-    <t>Path:  [.., data, datasources, BEA, GDP, Metro]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, gsp_metro.csv]</t>
-  </si>
-  <si>
-    <t>Path:  [.., data, datasources, BEA, GDP, County]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, gsp_county.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, pce.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, datasources, PCE]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, datasources, CFS]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, cfs.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, datasources, NASS]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, sgf_1997.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, datasources, SGF]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, nass.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, sgf_1999-2011.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, sgf_2012-2013.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, sgf_2014-2016.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, output]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, sgf.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, utd.csv]</t>
-  </si>
-  <si>
-    <t>Path:  [.., data, datasources, USATradeOnline]</t>
-  </si>
-  <si>
-    <t>Path:  [.., data, datasources, SEDS, CrudeOil]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, crude_oil.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, emissions.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, datasources, SEDS, Emissions]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, datasources, SEDS]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, heatrate.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, seds.csv]</t>
-  </si>
-  <si>
-    <t>Path:  [.., data, datasources, BEA, GDP, State]</t>
-  </si>
-  <si>
     <t># Combining both BEA mapping files into one might make parsing significantly slower</t>
   </si>
   <si>
@@ -1467,12 +1253,6 @@
     <t>bea_detail</t>
   </si>
   <si>
-    <t>PathOut: [.., data, coremaps, parse, bea_summary.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, parse, bea_detail.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - file:   [parse, bea_summary.csv]</t>
   </si>
   <si>
@@ -1494,21 +1274,9 @@
     <t xml:space="preserve">    output: units</t>
   </si>
   <si>
-    <t>PathOut: [.., data, output, sgf_1998.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  val: thousands of us dollars (USD)</t>
   </si>
   <si>
-    <t xml:space="preserve">  col:  category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  from: goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  to:   gds</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name:  cfs_2012_pum_file_users_guide_App_A (Jun 2015).xlsx</t>
   </si>
   <si>
@@ -1521,9 +1289,6 @@
     <t xml:space="preserve">  descriptor: sctg</t>
   </si>
   <si>
-    <t>PathOut: [.., data, coremaps, parse, sctg.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: sctg_desc,  type: Any}</t>
   </si>
   <si>
@@ -1620,9 +1385,6 @@
     <t>msn</t>
   </si>
   <si>
-    <t>PathOut: [.., data, coremaps, parse, msn.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: sector_desc, type: String}</t>
   </si>
   <si>
@@ -1677,9 +1439,6 @@
     <t xml:space="preserve">  - name: [Manual, gsp_metro_append.csv]</t>
   </si>
   <si>
-    <t>Path: [.., data, mapsources, Manual]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name: units_standardize.csv</t>
   </si>
   <si>
@@ -1695,9 +1454,6 @@
     <t xml:space="preserve">    to:     [factor, to]</t>
   </si>
   <si>
-    <t>PathOut: [.., data, coremaps, parse, units_standardize.csv]</t>
-  </si>
-  <si>
     <t>OPERATE</t>
   </si>
   <si>
@@ -1803,12 +1559,6 @@
     <t>gsp_industry</t>
   </si>
   <si>
-    <t>PathOut: [.., data, coremaps, bluenote, gsp_industry.csv]</t>
-  </si>
-  <si>
-    <t>Path: [.., data, mapsources, WiNDC, windc_build, build_files, maps]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  input:  windc_desc</t>
   </si>
   <si>
@@ -1827,21 +1577,12 @@
     <t xml:space="preserve">  name: mappce.map</t>
   </si>
   <si>
-    <t>PathOut: [.., data, coremaps, bluenote, pce.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  col:  [a, b, a_desc]</t>
   </si>
   <si>
     <t xml:space="preserve">  name: mapseds.map</t>
   </si>
   <si>
-    <t>PathOut: [.., data, coremaps, bluenote, seds.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, bluenote, sgf.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name: mapsgf.map</t>
   </si>
   <si>
@@ -1869,21 +1610,12 @@
     <t xml:space="preserve">  col:  [naics_code, windc_code, naics_desc]</t>
   </si>
   <si>
-    <t>PathOut: [.., data, coremaps, bluenote, utd_naics.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name: mapusatrd.map</t>
   </si>
   <si>
     <t>cfs_sctg</t>
   </si>
   <si>
-    <t>PathOut: [.., data, coremaps, bluenote, cfs_sctg.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, coremaps, bluenote, bea_detail.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {name: SAGDP2N__ALL_AREAS_1997_2017.csv,  descriptor: gdp}</t>
   </si>
   <si>
@@ -1971,18 +1703,12 @@
     <t xml:space="preserve">    operation: "!="</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: updated,     type: Date}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  axis:   col</t>
   </si>
   <si>
     <t>census_cfs_state</t>
   </si>
   <si>
-    <t>PathOut: [.., data, output, cfs_state.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name: cfs.csv</t>
   </si>
   <si>
@@ -2001,12 +1727,6 @@
     <t xml:space="preserve">  - {col: orig_state, type: String}</t>
   </si>
   <si>
-    <t xml:space="preserve">  - {col: naics,      type: String}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  - {col: sctg,       type: String}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: units,      type: String}</t>
   </si>
   <si>
@@ -2043,9 +1763,6 @@
     <t>census_cfs_metro</t>
   </si>
   <si>
-    <t>PathOut: [.., data, output, cfs_metro.csv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">  - {col: orig_metro, type: String}</t>
   </si>
   <si>
@@ -2169,18 +1886,6 @@
     <t xml:space="preserve">  - {col: value, type: Any}</t>
   </si>
   <si>
-    <t>PathOut: [.., data, output, supply.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, supply_det.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, use.csv]</t>
-  </si>
-  <si>
-    <t>PathOut: [.., data, output, use_det.csv]</t>
-  </si>
-  <si>
     <t># - {col: windc_code,type: String}</t>
   </si>
   <si>
@@ -2647,6 +2352,261 @@
   </si>
   <si>
     <t xml:space="preserve">  - {col: factor,  type: Any}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - file:   [scale, census_necta_cities.csv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from:   [state_code, necta_code, place_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:     [nectapci]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  [state_code, necta_code, place_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: [nectapci]</t>
+  </si>
+  <si>
+    <t># - {col: updated, type: Date}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  state_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: state_desc</t>
+  </si>
+  <si>
+    <t># - on:     (?&lt;place_desc&gt;.*) city</t>
+  </si>
+  <si>
+    <t>#   input:  place_desc</t>
+  </si>
+  <si>
+    <t>#   output: place_desc</t>
+  </si>
+  <si>
+    <t># - on:     (?&lt;place_desc&gt;.*) town</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources, Census, CBSA]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, scale, census_cbsa.csv]</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources, Census, CBSA_Cities]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, scale, census_cbsa_cities.csv]</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources, Census, NECTA_Cities]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, scale, census_necta_cities.csv]</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources, Census, NECTA]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, scale, census_necta.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, scale, naics_codes.csv]</t>
+  </si>
+  <si>
+    <t>Path: [data, coremaps, parse]</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources, WiNDC, windc_datastream, core_maps]</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources]</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources, NAICS]</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources, WiNDC, windc_datastream, core_maps, gams]</t>
+  </si>
+  <si>
+    <t>Path: [data, datasources, CFS]</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources, Manual]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, bea_summary.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, bea_detail.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, bea.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, gsp.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, msn.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, naics.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, pce.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, regions.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, sctg.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, sgf.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, tech.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, units_standardize.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, parse, units.csv]</t>
+  </si>
+  <si>
+    <t>Path: [data, mapsources, WiNDC, windc_build, build_files, maps]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, bluenote, cfs_sctg.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, bluenote, bea_detail.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, bluenote, gsp_industry.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, bluenote, pce.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, bluenote, seds.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, bluenote, sgf.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, coremaps, bluenote, utd_naics.csv]</t>
+  </si>
+  <si>
+    <t>Path: [data, datasources, BEA, IO]</t>
+  </si>
+  <si>
+    <t>Path: [data, datasources, BEA_2007_2012]</t>
+  </si>
+  <si>
+    <t>Path:  [data, datasources, BEA, GDP, State]</t>
+  </si>
+  <si>
+    <t>Path:  [data, datasources, BEA, GDP, Metro]</t>
+  </si>
+  <si>
+    <t>Path:  [data, datasources, BEA, GDP, County]</t>
+  </si>
+  <si>
+    <t>Path: [data, datasources, PCE]</t>
+  </si>
+  <si>
+    <t>Path: [data, output]</t>
+  </si>
+  <si>
+    <t>Path: [data, datasources, NASS]</t>
+  </si>
+  <si>
+    <t>Path: [data, datasources, SGF]</t>
+  </si>
+  <si>
+    <t>Path:  [data, datasources, USATradeOnline]</t>
+  </si>
+  <si>
+    <t>Path:  [data, datasources, SEDS, CrudeOil]</t>
+  </si>
+  <si>
+    <t>Path: [data, datasources, SEDS, Emissions]</t>
+  </si>
+  <si>
+    <t>Path: [data, datasources, SEDS]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, supply.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, use.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, supply_det.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, use_det.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, gsp_state.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, gsp_metro.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, gsp_county.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, pce.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, cfs.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, cfs_state.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, cfs_metro.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, nass.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, sgf_1997.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, sgf_1998.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, sgf_1999-2011.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, sgf_2012-2013.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, sgf_2014-2016.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, sgf.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, utd.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, crude_oil.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, emissions.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, heatrate.csv]</t>
+  </si>
+  <si>
+    <t>PathOut: [data, output, seds.csv]</t>
   </si>
 </sst>
 </file>
@@ -2784,7 +2744,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
     <dxf>
       <font>
         <color theme="9"/>
@@ -2792,16 +2752,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2857,11 +2807,101 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="9"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3177,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E3C27-1365-884B-A69E-493300A2017A}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A50" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A50" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3194,25 +3234,25 @@
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>612</v>
+        <v>525</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>475</v>
+        <v>404</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>587</v>
+        <v>506</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>524</v>
+        <v>446</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>608</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13">
@@ -3231,25 +3271,25 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="13">
@@ -3260,34 +3300,34 @@
     </row>
     <row r="6" spans="1:9" ht="13">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>452</v>
+        <v>798</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>589</v>
+        <v>813</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>589</v>
+        <v>813</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>589</v>
+        <v>813</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>589</v>
+        <v>813</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>589</v>
+        <v>813</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>589</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A7" s="6" t="s">
-        <v>594</v>
+        <v>511</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3295,34 +3335,34 @@
     </row>
     <row r="8" spans="1:9" ht="13">
       <c r="A8" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="16" t="s">
-        <v>613</v>
+        <v>814</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>614</v>
+        <v>815</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>588</v>
+        <v>816</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>596</v>
+        <v>817</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>599</v>
+        <v>818</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>600</v>
+        <v>819</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>610</v>
+        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A9" s="6" t="s">
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3330,86 +3370,86 @@
     </row>
     <row r="10" spans="1:9" ht="13">
       <c r="A10" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>584</v>
+        <v>503</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>584</v>
+        <v>503</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>584</v>
+        <v>503</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>584</v>
+        <v>503</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>584</v>
+        <v>503</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>584</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>490</v>
+        <v>413</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>603</v>
+        <v>517</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>586</v>
+        <v>505</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>595</v>
+        <v>512</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>598</v>
+        <v>514</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>601</v>
+        <v>515</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>611</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>491</v>
+        <v>414</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>604</v>
+        <v>518</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>585</v>
+        <v>504</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>597</v>
+        <v>513</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>597</v>
+        <v>513</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>602</v>
+        <v>516</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>609</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -3417,7 +3457,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>493</v>
+        <v>416</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -3429,7 +3469,7 @@
     </row>
     <row r="16" spans="1:9" ht="13">
       <c r="A16" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3449,7 +3489,7 @@
     </row>
     <row r="19" spans="1:4" ht="13">
       <c r="A19" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -3461,7 +3501,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>496</v>
+        <v>418</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -3469,7 +3509,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>583</v>
+        <v>502</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -3477,7 +3517,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>503</v>
+        <v>425</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -3485,7 +3525,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>582</v>
+        <v>501</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -3493,7 +3533,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>513</v>
+        <v>435</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -3523,7 +3563,7 @@
     </row>
     <row r="29" spans="1:4" ht="13">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
@@ -3535,7 +3575,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>499</v>
+        <v>421</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -3543,7 +3583,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>498</v>
+        <v>420</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -3551,7 +3591,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -3587,7 +3627,7 @@
     </row>
     <row r="38" spans="1:5" ht="13">
       <c r="A38" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3631,7 +3671,7 @@
     </row>
     <row r="45" spans="1:5" ht="13">
       <c r="A45" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3647,10 +3687,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="17" t="s">
-        <v>606</v>
+        <v>520</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>592</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13">
@@ -3658,10 +3698,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="17" t="s">
-        <v>605</v>
+        <v>519</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>590</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13">
@@ -3669,10 +3709,10 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="17" t="s">
-        <v>607</v>
+        <v>521</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>591</v>
+        <v>508</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="20" customFormat="1" ht="13">
@@ -3683,7 +3723,7 @@
     </row>
     <row r="50" spans="1:4" ht="13">
       <c r="A50" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3715,7 +3755,7 @@
     </row>
     <row r="55" spans="1:4" ht="13">
       <c r="A55" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3735,11 +3775,11 @@
     </row>
     <row r="58" spans="1:4" ht="13">
       <c r="A58" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -3747,7 +3787,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -3755,7 +3795,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>502</v>
+        <v>424</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -3763,7 +3803,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>580</v>
+        <v>499</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -3771,7 +3811,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>501</v>
+        <v>423</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -3779,7 +3819,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>581</v>
+        <v>500</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -3851,36 +3891,28 @@
     </row>
     <row r="75" spans="1:4" ht="13">
       <c r="A75" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B75" s="2"/>
-      <c r="C75" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" ht="13">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
-        <v>487</v>
-      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" ht="13">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>488</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" ht="13">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
-        <v>489</v>
-      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" ht="13">
@@ -3927,7 +3959,7 @@
     </row>
     <row r="86" spans="1:4" ht="13">
       <c r="A86" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3942,12 +3974,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3968,186 +4000,186 @@
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>474</v>
+        <v>403</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>475</v>
+        <v>404</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="M1" s="11" t="s">
-        <v>549</v>
+        <v>469</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="D2" s="2" t="s">
-        <v>473</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1"/>
     <row r="4" spans="1:14">
       <c r="B4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>520</v>
+        <v>442</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>520</v>
+        <v>442</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1"/>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>422</v>
+        <v>794</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>422</v>
+        <v>794</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>422</v>
+        <v>794</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>421</v>
+        <v>795</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>422</v>
+        <v>794</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>424</v>
+        <v>796</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>423</v>
+        <v>797</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>421</v>
+        <v>795</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>452</v>
+        <v>798</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>422</v>
+        <v>794</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>423</v>
+        <v>797</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>546</v>
+        <v>799</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>421</v>
+        <v>795</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1"/>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>476</v>
+        <v>800</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>477</v>
+        <v>801</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>426</v>
+        <v>802</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>425</v>
+        <v>803</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>527</v>
+        <v>804</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>427</v>
+        <v>805</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>428</v>
+        <v>806</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>429</v>
+        <v>807</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>494</v>
+        <v>808</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>430</v>
+        <v>809</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>431</v>
+        <v>810</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>552</v>
+        <v>811</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>432</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1"/>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -4165,7 +4197,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>8</v>
@@ -4174,7 +4206,7 @@
         <v>8</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>8</v>
@@ -4191,124 +4223,124 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="2" t="s">
-        <v>482</v>
+        <v>409</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>525</v>
+        <v>447</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>490</v>
+        <v>413</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>547</v>
+        <v>467</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>541</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="D12" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>491</v>
+        <v>414</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>548</v>
+        <v>468</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="E13" s="2" t="s">
-        <v>545</v>
+        <v>466</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>544</v>
+        <v>465</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>492</v>
+        <v>415</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>543</v>
+        <v>464</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="E14" s="2" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>493</v>
+        <v>416</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>542</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1"/>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1"/>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>9</v>
@@ -4337,121 +4369,121 @@
     </row>
     <row r="20" spans="1:11">
       <c r="B20" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>531</v>
+        <v>452</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>633</v>
+        <v>544</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>496</v>
+        <v>418</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>517</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="B21" s="2" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>530</v>
+        <v>451</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>634</v>
+        <v>545</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>495</v>
+        <v>417</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>518</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="B22" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>503</v>
+        <v>425</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>516</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="B23" s="2" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>529</v>
+        <v>450</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>513</v>
+        <v>435</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>503</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="F24" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>512</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="F25" s="2" t="s">
-        <v>528</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="F26" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="6" customFormat="1"/>
     <row r="29" spans="1:11">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>10</v>
@@ -4477,79 +4509,79 @@
     </row>
     <row r="30" spans="1:11">
       <c r="B30" s="2" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>533</v>
+        <v>454</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>499</v>
+        <v>421</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>506</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="B31" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>532</v>
+        <v>453</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>498</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="B32" s="2" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>534</v>
+        <v>455</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>500</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="F33" s="2" t="s">
-        <v>535</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1"/>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="6" customFormat="1"/>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>13</v>
@@ -4557,60 +4589,60 @@
     </row>
     <row r="46" spans="1:7">
       <c r="G46" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="G47" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="G48" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="6" customFormat="1"/>
     <row r="50" spans="1:14">
       <c r="A50" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="6" customFormat="1"/>
     <row r="55" spans="1:14">
       <c r="A55" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:14" s="6" customFormat="1"/>
     <row r="58" spans="1:14">
       <c r="A58" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="J59" s="2" t="s">
-        <v>522</v>
+        <v>444</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>508</v>
+        <v>430</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>550</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="J60" s="2" t="s">
-        <v>502</v>
+        <v>424</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>16</v>
@@ -4621,65 +4653,65 @@
     </row>
     <row r="61" spans="1:14">
       <c r="J61" s="2" t="s">
-        <v>505</v>
+        <v>427</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>551</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="J62" s="2" t="s">
-        <v>501</v>
+        <v>423</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>555</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="J63" s="2" t="s">
-        <v>504</v>
+        <v>426</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>509</v>
+        <v>431</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>559</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="K64" s="2" t="s">
-        <v>523</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="K65" s="2" t="s">
-        <v>514</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="K66" s="2" t="s">
-        <v>515</v>
+        <v>437</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="K67" s="2" t="s">
-        <v>510</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="K68" s="2" t="s">
-        <v>511</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="K69" s="2" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4694,118 +4726,118 @@
     </row>
     <row r="72" spans="1:14">
       <c r="K72" s="2" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="K73" s="2" t="s">
-        <v>484</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="6" customFormat="1"/>
     <row r="75" spans="1:14">
       <c r="A75" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="B76" s="2" t="s">
-        <v>701</v>
+        <v>607</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>700</v>
+        <v>606</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>637</v>
+        <v>548</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>571</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="B77" s="2" t="s">
-        <v>699</v>
+        <v>605</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>699</v>
+        <v>605</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>635</v>
+        <v>546</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>572</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="G78" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>636</v>
+        <v>547</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>573</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="G79" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>557</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="G80" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="G81" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>558</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="G82" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="G83" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="6" customFormat="1"/>
     <row r="86" spans="1:14">
       <c r="A86" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K86" s="2" t="s">
         <v>18</v>
@@ -4816,10 +4848,10 @@
     </row>
     <row r="87" spans="1:14">
       <c r="K87" s="2" t="s">
-        <v>507</v>
+        <v>429</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>675</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4840,18 +4872,18 @@
     </row>
     <row r="90" spans="1:14">
       <c r="K90" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="K91" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>674</v>
+        <v>580</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4864,12 +4896,12 @@
     </row>
     <row r="93" spans="1:14">
       <c r="K93" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="K94" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4878,9 +4910,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N59:N63">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="col: units">
-      <formula>NOT(ISERROR(SEARCH("col: units",N59)))</formula>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4890,14 +4922,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4987CBB-E748-D040-83F8-8A97947A4656}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="B88" sqref="B88"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="93" defaultRowHeight="14"/>
@@ -4910,36 +4942,36 @@
     <row r="1" spans="1:6" s="14" customFormat="1">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>244</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>520</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4952,22 +4984,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>433</v>
+        <v>784</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>434</v>
+        <v>786</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>438</v>
+        <v>788</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>439</v>
+        <v>790</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>441</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4980,22 +5012,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>436</v>
+        <v>785</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>435</v>
+        <v>787</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>437</v>
+        <v>789</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>440</v>
+        <v>791</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>442</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5008,19 +5040,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
@@ -5028,120 +5060,120 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5154,33 +5186,39 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="C20" s="22" t="str">
+        <f t="shared" ref="C20:E21" si="0">IF(ISBLANK($B20), "", $B20)</f>
+        <v>Describe:</v>
+      </c>
+      <c r="D20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Describe:</v>
+      </c>
+      <c r="E20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Describe:</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="C21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  col: updated</v>
+      </c>
+      <c r="D21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  col: updated</v>
+      </c>
+      <c r="E21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  col: updated</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5193,7 +5231,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>9</v>
@@ -5213,184 +5251,187 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>355</v>
+        <v>777</v>
+      </c>
+      <c r="C24" s="22" t="str">
+        <f>IF(ISBLANK($B24), "", $B24)</f>
+        <v># - {col: updated, type: Date}</v>
+      </c>
+      <c r="D24" s="22" t="str">
+        <f>IF(ISBLANK($B24), "", $B24)</f>
+        <v># - {col: updated, type: Date}</v>
+      </c>
+      <c r="E24" s="22" t="str">
+        <f>IF(ISBLANK($B24), "", $B24)</f>
+        <v># - {col: updated, type: Date}</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5403,7 +5444,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>10</v>
@@ -5420,131 +5461,131 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5557,7 +5598,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5570,61 +5611,68 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>13</v>
+        <v>678</v>
+      </c>
+      <c r="E59" s="22" t="str">
+        <f>IF(ISBLANK($D59), "", $D59)</f>
+        <v># Match:</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="D60" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>340</v>
+        <v>783</v>
+      </c>
+      <c r="E60" s="22" t="str">
+        <f t="shared" ref="E60:E65" si="1">IF(ISBLANK($D60), "", $D60)</f>
+        <v># - on:     (?&lt;place_desc&gt;.*) town</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>339</v>
+        <v>781</v>
+      </c>
+      <c r="E61" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#   input:  place_desc</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>337</v>
+        <v>782</v>
+      </c>
+      <c r="E62" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#   output: place_desc</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>338</v>
+        <v>780</v>
+      </c>
+      <c r="E63" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v># - on:     (?&lt;place_desc&gt;.*) city</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>339</v>
+        <v>781</v>
+      </c>
+      <c r="E64" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#   input:  place_desc</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>337</v>
+        <v>782</v>
+      </c>
+      <c r="E65" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>#   output: place_desc</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5637,7 +5685,7 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5650,21 +5698,21 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5677,142 +5725,250 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>521</v>
+        <v>178</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="E76" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="B76" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="E77" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="B77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="E78" s="2" t="s">
-        <v>346</v>
-      </c>
+      <c r="B78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="E79" s="2" t="s">
-        <v>347</v>
-      </c>
+      <c r="B79" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="E80" s="2" t="s">
-        <v>348</v>
-      </c>
+      <c r="B80" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="22"/>
+      <c r="E81" s="2" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="22"/>
       <c r="E82" s="2" t="s">
-        <v>27</v>
+        <v>773</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="B83" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>343</v>
-      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="22"/>
       <c r="E83" s="2" t="s">
-        <v>351</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="B84" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>341</v>
-      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="22"/>
       <c r="E84" s="2" t="s">
-        <v>350</v>
+        <v>775</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="B85" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="22"/>
       <c r="E85" s="2" t="s">
-        <v>349</v>
+        <v>776</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="B86" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>352</v>
-      </c>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6">
+      <c r="A87" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="B87" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>353</v>
+        <v>25</v>
+      </c>
+      <c r="C87" s="22" t="str">
+        <f>IF(ISBLANK($B87), "", $B87)</f>
+        <v>Replace:</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="22" t="str">
+        <f>IF(ISBLANK($D87), "", $D87)</f>
+        <v>Replace:</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="22" t="str">
+        <f t="shared" ref="C88:C90" si="2">IF(ISBLANK($B88), "", $B88)</f>
+        <v xml:space="preserve">  - col:  memi</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E88" s="22" t="str">
+        <f t="shared" ref="E88:E90" si="3">IF(ISBLANK($D88), "", $D88)</f>
+        <v xml:space="preserve">  - col:  nmemi</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="B89" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="C89" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    from: [Metropolitan Statistical Area, Micropolitan Statistical Area]</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E89" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    from: [Metropolitan NECTA, Micropolitan NECTA]</v>
+      </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="2" t="s">
-        <v>182</v>
+      <c r="B90" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">    to:   [1, 2]</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    to:   [1, 2]</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="B91" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="B93" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A80:C80 F75:XFD80 A81:D1048576 F87:XFD90 A1:XFD58 E91:XFD1048576 E81:XFD86 A75:A79 C75:C79 A66:XFD74 F59:XFD65 A59:D65">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>_xlfn.ISFORMULA(A1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="13" priority="10">
+      <formula>_xlfn.ISFORMULA(E87)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:E80">
+    <cfRule type="expression" dxfId="12" priority="11">
+      <formula>_xlfn.ISFORMULA(E75)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88:E90">
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>_xlfn.ISFORMULA(E88)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B75:B80">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>_xlfn.ISFORMULA(B75)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>_xlfn.ISFORMULA(D75)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76:D80">
+    <cfRule type="expression" dxfId="8" priority="4">
+      <formula>_xlfn.ISFORMULA(D76)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>_xlfn.ISFORMULA(E59)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E65">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>_xlfn.ISFORMULA(E60)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5822,12 +5978,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W63" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="W72" sqref="W72"/>
+      <selection pane="bottomRight" activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5881,66 +6037,60 @@
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>646</v>
+        <v>556</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>667</v>
+        <v>574</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="Q1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="S1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="U1" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="X1" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="5" customFormat="1">
@@ -5948,73 +6098,73 @@
     </row>
     <row r="5" spans="1:24">
       <c r="B5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>519</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1">
@@ -6022,83 +6172,83 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>443</v>
+        <v>821</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>IF(ISBLANK($B7), "", $B7)</f>
-        <v>Path: [.., data, datasources, BEA, IO]</v>
+        <v>Path: [data, datasources, BEA, IO]</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>444</v>
+        <v>822</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>IF(ISBLANK($D7), "", $D7)</f>
-        <v>Path: [.., data, datasources, BEA_2007_2012]</v>
+        <v>Path: [data, datasources, BEA_2007_2012]</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>472</v>
+        <v>823</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>446</v>
+        <v>824</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>448</v>
+        <v>825</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>451</v>
+        <v>826</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>452</v>
+        <v>798</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>461</v>
+        <v>827</v>
       </c>
       <c r="L7" s="1" t="str">
         <f>IF(ISBLANK($K7), "", $K7)</f>
-        <v>Path: [.., data, output]</v>
+        <v>Path: [data, output]</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>454</v>
+        <v>828</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>456</v>
+        <v>829</v>
       </c>
       <c r="O7" s="24" t="str">
         <f t="shared" ref="O7:R7" si="0">IF(ISBLANK($N7), "", $N7)</f>
-        <v>Path: [.., data, datasources, SGF]</v>
+        <v>Path: [data, datasources, SGF]</v>
       </c>
       <c r="P7" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Path: [.., data, datasources, SGF]</v>
+        <v>Path: [data, datasources, SGF]</v>
       </c>
       <c r="Q7" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Path: [.., data, datasources, SGF]</v>
+        <v>Path: [data, datasources, SGF]</v>
       </c>
       <c r="R7" s="24" t="str">
         <f t="shared" si="0"/>
-        <v>Path: [.., data, datasources, SGF]</v>
+        <v>Path: [data, datasources, SGF]</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>461</v>
+        <v>827</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>464</v>
+        <v>830</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>465</v>
+        <v>831</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>468</v>
+        <v>832</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>469</v>
+        <v>833</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>469</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="5" customFormat="1">
@@ -6107,76 +6257,76 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>710</v>
+        <v>834</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>712</v>
+        <v>835</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>711</v>
+        <v>836</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>713</v>
+        <v>837</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>445</v>
+        <v>838</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>447</v>
+        <v>839</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>449</v>
+        <v>840</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>450</v>
+        <v>841</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>453</v>
+        <v>842</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>647</v>
+        <v>843</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>668</v>
+        <v>844</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>457</v>
+        <v>845</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>455</v>
+        <v>846</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>485</v>
+        <v>847</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>458</v>
+        <v>848</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>459</v>
+        <v>849</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>460</v>
+        <v>850</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>462</v>
+        <v>851</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>463</v>
+        <v>852</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>466</v>
+        <v>853</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>467</v>
+        <v>854</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>470</v>
+        <v>855</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>471</v>
+        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="5" customFormat="1">
@@ -6184,19 +6334,19 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
@@ -6205,7 +6355,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>8</v>
@@ -6224,13 +6374,13 @@
         <v>8</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>8</v>
@@ -6245,10 +6395,10 @@
         <v>8</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W11" s="2" t="s">
         <v>8</v>
@@ -6259,321 +6409,321 @@
     </row>
     <row r="12" spans="1:24">
       <c r="B12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>615</v>
+        <v>526</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>623</v>
+        <v>534</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>628</v>
+        <v>539</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>648</v>
+        <v>557</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">  name: cfs.csv</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="O12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="S12" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>631</v>
+        <v>542</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="X12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>616</v>
+        <v>527</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>624</v>
+        <v>535</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>630</v>
+        <v>541</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>649</v>
+        <v>558</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>681</v>
+        <v>587</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="R13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="S13" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>632</v>
+        <v>543</v>
       </c>
       <c r="U13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="X13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1" t="str">
         <f t="shared" ref="C14:C15" si="2">IF(ISBLANK($B14), "", $B14)</f>
         <v xml:space="preserve">  sheet:      [1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017]</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" ref="E14:E15" si="3">IF(ISBLANK($D14), "", $D14)</f>
         <v xml:space="preserve">  sheet:      [2007, 2012]</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>617</v>
+        <v>528</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>625</v>
+        <v>536</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="S14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="U14" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">  descriptor: [1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017]</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  descriptor: [2007, 2012]</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>618</v>
+        <v>529</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>627</v>
+        <v>538</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="U15" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="F16" s="1" t="s">
-        <v>619</v>
+        <v>530</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="F17" s="1" t="s">
-        <v>620</v>
+        <v>531</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="F18" s="1" t="s">
-        <v>621</v>
+        <v>532</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="F19" s="1" t="s">
-        <v>622</v>
+        <v>533</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="F20" s="1" t="s">
-        <v>626</v>
+        <v>537</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="P21" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="P22" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="P23" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="P24" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="5" customFormat="1">
@@ -6581,10 +6731,10 @@
     </row>
     <row r="26" spans="1:24">
       <c r="A26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="str">
         <f>IF(ISBLANK($B26), "", $B26)</f>
@@ -6599,20 +6749,20 @@
         <v>Describe:</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>629</v>
+        <v>540</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" ref="G26:G27" si="5">IF(ISBLANK($F26), "", $F26)</f>
         <v># Describe:</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>629</v>
+        <v>540</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="24" t="str">
         <f>IF(ISBLANK($N26), "", $N26)</f>
@@ -6628,15 +6778,15 @@
       </c>
       <c r="R26" s="2"/>
       <c r="T26" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="B27" s="1" t="s">
-        <v>695</v>
+        <v>601</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>IF(ISBLANK($B27), "", $B27)</f>
@@ -6651,20 +6801,20 @@
         <v xml:space="preserve">  col: yr</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>835</v>
+        <v>737</v>
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="5"/>
         <v>#  col: gdpcat</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>772</v>
+        <v>674</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>695</v>
+        <v>601</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>695</v>
+        <v>601</v>
       </c>
       <c r="O27" s="24" t="str">
         <f t="shared" si="6"/>
@@ -6680,10 +6830,10 @@
       </c>
       <c r="R27" s="2"/>
       <c r="T27" s="2" t="s">
-        <v>810</v>
+        <v>712</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:24" s="5" customFormat="1">
@@ -6693,7 +6843,7 @@
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>9</v>
@@ -6775,7 +6925,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="B30" s="4" t="s">
-        <v>696</v>
+        <v>602</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="7"/>
@@ -6790,32 +6940,32 @@
         <v xml:space="preserve">  - {col: yr,         type: Int}</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>733</v>
+        <v>635</v>
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" ref="G30" si="8">IF(ISBLANK($F30), "", $F30)</f>
         <v xml:space="preserve">  - {col: yr,     type: Int}</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>720</v>
+        <v>622</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>721</v>
+        <v>623</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>744</v>
+        <v>646</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>696</v>
+        <v>602</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>696</v>
+        <v>602</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>743</v>
+        <v>645</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>721</v>
+        <v>623</v>
       </c>
       <c r="O30" s="24" t="str">
         <f t="shared" ref="O30:S57" si="9">IF(ISBLANK($N30), "", $N30)</f>
@@ -6838,24 +6988,24 @@
         <v xml:space="preserve">  - {col: yr,        type: Int}</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>837</v>
+        <v>739</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>743</v>
+        <v>645</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>733</v>
+        <v>635</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>733</v>
+        <v>635</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>741</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="B31" s="4" t="s">
-        <v>697</v>
+        <v>603</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="7"/>
@@ -6870,32 +7020,32 @@
         <v># - {col: input_bea,  type: String}</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>762</v>
+        <v>664</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IF(ISBLANK($F31), "", $F31)</f>
         <v xml:space="preserve">  - {col: r,      type: String}</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>859</v>
+        <v>761</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>784</v>
+        <v>686</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>660</v>
+        <v>567</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>653</v>
+        <v>562</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>669</v>
+        <v>575</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>863</v>
+        <v>765</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>784</v>
+        <v>686</v>
       </c>
       <c r="O31" s="24" t="str">
         <f t="shared" si="9"/>
@@ -6918,24 +7068,24 @@
         <v xml:space="preserve">  - {col: r,         type: String}</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>841</v>
+        <v>743</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>762</v>
+        <v>664</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>733</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="B32" s="4" t="s">
-        <v>705</v>
+        <v>611</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="7"/>
@@ -6950,28 +7100,28 @@
         <v xml:space="preserve">  - {col: i,          type: String}</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>769</v>
+        <v>671</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>785</v>
+        <v>687</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>652</v>
+        <v>561</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>670</v>
+        <v>576</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>864</v>
+        <v>766</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>793</v>
+        <v>695</v>
       </c>
       <c r="O32" s="24" t="str">
         <f t="shared" si="9"/>
@@ -6994,24 +7144,24 @@
         <v># - {col: ec_desc,   type: String}</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>842</v>
+        <v>744</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="V32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="W32" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="W32" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="X32" s="4" t="s">
-        <v>737</v>
+        <v>639</v>
       </c>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" s="4" t="s">
-        <v>698</v>
+        <v>604</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7026,32 +7176,32 @@
         <v># - {col: output_bea, type: String}</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>760</v>
+        <v>662</v>
       </c>
       <c r="G33" s="1" t="str">
         <f t="shared" ref="G33:G58" si="10">IF(ISBLANK($F33), "", $F33)</f>
         <v xml:space="preserve">  - {col: gdpcat, type: String}</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>858</v>
+        <v>760</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>778</v>
+        <v>680</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>676</v>
+        <v>582</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>832</v>
+        <v>734</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>832</v>
+        <v>734</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>862</v>
+        <v>764</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>791</v>
+        <v>693</v>
       </c>
       <c r="O33" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7074,21 +7224,21 @@
         <v xml:space="preserve">  - {col: ec,        type: String}</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>838</v>
+        <v>740</v>
       </c>
       <c r="V33" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="W33" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>728</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="2:24">
       <c r="B34" s="4" t="s">
-        <v>706</v>
+        <v>612</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7103,32 +7253,32 @@
         <v xml:space="preserve">  - {col: j,          type: String}</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>761</v>
+        <v>663</v>
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  - {col: si,     type: String}</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>857</v>
+        <v>759</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>786</v>
+        <v>688</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>833</v>
+        <v>735</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>833</v>
+        <v>735</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>820</v>
+        <v>722</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>714</v>
+        <v>616</v>
       </c>
       <c r="O34" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7151,19 +7301,19 @@
         <v># - {col: windc_code,type: String}</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>813</v>
+        <v>715</v>
       </c>
       <c r="V34" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="W34" s="4"/>
       <c r="X34" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:24">
       <c r="B35" s="4" t="s">
-        <v>656</v>
+        <v>563</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7178,32 +7328,32 @@
         <v xml:space="preserve">  - {col: units,      type: String}</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>834</v>
+        <v>736</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="10"/>
         <v># - {col: n,      type: String}</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>856</v>
+        <v>758</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>677</v>
+        <v>583</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>656</v>
+        <v>563</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>656</v>
+        <v>563</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>708</v>
+        <v>614</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O35" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7226,15 +7376,15 @@
         <v xml:space="preserve">  - {col: units,     type: String}</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>821</v>
+        <v>723</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>732</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="2:24">
       <c r="B36" s="4" t="s">
-        <v>657</v>
+        <v>564</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7249,32 +7399,32 @@
         <v xml:space="preserve">  - {col: value,      type: Float64}</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>763</v>
+        <v>665</v>
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="10"/>
         <v># - {col: desc,   type: String}</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>657</v>
+        <v>564</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>657</v>
+        <v>564</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>709</v>
+        <v>615</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O36" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7297,10 +7447,10 @@
         <v xml:space="preserve">  - {col: value,     type: Float64}</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>839</v>
+        <v>741</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:24">
@@ -7317,17 +7467,17 @@
         <v/>
       </c>
       <c r="F37" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  - {col: units,  type: String}</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>787</v>
+        <v>689</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -7353,10 +7503,10 @@
         <v/>
       </c>
       <c r="T37" s="4" t="s">
-        <v>840</v>
+        <v>742</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:24">
@@ -7373,22 +7523,22 @@
         <v/>
       </c>
       <c r="F38" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  - {col: value,  type: Float64}</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>831</v>
+        <v>733</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="4" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="O38" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7429,13 +7579,13 @@
         <v/>
       </c>
       <c r="J39" s="2" t="s">
-        <v>788</v>
+        <v>690</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>729</v>
+        <v>631</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>729</v>
+        <v>631</v>
       </c>
       <c r="O39" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7458,10 +7608,10 @@
         <v># - {col: value_0, type: Any}</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>867</v>
+        <v>769</v>
       </c>
     </row>
     <row r="40" spans="2:24">
@@ -7478,7 +7628,7 @@
         <v/>
       </c>
       <c r="F40" s="4" t="s">
-        <v>730</v>
+        <v>632</v>
       </c>
       <c r="G40" s="1" t="str">
         <f>IF(ISBLANK($F40), "", $F40)</f>
@@ -7487,10 +7637,10 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="1" t="s">
-        <v>731</v>
+        <v>633</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>731</v>
+        <v>633</v>
       </c>
       <c r="O40" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7513,10 +7663,10 @@
         <v># - {col: factor,  type: Any}</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>729</v>
+        <v>631</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>868</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="2:24">
@@ -7533,14 +7683,14 @@
         <v/>
       </c>
       <c r="F41" s="4" t="s">
-        <v>729</v>
+        <v>631</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="10"/>
         <v># - {col: value_0, type: Any}</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -7566,10 +7716,10 @@
         <v/>
       </c>
       <c r="T41" s="1" t="s">
-        <v>731</v>
+        <v>633</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>869</v>
+        <v>771</v>
       </c>
     </row>
     <row r="42" spans="2:24">
@@ -7586,14 +7736,14 @@
         <v/>
       </c>
       <c r="F42" s="1" t="s">
-        <v>731</v>
+        <v>633</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="10"/>
         <v># - {col: factor,  type: Any}</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -7638,7 +7788,7 @@
         <v/>
       </c>
       <c r="J43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -7683,7 +7833,7 @@
         <v/>
       </c>
       <c r="J44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -7728,7 +7878,7 @@
         <v/>
       </c>
       <c r="J45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -7773,7 +7923,7 @@
         <v/>
       </c>
       <c r="J46" s="2" t="s">
-        <v>561</v>
+        <v>480</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -7818,7 +7968,7 @@
         <v/>
       </c>
       <c r="J47" s="2" t="s">
-        <v>560</v>
+        <v>479</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="24" t="str">
@@ -7903,7 +8053,7 @@
         <v/>
       </c>
       <c r="J49" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="24" t="str">
@@ -7988,7 +8138,7 @@
         <v/>
       </c>
       <c r="J51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -8033,7 +8183,7 @@
         <v/>
       </c>
       <c r="J52" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -8078,7 +8228,7 @@
         <v/>
       </c>
       <c r="J53" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -8123,7 +8273,7 @@
         <v/>
       </c>
       <c r="J54" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -8168,7 +8318,7 @@
         <v/>
       </c>
       <c r="J55" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -8213,7 +8363,7 @@
         <v/>
       </c>
       <c r="J56" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -8258,7 +8408,7 @@
         <v/>
       </c>
       <c r="J57" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -8291,7 +8441,7 @@
         <v/>
       </c>
       <c r="J58" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -8314,7 +8464,7 @@
     </row>
     <row r="60" spans="1:24">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>10</v>
@@ -8383,215 +8533,215 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" s="1" t="s">
-        <v>686</v>
+        <v>592</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" ref="C61:C62" si="12">IF(ISBLANK($B61), "", $B61)</f>
         <v xml:space="preserve">  - {from: IOCode, to: input_bea}</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>687</v>
+        <v>593</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {from: Code,                  to: input_bea}</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>752</v>
+        <v>654</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>764</v>
+        <v>666</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>843</v>
+        <v>745</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>775</v>
+        <v>677</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>680</v>
+        <v>586</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>795</v>
+        <v>697</v>
       </c>
       <c r="O61" s="22" t="s">
-        <v>795</v>
+        <v>697</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>796</v>
+        <v>698</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>797</v>
+        <v>699</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>807</v>
+        <v>709</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>722</v>
+        <v>624</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>866</v>
+        <v>768</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>812</v>
+        <v>714</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="B62" s="1" t="s">
-        <v>692</v>
+        <v>598</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">  - {from: Name,   to: input_desc}</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>693</v>
+        <v>599</v>
       </c>
       <c r="E62" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {from: Commodity Description, to: input_desc}</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>765</v>
+        <v>667</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>844</v>
+        <v>746</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>678</v>
+        <v>584</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="1" t="s">
-        <v>861</v>
+        <v>763</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>723</v>
+        <v>625</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>724</v>
+        <v>626</v>
       </c>
       <c r="U62" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>742</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="F63" s="1" t="s">
-        <v>745</v>
+        <v>647</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" ref="G63:G67" si="13">IF(ISBLANK($F63), "", $F63)</f>
         <v xml:space="preserve">  - {from: ComponentName,          to: gdpcat}</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>845</v>
+        <v>747</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>781</v>
+        <v>683</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>679</v>
+        <v>585</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>865</v>
+        <v>767</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>808</v>
+        <v>710</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>811</v>
+        <v>713</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>738</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="F64" s="1" t="s">
-        <v>756</v>
+        <v>658</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">  - {from: IndustryId,             to: si}</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>860</v>
+        <v>762</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>789</v>
+        <v>691</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>814</v>
+        <v>716</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U64" s="2"/>
       <c r="X64" s="1" t="s">
-        <v>734</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="1:24">
       <c r="F65" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G65" s="1" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">  - {from: Unit,                   to: units}</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>771</v>
+        <v>673</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>822</v>
+        <v>724</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X65" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:24">
       <c r="F66" s="1" t="s">
-        <v>815</v>
+        <v>717</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">  - {from: IndustryClassification, to: n}</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:24">
       <c r="F67" s="1" t="s">
-        <v>759</v>
+        <v>661</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="13"/>
@@ -8603,35 +8753,35 @@
     </row>
     <row r="69" spans="1:24">
       <c r="A69" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:24">
       <c r="N70" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="1:24">
       <c r="N71" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:24">
       <c r="N72" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:24">
       <c r="N73" s="1" t="s">
-        <v>794</v>
+        <v>696</v>
       </c>
     </row>
     <row r="74" spans="1:24">
       <c r="N74" s="1" t="s">
-        <v>798</v>
+        <v>700</v>
       </c>
     </row>
     <row r="75" spans="1:24" s="5" customFormat="1">
@@ -8639,7 +8789,7 @@
     </row>
     <row r="76" spans="1:24">
       <c r="A76" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
@@ -8649,7 +8799,7 @@
         <v>13</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>776</v>
+        <v>678</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>13</v>
@@ -8660,87 +8810,87 @@
     </row>
     <row r="77" spans="1:24">
       <c r="F77" s="2" t="s">
-        <v>749</v>
+        <v>651</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="1" t="s">
-        <v>846</v>
+        <v>748</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>777</v>
+        <v>679</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>816</v>
+        <v>718</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>825</v>
+        <v>727</v>
       </c>
     </row>
     <row r="78" spans="1:24">
       <c r="F78" s="2" t="s">
-        <v>750</v>
+        <v>652</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="s">
-        <v>847</v>
+        <v>749</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>750</v>
+        <v>652</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>823</v>
+        <v>725</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:24">
       <c r="F79" s="2" t="s">
-        <v>751</v>
+        <v>653</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="1" t="s">
-        <v>848</v>
+        <v>750</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>751</v>
+        <v>653</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>824</v>
+        <v>726</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>826</v>
+        <v>728</v>
       </c>
     </row>
     <row r="80" spans="1:24">
       <c r="F80" s="2" t="s">
-        <v>753</v>
+        <v>655</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="1" t="s">
-        <v>849</v>
+        <v>751</v>
       </c>
       <c r="I80" s="2"/>
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:24">
       <c r="F81" s="2" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="1" t="s">
-        <v>850</v>
+        <v>752</v>
       </c>
       <c r="I81" s="2"/>
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:24">
       <c r="F82" s="2" t="s">
-        <v>755</v>
+        <v>657</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="1" t="s">
-        <v>851</v>
+        <v>753</v>
       </c>
       <c r="I82" s="2"/>
       <c r="M82" s="2"/>
@@ -8750,7 +8900,7 @@
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>14</v>
@@ -8798,92 +8948,92 @@
     </row>
     <row r="85" spans="1:24">
       <c r="B85" s="1" t="s">
-        <v>694</v>
+        <v>600</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">  on:  [input_bea, input_desc]</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>694</v>
+        <v>600</v>
       </c>
       <c r="E85" s="1" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">  on:  [input_bea, input_desc]</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>817</v>
+        <v>719</v>
       </c>
       <c r="G85" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">  on:  [r, gdpcat, si, units, si, n, desc]</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>852</v>
+        <v>754</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>783</v>
+        <v>685</v>
       </c>
       <c r="O85" s="22" t="s">
-        <v>800</v>
+        <v>702</v>
       </c>
       <c r="P85" s="24" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">  on:  ec_desc</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>806</v>
+        <v>708</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>806</v>
+        <v>708</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>725</v>
+        <v>627</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="B86" s="1" t="s">
-        <v>689</v>
+        <v>595</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">  var: output_desc</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>836</v>
+        <v>738</v>
       </c>
       <c r="E86" s="1" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">  var: output_bea</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>726</v>
+        <v>628</v>
       </c>
       <c r="G86" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">  var: yr</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>726</v>
+        <v>628</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>726</v>
+        <v>628</v>
       </c>
       <c r="O86" s="22" t="s">
-        <v>799</v>
+        <v>701</v>
       </c>
       <c r="P86" s="24" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">  var: r</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>805</v>
+        <v>707</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>726</v>
+        <v>628</v>
       </c>
       <c r="W86" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:24">
@@ -8936,10 +9086,10 @@
     </row>
     <row r="89" spans="1:24">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C89" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8954,30 +9104,30 @@
         <v>Add:</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="W89" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:24">
       <c r="B90" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C90" s="1" t="str">
         <f t="shared" si="14"/>
@@ -8992,30 +9142,30 @@
         <v xml:space="preserve">  col: units</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:24">
       <c r="B91" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C91" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9030,45 +9180,45 @@
         <v xml:space="preserve">  val: millions of us dollars (USD)</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>540</v>
+        <v>461</v>
       </c>
     </row>
     <row r="92" spans="1:24">
       <c r="J92" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U92" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V92" s="2"/>
       <c r="W92" s="1" t="s">
-        <v>539</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:24">
       <c r="J93" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V93" s="2"/>
     </row>
@@ -9077,43 +9227,43 @@
     </row>
     <row r="95" spans="1:24">
       <c r="A95" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" ref="C95:C105" si="18">IF(ISBLANK($B95), "", $B95)</f>
         <v>Map:</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" ref="E95:E105" si="19">IF(ISBLANK($D95), "", $D95)</f>
         <v>Map:</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="K95" s="2"/>
       <c r="M95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="O95" s="24" t="str">
         <f t="shared" ref="O95:R95" si="20">IF(ISBLANK($N95), "", $N95)</f>
@@ -9132,54 +9282,54 @@
         <v>Map:</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>521</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:24">
       <c r="B96" s="1" t="s">
-        <v>478</v>
+        <v>405</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  - file:   [parse, bea_summary.csv]</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  - file:   [parse, bea_detail.csv]</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="G96" s="1" t="str">
         <f t="shared" ref="G96:G100" si="21">IF(ISBLANK($F96), "", $F96)</f>
         <v xml:space="preserve">  - file:   [parse, gsp.csv]</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>481</v>
+        <v>408</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>650</v>
+        <v>559</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="O96" s="24" t="str">
         <f t="shared" ref="O96:R100" si="22">IF(ISBLANK($N96), "", $N96)</f>
@@ -9198,25 +9348,25 @@
         <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>650</v>
+        <v>559</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>536</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:24">
       <c r="B97" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C97" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    from:   bea_desc</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E97" s="1" t="str">
         <f t="shared" si="19"/>
@@ -9239,7 +9389,7 @@
         <v>16</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>827</v>
+        <v>729</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>16</v>
@@ -9261,25 +9411,25 @@
         <v xml:space="preserve">    from:   from</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>827</v>
+        <v>729</v>
       </c>
       <c r="W97" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>537</v>
+        <v>458</v>
       </c>
     </row>
     <row r="98" spans="1:24">
       <c r="B98" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C98" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    to:     [bea_code, bea_windc]</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E98" s="1" t="str">
         <f t="shared" si="19"/>
@@ -9302,10 +9452,10 @@
         <v>17</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>651</v>
+        <v>560</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>715</v>
+        <v>617</v>
       </c>
       <c r="O98" s="24" t="str">
         <f t="shared" si="22"/>
@@ -9324,51 +9474,51 @@
         <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>651</v>
+        <v>560</v>
       </c>
       <c r="W98" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>538</v>
+        <v>459</v>
       </c>
     </row>
     <row r="99" spans="1:24">
       <c r="B99" s="1" t="s">
-        <v>690</v>
+        <v>596</v>
       </c>
       <c r="C99" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    input:  output_desc</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>688</v>
+        <v>594</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">    input:  output_bea</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>748</v>
+        <v>650</v>
       </c>
       <c r="G99" s="1" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">    input:  gdpcat</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>782</v>
+        <v>684</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>658</v>
+        <v>565</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>818</v>
+        <v>720</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>801</v>
+        <v>703</v>
       </c>
       <c r="O99" s="24" t="str">
         <f t="shared" si="22"/>
@@ -9387,51 +9537,51 @@
         <v xml:space="preserve">    input:  ec_desc</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>818</v>
+        <v>720</v>
       </c>
       <c r="W99" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>735</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:24">
       <c r="B100" s="1" t="s">
-        <v>703</v>
+        <v>609</v>
       </c>
       <c r="C100" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    output: [output_bea, j]</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>704</v>
+        <v>610</v>
       </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">    output: [output_desc, j]</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>746</v>
+        <v>648</v>
       </c>
       <c r="G100" s="1" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">    output: gdpcat</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>780</v>
+        <v>682</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>662</v>
+        <v>569</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>819</v>
+        <v>721</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>802</v>
+        <v>704</v>
       </c>
       <c r="O100" s="24" t="str">
         <f t="shared" si="22"/>
@@ -9450,50 +9600,50 @@
         <v xml:space="preserve">    output: [ec_desc, ec, units]</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>819</v>
+        <v>721</v>
       </c>
       <c r="W100" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>736</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" s="1" t="s">
-        <v>718</v>
+        <v>620</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>478</v>
+        <v>405</v>
       </c>
       <c r="C101" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  - file:   [parse, bea_summary.csv]</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="E101" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  - file:   [parse, bea_detail.csv]</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>671</v>
+        <v>577</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="O101" s="22" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="P101" s="24" t="str">
         <f>IF(ISBLANK($O101), "", $O101)</f>
@@ -9508,25 +9658,25 @@
         <v xml:space="preserve">  - file:   [parse, regions.csv]</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="102" spans="1:24">
       <c r="B102" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C102" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    from:   [bea_code, bea_desc]</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E102" s="1" t="str">
         <f t="shared" si="19"/>
@@ -9536,7 +9686,7 @@
         <v>16</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>672</v>
+        <v>578</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>16</v>
@@ -9574,14 +9724,14 @@
     </row>
     <row r="103" spans="1:24">
       <c r="B103" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C103" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    to:     bea_windc</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E103" s="1" t="str">
         <f t="shared" si="19"/>
@@ -9591,7 +9741,7 @@
         <v>17</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>673</v>
+        <v>579</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>17</v>
@@ -9629,36 +9779,36 @@
     </row>
     <row r="104" spans="1:24">
       <c r="B104" s="1" t="s">
-        <v>691</v>
+        <v>597</v>
       </c>
       <c r="C104" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    input:  [input_bea, input_desc]</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>691</v>
+        <v>597</v>
       </c>
       <c r="E104" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">    input:  [input_bea, input_desc]</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>661</v>
+        <v>568</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="O104" s="22" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="P104" s="24" t="str">
         <f t="shared" si="24"/>
@@ -9673,47 +9823,47 @@
         <v xml:space="preserve">    input:  r</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>754</v>
+        <v>656</v>
       </c>
       <c r="X104" s="1" t="s">
-        <v>739</v>
+        <v>641</v>
       </c>
     </row>
     <row r="105" spans="1:24">
       <c r="B105" s="1" t="s">
-        <v>702</v>
+        <v>608</v>
       </c>
       <c r="C105" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    output: i</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>702</v>
+        <v>608</v>
       </c>
       <c r="E105" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">    output: i</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>755</v>
+        <v>657</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>766</v>
+        <v>668</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>755</v>
+        <v>657</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>659</v>
+        <v>566</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>755</v>
+        <v>657</v>
       </c>
       <c r="O105" s="22" t="s">
-        <v>755</v>
+        <v>657</v>
       </c>
       <c r="P105" s="24" t="str">
         <f t="shared" si="24"/>
@@ -9728,21 +9878,21 @@
         <v xml:space="preserve">    output: r</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>755</v>
+        <v>657</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>755</v>
+        <v>657</v>
       </c>
       <c r="X105" s="1" t="s">
-        <v>740</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="1:24">
       <c r="J106" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -9763,26 +9913,26 @@
     </row>
     <row r="109" spans="1:24">
       <c r="J109" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T109" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:24">
       <c r="J110" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T110" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:24">
       <c r="A111" s="1" t="s">
-        <v>707</v>
+        <v>613</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="C111" s="1" t="str">
         <f t="shared" ref="C111:I115" si="25">IF(ISBLANK($B111), "", $B111)</f>
@@ -9801,7 +9951,7 @@
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
       <c r="G111" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f>IF(ISBLANK($B111), "", $B111)</f>
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
       <c r="H111" s="1" t="str">
@@ -9813,13 +9963,13 @@
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="O111" s="24" t="str">
         <f t="shared" ref="O111:R115" si="26">IF(ISBLANK($N111), "", $N111)</f>
@@ -9838,7 +9988,7 @@
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>480</v>
+        <v>407</v>
       </c>
       <c r="X111" s="1" t="str">
         <f t="shared" ref="X111:X115" si="27">IF(ISBLANK($B111), "", $B111)</f>
@@ -9912,7 +10062,7 @@
     </row>
     <row r="113" spans="1:24">
       <c r="B113" s="1" t="s">
-        <v>574</v>
+        <v>493</v>
       </c>
       <c r="C113" s="1" t="str">
         <f t="shared" si="25"/>
@@ -9943,13 +10093,13 @@
         <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>574</v>
+        <v>493</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>574</v>
+        <v>493</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>574</v>
+        <v>493</v>
       </c>
       <c r="O113" s="24" t="str">
         <f t="shared" si="26"/>
@@ -9968,7 +10118,7 @@
         <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>574</v>
+        <v>493</v>
       </c>
       <c r="X113" s="1" t="str">
         <f t="shared" si="27"/>
@@ -9977,7 +10127,7 @@
     </row>
     <row r="114" spans="1:24">
       <c r="B114" s="1" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="25"/>
@@ -10008,13 +10158,13 @@
         <v xml:space="preserve">    input:  units</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>554</v>
+        <v>473</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="O114" s="24" t="str">
         <f t="shared" si="26"/>
@@ -10033,7 +10183,7 @@
         <v xml:space="preserve">    input:  units</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="X114" s="1" t="str">
         <f t="shared" si="27"/>
@@ -10042,7 +10192,7 @@
     </row>
     <row r="115" spans="1:24">
       <c r="B115" s="1" t="s">
-        <v>575</v>
+        <v>494</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="25"/>
@@ -10073,13 +10223,13 @@
         <v xml:space="preserve">    output: [units, factor, units_factor]</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>575</v>
+        <v>494</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>575</v>
+        <v>494</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>575</v>
+        <v>494</v>
       </c>
       <c r="O115" s="24" t="str">
         <f t="shared" si="26"/>
@@ -10098,7 +10248,7 @@
         <v xml:space="preserve">    output: [units, factor, units_factor]</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>575</v>
+        <v>494</v>
       </c>
       <c r="X115" s="1" t="str">
         <f t="shared" si="27"/>
@@ -10110,220 +10260,220 @@
     </row>
     <row r="117" spans="1:24">
       <c r="A117" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C117" s="1" t="str">
         <f t="shared" ref="C117:C120" si="28">IF(ISBLANK($B117), "", $B117)</f>
         <v>Replace:</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E117" s="1" t="str">
         <f t="shared" ref="E117:E120" si="29">IF(ISBLANK($D117), "", $D117)</f>
         <v>Replace:</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G117" s="1" t="str">
-        <f t="shared" ref="G117:G120" si="30">IF(ISBLANK($F117), "", $F117)</f>
+        <f t="shared" ref="G117:G119" si="30">IF(ISBLANK($F117), "", $F117)</f>
         <v>Replace:</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O117" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X117" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:24">
       <c r="B118" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C118" s="1" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  col:  value</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E118" s="1" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  col:  value</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G118" s="1" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">  - col:  value</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O118" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P118" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q118" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R118" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X118" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:24">
       <c r="B119" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C119" s="1" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  from: "..."</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E119" s="1" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  from: missing</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>570</v>
+        <v>489</v>
       </c>
       <c r="G119" s="1" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">    from: [missing, (NA), (D), (H), (L), (T)]</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>576</v>
+        <v>495</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>577</v>
+        <v>496</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O119" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>578</v>
+        <v>497</v>
       </c>
       <c r="Q119" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R119" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="X119" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" spans="1:24">
       <c r="B120" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C120" s="1" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  to:   0</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E120" s="1" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">  to:   0</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G120" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f>IF(ISBLANK($F120), "", $F120)</f>
         <v xml:space="preserve">    to:   0</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O120" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P120" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q120" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R120" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="X120" s="1" t="s">
-        <v>556</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:24">
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="1" t="s">
-        <v>853</v>
+        <v>755</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M121" s="2"/>
     </row>
@@ -10331,11 +10481,11 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="1" t="s">
-        <v>854</v>
+        <v>756</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M122" s="2"/>
     </row>
@@ -10343,11 +10493,11 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="1" t="s">
-        <v>855</v>
+        <v>757</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M123" s="2"/>
     </row>
@@ -10356,7 +10506,7 @@
       <c r="G124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M124" s="2"/>
     </row>
@@ -10365,7 +10515,7 @@
       <c r="G125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M125" s="2"/>
     </row>
@@ -10374,7 +10524,7 @@
       <c r="G126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M126" s="2"/>
     </row>
@@ -10383,7 +10533,7 @@
     </row>
     <row r="128" spans="1:24">
       <c r="A128" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>18</v>
@@ -10436,46 +10586,46 @@
     </row>
     <row r="129" spans="1:24">
       <c r="F129" s="1" t="s">
-        <v>770</v>
+        <v>672</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>768</v>
+        <v>670</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>779</v>
+        <v>681</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>830</v>
+        <v>732</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>569</v>
+        <v>488</v>
       </c>
       <c r="N129" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O129" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="P129" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R129" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="O129" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="R129" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="S129" s="1" t="s">
-        <v>803</v>
+        <v>705</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>727</v>
+        <v>629</v>
       </c>
       <c r="X129" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:24">
@@ -10486,25 +10636,25 @@
         <v>19</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>790</v>
+        <v>692</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>19</v>
       </c>
       <c r="O130" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q130" s="1" t="s">
         <v>19</v>
@@ -10513,10 +10663,10 @@
         <v>19</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>804</v>
+        <v>706</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>640</v>
+        <v>551</v>
       </c>
       <c r="X130" s="1" t="s">
         <v>19</v>
@@ -10530,16 +10680,16 @@
         <v>20</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>683</v>
+        <v>589</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>20</v>
@@ -10568,56 +10718,64 @@
     </row>
     <row r="132" spans="1:24">
       <c r="F132" s="1" t="s">
-        <v>757</v>
+        <v>659</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>767</v>
+        <v>669</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>773</v>
+        <v>675</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>685</v>
+        <v>591</v>
       </c>
       <c r="M132" s="3"/>
+      <c r="O132" s="24"/>
+      <c r="P132" s="24"/>
+      <c r="Q132" s="24"/>
+      <c r="R132" s="24"/>
       <c r="T132" s="1" t="s">
-        <v>641</v>
+        <v>552</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>727</v>
+        <v>629</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>727</v>
+        <v>629</v>
       </c>
       <c r="X132" s="1" t="s">
-        <v>727</v>
+        <v>629</v>
       </c>
     </row>
     <row r="133" spans="1:24">
       <c r="F133" s="1" t="s">
-        <v>758</v>
+        <v>660</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>774</v>
+        <v>676</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>682</v>
+        <v>588</v>
       </c>
       <c r="M133" s="3"/>
+      <c r="O133" s="24"/>
+      <c r="P133" s="24"/>
+      <c r="Q133" s="24"/>
+      <c r="R133" s="24"/>
       <c r="T133" s="1" t="s">
-        <v>642</v>
+        <v>553</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>638</v>
+        <v>549</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>638</v>
+        <v>549</v>
       </c>
       <c r="X133" s="1" t="s">
-        <v>638</v>
+        <v>549</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -10631,44 +10789,32 @@
         <v>23</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>684</v>
+        <v>590</v>
       </c>
       <c r="M134" s="3"/>
-      <c r="N134" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="O134" s="24" t="str">
-        <f t="shared" ref="O134:R145" si="31">IF(ISBLANK($N134), "", $N134)</f>
-        <v># !!!! Dropping DIREXP for now. Does not appear to be used in the buildstream and it maps to multiple input SGF descriptors.</v>
-      </c>
-      <c r="P134" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v># !!!! Dropping DIREXP for now. Does not appear to be used in the buildstream and it maps to multiple input SGF descriptors.</v>
-      </c>
-      <c r="Q134" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v># !!!! Dropping DIREXP for now. Does not appear to be used in the buildstream and it maps to multiple input SGF descriptors.</v>
-      </c>
-      <c r="R134" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v># !!!! Dropping DIREXP for now. Does not appear to be used in the buildstream and it maps to multiple input SGF descriptors.</v>
+      <c r="O134" s="24"/>
+      <c r="P134" s="24"/>
+      <c r="Q134" s="24"/>
+      <c r="R134" s="24"/>
+      <c r="S134" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>643</v>
+        <v>554</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>639</v>
+        <v>550</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>639</v>
+        <v>550</v>
       </c>
       <c r="X134" s="1" t="s">
-        <v>639</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:24">
       <c r="F135" s="1" t="s">
-        <v>747</v>
+        <v>649</v>
       </c>
       <c r="G135" s="1" t="str">
         <f>IF(ISBLANK($F135), "", $F135)</f>
@@ -10677,27 +10823,16 @@
       <c r="I135" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N135" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="O135" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  - col: ec</v>
-      </c>
-      <c r="P135" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  - col: ec</v>
-      </c>
-      <c r="Q135" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  - col: ec</v>
-      </c>
-      <c r="R135" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  - col: ec</v>
+      <c r="N135" s="2"/>
+      <c r="O135" s="24"/>
+      <c r="P135" s="24"/>
+      <c r="Q135" s="24"/>
+      <c r="R135" s="24"/>
+      <c r="S135" s="2" t="s">
+        <v>694</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>803</v>
+        <v>705</v>
       </c>
       <c r="X135" s="1" t="s">
         <v>21</v>
@@ -10705,36 +10840,25 @@
     </row>
     <row r="136" spans="1:24">
       <c r="F136" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G136" s="1" t="str">
-        <f t="shared" ref="G136:G137" si="32">IF(ISBLANK($F136), "", $F136)</f>
+        <f t="shared" ref="G136:G137" si="31">IF(ISBLANK($F136), "", $F136)</f>
         <v xml:space="preserve">    val: missing</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N136" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="O136" s="24" t="str">
-        <f>IF(ISBLANK($N136), "", $N136)</f>
-        <v xml:space="preserve">    val: [missing, DIREXP]</v>
-      </c>
-      <c r="P136" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">    val: [missing, DIREXP]</v>
-      </c>
-      <c r="Q136" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">    val: [missing, DIREXP]</v>
-      </c>
-      <c r="R136" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">    val: [missing, DIREXP]</v>
+      <c r="N136" s="2"/>
+      <c r="O136" s="24"/>
+      <c r="P136" s="24"/>
+      <c r="Q136" s="24"/>
+      <c r="R136" s="24"/>
+      <c r="S136" s="2" t="s">
+        <v>619</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>719</v>
+        <v>621</v>
       </c>
       <c r="X136" s="1" t="s">
         <v>22</v>
@@ -10745,30 +10869,19 @@
         <v>20</v>
       </c>
       <c r="G137" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v xml:space="preserve">    operation: "=="</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N137" s="2" t="s">
+      <c r="N137" s="2"/>
+      <c r="O137" s="24"/>
+      <c r="P137" s="24"/>
+      <c r="Q137" s="24"/>
+      <c r="R137" s="24"/>
+      <c r="S137" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="O137" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">    operation: "=="</v>
-      </c>
-      <c r="P137" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">    operation: "=="</v>
-      </c>
-      <c r="Q137" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">    operation: "=="</v>
-      </c>
-      <c r="R137" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">    operation: "=="</v>
       </c>
       <c r="T137" s="1" t="s">
         <v>20</v>
@@ -10782,25 +10895,25 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139" s="1" t="s">
-        <v>553</v>
+        <v>472</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="C139" s="1" t="str">
-        <f t="shared" ref="C139:I145" si="33">IF(ISBLANK($B139), "", $B139)</f>
+        <f t="shared" ref="C139:I145" si="32">IF(ISBLANK($B139), "", $B139)</f>
         <v>Operate:</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>Operate:</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>Operate:</v>
       </c>
       <c r="F139" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>Operate:</v>
       </c>
       <c r="G139" s="1" t="str">
@@ -10808,500 +10921,500 @@
         <v>Operate:</v>
       </c>
       <c r="H139" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>Operate:</v>
       </c>
       <c r="I139" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>Operate:</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="L139" s="1" t="str">
-        <f t="shared" ref="L139:L143" si="34">IF(ISBLANK($K139), "", $K139)</f>
+        <f t="shared" ref="L139:L143" si="33">IF(ISBLANK($K139), "", $K139)</f>
         <v>Operate:</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="O139" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="O139:R145" si="34">IF(ISBLANK($N139), "", $N139)</f>
         <v>Operate:</v>
       </c>
       <c r="P139" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Operate:</v>
       </c>
       <c r="Q139" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Operate:</v>
       </c>
       <c r="R139" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>Operate:</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
       <c r="X139" s="1" t="s">
-        <v>562</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:24">
       <c r="B140" s="1" t="s">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="C140" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  operation: "*"</v>
+      </c>
+      <c r="D140" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  operation: "*"</v>
+      </c>
+      <c r="E140" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  operation: "*"</v>
+      </c>
+      <c r="F140" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  operation: "*"</v>
+      </c>
+      <c r="G140" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  operation: "*"</v>
+      </c>
+      <c r="H140" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  operation: "*"</v>
+      </c>
+      <c r="I140" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  operation: "*"</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L140" s="1" t="str">
         <f t="shared" si="33"/>
+        <v xml:space="preserve">  operation: sum</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O140" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  operation: "*"</v>
       </c>
-      <c r="D140" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="P140" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  operation: "*"</v>
       </c>
-      <c r="E140" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="Q140" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  operation: "*"</v>
       </c>
-      <c r="F140" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="R140" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  operation: "*"</v>
       </c>
-      <c r="G140" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  operation: "*"</v>
-      </c>
-      <c r="H140" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  operation: "*"</v>
-      </c>
-      <c r="I140" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  operation: "*"</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="L140" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">  operation: sum</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="N140" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="O140" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  operation: "*"</v>
-      </c>
-      <c r="P140" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  operation: "*"</v>
-      </c>
-      <c r="Q140" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  operation: "*"</v>
-      </c>
-      <c r="R140" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  operation: "*"</v>
-      </c>
       <c r="T140" s="1" t="s">
-        <v>563</v>
+        <v>482</v>
       </c>
       <c r="X140" s="1" t="s">
-        <v>563</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="1:24">
       <c r="B141" s="1" t="s">
-        <v>645</v>
+        <v>555</v>
       </c>
       <c r="C141" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  axis:   col</v>
+      </c>
+      <c r="D141" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  axis:   col</v>
+      </c>
+      <c r="E141" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  axis:   col</v>
+      </c>
+      <c r="F141" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  axis:   col</v>
+      </c>
+      <c r="G141" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  axis:   col</v>
+      </c>
+      <c r="H141" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  axis:   col</v>
+      </c>
+      <c r="I141" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  axis:   col</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="L141" s="1" t="str">
         <f t="shared" si="33"/>
+        <v xml:space="preserve">  axis:   row</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="O141" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  axis:   col</v>
       </c>
-      <c r="D141" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="P141" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  axis:   col</v>
       </c>
-      <c r="E141" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="Q141" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  axis:   col</v>
       </c>
-      <c r="F141" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="R141" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  axis:   col</v>
       </c>
-      <c r="G141" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  axis:   col</v>
-      </c>
-      <c r="H141" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  axis:   col</v>
-      </c>
-      <c r="I141" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  axis:   col</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="K141" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="L141" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">  axis:   row</v>
-      </c>
-      <c r="M141" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="N141" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="O141" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  axis:   col</v>
-      </c>
-      <c r="P141" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  axis:   col</v>
-      </c>
-      <c r="Q141" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  axis:   col</v>
-      </c>
-      <c r="R141" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  axis:   col</v>
-      </c>
       <c r="T141" s="1" t="s">
-        <v>645</v>
+        <v>555</v>
       </c>
       <c r="X141" s="1" t="s">
-        <v>645</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" spans="1:24">
       <c r="B142" s="1" t="s">
-        <v>564</v>
+        <v>483</v>
       </c>
       <c r="C142" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  from:   units</v>
+      </c>
+      <c r="D142" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  from:   units</v>
+      </c>
+      <c r="E142" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  from:   units</v>
+      </c>
+      <c r="F142" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  from:   units</v>
+      </c>
+      <c r="G142" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  from:   units</v>
+      </c>
+      <c r="H142" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  from:   units</v>
+      </c>
+      <c r="I142" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  from:   units</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="L142" s="1" t="str">
         <f t="shared" si="33"/>
+        <v xml:space="preserve">  from:   nothing</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="O142" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  from:   units</v>
       </c>
-      <c r="D142" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="P142" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  from:   units</v>
       </c>
-      <c r="E142" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="Q142" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  from:   units</v>
       </c>
-      <c r="F142" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="R142" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  from:   units</v>
       </c>
-      <c r="G142" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  from:   units</v>
-      </c>
-      <c r="H142" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  from:   units</v>
-      </c>
-      <c r="I142" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  from:   units</v>
-      </c>
-      <c r="J142" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="K142" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="L142" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">  from:   nothing</v>
-      </c>
-      <c r="M142" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="N142" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="O142" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  from:   units</v>
-      </c>
-      <c r="P142" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  from:   units</v>
-      </c>
-      <c r="Q142" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  from:   units</v>
-      </c>
-      <c r="R142" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  from:   units</v>
-      </c>
       <c r="T142" s="1" t="s">
-        <v>564</v>
+        <v>483</v>
       </c>
       <c r="X142" s="1" t="s">
-        <v>564</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:24">
       <c r="B143" s="1" t="s">
-        <v>568</v>
+        <v>487</v>
       </c>
       <c r="C143" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  to:     units_factor</v>
+      </c>
+      <c r="D143" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  to:     units_factor</v>
+      </c>
+      <c r="E143" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  to:     units_factor</v>
+      </c>
+      <c r="F143" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  to:     units_factor</v>
+      </c>
+      <c r="G143" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  to:     units_factor</v>
+      </c>
+      <c r="H143" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  to:     units_factor</v>
+      </c>
+      <c r="I143" s="1" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve">  to:     units_factor</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L143" s="1" t="str">
         <f t="shared" si="33"/>
+        <v xml:space="preserve">  to:     nothing</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="O143" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  to:     units_factor</v>
       </c>
-      <c r="D143" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="P143" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  to:     units_factor</v>
       </c>
-      <c r="E143" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="Q143" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  to:     units_factor</v>
       </c>
-      <c r="F143" s="1" t="str">
-        <f t="shared" si="33"/>
+      <c r="R143" s="24" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  to:     units_factor</v>
       </c>
-      <c r="G143" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  to:     units_factor</v>
-      </c>
-      <c r="H143" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  to:     units_factor</v>
-      </c>
-      <c r="I143" s="1" t="str">
-        <f t="shared" si="33"/>
-        <v xml:space="preserve">  to:     units_factor</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="L143" s="1" t="str">
-        <f t="shared" si="34"/>
-        <v xml:space="preserve">  to:     nothing</v>
-      </c>
-      <c r="M143" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="N143" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="O143" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  to:     units_factor</v>
-      </c>
-      <c r="P143" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  to:     units_factor</v>
-      </c>
-      <c r="Q143" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  to:     units_factor</v>
-      </c>
-      <c r="R143" s="24" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  to:     units_factor</v>
-      </c>
       <c r="T143" s="1" t="s">
-        <v>568</v>
+        <v>487</v>
       </c>
       <c r="X143" s="1" t="s">
-        <v>568</v>
+        <v>487</v>
       </c>
     </row>
     <row r="144" spans="1:24">
       <c r="B144" s="1" t="s">
-        <v>567</v>
+        <v>486</v>
       </c>
       <c r="C144" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="F144" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="G144" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="H144" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="I144" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>565</v>
+        <v>484</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>828</v>
+        <v>730</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>829</v>
+        <v>731</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>567</v>
+        <v>486</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>567</v>
+        <v>486</v>
       </c>
       <c r="O144" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="P144" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="Q144" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="R144" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>567</v>
+        <v>486</v>
       </c>
       <c r="X144" s="1" t="s">
-        <v>567</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" spans="2:24">
       <c r="B145" s="1" t="s">
-        <v>566</v>
+        <v>485</v>
       </c>
       <c r="C145" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="F145" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="G145" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="H145" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="I145" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>566</v>
+        <v>485</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>566</v>
+        <v>485</v>
       </c>
       <c r="L145" s="1" t="str">
         <f t="shared" ref="L145" si="35">IF(ISBLANK($K145), "", $K145)</f>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>566</v>
+        <v>485</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>566</v>
+        <v>485</v>
       </c>
       <c r="O145" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="P145" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="Q145" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="R145" s="24" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>566</v>
+        <v>485</v>
       </c>
       <c r="X145" s="1" t="s">
-        <v>566</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Y30:XFD41 Z62:XFD64 J31:J58 A1:XFD12 A20:XFD25 A70:E70 G70:XFD70 A30:F30 A31:E38 A68:XFD69 Z13:XFD19 A13:X19 A59:XFD60 A61:E67 F63:F67 F61:XFD61 F31 F33:F38 H30:J30 A39:F58 H42:XFD58 A28:XFD29 A26:F27 H26:XFD27 J37:W37 H67:XFD67 G62:H62 I61:I64 J62:X62 J63:L63 N63:S63 T63:X64 J66:XFD66 J64:S65 U65:XFD65 X31:X41 G32 I31:L36 A71:XFD71 A72:G74 I72:XFD74 A75:XFD1048576 H39:W41 I38:W38 H32:H37 H63:H66 M30:W30 M36:W36 N31:W35 M33:M36">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G67">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>_xlfn.ISFORMULA(G63)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>_xlfn.ISFORMULA(G30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>_xlfn.ISFORMULA(G26)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G58">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>_xlfn.ISFORMULA(G33)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11312,302 +11425,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656AA1A4-D277-E149-8FCF-6BA92F6E7F25}">
-  <dimension ref="A1:B138"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B31" sqref="B31"/>
-      <selection pane="topRight" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1">
-      <c r="B1" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="5" customFormat="1"/>
-    <row r="5" spans="1:2">
-      <c r="B5" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="5" customFormat="1"/>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="5" customFormat="1"/>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1"/>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="5" customFormat="1"/>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="5" customFormat="1"/>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" s="5" customFormat="1"/>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="B61" s="2"/>
-    </row>
-    <row r="67" spans="1:1" s="5" customFormat="1"/>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" s="5" customFormat="1"/>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" s="5" customFormat="1"/>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" s="5" customFormat="1"/>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="5" customFormat="1"/>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="B95" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="B96" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" s="5" customFormat="1"/>
-    <row r="116" spans="1:1">
-      <c r="A116" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" s="5" customFormat="1"/>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" s="5" customFormat="1"/>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A39:A57 D134:XFD136 A33 B40:B46 B48 B50:B57 A58:XFD133 A34:B38 A134:B136 A30:B32 A137:XFD1048576 C30:XFD57 A1:XFD29">
-    <cfRule type="containsText" dxfId="1" priority="17" operator="containsText" text="col: units">
-      <formula>NOT(ISERROR(SEARCH("col: units",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2945202A-7134-784B-8547-CA1755E4182C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471376C-6FC8-7844-8418-FB27C71B8166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2640" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_bluenote" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="854">
   <si>
     <t>bea_supply</t>
   </si>
@@ -635,9 +635,6 @@
     <t xml:space="preserve">    to:     [bea_desc, bea_windc]</t>
   </si>
   <si>
-    <t># !!!! missing AND 0 values. Should we drop missing or make 0?</t>
-  </si>
-  <si>
     <t xml:space="preserve">  name:  Supply_2007_2012_DET.xlsx</t>
   </si>
   <si>
@@ -728,9 +725,6 @@
     <t xml:space="preserve">  - col: from</t>
   </si>
   <si>
-    <t xml:space="preserve">    val: unique</t>
-  </si>
-  <si>
     <t>gsp</t>
   </si>
   <si>
@@ -1854,9 +1848,6 @@
   </si>
   <si>
     <t>- {col: bea_windc, from: upper, to: lower}</t>
-  </si>
-  <si>
-    <t>- {col:  category, from: goods, to: gds}</t>
   </si>
   <si>
     <t>- {col: category,  from: goods, to: gds}</t>
@@ -3234,25 +3225,25 @@
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13">
@@ -3271,25 +3262,25 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" ht="13">
@@ -3304,30 +3295,30 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A7" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -3339,30 +3330,30 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>814</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>815</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>816</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>817</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1" ht="13">
       <c r="A9" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3377,79 +3368,79 @@
         <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>514</v>
-      </c>
       <c r="H11" s="17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D13" s="2"/>
     </row>
@@ -3457,7 +3448,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -3501,7 +3492,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D20" s="2"/>
     </row>
@@ -3509,7 +3500,7 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -3517,7 +3508,7 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D22" s="2"/>
     </row>
@@ -3525,7 +3516,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -3533,7 +3524,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D24" s="2"/>
     </row>
@@ -3575,7 +3566,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -3583,7 +3574,7 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D31" s="2"/>
     </row>
@@ -3591,7 +3582,7 @@
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D32" s="2"/>
     </row>
@@ -3687,10 +3678,10 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="13">
@@ -3698,10 +3689,10 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="13">
@@ -3709,10 +3700,10 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="20" customFormat="1" ht="13">
@@ -3779,7 +3770,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D58" s="2"/>
     </row>
@@ -3787,7 +3778,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D59" s="2"/>
     </row>
@@ -3795,7 +3786,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D60" s="2"/>
     </row>
@@ -3803,7 +3794,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D61" s="2"/>
     </row>
@@ -3811,7 +3802,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D62" s="2"/>
     </row>
@@ -3819,7 +3810,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D63" s="2"/>
     </row>
@@ -3972,14 +3963,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4000,90 +3991,90 @@
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1">
       <c r="B1" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="I1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>235</v>
-      </c>
       <c r="M1" s="11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="D2" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1"/>
     <row r="4" spans="1:14">
       <c r="B4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1"/>
@@ -4092,43 +4083,43 @@
         <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="I6" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>799</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1"/>
@@ -4137,43 +4128,43 @@
         <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="16" t="s">
         <v>801</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H8" s="16" t="s">
         <v>803</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="I8" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="J8" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="K8" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="L8" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="M8" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="N8" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>810</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1"/>
@@ -4223,112 +4214,112 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>399</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="D12" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="J12" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="E13" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="E14" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1"/>
@@ -4337,8 +4328,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="6" customFormat="1"/>
-    <row r="19" spans="1:11">
+    <row r="18" spans="1:14" s="6" customFormat="1"/>
+    <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
         <v>172</v>
       </c>
@@ -4366,122 +4357,137 @@
       <c r="K19" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="N19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="B20" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>109</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>437</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="B21" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>438</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="B22" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>436</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="B23" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>423</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="F24" s="2" t="s">
         <v>121</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="F25" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="F26" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="6" customFormat="1"/>
-    <row r="29" spans="1:11">
+    <row r="28" spans="1:14" s="6" customFormat="1"/>
+    <row r="29" spans="1:14">
       <c r="A29" s="2" t="s">
         <v>173</v>
       </c>
@@ -4507,69 +4513,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:14">
       <c r="B30" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="B31" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="B32" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="F33" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1"/>
@@ -4589,7 +4595,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="G46" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4599,7 +4605,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="G48" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="6" customFormat="1"/>
@@ -4620,29 +4626,29 @@
         <v>178</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="J59" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="J60" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>16</v>
@@ -4653,65 +4659,65 @@
     </row>
     <row r="61" spans="1:14">
       <c r="J61" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="J62" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>92</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="J63" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="K64" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="K65" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="K66" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="K67" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="K68" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="K69" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4726,12 +4732,12 @@
     </row>
     <row r="72" spans="1:14">
       <c r="K72" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="K73" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:14" s="6" customFormat="1"/>
@@ -4757,81 +4763,81 @@
     </row>
     <row r="76" spans="1:14">
       <c r="B76" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="B77" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="G78" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="G79" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="G80" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="G81" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="G82" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="G83" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:14" s="6" customFormat="1"/>
@@ -4848,10 +4854,10 @@
     </row>
     <row r="87" spans="1:14">
       <c r="K87" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4872,18 +4878,18 @@
     </row>
     <row r="90" spans="1:14">
       <c r="K90" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="K91" s="2" t="s">
-        <v>28</v>
+        <v>578</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4891,21 +4897,6 @@
         <v>20</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="K93" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="K94" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="K95" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4942,36 +4933,36 @@
     <row r="1" spans="1:6" s="14" customFormat="1">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>242</v>
-      </c>
       <c r="F1" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="B2" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4987,19 +4978,19 @@
         <v>168</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5015,19 +5006,19 @@
         <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5060,120 +5051,120 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="B12" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5206,7 +5197,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="B21" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C21" s="22" t="str">
         <f t="shared" si="0"/>
@@ -5251,7 +5242,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C24" s="22" t="str">
         <f>IF(ISBLANK($B24), "", $B24)</f>
@@ -5266,172 +5257,172 @@
         <v># - {col: updated, type: Date}</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5461,131 +5452,131 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="B47" s="9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="B48" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="B49" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="B50" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5614,7 +5605,7 @@
         <v>175</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E59" s="22" t="str">
         <f>IF(ISBLANK($D59), "", $D59)</f>
@@ -5623,7 +5614,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="D60" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E60" s="22" t="str">
         <f t="shared" ref="E60:E65" si="1">IF(ISBLANK($D60), "", $D60)</f>
@@ -5632,7 +5623,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="D61" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E61" s="22" t="str">
         <f t="shared" si="1"/>
@@ -5641,7 +5632,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="D62" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E62" s="22" t="str">
         <f t="shared" si="1"/>
@@ -5650,7 +5641,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="D63" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E63" s="22" t="str">
         <f t="shared" si="1"/>
@@ -5659,7 +5650,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="D64" s="2" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E64" s="22" t="str">
         <f t="shared" si="1"/>
@@ -5668,7 +5659,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="D65" s="2" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E65" s="22" t="str">
         <f t="shared" si="1"/>
@@ -5709,10 +5700,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="C73" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5728,17 +5719,17 @@
         <v>178</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="B76" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
@@ -5762,7 +5753,7 @@
     </row>
     <row r="79" spans="1:6">
       <c r="B79" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
@@ -5770,7 +5761,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="B80" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
@@ -5780,35 +5771,35 @@
       <c r="B81" s="1"/>
       <c r="C81" s="22"/>
       <c r="E81" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="B82" s="1"/>
       <c r="C82" s="22"/>
       <c r="E82" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="B83" s="1"/>
       <c r="C83" s="22"/>
       <c r="E83" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" s="1"/>
       <c r="C84" s="22"/>
       <c r="E84" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="B85" s="1"/>
       <c r="C85" s="22"/>
       <c r="E85" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5840,14 +5831,14 @@
     </row>
     <row r="88" spans="1:6">
       <c r="B88" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C88" s="22" t="str">
         <f t="shared" ref="C88:C90" si="2">IF(ISBLANK($B88), "", $B88)</f>
         <v xml:space="preserve">  - col:  memi</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E88" s="22" t="str">
         <f t="shared" ref="E88:E90" si="3">IF(ISBLANK($D88), "", $D88)</f>
@@ -5856,14 +5847,14 @@
     </row>
     <row r="89" spans="1:6">
       <c r="B89" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C89" s="22" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">    from: [Metropolitan Statistical Area, Micropolitan Statistical Area]</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E89" s="22" t="str">
         <f t="shared" si="3"/>
@@ -5872,14 +5863,14 @@
     </row>
     <row r="90" spans="1:6">
       <c r="B90" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C90" s="22" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve">    to:   [1, 2]</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E90" s="22" t="str">
         <f t="shared" si="3"/>
@@ -5888,26 +5879,26 @@
     </row>
     <row r="91" spans="1:6">
       <c r="B91" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="B93" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5978,12 +5969,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B130" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="B135" sqref="B135"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -6040,10 +6031,10 @@
         <v>29</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>162</v>
@@ -6086,85 +6077,79 @@
       <c r="A2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="4" spans="1:24" s="5" customFormat="1">
       <c r="O4" s="23"/>
     </row>
     <row r="5" spans="1:24">
       <c r="B5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1">
@@ -6175,46 +6160,46 @@
         <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="C7" s="1" t="str">
         <f>IF(ISBLANK($B7), "", $B7)</f>
         <v>Path: [data, datasources, BEA, IO]</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E7" s="1" t="str">
         <f>IF(ISBLANK($D7), "", $D7)</f>
         <v>Path: [data, datasources, BEA_2007_2012]</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="L7" s="1" t="str">
         <f>IF(ISBLANK($K7), "", $K7)</f>
         <v>Path: [data, output]</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="O7" s="24" t="str">
         <f t="shared" ref="O7:R7" si="0">IF(ISBLANK($N7), "", $N7)</f>
@@ -6233,22 +6218,22 @@
         <v>Path: [data, datasources, SGF]</v>
       </c>
       <c r="S7" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>833</v>
-      </c>
       <c r="X7" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="5" customFormat="1">
@@ -6260,73 +6245,73 @@
         <v>169</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="O9" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="R9" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="5" customFormat="1">
@@ -6415,28 +6400,28 @@
         <v>191</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6446,7 +6431,7 @@
         <v>163</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O12" s="22" t="s">
         <v>65</v>
@@ -6461,10 +6446,10 @@
         <v>68</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>126</v>
@@ -6487,31 +6472,31 @@
         <v>192</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>164</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>164</v>
@@ -6523,7 +6508,7 @@
         <v>70</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>71</v>
@@ -6532,10 +6517,10 @@
         <v>72</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>129</v>
@@ -6566,13 +6551,13 @@
         <v xml:space="preserve">  sheet:      [2007, 2012]</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>73</v>
@@ -6581,7 +6566,7 @@
         <v>74</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>75</v>
@@ -6612,13 +6597,13 @@
         <v xml:space="preserve">  descriptor: [2007, 2012]</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>77</v>
@@ -6627,7 +6612,7 @@
         <v>78</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>79</v>
@@ -6641,10 +6626,10 @@
     </row>
     <row r="16" spans="1:24">
       <c r="F16" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>80</v>
@@ -6655,7 +6640,7 @@
     </row>
     <row r="17" spans="1:24">
       <c r="F17" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>81</v>
@@ -6666,10 +6651,10 @@
     </row>
     <row r="18" spans="1:24">
       <c r="F18" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>138</v>
@@ -6677,10 +6662,10 @@
     </row>
     <row r="19" spans="1:24">
       <c r="F19" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>139</v>
@@ -6688,10 +6673,10 @@
     </row>
     <row r="20" spans="1:24">
       <c r="F20" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>140</v>
@@ -6699,7 +6684,7 @@
     </row>
     <row r="21" spans="1:24">
       <c r="P21" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>141</v>
@@ -6707,7 +6692,7 @@
     </row>
     <row r="22" spans="1:24">
       <c r="P22" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>142</v>
@@ -6715,7 +6700,7 @@
     </row>
     <row r="23" spans="1:24">
       <c r="P23" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>143</v>
@@ -6723,7 +6708,7 @@
     </row>
     <row r="24" spans="1:24">
       <c r="P24" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:24" s="5" customFormat="1">
@@ -6749,14 +6734,14 @@
         <v>Describe:</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" ref="G26:G27" si="5">IF(ISBLANK($F26), "", $F26)</f>
         <v># Describe:</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>82</v>
@@ -6786,7 +6771,7 @@
     </row>
     <row r="27" spans="1:24">
       <c r="B27" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>IF(ISBLANK($B27), "", $B27)</f>
@@ -6801,20 +6786,20 @@
         <v xml:space="preserve">  col: yr</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="5"/>
         <v>#  col: gdpcat</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O27" s="24" t="str">
         <f t="shared" si="6"/>
@@ -6830,7 +6815,7 @@
       </c>
       <c r="R27" s="2"/>
       <c r="T27" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="V27" s="1" t="s">
         <v>144</v>
@@ -6925,7 +6910,7 @@
     </row>
     <row r="30" spans="1:24">
       <c r="B30" s="4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C30" s="1" t="str">
         <f t="shared" si="7"/>
@@ -6940,32 +6925,32 @@
         <v xml:space="preserve">  - {col: yr,         type: Int}</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" ref="G30" si="8">IF(ISBLANK($F30), "", $F30)</f>
         <v xml:space="preserve">  - {col: yr,     type: Int}</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="O30" s="24" t="str">
         <f t="shared" ref="O30:S57" si="9">IF(ISBLANK($N30), "", $N30)</f>
@@ -6988,24 +6973,24 @@
         <v xml:space="preserve">  - {col: yr,        type: Int}</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="B31" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C31" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7020,32 +7005,32 @@
         <v># - {col: input_bea,  type: String}</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IF(ISBLANK($F31), "", $F31)</f>
         <v xml:space="preserve">  - {col: r,      type: String}</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="O31" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7068,24 +7053,24 @@
         <v xml:space="preserve">  - {col: r,         type: String}</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="U31" s="4" t="s">
         <v>145</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="W31" s="4" t="s">
         <v>146</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="B32" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C32" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7100,28 +7085,28 @@
         <v xml:space="preserve">  - {col: i,          type: String}</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>108</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="O32" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7144,7 +7129,7 @@
         <v># - {col: ec_desc,   type: String}</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="U32" s="4" t="s">
         <v>147</v>
@@ -7156,12 +7141,12 @@
         <v>148</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="2:24">
       <c r="B33" s="4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C33" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7176,32 +7161,32 @@
         <v># - {col: output_bea, type: String}</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G33" s="1" t="str">
         <f t="shared" ref="G33:G58" si="10">IF(ISBLANK($F33), "", $F33)</f>
         <v xml:space="preserve">  - {col: gdpcat, type: String}</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="O33" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7224,7 +7209,7 @@
         <v xml:space="preserve">  - {col: ec,        type: String}</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="V33" s="4" t="s">
         <v>148</v>
@@ -7233,12 +7218,12 @@
         <v>149</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="34" spans="2:24">
       <c r="B34" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C34" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7253,32 +7238,32 @@
         <v xml:space="preserve">  - {col: j,          type: String}</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve">  - {col: si,     type: String}</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="O34" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7301,7 +7286,7 @@
         <v># - {col: windc_code,type: String}</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="V34" s="4" t="s">
         <v>149</v>
@@ -7313,7 +7298,7 @@
     </row>
     <row r="35" spans="2:24">
       <c r="B35" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C35" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7328,29 +7313,29 @@
         <v xml:space="preserve">  - {col: units,      type: String}</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="10"/>
         <v># - {col: n,      type: String}</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>83</v>
@@ -7376,15 +7361,15 @@
         <v xml:space="preserve">  - {col: units,     type: String}</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="2:24">
       <c r="B36" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C36" s="1" t="str">
         <f t="shared" si="7"/>
@@ -7399,7 +7384,7 @@
         <v xml:space="preserve">  - {col: value,      type: Float64}</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="10"/>
@@ -7415,13 +7400,13 @@
         <v>33</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>84</v>
@@ -7447,7 +7432,7 @@
         <v xml:space="preserve">  - {col: value,     type: Float64}</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>148</v>
@@ -7477,7 +7462,7 @@
         <v>111</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -7503,7 +7488,7 @@
         <v/>
       </c>
       <c r="T37" s="4" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>149</v>
@@ -7530,15 +7515,15 @@
         <v xml:space="preserve">  - {col: value,  type: Float64}</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="O38" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7579,13 +7564,13 @@
         <v/>
       </c>
       <c r="J39" s="2" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O39" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7608,10 +7593,10 @@
         <v># - {col: value_0, type: Any}</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="40" spans="2:24">
@@ -7628,7 +7613,7 @@
         <v/>
       </c>
       <c r="F40" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G40" s="1" t="str">
         <f>IF(ISBLANK($F40), "", $F40)</f>
@@ -7637,10 +7622,10 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="O40" s="24" t="str">
         <f t="shared" si="9"/>
@@ -7663,10 +7648,10 @@
         <v># - {col: factor,  type: Any}</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="2:24">
@@ -7683,7 +7668,7 @@
         <v/>
       </c>
       <c r="F41" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="10"/>
@@ -7716,10 +7701,10 @@
         <v/>
       </c>
       <c r="T41" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="42" spans="2:24">
@@ -7736,7 +7721,7 @@
         <v/>
       </c>
       <c r="F42" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G42" s="1" t="str">
         <f t="shared" si="10"/>
@@ -7923,7 +7908,7 @@
         <v/>
       </c>
       <c r="J46" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -7968,7 +7953,7 @@
         <v/>
       </c>
       <c r="J47" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="24" t="str">
@@ -8533,33 +8518,33 @@
     </row>
     <row r="61" spans="1:24">
       <c r="B61" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C61" s="1" t="str">
         <f t="shared" ref="C61:C62" si="12">IF(ISBLANK($B61), "", $B61)</f>
         <v xml:space="preserve">  - {from: IOCode, to: input_bea}</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E61" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {from: Code,                  to: input_bea}</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -8567,31 +8552,31 @@
         <v>165</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="O61" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>48</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="X61" s="1" t="s">
         <v>122</v>
@@ -8599,101 +8584,101 @@
     </row>
     <row r="62" spans="1:24">
       <c r="B62" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C62" s="1" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">  - {from: Name,   to: input_desc}</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E62" s="1" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {from: Commodity Description, to: input_desc}</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>85</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>150</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="F63" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G63" s="1" t="str">
         <f t="shared" ref="G63:G67" si="13">IF(ISBLANK($F63), "", $F63)</f>
         <v xml:space="preserve">  - {from: ComponentName,          to: gdpcat}</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="R63" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="T63" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>713</v>
-      </c>
       <c r="X63" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="F64" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G64" s="1" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">  - {from: IndustryId,             to: si}</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>86</v>
@@ -8703,7 +8688,7 @@
       </c>
       <c r="U64" s="2"/>
       <c r="X64" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65" spans="1:24">
@@ -8715,10 +8700,10 @@
         <v xml:space="preserve">  - {from: Unit,                   to: units}</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="R65" s="1" t="s">
         <v>87</v>
@@ -8729,7 +8714,7 @@
     </row>
     <row r="66" spans="1:24">
       <c r="F66" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G66" s="1" t="str">
         <f t="shared" si="13"/>
@@ -8741,7 +8726,7 @@
     </row>
     <row r="67" spans="1:24">
       <c r="F67" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G67" s="1" t="str">
         <f t="shared" si="13"/>
@@ -8761,7 +8746,7 @@
     </row>
     <row r="70" spans="1:24">
       <c r="N70" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="1:24">
@@ -8776,12 +8761,12 @@
     </row>
     <row r="73" spans="1:24">
       <c r="N73" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="74" spans="1:24">
       <c r="N74" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="1:24" s="5" customFormat="1">
@@ -8799,7 +8784,7 @@
         <v>13</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>13</v>
@@ -8810,35 +8795,35 @@
     </row>
     <row r="77" spans="1:24">
       <c r="F77" s="2" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="T77" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="78" spans="1:24">
       <c r="F78" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>113</v>
@@ -8846,51 +8831,51 @@
     </row>
     <row r="79" spans="1:24">
       <c r="F79" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="80" spans="1:24">
       <c r="F80" s="2" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="I80" s="2"/>
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:24">
       <c r="F81" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="I81" s="2"/>
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:24">
       <c r="F82" s="2" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I82" s="2"/>
       <c r="M82" s="2"/>
@@ -8948,89 +8933,89 @@
     </row>
     <row r="85" spans="1:24">
       <c r="B85" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C85" s="1" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">  on:  [input_bea, input_desc]</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E85" s="1" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">  on:  [input_bea, input_desc]</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G85" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">  on:  [r, gdpcat, si, units, si, n, desc]</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="O85" s="22" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="P85" s="24" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">  on:  ec_desc</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="W85" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="B86" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C86" s="1" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">  var: output_desc</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="E86" s="1" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">  var: output_bea</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G86" s="1" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">  var: yr</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="O86" s="22" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="P86" s="24" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">  var: r</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="W86" s="2" t="s">
         <v>151</v>
@@ -9180,7 +9165,7 @@
         <v xml:space="preserve">  val: millions of us dollars (USD)</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>51</v>
@@ -9198,7 +9183,7 @@
         <v>154</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:24">
@@ -9210,7 +9195,7 @@
       </c>
       <c r="V92" s="2"/>
       <c r="W92" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:24">
@@ -9230,40 +9215,40 @@
         <v>178</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C95" s="1" t="str">
         <f t="shared" ref="C95:C105" si="18">IF(ISBLANK($B95), "", $B95)</f>
         <v>Map:</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E95" s="1" t="str">
         <f t="shared" ref="E95:E105" si="19">IF(ISBLANK($D95), "", $D95)</f>
         <v>Map:</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K95" s="2"/>
       <c r="M95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O95" s="24" t="str">
         <f t="shared" ref="O95:R95" si="20">IF(ISBLANK($N95), "", $N95)</f>
@@ -9282,54 +9267,54 @@
         <v>Map:</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="W95" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" spans="1:24">
       <c r="B96" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C96" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  - file:   [parse, bea_summary.csv]</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E96" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  - file:   [parse, bea_detail.csv]</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G96" s="1" t="str">
         <f t="shared" ref="G96:G100" si="21">IF(ISBLANK($F96), "", $F96)</f>
         <v xml:space="preserve">  - file:   [parse, gsp.csv]</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O96" s="24" t="str">
         <f t="shared" ref="O96:R100" si="22">IF(ISBLANK($N96), "", $N96)</f>
@@ -9348,13 +9333,13 @@
         <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="W96" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97" spans="1:24">
@@ -9389,7 +9374,7 @@
         <v>16</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>16</v>
@@ -9411,13 +9396,13 @@
         <v xml:space="preserve">    from:   from</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="W97" s="2" t="s">
         <v>90</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:24">
@@ -9452,10 +9437,10 @@
         <v>17</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="O98" s="24" t="str">
         <f t="shared" si="22"/>
@@ -9474,32 +9459,32 @@
         <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="W98" s="2" t="s">
         <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:24">
       <c r="B99" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C99" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    input:  output_desc</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E99" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">    input:  output_bea</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G99" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9509,16 +9494,16 @@
         <v>93</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="O99" s="24" t="str">
         <f t="shared" si="22"/>
@@ -9537,32 +9522,32 @@
         <v xml:space="preserve">    input:  ec_desc</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="W99" s="2" t="s">
         <v>157</v>
       </c>
       <c r="X99" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:24">
       <c r="B100" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C100" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    output: [output_bea, j]</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E100" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">    output: [output_desc, j]</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G100" s="1" t="str">
         <f t="shared" si="21"/>
@@ -9572,16 +9557,16 @@
         <v>94</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="O100" s="24" t="str">
         <f t="shared" si="22"/>
@@ -9600,50 +9585,50 @@
         <v xml:space="preserve">    output: [ec_desc, ec, units]</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="W100" s="2" t="s">
         <v>158</v>
       </c>
       <c r="X100" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C101" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  - file:   [parse, bea_summary.csv]</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E101" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  - file:   [parse, bea_detail.csv]</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O101" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P101" s="24" t="str">
         <f>IF(ISBLANK($O101), "", $O101)</f>
@@ -9658,13 +9643,13 @@
         <v xml:space="preserve">  - file:   [parse, regions.csv]</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="X101" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="102" spans="1:24">
@@ -9686,7 +9671,7 @@
         <v>16</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>16</v>
@@ -9741,7 +9726,7 @@
         <v>17</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>17</v>
@@ -9779,36 +9764,36 @@
     </row>
     <row r="104" spans="1:24">
       <c r="B104" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C104" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    input:  [input_bea, input_desc]</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E104" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">    input:  [input_bea, input_desc]</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="O104" s="22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="P104" s="24" t="str">
         <f t="shared" si="24"/>
@@ -9823,47 +9808,47 @@
         <v xml:space="preserve">    input:  r</v>
       </c>
       <c r="T104" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="V104" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="X104" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" spans="1:24">
       <c r="B105" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C105" s="1" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">    output: i</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E105" s="1" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">    output: i</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="O105" s="22" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="P105" s="24" t="str">
         <f t="shared" si="24"/>
@@ -9878,21 +9863,21 @@
         <v xml:space="preserve">    output: r</v>
       </c>
       <c r="T105" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="X105" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:24">
       <c r="J106" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T106" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -9929,10 +9914,10 @@
     </row>
     <row r="111" spans="1:24">
       <c r="A111" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C111" s="1" t="str">
         <f t="shared" ref="C111:I115" si="25">IF(ISBLANK($B111), "", $B111)</f>
@@ -9963,13 +9948,13 @@
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="O111" s="24" t="str">
         <f t="shared" ref="O111:R115" si="26">IF(ISBLANK($N111), "", $N111)</f>
@@ -9988,7 +9973,7 @@
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
       <c r="T111" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="X111" s="1" t="str">
         <f t="shared" ref="X111:X115" si="27">IF(ISBLANK($B111), "", $B111)</f>
@@ -10062,7 +10047,7 @@
     </row>
     <row r="113" spans="1:24">
       <c r="B113" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C113" s="1" t="str">
         <f t="shared" si="25"/>
@@ -10093,13 +10078,13 @@
         <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="N113" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O113" s="24" t="str">
         <f t="shared" si="26"/>
@@ -10118,7 +10103,7 @@
         <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
       </c>
       <c r="T113" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="X113" s="1" t="str">
         <f t="shared" si="27"/>
@@ -10127,7 +10112,7 @@
     </row>
     <row r="114" spans="1:24">
       <c r="B114" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C114" s="1" t="str">
         <f t="shared" si="25"/>
@@ -10158,13 +10143,13 @@
         <v xml:space="preserve">    input:  units</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="O114" s="24" t="str">
         <f t="shared" si="26"/>
@@ -10183,7 +10168,7 @@
         <v xml:space="preserve">    input:  units</v>
       </c>
       <c r="T114" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="X114" s="1" t="str">
         <f t="shared" si="27"/>
@@ -10192,7 +10177,7 @@
     </row>
     <row r="115" spans="1:24">
       <c r="B115" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C115" s="1" t="str">
         <f t="shared" si="25"/>
@@ -10223,13 +10208,13 @@
         <v xml:space="preserve">    output: [units, factor, units_factor]</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O115" s="24" t="str">
         <f t="shared" si="26"/>
@@ -10248,7 +10233,7 @@
         <v xml:space="preserve">    output: [units, factor, units_factor]</v>
       </c>
       <c r="T115" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="X115" s="1" t="str">
         <f t="shared" si="27"/>
@@ -10379,21 +10364,21 @@
         <v xml:space="preserve">  from: missing</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G119" s="1" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">    from: [missing, (NA), (D), (H), (L), (T)]</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="1" t="s">
         <v>57</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N119" s="1" t="s">
         <v>96</v>
@@ -10402,7 +10387,7 @@
         <v>96</v>
       </c>
       <c r="P119" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="Q119" s="1" t="s">
         <v>96</v>
@@ -10411,7 +10396,7 @@
         <v>96</v>
       </c>
       <c r="X119" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:24">
@@ -10462,14 +10447,14 @@
         <v>97</v>
       </c>
       <c r="X120" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:24">
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="1" t="s">
@@ -10481,7 +10466,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I122" s="2"/>
       <c r="J122" s="1" t="s">
@@ -10493,7 +10478,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="1" t="s">
@@ -10586,31 +10571,31 @@
     </row>
     <row r="129" spans="1:24">
       <c r="F129" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>98</v>
       </c>
       <c r="O129" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="Q129" s="1" t="s">
         <v>99</v>
@@ -10619,10 +10604,10 @@
         <v>100</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="X129" s="1" t="s">
         <v>124</v>
@@ -10636,16 +10621,16 @@
         <v>19</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>19</v>
@@ -10663,10 +10648,10 @@
         <v>19</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="X130" s="1" t="s">
         <v>19</v>
@@ -10686,7 +10671,7 @@
         <v>20</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>101</v>
@@ -10718,16 +10703,16 @@
     </row>
     <row r="132" spans="1:24">
       <c r="F132" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M132" s="3"/>
       <c r="O132" s="24"/>
@@ -10735,30 +10720,30 @@
       <c r="Q132" s="24"/>
       <c r="R132" s="24"/>
       <c r="T132" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="X132" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="133" spans="1:24">
       <c r="F133" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M133" s="3"/>
       <c r="O133" s="24"/>
@@ -10766,16 +10751,16 @@
       <c r="Q133" s="24"/>
       <c r="R133" s="24"/>
       <c r="T133" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="X133" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="134" spans="1:24">
@@ -10789,7 +10774,7 @@
         <v>23</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M134" s="3"/>
       <c r="O134" s="24"/>
@@ -10797,24 +10782,24 @@
       <c r="Q134" s="24"/>
       <c r="R134" s="24"/>
       <c r="S134" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="X134" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="135" spans="1:24">
       <c r="F135" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G135" s="1" t="str">
         <f>IF(ISBLANK($F135), "", $F135)</f>
@@ -10829,10 +10814,10 @@
       <c r="Q135" s="24"/>
       <c r="R135" s="24"/>
       <c r="S135" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="X135" s="1" t="s">
         <v>21</v>
@@ -10855,10 +10840,10 @@
       <c r="Q136" s="24"/>
       <c r="R136" s="24"/>
       <c r="S136" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="X136" s="1" t="s">
         <v>22</v>
@@ -10895,10 +10880,10 @@
     </row>
     <row r="139" spans="1:24">
       <c r="A139" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C139" s="1" t="str">
         <f t="shared" ref="C139:I145" si="32">IF(ISBLANK($B139), "", $B139)</f>
@@ -10929,20 +10914,20 @@
         <v>Operate:</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L139" s="1" t="str">
         <f t="shared" ref="L139:L143" si="33">IF(ISBLANK($K139), "", $K139)</f>
         <v>Operate:</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O139" s="24" t="str">
         <f t="shared" ref="O139:R145" si="34">IF(ISBLANK($N139), "", $N139)</f>
@@ -10961,15 +10946,15 @@
         <v>Operate:</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="X139" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:24">
       <c r="B140" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C140" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11000,20 +10985,20 @@
         <v xml:space="preserve">  operation: "*"</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L140" s="1" t="str">
         <f t="shared" si="33"/>
         <v xml:space="preserve">  operation: sum</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O140" s="24" t="str">
         <f t="shared" si="34"/>
@@ -11032,15 +11017,15 @@
         <v xml:space="preserve">  operation: "*"</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="X140" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:24">
       <c r="B141" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C141" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11059,7 +11044,7 @@
         <v xml:space="preserve">  axis:   col</v>
       </c>
       <c r="G141" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f>IF(ISBLANK($B141), "", $B141)</f>
         <v xml:space="preserve">  axis:   col</v>
       </c>
       <c r="H141" s="1" t="str">
@@ -11071,20 +11056,20 @@
         <v xml:space="preserve">  axis:   col</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L141" s="1" t="str">
         <f t="shared" si="33"/>
         <v xml:space="preserve">  axis:   row</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O141" s="24" t="str">
         <f t="shared" si="34"/>
@@ -11103,15 +11088,15 @@
         <v xml:space="preserve">  axis:   col</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X141" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:24">
       <c r="B142" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C142" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11142,20 +11127,20 @@
         <v xml:space="preserve">  from:   units</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L142" s="1" t="str">
         <f t="shared" si="33"/>
         <v xml:space="preserve">  from:   nothing</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O142" s="24" t="str">
         <f t="shared" si="34"/>
@@ -11174,15 +11159,15 @@
         <v xml:space="preserve">  from:   units</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="X142" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="143" spans="1:24">
       <c r="B143" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C143" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11213,20 +11198,20 @@
         <v xml:space="preserve">  to:     units_factor</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L143" s="1" t="str">
         <f t="shared" si="33"/>
         <v xml:space="preserve">  to:     nothing</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O143" s="24" t="str">
         <f t="shared" si="34"/>
@@ -11245,15 +11230,15 @@
         <v xml:space="preserve">  to:     units_factor</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="X143" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="144" spans="1:24">
       <c r="B144" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C144" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11284,19 +11269,19 @@
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="J144" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="M144" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="K144" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="L144" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="M144" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="N144" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O144" s="24" t="str">
         <f t="shared" si="34"/>
@@ -11315,15 +11300,15 @@
         <v xml:space="preserve">  input:  [value, factor]</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="X144" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="2:24">
       <c r="B145" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C145" s="1" t="str">
         <f t="shared" si="32"/>
@@ -11354,20 +11339,20 @@
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L145" s="1" t="str">
-        <f t="shared" ref="L145" si="35">IF(ISBLANK($K145), "", $K145)</f>
+        <f t="shared" ref="L145:L146" si="35">IF(ISBLANK($K145), "", $K145)</f>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O145" s="24" t="str">
         <f t="shared" si="34"/>
@@ -11386,40 +11371,40 @@
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="X145" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G67">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>_xlfn.ISFORMULA(G63)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>_xlfn.ISFORMULA(G30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>_xlfn.ISFORMULA(G26)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G58">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>_xlfn.ISFORMULA(G33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>_xlfn.ISFORMULA(M32)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471376C-6FC8-7844-8418-FB27C71B8166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9A016-C4F6-124A-A861-E266A1C10CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_bluenote" sheetId="5" r:id="rId1"/>
@@ -3965,12 +3965,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4916,11 +4916,11 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="93" defaultRowHeight="14"/>
@@ -5969,12 +5969,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L108" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -11345,7 +11345,7 @@
         <v>483</v>
       </c>
       <c r="L145" s="1" t="str">
-        <f t="shared" ref="L145:L146" si="35">IF(ISBLANK($K145), "", $K145)</f>
+        <f t="shared" ref="L145" si="35">IF(ISBLANK($K145), "", $K145)</f>
         <v xml:space="preserve">  output: value</v>
       </c>
       <c r="M145" s="1" t="s">
@@ -11379,32 +11379,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G67">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>_xlfn.ISFORMULA(G63)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>_xlfn.ISFORMULA(G30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>_xlfn.ISFORMULA(G26)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G58">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>_xlfn.ISFORMULA(G33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>_xlfn.ISFORMULA(M32)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9A016-C4F6-124A-A861-E266A1C10CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B8C3F9-6210-1D47-9178-3BBA4CC245D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
@@ -5970,11 +5970,11 @@
   <dimension ref="A1:X145"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="M119" sqref="M119"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B8C3F9-6210-1D47-9178-3BBA4CC245D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5F90EE-ED05-4E49-9169-9E61A924DA53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="3" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{3E1837C3-4AC3-0440-9699-55C5376D9610}"/>
   </bookViews>
   <sheets>
     <sheet name="map_bluenote" sheetId="5" r:id="rId1"/>
@@ -3208,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E3C27-1365-884B-A69E-493300A2017A}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3965,12 +3965,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
   <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F60" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomRight" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4916,11 +4916,11 @@
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="93" defaultRowHeight="14"/>
@@ -5969,12 +5969,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
   <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="T128" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B31" sqref="B31"/>
       <selection pane="topRight" activeCell="B31" sqref="B31"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
-      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection pane="bottomRight" activeCell="T144" sqref="T144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB5F243-59A3-BD4D-B0DA-306257EDDB20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613A85E9-27E1-0E4B-A614-5083461B4A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="5" xr2:uid="{ECEEE8D6-CC61-454D-945D-45D0FFF64D45}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18900" activeTab="3" xr2:uid="{ECEEE8D6-CC61-454D-945D-45D0FFF64D45}"/>
   </bookViews>
   <sheets>
     <sheet name="map_bluenote" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1107">
   <si>
     <t>bea_supply</t>
   </si>
@@ -3342,9 +3342,6 @@
   </si>
   <si>
     <t>PathOut: [data, coremaps, crosswalk, pce.csv]</t>
-  </si>
-  <si>
-    <t>PathIn:  [data, mapso\urces, WiNDC, windc_build, build_files, maps]</t>
   </si>
   <si>
     <t xml:space="preserve">  - {col: sctg_code,         type: String}</t>
@@ -3616,14 +3613,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="39">
     <dxf>
       <font>
         <color theme="9"/>
@@ -3681,6 +3671,13 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3974,107 +3971,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7582,12 +7478,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC9497B-7600-374B-8989-8C7FAD24A60F}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -7699,7 +7595,7 @@
         <v>865</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>1101</v>
+        <v>853</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>852</v>
@@ -7951,7 +7847,7 @@
         <v>972</v>
       </c>
       <c r="F22" s="44" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>973</v>
@@ -7966,7 +7862,7 @@
         <v>1047</v>
       </c>
       <c r="F23" s="44" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13" customHeight="1">
@@ -7987,7 +7883,7 @@
         <v>1075</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="13" customHeight="1">
@@ -8004,14 +7900,14 @@
       <c r="A27" s="42"/>
       <c r="E27" s="44"/>
       <c r="F27" s="44" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="13" customHeight="1">
       <c r="A28" s="42"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="13" customHeight="1">
@@ -9411,12 +9307,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
   <dimension ref="A1:X147"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U72" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="W110" sqref="W110"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -14312,7 +14208,7 @@
         <v>658</v>
       </c>
       <c r="J131" s="36" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="M131" s="36" t="s">
         <v>823</v>
@@ -15140,7 +15036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X38:X40">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(COUNTA($A39:$Z39)=0, NOT(ISBLANK($A40)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20556,32 +20452,32 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G67">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>_xlfn.ISFORMULA(G63)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>_xlfn.ISFORMULA(G30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>_xlfn.ISFORMULA(G26)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:G58">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>_xlfn.ISFORMULA(G33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>_xlfn.ISFORMULA(M32)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/readfiles/generate_yaml.xlsx
+++ b/data/readfiles/generate_yaml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chughes/Documents/Git/SLiDE/data/readfiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613A85E9-27E1-0E4B-A614-5083461B4A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998C4F86-7263-6A43-B1B5-390396BAEC4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18900" activeTab="3" xr2:uid="{ECEEE8D6-CC61-454D-945D-45D0FFF64D45}"/>
+    <workbookView xWindow="20100" yWindow="460" windowWidth="13500" windowHeight="18900" activeTab="1" xr2:uid="{ECEEE8D6-CC61-454D-945D-45D0FFF64D45}"/>
   </bookViews>
   <sheets>
     <sheet name="map_bluenote" sheetId="5" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2986" uniqueCount="1146">
   <si>
     <t>bea_supply</t>
   </si>
@@ -3360,6 +3360,123 @@
   </si>
   <si>
     <t xml:space="preserve">  - {col: sg,         val: "-",  operation: "occursin"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: n,      type: String}</t>
+  </si>
+  <si>
+    <t>bea_gsp_county_windc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {name: CAGDP2__ALL_AREAS_2001_2018.csv, descriptor: gdp}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - on:     (?&lt;state&gt;.{2})(?&lt;county&gt;.{3})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: [state, county]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {from: LineCode,               to: si}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  on:  [r, gdpcat, si, units, n, desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  [state, county]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - on:     \"(?&lt;r&gt;.*)\"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col: county</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: r,           type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: si,          type: String}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: n,           type: String}</t>
+  </si>
+  <si>
+    <t>DOWNLOAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - col: [Region, TableName]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    from:   [state_desc, county_code]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    to:     county_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    output: county_desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  on:  [r, state, county, gdpcat, si, units, n, desc, r_desc]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val: 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - on:     (?&lt;r_desc&gt;.*)\*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    input:  r_desc</t>
+  </si>
+  <si>
+    <t>UPDATED</t>
+  </si>
+  <si>
+    <t>Description: GDP by County (Annual)</t>
+  </si>
+  <si>
+    <t>Source: https://www.bea.gov/data/gdp/gdp-county-metro-and-other-areas</t>
+  </si>
+  <si>
+    <t>Description: GDP by Metro (Annual)</t>
+  </si>
+  <si>
+    <t>Updated: 2019-12-12</t>
+  </si>
+  <si>
+    <t>Updated: 2018-09-18</t>
+  </si>
+  <si>
+    <t>Updated: 2018-11-14</t>
+  </si>
+  <si>
+    <t># !!!! Previous releases not available on BEA website and Metro Area not included in current release.</t>
+  </si>
+  <si>
+    <t># !!!! Regional mapping with newer Census codes, so some counties are unmapped</t>
+  </si>
+  <si>
+    <t>Description: GDP by County (Annual) - NO INDUSTRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - {col: r_desc,      type: String}</t>
+  </si>
+  <si>
+    <t># - file:   [scale, census_cbsa.csv]</t>
+  </si>
+  <si>
+    <t>#   from:   [state_code, county_code]</t>
+  </si>
+  <si>
+    <t>#   to:     [state_desc, county_desc]</t>
+  </si>
+  <si>
+    <t>#   input:  [state, county]</t>
+  </si>
+  <si>
+    <t>#   output: [state, county_desc]</t>
+  </si>
+  <si>
+    <t>#   kind:   left</t>
   </si>
 </sst>
 </file>
@@ -3613,7 +3730,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="32">
     <dxf>
       <font>
         <color theme="9"/>
@@ -3682,64 +3799,12 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="9"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4979,12 +5044,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AB9832-7F74-B245-B43D-5B870966A3CC}">
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I67" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M11" sqref="M11"/>
       <selection pane="topRight" activeCell="M11" sqref="M11"/>
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -5901,6 +5966,9 @@
       <c r="A85" s="49" t="s">
         <v>180</v>
       </c>
+      <c r="I85" s="33" t="s">
+        <v>18</v>
+      </c>
       <c r="K85" s="33" t="s">
         <v>18</v>
       </c>
@@ -5933,6 +6001,9 @@
       </c>
     </row>
     <row r="89" spans="1:14" ht="13" customHeight="1">
+      <c r="I89" s="33" t="s">
+        <v>220</v>
+      </c>
       <c r="K89" s="33" t="s">
         <v>220</v>
       </c>
@@ -5941,6 +6012,9 @@
       </c>
     </row>
     <row r="90" spans="1:14" ht="13" customHeight="1">
+      <c r="I90" s="33" t="s">
+        <v>28</v>
+      </c>
       <c r="K90" s="33" t="s">
         <v>559</v>
       </c>
@@ -5949,6 +6023,9 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="13" customHeight="1">
+      <c r="I91" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="K91" s="33" t="s">
         <v>20</v>
       </c>
@@ -5958,15 +6035,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>" "</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:XFD1048576">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(ISBLANK($A2), NOT(ISBLANK($A3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5984,7 +6061,7 @@
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -7457,15 +7534,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>" "</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="55">
+    <cfRule type="expression" dxfId="27" priority="55">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:XFD1048576">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="26" priority="2">
       <formula>AND(ISBLANK($A2), NOT(ISBLANK($A3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7478,12 +7555,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC9497B-7600-374B-8989-8C7FAD24A60F}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="40.83203125" defaultRowHeight="13" customHeight="1"/>
@@ -8510,15 +8587,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>" "</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="36">
+    <cfRule type="expression" dxfId="24" priority="36">
       <formula>_xlfn.ISFORMULA(A1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD1048576">
-    <cfRule type="expression" dxfId="30" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(ISBLANK($A3), NOT(ISBLANK($A4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9225,77 +9302,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D81:D83">
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>_xlfn.ISFORMULA(D81)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="expression" dxfId="28" priority="16">
+    <cfRule type="expression" dxfId="21" priority="16">
       <formula>_xlfn.ISFORMULA(C6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E22">
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" dxfId="20" priority="15">
       <formula>_xlfn.ISFORMULA(E18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C31">
-    <cfRule type="expression" dxfId="26" priority="14">
+    <cfRule type="expression" dxfId="19" priority="14">
       <formula>_xlfn.ISFORMULA(C28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:C84">
-    <cfRule type="expression" dxfId="25" priority="13">
+    <cfRule type="expression" dxfId="18" priority="13">
       <formula>_xlfn.ISFORMULA(C82)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>_xlfn.ISFORMULA(D7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="16" priority="12">
       <formula>_xlfn.ISFORMULA(D6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D13">
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>_xlfn.ISFORMULA(D9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="expression" dxfId="21" priority="9">
+    <cfRule type="expression" dxfId="14" priority="9">
       <formula>_xlfn.ISFORMULA(D32)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28 D32">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="13" priority="8">
       <formula>_xlfn.ISFORMULA(D28)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="expression" dxfId="19" priority="7">
+    <cfRule type="expression" dxfId="12" priority="7">
       <formula>_xlfn.ISFORMULA(D30)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>_xlfn.ISFORMULA(C9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45 D48:D49">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>_xlfn.ISFORMULA(D45)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>_xlfn.ISFORMULA(C23)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:B84">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>_xlfn.ISFORMULA(B82)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9305,25 +9382,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947295B-8D1F-FB48-972A-B6AD7BBC4112}">
-  <dimension ref="A1:X147"/>
+  <dimension ref="A1:Y152"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G81" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.83203125" defaultRowHeight="13" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="36" customWidth="1"/>
-    <col min="2" max="14" width="46.83203125" style="36"/>
-    <col min="15" max="15" width="46.83203125" style="32"/>
-    <col min="16" max="16384" width="46.83203125" style="36"/>
+    <col min="2" max="15" width="46.83203125" style="36"/>
+    <col min="16" max="16" width="46.83203125" style="32"/>
+    <col min="17" max="16384" width="46.83203125" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="34" customFormat="1" ht="13" customHeight="1">
+    <row r="1" spans="1:25" s="34" customFormat="1" ht="13" customHeight="1">
       <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
@@ -9346,55 +9423,58 @@
         <v>6</v>
       </c>
       <c r="I1" s="34" t="s">
+        <v>1108</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>535</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>553</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="S1" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13" customHeight="1">
+    <row r="2" spans="1:25" ht="13" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>827</v>
       </c>
@@ -9413,32 +9493,37 @@
       <c r="F2" s="36" t="s">
         <v>843</v>
       </c>
+      <c r="G2" s="36" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>1130</v>
+      </c>
       <c r="I2" s="36" t="s">
+        <v>1138</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="36" t="s">
         <v>829</v>
       </c>
-      <c r="K2" s="36" t="str">
-        <f>IF(ISBLANK($J2), "", $J2)</f>
+      <c r="L2" s="36" t="str">
+        <f>IF(ISBLANK($K2), "", $K2)</f>
         <v>Description: 2012 Commodity Flow Survey</v>
       </c>
-      <c r="L2" s="36" t="str">
-        <f>IF(ISBLANK($J2), "", $J2)</f>
+      <c r="M2" s="36" t="str">
+        <f>IF(ISBLANK($K2), "", $K2)</f>
         <v>Description: 2012 Commodity Flow Survey</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="N2" s="36" t="s">
         <v>850</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="O2" s="36" t="s">
         <v>830</v>
       </c>
-      <c r="O2" s="32" t="str">
-        <f t="shared" ref="O2:S3" si="0">IF(ISBLANK($N2), "", $N2)</f>
-        <v>Description: Annual Survey of State Government Finances</v>
-      </c>
       <c r="P2" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P2:T3" si="0">IF(ISBLANK($O2), "", $O2)</f>
         <v>Description: Annual Survey of State Government Finances</v>
       </c>
       <c r="Q2" s="32" t="str">
@@ -9453,23 +9538,27 @@
         <f t="shared" si="0"/>
         <v>Description: Annual Survey of State Government Finances</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="T2" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>Description: Annual Survey of State Government Finances</v>
+      </c>
+      <c r="U2" s="36" t="s">
         <v>836</v>
       </c>
-      <c r="U2" s="36" t="s">
+      <c r="V2" s="36" t="s">
         <v>838</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="W2" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="X2" s="36" t="s">
         <v>840</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="Y2" s="36" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13" customHeight="1">
+    <row r="3" spans="1:25" ht="13" customHeight="1">
       <c r="A3" s="36" t="s">
         <v>828</v>
       </c>
@@ -9491,29 +9580,31 @@
       <c r="F3" s="36" t="s">
         <v>844</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="G3" s="36" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>831</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="K3" s="36" t="s">
         <v>826</v>
       </c>
-      <c r="K3" s="36" t="str">
-        <f>IF(ISBLANK($J3), "", $J3)</f>
+      <c r="L3" s="36" t="str">
+        <f>IF(ISBLANK($K3), "", $K3)</f>
         <v>Source: https://www.census.gov/programs-surveys/cfs.html</v>
       </c>
-      <c r="L3" s="36" t="str">
-        <f>IF(ISBLANK($J3), "", $J3)</f>
+      <c r="M3" s="36" t="str">
+        <f>IF(ISBLANK($K3), "", $K3)</f>
         <v>Source: https://www.census.gov/programs-surveys/cfs.html</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>824</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="O3" s="36" t="s">
         <v>825</v>
-      </c>
-      <c r="O3" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>Source: https://www.census.gov/programs-surveys/state/data/tables.html</v>
       </c>
       <c r="P3" s="32" t="str">
         <f t="shared" si="0"/>
@@ -9531,1581 +9622,1572 @@
         <f t="shared" si="0"/>
         <v>Source: https://www.census.gov/programs-surveys/state/data/tables.html</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="32" t="str">
+        <f t="shared" si="0"/>
+        <v>Source: https://www.census.gov/programs-surveys/state/data/tables.html</v>
+      </c>
+      <c r="U3" s="36" t="s">
         <v>837</v>
       </c>
-      <c r="U3" s="36" t="s">
+      <c r="V3" s="36" t="s">
         <v>839</v>
       </c>
-      <c r="V3" s="36" t="s">
+      <c r="W3" s="36" t="s">
         <v>835</v>
       </c>
-      <c r="W3" s="36" t="s">
+      <c r="X3" s="36" t="s">
         <v>841</v>
       </c>
-      <c r="X3" s="36" t="s">
+      <c r="Y3" s="36" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13" customHeight="1">
+    <row r="4" spans="1:25" ht="13" customHeight="1">
       <c r="A4" s="36" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:25" ht="13" customHeight="1">
+      <c r="A5" s="36" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:25" ht="13" customHeight="1">
+      <c r="A6" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I6" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="L6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="M6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="N6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="O6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="P6" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="Q6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="R6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="S6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="T6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="U6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="V6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="W6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="X6" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="Y6" s="33" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13" customHeight="1">
-      <c r="A5" s="36" t="s">
+    <row r="7" spans="1:25" ht="13" customHeight="1">
+      <c r="A7" s="36" t="s">
         <v>1002</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33" t="s">
         <v>1007</v>
       </c>
-      <c r="O5" s="33" t="s">
+      <c r="P7" s="33" t="s">
         <v>1007</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>1007</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="R7" s="33" t="s">
         <v>1007</v>
       </c>
-      <c r="R5" s="33" t="s">
+      <c r="S7" s="33" t="s">
         <v>1007</v>
       </c>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-    </row>
-    <row r="7" spans="1:24" ht="13" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+    </row>
+    <row r="9" spans="1:25" ht="13" customHeight="1">
+      <c r="A9" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B9" s="36" t="s">
         <v>864</v>
       </c>
-      <c r="C7" s="36" t="str">
-        <f>IF(ISBLANK($B7), "", $B7)</f>
+      <c r="C9" s="36" t="str">
+        <f>IF(ISBLANK($B9), "", $B9)</f>
         <v>PathIn:  [data, datasources, BEA, IO]</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D9" s="36" t="s">
         <v>865</v>
       </c>
-      <c r="E7" s="36" t="str">
-        <f>IF(ISBLANK($D7), "", $D7)</f>
+      <c r="E9" s="36" t="str">
+        <f>IF(ISBLANK($D9), "", $D9)</f>
         <v>PathIn:  [data, datasources, BEA_2007_2012]</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F9" s="33" t="s">
         <v>866</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G9" s="33" t="s">
         <v>867</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H9" s="33" t="s">
         <v>868</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I9" s="33" t="s">
+        <v>868</v>
+      </c>
+      <c r="J9" s="33" t="s">
         <v>869</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="K9" s="36" t="s">
         <v>852</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="L9" s="36" t="s">
         <v>870</v>
       </c>
-      <c r="L7" s="36" t="str">
-        <f>IF(ISBLANK($K7), "", $K7)</f>
+      <c r="M9" s="36" t="str">
+        <f>IF(ISBLANK($L9), "", $L9)</f>
         <v>PathIn:  [data, output]</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="N9" s="33" t="s">
         <v>871</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="O9" s="33" t="s">
         <v>872</v>
       </c>
-      <c r="O7" s="32" t="str">
-        <f t="shared" ref="O7:R7" si="2">IF(ISBLANK($N7), "", $N7)</f>
+      <c r="P9" s="32" t="str">
+        <f t="shared" ref="P9:S9" si="2">IF(ISBLANK($O9), "", $O9)</f>
         <v>PathIn:  [data, datasources, SGF]</v>
       </c>
-      <c r="P7" s="32" t="str">
+      <c r="Q9" s="32" t="str">
         <f t="shared" si="2"/>
         <v>PathIn:  [data, datasources, SGF]</v>
       </c>
-      <c r="Q7" s="32" t="str">
+      <c r="R9" s="32" t="str">
         <f t="shared" si="2"/>
         <v>PathIn:  [data, datasources, SGF]</v>
       </c>
-      <c r="R7" s="32" t="str">
+      <c r="S9" s="32" t="str">
         <f t="shared" si="2"/>
         <v>PathIn:  [data, datasources, SGF]</v>
       </c>
-      <c r="S7" s="36" t="s">
+      <c r="T9" s="36" t="s">
         <v>870</v>
       </c>
-      <c r="T7" s="36" t="s">
+      <c r="U9" s="36" t="s">
         <v>873</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="V9" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="W9" s="33" t="s">
         <v>875</v>
       </c>
-      <c r="W7" s="33" t="s">
+      <c r="X9" s="33" t="s">
         <v>876</v>
       </c>
-      <c r="X7" s="33" t="s">
+      <c r="Y9" s="33" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13" customHeight="1">
-      <c r="A8" s="36" t="s">
+    <row r="10" spans="1:25" ht="13" customHeight="1">
+      <c r="A10" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B10" s="36" t="s">
         <v>799</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C10" s="36" t="s">
         <v>800</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D10" s="36" t="s">
         <v>801</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E10" s="36" t="s">
         <v>802</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F10" s="36" t="s">
         <v>803</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G10" s="36" t="s">
         <v>804</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H10" s="36" t="s">
         <v>805</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I10" s="36" t="s">
+        <v>805</v>
+      </c>
+      <c r="J10" s="36" t="s">
         <v>806</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="K10" s="36" t="s">
         <v>807</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="L10" s="36" t="s">
         <v>808</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="M10" s="36" t="s">
         <v>809</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="N10" s="36" t="s">
         <v>810</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="O10" s="36" t="s">
         <v>811</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="P10" s="32" t="s">
         <v>812</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="Q10" s="36" t="s">
         <v>813</v>
       </c>
-      <c r="Q8" s="36" t="s">
+      <c r="R10" s="36" t="s">
         <v>814</v>
       </c>
-      <c r="R8" s="36" t="s">
+      <c r="S10" s="36" t="s">
         <v>815</v>
       </c>
-      <c r="S8" s="36" t="s">
+      <c r="T10" s="36" t="s">
         <v>816</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="U10" s="36" t="s">
         <v>817</v>
       </c>
-      <c r="U8" s="36" t="s">
+      <c r="V10" s="36" t="s">
         <v>818</v>
       </c>
-      <c r="V8" s="36" t="s">
+      <c r="W10" s="36" t="s">
         <v>819</v>
       </c>
-      <c r="W8" s="36" t="s">
+      <c r="X10" s="36" t="s">
         <v>820</v>
       </c>
-      <c r="X8" s="36" t="s">
+      <c r="Y10" s="36" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13" customHeight="1">
-      <c r="A10" s="36" t="s">
+    <row r="12" spans="1:25" ht="13" customHeight="1">
+      <c r="A12" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="36" t="s">
+      <c r="F12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="J12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="K12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="L12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="36" t="str">
-        <f t="shared" ref="L10:L11" si="3">IF(ISBLANK($K10), "", $K10)</f>
+      <c r="M12" s="36" t="str">
+        <f t="shared" ref="M12:M13" si="3">IF(ISBLANK($L12), "", $L12)</f>
         <v>CSVInput:</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="N12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="O12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="O10" s="32" t="s">
+      <c r="P12" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="36" t="s">
+      <c r="Q12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="R12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="36" t="s">
+      <c r="S12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="36" t="s">
+      <c r="T12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="36" t="s">
+      <c r="U12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="36" t="s">
+      <c r="V12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="V10" s="36" t="s">
+      <c r="W12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="W10" s="33" t="s">
+      <c r="X12" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="X10" s="36" t="s">
+      <c r="Y12" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13" customHeight="1">
-      <c r="B11" s="36" t="s">
+    <row r="13" spans="1:25" ht="13" customHeight="1">
+      <c r="B13" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C13" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D13" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E13" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F13" s="36" t="s">
         <v>505</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="G13" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H13" s="36" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I13" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="J13" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="K13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="L13" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="L11" s="36" t="str">
+      <c r="M13" s="36" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">  name: cfs.csv</v>
       </c>
-      <c r="M11" s="37" t="s">
+      <c r="N13" s="37" t="s">
         <v>163</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="O13" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="P13" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="36" t="s">
+      <c r="Q13" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="R13" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="R11" s="36" t="s">
+      <c r="S13" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="36" t="s">
+      <c r="T13" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="T11" s="36" t="s">
+      <c r="U13" s="36" t="s">
         <v>521</v>
       </c>
-      <c r="U11" s="36" t="s">
+      <c r="V13" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="V11" s="36" t="s">
+      <c r="W13" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="W11" s="36" t="s">
+      <c r="X13" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="X11" s="36" t="s">
+      <c r="Y13" s="36" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13" customHeight="1">
-      <c r="B12" s="36" t="s">
+    <row r="14" spans="1:25" ht="13" customHeight="1">
+      <c r="B14" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C14" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D14" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E14" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F14" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G14" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="I14" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="J14" s="36" t="s">
         <v>520</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="K14" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="L14" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="L12" s="36" t="s">
+      <c r="M14" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="N14" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="O14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="P14" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="36" t="s">
+      <c r="Q14" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="Q12" s="36" t="s">
+      <c r="R14" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="R12" s="36" t="s">
+      <c r="S14" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="S12" s="36" t="s">
+      <c r="T14" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="T12" s="36" t="s">
+      <c r="U14" s="36" t="s">
         <v>522</v>
       </c>
-      <c r="U12" s="36" t="s">
+      <c r="V14" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="V12" s="36" t="s">
+      <c r="W14" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="W12" s="36" t="s">
+      <c r="X14" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="X12" s="36" t="s">
+      <c r="Y14" s="36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13" customHeight="1">
-      <c r="B13" s="36" t="s">
+    <row r="15" spans="1:25" ht="13" customHeight="1">
+      <c r="B15" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="36" t="str">
-        <f t="shared" ref="C13:C14" si="4">IF(ISBLANK($B13), "", $B13)</f>
+      <c r="C15" s="36" t="str">
+        <f t="shared" ref="C15:C16" si="4">IF(ISBLANK($B15), "", $B15)</f>
         <v xml:space="preserve">  sheet:      [1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017]</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D15" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="36" t="str">
-        <f t="shared" ref="E13:E14" si="5">IF(ISBLANK($D13), "", $D13)</f>
+      <c r="E15" s="36" t="str">
+        <f t="shared" ref="E15:E16" si="5">IF(ISBLANK($D15), "", $D15)</f>
         <v xml:space="preserve">  sheet:      [2007, 2012]</v>
       </c>
-      <c r="F13" s="36" t="s">
+      <c r="F15" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G15" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="I15" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="O15" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="P15" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="36" t="s">
+      <c r="Q15" s="36" t="s">
         <v>346</v>
       </c>
-      <c r="R13" s="36" t="s">
+      <c r="S15" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="36" t="s">
+      <c r="T15" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="U13" s="36" t="s">
+      <c r="V15" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="V13" s="36" t="s">
+      <c r="W15" s="36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13" customHeight="1">
-      <c r="B14" s="36" t="s">
+    <row r="16" spans="1:25" ht="13" customHeight="1">
+      <c r="B16" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="36" t="str">
+      <c r="C16" s="36" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">  descriptor: [1997, 1998, 1999, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012, 2013, 2014, 2015, 2016, 2017]</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D16" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="E14" s="36" t="str">
+      <c r="E16" s="36" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">  descriptor: [2007, 2012]</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F16" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G16" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="I16" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="O16" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="P16" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="36" t="s">
+      <c r="Q16" s="36" t="s">
         <v>347</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="T16" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="U14" s="36" t="s">
+      <c r="V16" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="V14" s="36" t="s">
+      <c r="W16" s="36" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13" customHeight="1">
-      <c r="F15" s="36" t="s">
+    <row r="17" spans="1:25" ht="13" customHeight="1">
+      <c r="F17" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="P15" s="36" t="s">
+      <c r="Q17" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="S15" s="36" t="s">
+      <c r="T17" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="V15" s="36" t="s">
+      <c r="W17" s="36" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13" customHeight="1">
-      <c r="F16" s="36" t="s">
+    <row r="18" spans="1:25" ht="13" customHeight="1">
+      <c r="F18" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="P16" s="36" t="s">
+      <c r="Q18" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="V16" s="36" t="s">
+      <c r="W18" s="36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13" customHeight="1">
-      <c r="F17" s="36" t="s">
+    <row r="19" spans="1:25" ht="13" customHeight="1">
+      <c r="F19" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="P17" s="36" t="s">
+      <c r="Q19" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="V17" s="36" t="s">
+      <c r="W19" s="36" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13" customHeight="1">
-      <c r="F18" s="36" t="s">
+    <row r="20" spans="1:25" ht="13" customHeight="1">
+      <c r="F20" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="P18" s="36" t="s">
+      <c r="Q20" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="V18" s="36" t="s">
+      <c r="W20" s="36" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13" customHeight="1">
-      <c r="F19" s="36" t="s">
+    <row r="21" spans="1:25" ht="13" customHeight="1">
+      <c r="F21" s="36" t="s">
         <v>516</v>
       </c>
-      <c r="P19" s="36" t="s">
+      <c r="Q21" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="V19" s="36" t="s">
+      <c r="W21" s="36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13" customHeight="1">
-      <c r="P20" s="36" t="s">
+    <row r="22" spans="1:25" ht="13" customHeight="1">
+      <c r="Q22" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="V20" s="36" t="s">
+      <c r="W22" s="36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13" customHeight="1">
-      <c r="P21" s="36" t="s">
+    <row r="23" spans="1:25" ht="13" customHeight="1">
+      <c r="Q23" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="V21" s="36" t="s">
+      <c r="W23" s="36" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13" customHeight="1">
-      <c r="P22" s="36" t="s">
+    <row r="24" spans="1:25" ht="13" customHeight="1">
+      <c r="Q24" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="V22" s="36" t="s">
+      <c r="W24" s="36" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13" customHeight="1">
-      <c r="P23" s="36" t="s">
+    <row r="25" spans="1:25" ht="13" customHeight="1">
+      <c r="Q25" s="36" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13" customHeight="1">
-      <c r="A25" s="36" t="s">
+    <row r="27" spans="1:25" ht="13" customHeight="1">
+      <c r="A27" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B27" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="36" t="str">
-        <f>IF(ISBLANK($B25), "", $B25)</f>
+      <c r="C27" s="36" t="str">
+        <f>IF(ISBLANK($B27), "", $B27)</f>
         <v>Describe:</v>
       </c>
-      <c r="D25" s="36" t="str">
-        <f t="shared" ref="D25:E26" si="6">IF(ISBLANK($B25), "", $B25)</f>
+      <c r="D27" s="36" t="str">
+        <f t="shared" ref="D27:E28" si="6">IF(ISBLANK($B27), "", $B27)</f>
         <v>Describe:</v>
       </c>
-      <c r="E25" s="36" t="str">
+      <c r="E27" s="36" t="str">
         <f t="shared" si="6"/>
         <v>Describe:</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F27" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="G25" s="36" t="str">
-        <f t="shared" ref="G25:G26" si="7">IF(ISBLANK($F25), "", $F25)</f>
+      <c r="G27" s="36" t="str">
+        <f>IF(ISBLANK($F27), "", $F27)</f>
         <v># Describe:</v>
       </c>
-      <c r="I25" s="36" t="s">
+      <c r="H27" s="36" t="str">
+        <f t="shared" ref="H27:H28" si="7">IF(ISBLANK($F27), "", $F27)</f>
+        <v># Describe:</v>
+      </c>
+      <c r="J27" s="36" t="s">
         <v>519</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="K27" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="33" t="s">
+      <c r="O27" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="O25" s="32" t="str">
-        <f>IF(ISBLANK($N25), "", $N25)</f>
+      <c r="P27" s="32" t="str">
+        <f>IF(ISBLANK($O27), "", $O27)</f>
         <v>Describe:</v>
       </c>
-      <c r="P25" s="32" t="str">
-        <f t="shared" ref="O25:Q26" si="8">IF(ISBLANK($N25), "", $N25)</f>
+      <c r="Q27" s="32" t="str">
+        <f t="shared" ref="P27:R28" si="8">IF(ISBLANK($O27), "", $O27)</f>
         <v>Describe:</v>
       </c>
-      <c r="Q25" s="32" t="str">
+      <c r="R27" s="32" t="str">
         <f t="shared" si="8"/>
         <v>Describe:</v>
       </c>
-      <c r="R25" s="33"/>
-      <c r="T25" s="33" t="s">
+      <c r="S27" s="33"/>
+      <c r="U27" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="V25" s="36" t="s">
+      <c r="W27" s="36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13" customHeight="1">
-      <c r="B26" s="36" t="s">
+    <row r="28" spans="1:25" ht="13" customHeight="1">
+      <c r="B28" s="36" t="s">
         <v>580</v>
       </c>
-      <c r="C26" s="36" t="str">
-        <f>IF(ISBLANK($B26), "", $B26)</f>
+      <c r="C28" s="36" t="str">
+        <f>IF(ISBLANK($B28), "", $B28)</f>
         <v xml:space="preserve">  col: yr</v>
       </c>
-      <c r="D26" s="36" t="str">
+      <c r="D28" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">  col: yr</v>
       </c>
-      <c r="E26" s="36" t="str">
+      <c r="E28" s="36" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">  col: yr</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F28" s="36" t="s">
         <v>714</v>
       </c>
-      <c r="G26" s="36" t="str">
+      <c r="G28" s="36" t="str">
+        <f>IF(ISBLANK($F28), "", $F28)</f>
+        <v>#  col: gdpcat</v>
+      </c>
+      <c r="H28" s="36" t="str">
         <f t="shared" si="7"/>
         <v>#  col: gdpcat</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="J28" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="K28" s="36" t="s">
         <v>580</v>
       </c>
-      <c r="N26" s="33" t="s">
+      <c r="O28" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="O26" s="32" t="str">
+      <c r="P28" s="32" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  col: yr</v>
       </c>
-      <c r="P26" s="32" t="str">
+      <c r="Q28" s="32" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  col: yr</v>
       </c>
-      <c r="Q26" s="32" t="str">
+      <c r="R28" s="32" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">  col: yr</v>
       </c>
-      <c r="R26" s="33"/>
-      <c r="T26" s="33" t="s">
+      <c r="S28" s="33"/>
+      <c r="U28" s="33" t="s">
         <v>689</v>
       </c>
-      <c r="V26" s="36" t="s">
+      <c r="W28" s="36" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13" customHeight="1">
-      <c r="N27" s="33"/>
-      <c r="P27" s="33"/>
-    </row>
-    <row r="28" spans="1:24" ht="13" customHeight="1">
-      <c r="A28" s="36" t="s">
+    <row r="29" spans="1:25" ht="13" customHeight="1">
+      <c r="O29" s="33"/>
+      <c r="Q29" s="33"/>
+    </row>
+    <row r="30" spans="1:25" ht="13" customHeight="1">
+      <c r="A30" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="36" t="str">
-        <f t="shared" ref="C28:E58" si="9">IF(ISBLANK($B28), "", $B28)</f>
+      <c r="C30" s="36" t="str">
+        <f t="shared" ref="C30:E60" si="9">IF(ISBLANK($B30), "", $B30)</f>
         <v>Order:</v>
       </c>
-      <c r="D28" s="36" t="str">
+      <c r="D30" s="36" t="str">
         <f t="shared" si="9"/>
         <v>Order:</v>
       </c>
-      <c r="E28" s="36" t="str">
+      <c r="E30" s="36" t="str">
         <f t="shared" si="9"/>
         <v>Order:</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="36" t="s">
+      <c r="H30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="36" t="s">
+      <c r="I30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="33" t="s">
+      <c r="J30" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="K30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="33" t="s">
+      <c r="N30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O28" s="32" t="str">
-        <f>IF(ISBLANK($N28), "", $N28)</f>
+      <c r="O30" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="32" t="str">
+        <f>IF(ISBLANK($O30), "", $O30)</f>
         <v>Order:</v>
       </c>
-      <c r="P28" s="32" t="str">
-        <f>IF(ISBLANK($N28), "", $N28)</f>
+      <c r="Q30" s="32" t="str">
+        <f>IF(ISBLANK($O30), "", $O30)</f>
         <v>Order:</v>
       </c>
-      <c r="Q28" s="32" t="str">
-        <f>IF(ISBLANK($N28), "", $N28)</f>
+      <c r="R30" s="32" t="str">
+        <f>IF(ISBLANK($O30), "", $O30)</f>
         <v>Order:</v>
       </c>
-      <c r="R28" s="32" t="str">
-        <f>IF(ISBLANK($N28), "", $N28)</f>
+      <c r="S30" s="32" t="str">
+        <f>IF(ISBLANK($O30), "", $O30)</f>
         <v>Order:</v>
       </c>
-      <c r="S28" s="32" t="str">
-        <f>IF(ISBLANK($N28), "", $N28)</f>
+      <c r="T30" s="32" t="str">
+        <f>IF(ISBLANK($O30), "", $O30)</f>
         <v>Order:</v>
       </c>
-      <c r="T28" s="33" t="s">
+      <c r="U30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="U28" s="33" t="s">
+      <c r="V30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V28" s="33" t="s">
+      <c r="W30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="W28" s="33" t="s">
+      <c r="X30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="X28" s="36" t="s">
+      <c r="Y30" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="13" customHeight="1">
-      <c r="B29" s="33" t="s">
+    <row r="31" spans="1:25" ht="13" customHeight="1">
+      <c r="B31" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="C29" s="36" t="str">
+      <c r="C31" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: yr,         type: Int}</v>
       </c>
-      <c r="D29" s="36" t="str">
+      <c r="D31" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: yr,         type: Int}</v>
       </c>
-      <c r="E29" s="36" t="str">
+      <c r="E31" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: yr,         type: Int}</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F31" s="36" t="s">
         <v>612</v>
       </c>
-      <c r="G29" s="36" t="str">
-        <f t="shared" ref="G29" si="10">IF(ISBLANK($F29), "", $F29)</f>
+      <c r="G31" s="36" t="str">
+        <f t="shared" ref="G31:G32" si="10">IF(ISBLANK($F31), "", $F31)</f>
         <v xml:space="preserve">  - {col: yr,     type: Int}</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H31" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="I29" s="36" t="s">
+      <c r="I31" s="36" t="s">
+        <v>599</v>
+      </c>
+      <c r="J31" s="36" t="s">
         <v>600</v>
       </c>
-      <c r="J29" s="33" t="s">
+      <c r="K31" s="33" t="s">
         <v>623</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="L31" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="M31" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="M29" s="33" t="s">
+      <c r="N31" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="N29" s="33" t="s">
+      <c r="O31" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="O29" s="32" t="str">
-        <f t="shared" ref="O29:S56" si="11">IF(ISBLANK($N29), "", $N29)</f>
+      <c r="P31" s="32" t="str">
+        <f t="shared" ref="P31:T58" si="11">IF(ISBLANK($O31), "", $O31)</f>
         <v xml:space="preserve">  - {col: yr,    type: Int}</v>
       </c>
-      <c r="P29" s="32" t="str">
+      <c r="Q31" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: yr,    type: Int}</v>
       </c>
-      <c r="Q29" s="32" t="str">
+      <c r="R31" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: yr,    type: Int}</v>
       </c>
-      <c r="R29" s="32" t="str">
+      <c r="S31" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: yr,    type: Int}</v>
       </c>
-      <c r="S29" s="32" t="str">
-        <f>IF(ISBLANK($N29), "", $N29)</f>
+      <c r="T31" s="32" t="str">
+        <f>IF(ISBLANK($O31), "", $O31)</f>
         <v xml:space="preserve">  - {col: yr,    type: Int}</v>
       </c>
-      <c r="T29" s="33" t="s">
+      <c r="U31" s="33" t="s">
         <v>716</v>
       </c>
-      <c r="U29" s="33" t="s">
+      <c r="V31" s="33" t="s">
         <v>622</v>
       </c>
-      <c r="V29" s="33" t="s">
+      <c r="W31" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="W29" s="33" t="s">
+      <c r="X31" s="33" t="s">
         <v>612</v>
       </c>
-      <c r="X29" s="36" t="s">
+      <c r="Y31" s="36" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13" customHeight="1">
-      <c r="B30" s="33" t="s">
+    <row r="32" spans="1:25" ht="13" customHeight="1">
+      <c r="B32" s="33" t="s">
         <v>582</v>
       </c>
-      <c r="C30" s="36" t="str">
+      <c r="C32" s="36" t="str">
         <f t="shared" si="9"/>
         <v># - {col: input_bea,  type: String}</v>
       </c>
-      <c r="D30" s="36" t="str">
+      <c r="D32" s="36" t="str">
         <f t="shared" si="9"/>
         <v># - {col: input_bea,  type: String}</v>
       </c>
-      <c r="E30" s="36" t="str">
+      <c r="E32" s="36" t="str">
         <f t="shared" si="9"/>
         <v># - {col: input_bea,  type: String}</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F32" s="36" t="s">
         <v>641</v>
       </c>
-      <c r="G30" s="36" t="str">
-        <f>IF(ISBLANK($F30), "", $F30)</f>
+      <c r="G32" s="36" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">  - {col: r,      type: String}</v>
       </c>
-      <c r="H30" s="36" t="s">
+      <c r="H32" s="36" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I32" s="36" t="s">
         <v>738</v>
       </c>
-      <c r="I30" s="36" t="s">
+      <c r="J32" s="36" t="s">
         <v>663</v>
       </c>
-      <c r="J30" s="33" t="s">
+      <c r="K32" s="33" t="s">
         <v>546</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="L32" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="L30" s="33" t="s">
+      <c r="M32" s="33" t="s">
         <v>554</v>
       </c>
-      <c r="M30" s="33" t="s">
+      <c r="N32" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="N30" s="33" t="s">
+      <c r="O32" s="33" t="s">
         <v>741</v>
       </c>
-      <c r="O30" s="32" t="str">
+      <c r="P32" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: r,     type: String}</v>
       </c>
-      <c r="P30" s="32" t="str">
+      <c r="Q32" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: r,     type: String}</v>
       </c>
-      <c r="Q30" s="32" t="str">
+      <c r="R32" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: r,     type: String}</v>
       </c>
-      <c r="R30" s="32" t="str">
+      <c r="S32" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: r,     type: String}</v>
       </c>
-      <c r="S30" s="32" t="str">
+      <c r="T32" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: r,     type: String}</v>
       </c>
-      <c r="T30" s="33" t="s">
+      <c r="U32" s="33" t="s">
         <v>720</v>
       </c>
-      <c r="U30" s="33" t="s">
+      <c r="V32" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="V30" s="33" t="s">
+      <c r="W32" s="33" t="s">
         <v>641</v>
       </c>
-      <c r="W30" s="33" t="s">
+      <c r="X32" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="X30" s="33" t="s">
+      <c r="Y32" s="33" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13" customHeight="1">
-      <c r="B31" s="33" t="s">
+    <row r="33" spans="1:25" ht="13" customHeight="1">
+      <c r="B33" s="33" t="s">
         <v>588</v>
       </c>
-      <c r="C31" s="36" t="str">
+      <c r="C33" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: i,          type: String}</v>
       </c>
-      <c r="D31" s="36" t="str">
+      <c r="D33" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: i,          type: String}</v>
       </c>
-      <c r="E31" s="36" t="str">
+      <c r="E33" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: i,          type: String}</v>
       </c>
-      <c r="G31" s="36" t="s">
+      <c r="G33" s="36" t="s">
         <v>648</v>
       </c>
-      <c r="H31" s="36" t="s">
+      <c r="H33" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I33" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J33" s="36" t="s">
         <v>664</v>
       </c>
-      <c r="J31" s="33" t="s">
+      <c r="K33" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="33" t="s">
+      <c r="L33" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="L31" s="33" t="s">
+      <c r="M33" s="33" t="s">
         <v>555</v>
       </c>
-      <c r="M31" s="33" t="s">
+      <c r="N33" s="33" t="s">
         <v>699</v>
       </c>
-      <c r="N31" s="36" t="s">
+      <c r="O33" s="36" t="s">
         <v>822</v>
       </c>
-      <c r="O31" s="32" t="str">
+      <c r="P33" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: ec,    type: String}</v>
       </c>
-      <c r="P31" s="32" t="str">
+      <c r="Q33" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: ec,    type: String}</v>
       </c>
-      <c r="Q31" s="32" t="str">
+      <c r="R33" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: ec,    type: String}</v>
       </c>
-      <c r="R31" s="32" t="str">
+      <c r="S33" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: ec,    type: String}</v>
       </c>
-      <c r="S31" s="32" t="str">
+      <c r="T33" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: ec,    type: String}</v>
       </c>
-      <c r="T31" s="33" t="s">
+      <c r="U33" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="U31" s="33" t="s">
+      <c r="V33" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="V31" s="33" t="s">
+      <c r="W33" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="W31" s="33" t="s">
+      <c r="X33" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="X31" s="33" t="s">
+      <c r="Y33" s="33" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13" customHeight="1">
-      <c r="B32" s="33" t="s">
+    <row r="34" spans="1:25" ht="13" customHeight="1">
+      <c r="B34" s="33" t="s">
         <v>583</v>
       </c>
-      <c r="C32" s="36" t="str">
+      <c r="C34" s="36" t="str">
         <f t="shared" si="9"/>
         <v># - {col: output_bea, type: String}</v>
       </c>
-      <c r="D32" s="36" t="str">
+      <c r="D34" s="36" t="str">
         <f t="shared" si="9"/>
         <v># - {col: output_bea, type: String}</v>
       </c>
-      <c r="E32" s="36" t="str">
+      <c r="E34" s="36" t="str">
         <f t="shared" si="9"/>
         <v># - {col: output_bea, type: String}</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F34" s="36" t="s">
         <v>639</v>
       </c>
-      <c r="G32" s="36" t="str">
-        <f t="shared" ref="G32:G56" si="12">IF(ISBLANK($F32), "", $F32)</f>
+      <c r="G34" s="36" t="str">
+        <f t="shared" ref="G34:G58" si="12">IF(ISBLANK($F34), "", $F34)</f>
         <v xml:space="preserve">  - {col: gdpcat, type: String}</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H34" s="36" t="s">
         <v>737</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I34" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="J34" s="36" t="s">
         <v>657</v>
       </c>
-      <c r="J32" s="33" t="s">
+      <c r="K34" s="33" t="s">
         <v>561</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="L34" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="L32" s="33" t="s">
+      <c r="M34" s="33" t="s">
         <v>711</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="N34" s="36" t="s">
         <v>591</v>
       </c>
-      <c r="N32" s="33" t="s">
+      <c r="O34" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="O32" s="32" t="str">
+      <c r="P34" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: units, type: String}</v>
       </c>
-      <c r="P32" s="32" t="str">
+      <c r="Q34" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: units, type: String}</v>
       </c>
-      <c r="Q32" s="32" t="str">
+      <c r="R34" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: units, type: String}</v>
       </c>
-      <c r="R32" s="32" t="str">
+      <c r="S34" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: units, type: String}</v>
       </c>
-      <c r="S32" s="32" t="str">
+      <c r="T34" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: units, type: String}</v>
       </c>
-      <c r="T32" s="33" t="s">
+      <c r="U34" s="33" t="s">
         <v>717</v>
       </c>
-      <c r="V32" s="33" t="s">
+      <c r="W34" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="W32" s="33" t="s">
+      <c r="X34" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="X32" s="36" t="s">
+      <c r="Y34" s="36" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="13" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="33" t="s">
+    <row r="35" spans="1:25" ht="13" customHeight="1">
+      <c r="A35" s="38"/>
+      <c r="B35" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="C33" s="36" t="str">
+      <c r="C35" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: j,          type: String}</v>
       </c>
-      <c r="D33" s="36" t="str">
+      <c r="D35" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: j,          type: String}</v>
       </c>
-      <c r="E33" s="36" t="str">
+      <c r="E35" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: j,          type: String}</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F35" s="36" t="s">
         <v>640</v>
       </c>
-      <c r="G33" s="36" t="str">
+      <c r="G35" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">  - {col: si,     type: String}</v>
       </c>
-      <c r="H33" s="36" t="s">
+      <c r="H35" s="36" t="s">
         <v>736</v>
       </c>
-      <c r="I33" s="36" t="s">
+      <c r="I35" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="J35" s="36" t="s">
         <v>665</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="K35" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="36" t="s">
+      <c r="L35" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="M35" s="36" t="s">
         <v>712</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="N35" s="36" t="s">
         <v>592</v>
       </c>
-      <c r="N33" s="33" t="s">
+      <c r="O35" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="O33" s="32" t="str">
+      <c r="P35" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: value, type: Float64}</v>
       </c>
-      <c r="P33" s="32" t="str">
+      <c r="Q35" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: value, type: Float64}</v>
       </c>
-      <c r="Q33" s="32" t="str">
+      <c r="R35" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: value, type: Float64}</v>
       </c>
-      <c r="R33" s="32" t="str">
+      <c r="S35" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: value, type: Float64}</v>
       </c>
-      <c r="S33" s="32" t="str">
+      <c r="T35" s="32" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve">  - {col: value, type: Float64}</v>
       </c>
-      <c r="T33" s="33" t="s">
+      <c r="U35" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="V33" s="33" t="s">
+      <c r="W35" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="W33" s="33"/>
-      <c r="X33" s="36" t="s">
+      <c r="X35" s="33"/>
+      <c r="Y35" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="13" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="33" t="s">
+    <row r="36" spans="1:25" ht="13" customHeight="1">
+      <c r="A36" s="38"/>
+      <c r="B36" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="C34" s="36" t="str">
+      <c r="C36" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: units,      type: String}</v>
       </c>
-      <c r="D34" s="36" t="str">
+      <c r="D36" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: units,      type: String}</v>
       </c>
-      <c r="E34" s="36" t="str">
+      <c r="E36" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: units,      type: String}</v>
       </c>
-      <c r="F34" s="36" t="s">
-        <v>713</v>
-      </c>
-      <c r="G34" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v># - {col: n,      type: String}</v>
-      </c>
-      <c r="H34" s="36" t="s">
+      <c r="F36" s="36" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G36" s="36" t="str">
+        <f>IF(ISBLANK($F36), "", $F36)</f>
+        <v xml:space="preserve">  - {col: n,      type: String}</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I36" s="36" t="s">
         <v>735</v>
       </c>
-      <c r="I34" s="36" t="s">
+      <c r="J36" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="J34" s="33" t="s">
+      <c r="K36" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="L36" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="L34" s="33" t="s">
+      <c r="M36" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="32" t="str">
+      <c r="O36" s="33"/>
+      <c r="P36" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P34" s="32" t="str">
+      <c r="Q36" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q34" s="32" t="str">
+      <c r="R36" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R34" s="32" t="str">
+      <c r="S36" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S34" s="32" t="str">
+      <c r="T36" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T34" s="33" t="s">
+      <c r="U36" s="33" t="s">
         <v>718</v>
       </c>
-      <c r="X34" s="36" t="s">
+      <c r="Y36" s="36" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="13" customHeight="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="33" t="s">
+    <row r="37" spans="1:25" ht="13" customHeight="1">
+      <c r="A37" s="38"/>
+      <c r="B37" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="C35" s="36" t="str">
+      <c r="C37" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: value,      type: Float64}</v>
       </c>
-      <c r="D35" s="36" t="str">
+      <c r="D37" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: value,      type: Float64}</v>
       </c>
-      <c r="E35" s="36" t="str">
+      <c r="E37" s="36" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve">  - {col: value,      type: Float64}</v>
       </c>
-      <c r="F35" s="36" t="s">
+      <c r="F37" s="36" t="s">
         <v>642</v>
       </c>
-      <c r="G35" s="36" t="str">
+      <c r="G37" s="36" t="str">
         <f t="shared" si="12"/>
         <v># - {col: desc,   type: String}</v>
       </c>
-      <c r="H35" s="36" t="s">
+      <c r="H37" s="36" t="s">
+        <v>1118</v>
+      </c>
+      <c r="I37" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="J37" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="J35" s="33" t="s">
+      <c r="K37" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="33" t="s">
+      <c r="L37" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="L35" s="33" t="s">
+      <c r="M37" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="N35" s="33"/>
-      <c r="O35" s="32" t="str">
+      <c r="O37" s="33"/>
+      <c r="P37" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P35" s="32" t="str">
+      <c r="Q37" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q35" s="32" t="str">
+      <c r="R37" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R35" s="32" t="str">
+      <c r="S37" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S35" s="32" t="str">
+      <c r="T37" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T35" s="33" t="s">
+      <c r="U37" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="X35" s="36" t="s">
+      <c r="Y37" s="36" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="13" customHeight="1">
-      <c r="A36" s="38"/>
-      <c r="C36" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D36" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E36" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F36" s="36" t="s">
+    <row r="38" spans="1:25" ht="13" customHeight="1">
+      <c r="A38" s="38"/>
+      <c r="C38" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D38" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E38" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F38" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="36" t="str">
+      <c r="G38" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">  - {col: units,  type: String}</v>
       </c>
-      <c r="H36" s="36" t="s">
+      <c r="H38" s="36" t="s">
+        <v>1119</v>
+      </c>
+      <c r="I38" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="J36" s="33" t="s">
+      <c r="K38" s="33" t="s">
         <v>666</v>
       </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="32" t="str">
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="P36" s="32" t="str">
+      <c r="Q38" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="Q36" s="32" t="str">
+      <c r="R38" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="R36" s="32" t="str">
+      <c r="S38" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="S36" s="32" t="str">
+      <c r="T38" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="X36" s="36" t="s">
+      <c r="Y38" s="36" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="13" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="C37" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D37" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E37" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F37" s="36" t="s">
+    <row r="39" spans="1:25" ht="13" customHeight="1">
+      <c r="A39" s="38"/>
+      <c r="C39" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D39" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E39" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="F39" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="36" t="str">
+      <c r="G39" s="36" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">  - {col: value,  type: Float64}</v>
       </c>
-      <c r="J37" s="33" t="s">
+      <c r="H39" s="36" t="s">
+        <v>735</v>
+      </c>
+      <c r="K39" s="33" t="s">
         <v>667</v>
       </c>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P37" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q37" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R37" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S37" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T37" s="33" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="13" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="C38" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D38" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E38" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G38" s="36" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P38" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q38" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="R38" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="S38" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="T38" s="33" t="s">
-        <v>608</v>
-      </c>
-      <c r="X38" s="33" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="13" customHeight="1">
-      <c r="A39" s="38"/>
-      <c r="C39" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D39" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="E39" s="36" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="36" t="str">
-        <f>IF(ISBLANK($F39), "", $F39)</f>
-        <v/>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K39" s="33"/>
       <c r="L39" s="33"/>
-      <c r="O39" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
       <c r="P39" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11122,14 +11204,15 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T39" s="36" t="s">
-        <v>610</v>
-      </c>
-      <c r="X39" s="33" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="13" customHeight="1">
+      <c r="T39" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U39" s="33" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="13" customHeight="1">
       <c r="A40" s="38"/>
       <c r="C40" s="36" t="str">
         <f t="shared" si="9"/>
@@ -11143,21 +11226,16 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F40" s="33"/>
       <c r="G40" s="36" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J40" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" s="33"/>
+      <c r="H40" s="36" t="s">
+        <v>110</v>
+      </c>
       <c r="L40" s="33"/>
       <c r="N40" s="33"/>
-      <c r="O40" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="O40" s="33"/>
       <c r="P40" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11174,11 +11252,18 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="X40" s="36" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="13" customHeight="1">
+      <c r="T40" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U40" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y40" s="33" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="13" customHeight="1">
       <c r="A41" s="38"/>
       <c r="C41" s="36" t="str">
         <f t="shared" si="9"/>
@@ -11192,20 +11277,19 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="F41" s="33"/>
       <c r="G41" s="36" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J41" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="33"/>
+      <c r="H41" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>34</v>
+      </c>
       <c r="L41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M41" s="33"/>
       <c r="P41" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11222,9 +11306,18 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T41" s="33"/>
-    </row>
-    <row r="42" spans="1:24" ht="13" customHeight="1">
+      <c r="T41" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U41" s="36" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y41" s="33" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="13" customHeight="1">
       <c r="A42" s="38"/>
       <c r="C42" s="36" t="str">
         <f t="shared" si="9"/>
@@ -11238,20 +11331,17 @@
         <f t="shared" si="9"/>
         <v/>
       </c>
+      <c r="F42" s="33"/>
       <c r="G42" s="36" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J42" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K42" s="33"/>
+      <c r="K42" s="33" t="s">
+        <v>39</v>
+      </c>
       <c r="L42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M42" s="33"/>
+      <c r="O42" s="33"/>
       <c r="P42" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11268,9 +11358,15 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T42" s="33"/>
-    </row>
-    <row r="43" spans="1:24" ht="13" customHeight="1">
+      <c r="T42" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Y42" s="36" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="13" customHeight="1">
       <c r="A43" s="38"/>
       <c r="C43" s="36" t="str">
         <f t="shared" si="9"/>
@@ -11288,16 +11384,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J43" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K43" s="33"/>
+      <c r="K43" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="L43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M43" s="33"/>
+      <c r="O43" s="33"/>
       <c r="P43" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11314,9 +11406,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T43" s="33"/>
-    </row>
-    <row r="44" spans="1:24" ht="13" customHeight="1">
+      <c r="T43" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U43" s="33"/>
+    </row>
+    <row r="44" spans="1:25" ht="13" customHeight="1">
       <c r="A44" s="38"/>
       <c r="C44" s="36" t="str">
         <f t="shared" si="9"/>
@@ -11334,16 +11430,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J44" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="K44" s="33"/>
+      <c r="K44" s="33" t="s">
+        <v>41</v>
+      </c>
       <c r="L44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M44" s="33"/>
+      <c r="O44" s="33"/>
       <c r="P44" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11360,9 +11452,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T44" s="33"/>
-    </row>
-    <row r="45" spans="1:24" ht="13" customHeight="1">
+      <c r="T44" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U44" s="33"/>
+    </row>
+    <row r="45" spans="1:25" ht="13" customHeight="1">
       <c r="A45" s="38"/>
       <c r="C45" s="36" t="str">
         <f t="shared" si="9"/>
@@ -11380,16 +11476,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J45" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="K45" s="33"/>
+      <c r="K45" s="33" t="s">
+        <v>42</v>
+      </c>
       <c r="L45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M45" s="33"/>
+      <c r="O45" s="33"/>
       <c r="P45" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11406,9 +11498,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T45" s="33"/>
-    </row>
-    <row r="46" spans="1:24" ht="13" customHeight="1">
+      <c r="T45" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U45" s="33"/>
+    </row>
+    <row r="46" spans="1:25" ht="13" customHeight="1">
       <c r="A46" s="38"/>
       <c r="C46" s="36" t="str">
         <f t="shared" si="9"/>
@@ -11426,12 +11522,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="K46" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="O46" s="33"/>
       <c r="P46" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11448,9 +11544,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T46" s="33"/>
-    </row>
-    <row r="47" spans="1:24" ht="13" customHeight="1">
+      <c r="T46" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U46" s="33"/>
+    </row>
+    <row r="47" spans="1:25" ht="13" customHeight="1">
       <c r="A47" s="38"/>
       <c r="C47" s="36" t="str">
         <f t="shared" si="9"/>
@@ -11468,16 +11568,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J47" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" s="33"/>
+      <c r="K47" s="33" t="s">
+        <v>461</v>
+      </c>
       <c r="L47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M47" s="33"/>
+      <c r="O47" s="33"/>
       <c r="P47" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11494,9 +11590,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T47" s="33"/>
-    </row>
-    <row r="48" spans="1:24" ht="13" customHeight="1">
+      <c r="T47" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U47" s="33"/>
+    </row>
+    <row r="48" spans="1:25" ht="13" customHeight="1">
       <c r="A48" s="38"/>
       <c r="C48" s="36" t="str">
         <f t="shared" si="9"/>
@@ -11514,12 +11614,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="K48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="L48" s="33"/>
+      <c r="O48" s="33"/>
       <c r="P48" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11536,9 +11632,14 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T48" s="33"/>
-    </row>
-    <row r="49" spans="1:24" ht="13" customHeight="1">
+      <c r="T48" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U48" s="33"/>
+    </row>
+    <row r="49" spans="1:25" ht="13" customHeight="1">
+      <c r="A49" s="38"/>
       <c r="C49" s="36" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -11555,16 +11656,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J49" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K49" s="33"/>
+      <c r="K49" s="33" t="s">
+        <v>43</v>
+      </c>
       <c r="L49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M49" s="33"/>
+      <c r="O49" s="33"/>
       <c r="P49" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11581,9 +11678,14 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T49" s="33"/>
-    </row>
-    <row r="50" spans="1:24" ht="13" customHeight="1">
+      <c r="T49" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U49" s="33"/>
+    </row>
+    <row r="50" spans="1:25" ht="13" customHeight="1">
+      <c r="A50" s="38"/>
       <c r="C50" s="36" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -11600,16 +11702,8 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J50" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="33"/>
       <c r="L50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="O50" s="33"/>
       <c r="P50" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11626,9 +11720,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T50" s="33"/>
-    </row>
-    <row r="51" spans="1:24" ht="13" customHeight="1">
+      <c r="T50" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U50" s="33"/>
+    </row>
+    <row r="51" spans="1:25" ht="13" customHeight="1">
       <c r="C51" s="36" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -11645,16 +11743,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J51" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51" s="33"/>
+      <c r="K51" s="33" t="s">
+        <v>44</v>
+      </c>
       <c r="L51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M51" s="33"/>
+      <c r="O51" s="33"/>
       <c r="P51" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11671,9 +11765,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T51" s="33"/>
-    </row>
-    <row r="52" spans="1:24" ht="13" customHeight="1">
+      <c r="T51" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U51" s="33"/>
+    </row>
+    <row r="52" spans="1:25" ht="13" customHeight="1">
       <c r="C52" s="36" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -11690,16 +11788,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J52" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="K52" s="33"/>
+      <c r="K52" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="L52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M52" s="33"/>
+      <c r="O52" s="33"/>
       <c r="P52" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11716,9 +11810,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T52" s="33"/>
-    </row>
-    <row r="53" spans="1:24" ht="13" customHeight="1">
+      <c r="T52" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U52" s="33"/>
+    </row>
+    <row r="53" spans="1:25" ht="13" customHeight="1">
       <c r="C53" s="36" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -11735,16 +11833,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J53" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="K53" s="33"/>
+      <c r="K53" s="33" t="s">
+        <v>45</v>
+      </c>
       <c r="L53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M53" s="33"/>
+      <c r="O53" s="33"/>
       <c r="P53" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11761,9 +11855,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T53" s="33"/>
-    </row>
-    <row r="54" spans="1:24" ht="13" customHeight="1">
+      <c r="T53" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U53" s="33"/>
+    </row>
+    <row r="54" spans="1:25" ht="13" customHeight="1">
       <c r="C54" s="36" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -11780,16 +11878,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J54" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K54" s="33"/>
+      <c r="K54" s="33" t="s">
+        <v>36</v>
+      </c>
       <c r="L54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M54" s="33"/>
+      <c r="O54" s="33"/>
       <c r="P54" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11806,9 +11900,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T54" s="33"/>
-    </row>
-    <row r="55" spans="1:24" ht="13" customHeight="1">
+      <c r="T54" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U54" s="33"/>
+    </row>
+    <row r="55" spans="1:25" ht="13" customHeight="1">
       <c r="C55" s="36" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -11825,16 +11923,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J55" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="K55" s="33"/>
+      <c r="K55" s="33" t="s">
+        <v>46</v>
+      </c>
       <c r="L55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M55" s="33"/>
+      <c r="O55" s="33"/>
       <c r="P55" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11851,9 +11945,13 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T55" s="33"/>
-    </row>
-    <row r="56" spans="1:24" ht="13" customHeight="1">
+      <c r="T55" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U55" s="33"/>
+    </row>
+    <row r="56" spans="1:25" ht="13" customHeight="1">
       <c r="C56" s="36" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -11870,16 +11968,12 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="J56" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56" s="33"/>
+      <c r="K56" s="33" t="s">
+        <v>37</v>
+      </c>
       <c r="L56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="32" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
+      <c r="M56" s="33"/>
+      <c r="O56" s="33"/>
       <c r="P56" s="32" t="str">
         <f t="shared" si="11"/>
         <v/>
@@ -11896,3148 +11990,3454 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="T56" s="33"/>
-    </row>
-    <row r="57" spans="1:24" ht="13" customHeight="1">
-      <c r="N57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-    </row>
-    <row r="58" spans="1:24" ht="13" customHeight="1">
-      <c r="A58" s="36" t="s">
+      <c r="T56" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U56" s="33"/>
+    </row>
+    <row r="57" spans="1:25" ht="13" customHeight="1">
+      <c r="C57" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D57" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E57" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G57" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K57" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q57" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R57" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="S57" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="T57" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U57" s="33"/>
+    </row>
+    <row r="58" spans="1:25" ht="13" customHeight="1">
+      <c r="C58" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="D58" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="E58" s="36" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="G58" s="36" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K58" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q58" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="R58" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="S58" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="T58" s="32" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="U58" s="33"/>
+    </row>
+    <row r="59" spans="1:25" ht="13" customHeight="1">
+      <c r="O59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+    </row>
+    <row r="60" spans="1:25" ht="13" customHeight="1">
+      <c r="A60" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="B58" s="36" t="s">
+      <c r="B60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="36" t="str">
+      <c r="C60" s="36" t="str">
         <f t="shared" si="9"/>
         <v>Rename:</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="36" t="str">
-        <f t="shared" ref="E58:E60" si="13">IF(ISBLANK($D58), "", $D58)</f>
+      <c r="E60" s="36" t="str">
+        <f t="shared" ref="E60:E62" si="13">IF(ISBLANK($D60), "", $D60)</f>
         <v>Rename:</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G58" s="36" t="s">
+      <c r="G60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="36" t="s">
+      <c r="H60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="36" t="s">
+      <c r="I60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="33" t="s">
+      <c r="J60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="36" t="s">
+      <c r="K60" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N58" s="36" t="s">
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="32" t="s">
+      <c r="O60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="P58" s="36" t="s">
+      <c r="P60" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="36" t="s">
+      <c r="Q60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="36" t="s">
+      <c r="R60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="T58" s="36" t="s">
+      <c r="S60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="U58" s="33" t="s">
+      <c r="U60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="V58" s="36" t="s">
+      <c r="V60" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="W58" s="36" t="s">
+      <c r="W60" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="X58" s="36" t="s">
+      <c r="X60" s="36" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" ht="13" customHeight="1">
-      <c r="B59" s="36" t="s">
+      <c r="Y60" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="13" customHeight="1">
+      <c r="B61" s="36" t="s">
         <v>571</v>
       </c>
-      <c r="C59" s="36" t="str">
-        <f t="shared" ref="C59:C60" si="14">IF(ISBLANK($B59), "", $B59)</f>
+      <c r="C61" s="36" t="str">
+        <f t="shared" ref="C61:C62" si="14">IF(ISBLANK($B61), "", $B61)</f>
         <v xml:space="preserve">  - {from: IOCode, to: input_bea}</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D61" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="E59" s="36" t="str">
+      <c r="E61" s="36" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">  - {from: Code,                  to: input_bea}</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F61" s="36" t="s">
         <v>631</v>
       </c>
-      <c r="G59" s="36" t="s">
+      <c r="G61" s="36" t="s">
         <v>643</v>
       </c>
-      <c r="H59" s="36" t="s">
+      <c r="H61" s="36" t="str">
+        <f>IF(ISBLANK($G61), "", $G61)</f>
+        <v xml:space="preserve">  - {from: GeoFIPS,                to: r}</v>
+      </c>
+      <c r="I61" s="36" t="s">
         <v>722</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="J61" s="36" t="s">
         <v>654</v>
       </c>
-      <c r="J59" s="33" t="s">
+      <c r="K61" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="36" t="s">
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="N59" s="36" t="s">
+      <c r="O61" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="O59" s="32" t="s">
+      <c r="P61" s="32" t="s">
         <v>674</v>
       </c>
-      <c r="P59" s="36" t="s">
+      <c r="Q61" s="36" t="s">
         <v>675</v>
       </c>
-      <c r="Q59" s="36" t="s">
+      <c r="R61" s="36" t="s">
         <v>676</v>
       </c>
-      <c r="R59" s="36" t="s">
+      <c r="S61" s="36" t="s">
         <v>686</v>
       </c>
-      <c r="T59" s="36" t="s">
+      <c r="U61" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="U59" s="33" t="s">
+      <c r="V61" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="V59" s="36" t="s">
+      <c r="W61" s="36" t="s">
         <v>745</v>
       </c>
-      <c r="W59" s="36" t="s">
+      <c r="X61" s="36" t="s">
         <v>691</v>
       </c>
-      <c r="X59" s="36" t="s">
+      <c r="Y61" s="36" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="13" customHeight="1">
-      <c r="B60" s="36" t="s">
+    <row r="62" spans="1:25" ht="13" customHeight="1">
+      <c r="B62" s="36" t="s">
         <v>577</v>
       </c>
-      <c r="C60" s="36" t="str">
+      <c r="C62" s="36" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">  - {from: Name,   to: input_desc}</v>
       </c>
-      <c r="D60" s="36" t="s">
+      <c r="D62" s="36" t="s">
         <v>578</v>
       </c>
-      <c r="E60" s="36" t="str">
+      <c r="E62" s="36" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">  - {from: Commodity Description, to: input_desc}</v>
       </c>
-      <c r="G60" s="36" t="s">
+      <c r="G62" s="36" t="s">
         <v>644</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H62" s="36" t="str">
+        <f>IF(ISBLANK($G62), "", $G62)</f>
+        <v xml:space="preserve">  - {from: GeoName,                to: r_desc}</v>
+      </c>
+      <c r="I62" s="36" t="s">
         <v>723</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="J62" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="33" t="s">
+      <c r="K62" s="33" t="s">
         <v>563</v>
       </c>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="36" t="s">
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="36" t="s">
         <v>740</v>
       </c>
-      <c r="N60" s="36" t="s">
+      <c r="O62" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="R60" s="36" t="s">
+      <c r="S62" s="36" t="s">
         <v>602</v>
       </c>
-      <c r="T60" s="36" t="s">
+      <c r="U62" s="36" t="s">
         <v>603</v>
       </c>
-      <c r="U60" s="33" t="s">
+      <c r="V62" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="X60" s="36" t="s">
+      <c r="Y62" s="36" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="13" customHeight="1">
-      <c r="F61" s="36" t="s">
+    <row r="63" spans="1:25" ht="13" customHeight="1">
+      <c r="F63" s="36" t="s">
         <v>624</v>
       </c>
-      <c r="G61" s="36" t="str">
-        <f t="shared" ref="G61:G65" si="15">IF(ISBLANK($F61), "", $F61)</f>
+      <c r="G63" s="36" t="str">
+        <f t="shared" ref="G63:G67" si="15">IF(ISBLANK($F63), "", $F63)</f>
         <v xml:space="preserve">  - {from: ComponentName,          to: gdpcat}</v>
       </c>
-      <c r="H61" s="36" t="s">
+      <c r="I63" s="36" t="s">
         <v>724</v>
       </c>
-      <c r="I61" s="36" t="s">
+      <c r="J63" s="36" t="s">
         <v>660</v>
       </c>
-      <c r="J61" s="36" t="s">
+      <c r="K63" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="M61" s="36" t="s">
+      <c r="N63" s="36" t="s">
         <v>744</v>
       </c>
-      <c r="R61" s="36" t="s">
+      <c r="S63" s="36" t="s">
         <v>687</v>
       </c>
-      <c r="T61" s="36" t="s">
+      <c r="U63" s="36" t="s">
         <v>690</v>
       </c>
-      <c r="X61" s="36" t="s">
+      <c r="Y63" s="36" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="13" customHeight="1">
-      <c r="F62" s="36" t="s">
+    <row r="64" spans="1:25" ht="13" customHeight="1">
+      <c r="F64" s="36" t="s">
         <v>635</v>
       </c>
-      <c r="G62" s="36" t="str">
+      <c r="G64" s="36" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">  - {from: IndustryId,             to: si}</v>
       </c>
-      <c r="H62" s="36" t="s">
+      <c r="H64" s="36" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I64" s="36" t="s">
         <v>739</v>
       </c>
-      <c r="I62" s="36" t="s">
+      <c r="J64" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="36" t="s">
+      <c r="K64" s="36" t="s">
         <v>668</v>
       </c>
-      <c r="M62" s="36" t="s">
+      <c r="N64" s="36" t="s">
         <v>693</v>
       </c>
-      <c r="R62" s="36" t="s">
+      <c r="S64" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="T62" s="36" t="s">
+      <c r="U64" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="U62" s="33"/>
-      <c r="X62" s="36" t="s">
+      <c r="V64" s="33"/>
+      <c r="Y64" s="36" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="13" customHeight="1">
-      <c r="F63" s="36" t="s">
+    <row r="65" spans="1:25" ht="13" customHeight="1">
+      <c r="F65" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="36" t="str">
+      <c r="G65" s="36" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">  - {from: Unit,                   to: units}</v>
       </c>
-      <c r="H63" s="36" t="s">
+      <c r="H65" s="36" t="str">
+        <f t="shared" ref="H65:H67" si="16">IF(ISBLANK($G65), "", $G65)</f>
+        <v xml:space="preserve">  - {from: Unit,                   to: units}</v>
+      </c>
+      <c r="I65" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="J63" s="36" t="s">
+      <c r="K65" s="36" t="s">
         <v>701</v>
       </c>
-      <c r="R63" s="36" t="s">
+      <c r="S65" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="X63" s="36" t="s">
+      <c r="Y65" s="36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="13" customHeight="1">
-      <c r="F64" s="36" t="s">
+    <row r="66" spans="1:25" ht="13" customHeight="1">
+      <c r="F66" s="36" t="s">
         <v>694</v>
       </c>
-      <c r="G64" s="36" t="str">
+      <c r="G66" s="36" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">  - {from: IndustryClassification, to: n}</v>
       </c>
-      <c r="R64" s="36" t="s">
+      <c r="H66" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - {from: IndustryClassification, to: n}</v>
+      </c>
+      <c r="S66" s="36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="13" customHeight="1">
-      <c r="F65" s="36" t="s">
+    <row r="67" spans="1:25" ht="13" customHeight="1">
+      <c r="F67" s="36" t="s">
         <v>638</v>
       </c>
-      <c r="G65" s="36" t="str">
+      <c r="G67" s="36" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve">  - {from: Description,            to: desc}</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" ht="13" customHeight="1">
-      <c r="A67" s="36" t="s">
+      <c r="H67" s="36" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">  - {from: Description,            to: desc}</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="13" customHeight="1">
+      <c r="A69" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="N67" s="36" t="s">
+      <c r="O69" s="36" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="13" customHeight="1">
-      <c r="N68" s="36" t="s">
+    <row r="70" spans="1:25" ht="13" customHeight="1">
+      <c r="O70" s="36" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="13" customHeight="1">
-      <c r="N69" s="36" t="s">
+    <row r="71" spans="1:25" ht="13" customHeight="1">
+      <c r="O71" s="36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="13" customHeight="1">
-      <c r="N70" s="36" t="s">
+    <row r="72" spans="1:25" ht="13" customHeight="1">
+      <c r="O72" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="13" customHeight="1">
-      <c r="N71" s="36" t="s">
+    <row r="73" spans="1:25" ht="13" customHeight="1">
+      <c r="O73" s="36" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="13" customHeight="1">
-      <c r="N72" s="36" t="s">
+    <row r="74" spans="1:25" ht="13" customHeight="1">
+      <c r="O74" s="36" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="13" customHeight="1">
-      <c r="A74" s="36" t="s">
+    <row r="76" spans="1:25" ht="13" customHeight="1">
+      <c r="A76" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F76" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="33"/>
-      <c r="H74" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="33" t="s">
-        <v>655</v>
-      </c>
-      <c r="M74" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="T74" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="13" customHeight="1">
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="36" t="s">
-        <v>725</v>
-      </c>
-      <c r="I75" s="33" t="s">
-        <v>656</v>
-      </c>
-      <c r="M75" s="33" t="s">
-        <v>695</v>
-      </c>
-      <c r="T75" s="36" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="13" customHeight="1">
-      <c r="F76" s="33"/>
       <c r="G76" s="33"/>
       <c r="H76" s="36" t="s">
-        <v>726</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>629</v>
-      </c>
-      <c r="M76" s="33" t="s">
-        <v>702</v>
-      </c>
-      <c r="T76" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="13" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="33" t="s">
+        <v>655</v>
+      </c>
+      <c r="N76" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="U76" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="13" customHeight="1">
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
       <c r="H77" s="36" t="s">
-        <v>727</v>
-      </c>
-      <c r="I77" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="M77" s="33" t="s">
-        <v>703</v>
-      </c>
-      <c r="T77" s="36" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="13" customHeight="1">
-      <c r="F78" s="33" t="s">
-        <v>632</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="I77" s="36" t="s">
+        <v>725</v>
+      </c>
+      <c r="J77" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="N77" s="33" t="s">
+        <v>695</v>
+      </c>
+      <c r="U77" s="36" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="13" customHeight="1">
+      <c r="F78" s="33"/>
       <c r="G78" s="33"/>
       <c r="H78" s="36" t="s">
-        <v>728</v>
-      </c>
-      <c r="I78" s="33"/>
-      <c r="M78" s="33"/>
-    </row>
-    <row r="79" spans="1:20" ht="13" customHeight="1">
-      <c r="F79" s="33" t="s">
         <v>633</v>
       </c>
+      <c r="I78" s="36" t="s">
+        <v>726</v>
+      </c>
+      <c r="J78" s="33" t="s">
+        <v>629</v>
+      </c>
+      <c r="N78" s="33" t="s">
+        <v>702</v>
+      </c>
+      <c r="U78" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="13" customHeight="1">
+      <c r="F79" s="33"/>
       <c r="G79" s="33"/>
       <c r="H79" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="I79" s="36" t="s">
+        <v>727</v>
+      </c>
+      <c r="J79" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="N79" s="33" t="s">
+        <v>703</v>
+      </c>
+      <c r="U79" s="36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="13" customHeight="1">
+      <c r="F80" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="H80" s="36" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I80" s="36" t="s">
+        <v>728</v>
+      </c>
+      <c r="J80" s="33"/>
+      <c r="N80" s="33"/>
+    </row>
+    <row r="81" spans="1:24" ht="13" customHeight="1">
+      <c r="F81" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>633</v>
+      </c>
+      <c r="I81" s="36" t="s">
         <v>729</v>
       </c>
-      <c r="I79" s="33"/>
-      <c r="M79" s="33"/>
-    </row>
-    <row r="80" spans="1:20" ht="13" customHeight="1">
-      <c r="F80" s="33" t="s">
+      <c r="J81" s="33"/>
+      <c r="N81" s="33"/>
+    </row>
+    <row r="82" spans="1:24" ht="13" customHeight="1">
+      <c r="F82" s="33" t="s">
         <v>634</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="36" t="s">
+      <c r="H82" s="36" t="s">
+        <v>1111</v>
+      </c>
+      <c r="I82" s="36" t="s">
         <v>730</v>
       </c>
-      <c r="I80" s="33"/>
-      <c r="M80" s="33"/>
-    </row>
-    <row r="82" spans="1:24" ht="13" customHeight="1">
-      <c r="A82" s="36" t="s">
+      <c r="J82" s="33"/>
+      <c r="N82" s="33"/>
+    </row>
+    <row r="83" spans="1:24" customFormat="1" ht="13" customHeight="1">
+      <c r="H83" s="33" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="13" customHeight="1">
+      <c r="F84" s="33"/>
+      <c r="H84" s="33" t="s">
+        <v>1128</v>
+      </c>
+      <c r="J84" s="33"/>
+      <c r="N84" s="33"/>
+    </row>
+    <row r="85" spans="1:24" ht="13" customHeight="1">
+      <c r="F85" s="33"/>
+      <c r="H85" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="J85" s="33"/>
+      <c r="N85" s="33"/>
+    </row>
+    <row r="87" spans="1:24" ht="13" customHeight="1">
+      <c r="A87" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="B82" s="36" t="s">
+      <c r="B87" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="36" t="str">
-        <f t="shared" ref="C82:E89" si="16">IF(ISBLANK($B82), "", $B82)</f>
+      <c r="C87" s="36" t="str">
+        <f t="shared" ref="C87:E94" si="17">IF(ISBLANK($B87), "", $B87)</f>
         <v>Melt:</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D87" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="36" t="str">
-        <f t="shared" ref="E82:E85" si="17">IF(ISBLANK($D82), "", $D82)</f>
+      <c r="E87" s="36" t="str">
+        <f t="shared" ref="E87:E90" si="18">IF(ISBLANK($D87), "", $D87)</f>
         <v>Melt:</v>
       </c>
-      <c r="F82" s="36" t="s">
+      <c r="F87" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="36" t="str">
-        <f t="shared" ref="G82:G85" si="18">IF(ISBLANK($F82), "", $F82)</f>
+      <c r="G87" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="P87" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q87" s="32" t="str">
+        <f t="shared" ref="Q87:Q90" si="19">IF(ISBLANK($P87), "", $P87)</f>
         <v>Melt:</v>
       </c>
-      <c r="H82" s="36" t="s">
+      <c r="R87" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="36" t="s">
+      <c r="W87" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="O82" s="32" t="s">
+      <c r="X87" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="P82" s="32" t="str">
-        <f t="shared" ref="P82:P85" si="19">IF(ISBLANK($O82), "", $O82)</f>
-        <v>Melt:</v>
-      </c>
-      <c r="Q82" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="V82" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="W82" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" ht="13" customHeight="1">
-      <c r="B83" s="36" t="s">
+    </row>
+    <row r="88" spans="1:24" ht="13" customHeight="1">
+      <c r="B88" s="36" t="s">
         <v>579</v>
       </c>
-      <c r="C83" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  on:  [input_bea, input_desc]</v>
-      </c>
-      <c r="D83" s="36" t="s">
-        <v>579</v>
-      </c>
-      <c r="E83" s="36" t="str">
+      <c r="C88" s="36" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">  on:  [input_bea, input_desc]</v>
       </c>
-      <c r="F83" s="36" t="s">
-        <v>696</v>
-      </c>
-      <c r="G83" s="36" t="str">
+      <c r="D88" s="36" t="s">
+        <v>579</v>
+      </c>
+      <c r="E88" s="36" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">  on:  [r, gdpcat, si, units, si, n, desc]</v>
-      </c>
-      <c r="H83" s="36" t="s">
+        <v xml:space="preserve">  on:  [input_bea, input_desc]</v>
+      </c>
+      <c r="F88" s="36" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G88" s="36" t="str">
+        <f t="shared" ref="G88:G90" si="20">IF(ISBLANK($F88), "", $F88)</f>
+        <v xml:space="preserve">  on:  [r, gdpcat, si, units, n, desc]</v>
+      </c>
+      <c r="H88" s="36" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I88" s="36" t="s">
         <v>731</v>
       </c>
-      <c r="I83" s="36" t="s">
+      <c r="J88" s="36" t="s">
         <v>662</v>
       </c>
-      <c r="O83" s="32" t="s">
+      <c r="P88" s="32" t="s">
         <v>679</v>
       </c>
-      <c r="P83" s="32" t="str">
+      <c r="Q88" s="32" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  on:  ec_desc</v>
       </c>
-      <c r="Q83" s="36" t="s">
+      <c r="R88" s="36" t="s">
         <v>685</v>
       </c>
-      <c r="V83" s="33" t="s">
+      <c r="W88" s="33" t="s">
         <v>685</v>
       </c>
-      <c r="W83" s="33" t="s">
+      <c r="X88" s="33" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="13" customHeight="1">
-      <c r="B84" s="36" t="s">
+    <row r="89" spans="1:24" ht="13" customHeight="1">
+      <c r="B89" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="C84" s="36" t="str">
-        <f t="shared" si="16"/>
+      <c r="C89" s="36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  var: output_desc</v>
       </c>
-      <c r="D84" s="36" t="s">
+      <c r="D89" s="36" t="s">
         <v>715</v>
       </c>
-      <c r="E84" s="36" t="str">
-        <f t="shared" si="17"/>
+      <c r="E89" s="36" t="str">
+        <f t="shared" si="18"/>
         <v xml:space="preserve">  var: output_bea</v>
       </c>
-      <c r="F84" s="36" t="s">
+      <c r="F89" s="36" t="s">
         <v>605</v>
       </c>
-      <c r="G84" s="36" t="str">
-        <f t="shared" si="18"/>
+      <c r="G89" s="36" t="str">
+        <f t="shared" si="20"/>
         <v xml:space="preserve">  var: yr</v>
       </c>
-      <c r="H84" s="36" t="s">
+      <c r="H89" s="36" t="s">
         <v>605</v>
       </c>
-      <c r="I84" s="36" t="s">
+      <c r="I89" s="36" t="s">
         <v>605</v>
       </c>
-      <c r="O84" s="32" t="s">
+      <c r="J89" s="36" t="s">
+        <v>605</v>
+      </c>
+      <c r="P89" s="32" t="s">
         <v>678</v>
       </c>
-      <c r="P84" s="32" t="str">
+      <c r="Q89" s="32" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  var: r</v>
       </c>
-      <c r="Q84" s="36" t="s">
+      <c r="R89" s="36" t="s">
         <v>684</v>
       </c>
-      <c r="V84" s="33" t="s">
+      <c r="W89" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="W84" s="33" t="s">
+      <c r="X89" s="33" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="13" customHeight="1">
-      <c r="B85" s="36" t="s">
+    <row r="90" spans="1:24" ht="13" customHeight="1">
+      <c r="B90" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  val: value</v>
-      </c>
-      <c r="D85" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E85" s="36" t="str">
+      <c r="C90" s="36" t="str">
         <f t="shared" si="17"/>
         <v xml:space="preserve">  val: value</v>
       </c>
-      <c r="F85" s="36" t="s">
+      <c r="D90" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="36" t="str">
+      <c r="E90" s="36" t="str">
         <f t="shared" si="18"/>
         <v xml:space="preserve">  val: value</v>
       </c>
-      <c r="H85" s="36" t="s">
+      <c r="F90" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I85" s="36" t="s">
+      <c r="G90" s="36" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">  val: value</v>
+      </c>
+      <c r="H90" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="O85" s="32" t="s">
+      <c r="I90" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="P85" s="32" t="str">
+      <c r="J90" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="P90" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q90" s="32" t="str">
         <f t="shared" si="19"/>
         <v xml:space="preserve">  val: value</v>
       </c>
-      <c r="Q85" s="36" t="s">
+      <c r="R90" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="V85" s="33" t="s">
+      <c r="W90" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="W85" s="33" t="s">
+      <c r="X90" s="33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="13" customHeight="1">
-      <c r="A87" s="36" t="s">
+    <row r="92" spans="1:24" ht="13" customHeight="1">
+      <c r="A92" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B87" s="36" t="s">
+      <c r="B92" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C87" s="36" t="str">
-        <f t="shared" si="16"/>
+      <c r="C92" s="36" t="str">
+        <f t="shared" si="17"/>
         <v>Add:</v>
       </c>
-      <c r="D87" s="36" t="str">
-        <f t="shared" si="16"/>
+      <c r="D92" s="36" t="str">
+        <f t="shared" si="17"/>
         <v>Add:</v>
       </c>
-      <c r="E87" s="36" t="str">
-        <f t="shared" si="16"/>
+      <c r="E92" s="36" t="str">
+        <f t="shared" si="17"/>
         <v>Add:</v>
       </c>
-      <c r="H87" s="36" t="s">
+      <c r="I92" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J87" s="36" t="s">
+      <c r="K92" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="M87" s="36" t="s">
+      <c r="N92" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="T87" s="36" t="s">
+      <c r="U92" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="U87" s="36" t="s">
+      <c r="V92" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="V87" s="33" t="s">
+      <c r="W92" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="W87" s="36" t="s">
+      <c r="X92" s="36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="13" customHeight="1">
-      <c r="B88" s="36" t="s">
+    <row r="93" spans="1:24" ht="13" customHeight="1">
+      <c r="B93" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C88" s="36" t="str">
-        <f t="shared" si="16"/>
+      <c r="C93" s="36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  col: units</v>
       </c>
-      <c r="D88" s="36" t="str">
-        <f t="shared" si="16"/>
+      <c r="D93" s="36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  col: units</v>
       </c>
-      <c r="E88" s="36" t="str">
-        <f t="shared" si="16"/>
+      <c r="E93" s="36" t="str">
+        <f t="shared" si="17"/>
         <v xml:space="preserve">  col: units</v>
       </c>
-      <c r="H88" s="36" t="s">
+      <c r="I93" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="J88" s="36" t="s">
+      <c r="K93" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="M88" s="36" t="s">
+      <c r="N93" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="T88" s="36" t="s">
+      <c r="U93" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="U88" s="36" t="s">
+      <c r="V93" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="V88" s="33" t="s">
+      <c r="W93" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="W88" s="36" t="s">
+      <c r="X93" s="36" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" ht="13" customHeight="1">
-      <c r="B89" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C89" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  val: millions of us dollars (USD)</v>
-      </c>
-      <c r="D89" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  val: millions of us dollars (USD)</v>
-      </c>
-      <c r="E89" s="36" t="str">
-        <f t="shared" si="16"/>
-        <v xml:space="preserve">  val: millions of us dollars (USD)</v>
-      </c>
-      <c r="H89" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="J89" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M89" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="T89" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="U89" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="V89" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="W89" s="36" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" ht="13" customHeight="1">
-      <c r="J90" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="U90" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="V90" s="33"/>
-      <c r="W90" s="36" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" ht="13" customHeight="1">
-      <c r="J91" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="U91" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="V91" s="33"/>
-    </row>
-    <row r="93" spans="1:24" ht="13" customHeight="1">
-      <c r="A93" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="C93" s="36" t="str">
-        <f t="shared" ref="C93:C105" si="20">IF(ISBLANK($B93), "", $B93)</f>
-        <v>Map:</v>
-      </c>
-      <c r="D93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="E93" s="36" t="str">
-        <f t="shared" ref="E93:E105" si="21">IF(ISBLANK($D93), "", $D93)</f>
-        <v>Map:</v>
-      </c>
-      <c r="F93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="G93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="H93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="I93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="J93" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="K93" s="33"/>
-      <c r="M93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="N93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="O93" s="32" t="str">
-        <f t="shared" ref="O93:R93" si="22">IF(ISBLANK($N93), "", $N93)</f>
-        <v>Map:</v>
-      </c>
-      <c r="P93" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>Map:</v>
-      </c>
-      <c r="Q93" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>Map:</v>
-      </c>
-      <c r="R93" s="32" t="str">
-        <f t="shared" si="22"/>
-        <v>Map:</v>
-      </c>
-      <c r="T93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="V93" s="36" t="s">
-        <v>425</v>
-      </c>
-      <c r="W93" s="33" t="s">
-        <v>425</v>
-      </c>
-      <c r="X93" s="36" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="13" customHeight="1">
       <c r="B94" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="36" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  val: millions of us dollars (USD)</v>
+      </c>
+      <c r="D94" s="36" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  val: millions of us dollars (USD)</v>
+      </c>
+      <c r="E94" s="36" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">  val: millions of us dollars (USD)</v>
+      </c>
+      <c r="I94" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="K94" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="N94" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="U94" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="V94" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="W94" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="X94" s="36" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="13" customHeight="1">
+      <c r="K95" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="V95" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="W95" s="33"/>
+      <c r="X95" s="36" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="13" customHeight="1">
+      <c r="K96" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="V96" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="W96" s="33"/>
+    </row>
+    <row r="98" spans="1:25" ht="13" customHeight="1">
+      <c r="A98" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="C98" s="36" t="str">
+        <f t="shared" ref="C98:C110" si="21">IF(ISBLANK($B98), "", $B98)</f>
+        <v>Map:</v>
+      </c>
+      <c r="D98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="E98" s="36" t="str">
+        <f t="shared" ref="E98:E110" si="22">IF(ISBLANK($D98), "", $D98)</f>
+        <v>Map:</v>
+      </c>
+      <c r="F98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="G98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="H98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="I98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="J98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="K98" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="L98" s="33"/>
+      <c r="N98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="O98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="P98" s="32" t="str">
+        <f t="shared" ref="P98:S98" si="23">IF(ISBLANK($O98), "", $O98)</f>
+        <v>Map:</v>
+      </c>
+      <c r="Q98" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>Map:</v>
+      </c>
+      <c r="R98" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>Map:</v>
+      </c>
+      <c r="S98" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>Map:</v>
+      </c>
+      <c r="U98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="W98" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="X98" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y98" s="36" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="13" customHeight="1">
+      <c r="B99" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="C94" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="C99" s="36" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  - file:   [parse, bea_summary.csv]</v>
       </c>
-      <c r="D94" s="36" t="s">
+      <c r="D99" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="E94" s="36" t="str">
+      <c r="E99" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">  - file:   [parse, bea_detail.csv]</v>
+      </c>
+      <c r="F99" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="G99" s="36" t="str">
+        <f t="shared" ref="G99:G104" si="24">IF(ISBLANK($F99), "", $F99)</f>
+        <v xml:space="preserve">  - file:   [parse, gsp.csv]</v>
+      </c>
+      <c r="H99" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="I99" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="J99" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="K99" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="L99" s="33"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="P99" s="32" t="str">
+        <f t="shared" ref="P99:S104" si="25">IF(ISBLANK($O99), "", $O99)</f>
+        <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
+      </c>
+      <c r="Q99" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
+      </c>
+      <c r="R99" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
+      </c>
+      <c r="S99" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
+      </c>
+      <c r="U99" s="37"/>
+      <c r="X99" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y99" s="36" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="13" customHeight="1">
+      <c r="B100" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="36" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">  - file:   [parse, bea_detail.csv]</v>
-      </c>
-      <c r="F94" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="G94" s="36" t="str">
-        <f t="shared" ref="G94:G99" si="23">IF(ISBLANK($F94), "", $F94)</f>
-        <v xml:space="preserve">  - file:   [parse, gsp.csv]</v>
-      </c>
-      <c r="H94" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="I94" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="J94" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="K94" s="33"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="36" t="s">
-        <v>343</v>
-      </c>
-      <c r="O94" s="32" t="str">
-        <f t="shared" ref="O94:R99" si="24">IF(ISBLANK($N94), "", $N94)</f>
-        <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
-      </c>
-      <c r="P94" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
-      </c>
-      <c r="Q94" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
-      </c>
-      <c r="R94" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">  - file:   [parse, sgf.csv]</v>
-      </c>
-      <c r="T94" s="37"/>
-      <c r="W94" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="X94" s="36" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" ht="13" customHeight="1">
-      <c r="B95" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C95" s="36" t="str">
-        <f t="shared" si="20"/>
         <v xml:space="preserve">    from:   bea_desc</v>
       </c>
-      <c r="D95" s="36" t="s">
+      <c r="D100" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E95" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="E100" s="36" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">    from:   bea_code</v>
       </c>
-      <c r="F95" s="36" t="s">
+      <c r="F100" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="H95" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I95" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J95" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K95" s="33"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O95" s="32" t="str">
+      <c r="G100" s="36" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">    from:   from</v>
       </c>
-      <c r="P95" s="32" t="str">
+      <c r="H100" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="33"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="Q100" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="R100" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="S100" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="U100" s="37"/>
+      <c r="X100" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y100" s="36" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="13" customHeight="1">
+      <c r="B101" s="36" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C101" s="36" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    to:     [bea_code, windc_code]</v>
+      </c>
+      <c r="D101" s="36" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E101" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    to:     [bea_desc, windc_code]</v>
+      </c>
+      <c r="F101" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="36" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="Q95" s="32" t="str">
+        <v xml:space="preserve">    to:     to</v>
+      </c>
+      <c r="H101" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="33"/>
+      <c r="N101" s="37"/>
+      <c r="O101" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="P101" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
+      </c>
+      <c r="Q101" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
+      </c>
+      <c r="R101" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
+      </c>
+      <c r="S101" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
+      </c>
+      <c r="U101" s="37"/>
+      <c r="X101" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y101" s="36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="13" customHeight="1">
+      <c r="B102" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="C102" s="36" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    input:  output_desc</v>
+      </c>
+      <c r="D102" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="E102" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    input:  output_bea</v>
+      </c>
+      <c r="F102" s="36" t="s">
+        <v>627</v>
+      </c>
+      <c r="G102" s="36" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="R95" s="32" t="str">
+        <v xml:space="preserve">    input:  gdpcat</v>
+      </c>
+      <c r="H102" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I102" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J102" s="36" t="s">
+        <v>661</v>
+      </c>
+      <c r="K102" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="L102" s="33"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="36" t="s">
+        <v>680</v>
+      </c>
+      <c r="P102" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    input:  ec_desc</v>
+      </c>
+      <c r="Q102" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    input:  ec_desc</v>
+      </c>
+      <c r="R102" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    input:  ec_desc</v>
+      </c>
+      <c r="S102" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    input:  ec_desc</v>
+      </c>
+      <c r="U102" s="37"/>
+      <c r="X102" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y102" s="36" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="13" customHeight="1">
+      <c r="B103" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="C103" s="36" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    output: [output_bea, j]</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="E103" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    output: [output_desc, j]</v>
+      </c>
+      <c r="F103" s="36" t="s">
+        <v>625</v>
+      </c>
+      <c r="G103" s="36" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="T95" s="37"/>
-      <c r="W95" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="X95" s="36" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" ht="13" customHeight="1">
-      <c r="B96" s="36" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C96" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    to:     [bea_code, windc_code]</v>
-      </c>
-      <c r="D96" s="36" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E96" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">    to:     [bea_desc, windc_code]</v>
-      </c>
-      <c r="F96" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    to:     to</v>
-      </c>
-      <c r="H96" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I96" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J96" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K96" s="33"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="36" t="s">
-        <v>594</v>
-      </c>
-      <c r="O96" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
-      </c>
-      <c r="P96" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
-      </c>
-      <c r="Q96" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
-      </c>
-      <c r="R96" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    to:     [sgf_desc, sgf_code, units]</v>
-      </c>
-      <c r="T96" s="37"/>
-      <c r="W96" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="X96" s="36" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" ht="13" customHeight="1">
-      <c r="B97" s="36" t="s">
-        <v>575</v>
-      </c>
-      <c r="C97" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    input:  output_desc</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>573</v>
-      </c>
-      <c r="E97" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">    input:  output_bea</v>
-      </c>
-      <c r="F97" s="36" t="s">
-        <v>627</v>
-      </c>
-      <c r="G97" s="36" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">    input:  gdpcat</v>
-      </c>
-      <c r="H97" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="I97" s="36" t="s">
-        <v>661</v>
-      </c>
-      <c r="J97" s="36" t="s">
-        <v>544</v>
-      </c>
-      <c r="K97" s="33"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="36" t="s">
-        <v>680</v>
-      </c>
-      <c r="O97" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    input:  ec_desc</v>
-      </c>
-      <c r="P97" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    input:  ec_desc</v>
-      </c>
-      <c r="Q97" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    input:  ec_desc</v>
-      </c>
-      <c r="R97" s="32" t="str">
-        <f t="shared" si="24"/>
-        <v xml:space="preserve">    input:  ec_desc</v>
-      </c>
-      <c r="T97" s="37"/>
-      <c r="W97" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="X97" s="36" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" ht="13" customHeight="1">
-      <c r="B98" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="C98" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    output: [output_bea, j]</v>
-      </c>
-      <c r="D98" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="E98" s="36" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">    output: [output_desc, j]</v>
-      </c>
-      <c r="F98" s="36" t="s">
-        <v>625</v>
-      </c>
-      <c r="G98" s="36" t="str">
-        <f t="shared" si="23"/>
         <v xml:space="preserve">    output: gdpcat</v>
       </c>
-      <c r="H98" s="36" t="s">
+      <c r="H103" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="I98" s="36" t="s">
+      <c r="I103" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="J103" s="36" t="s">
         <v>659</v>
       </c>
-      <c r="J98" s="36" t="s">
+      <c r="K103" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="K98" s="33"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="36" t="s">
+      <c r="L103" s="33"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="36" t="s">
         <v>681</v>
       </c>
-      <c r="O98" s="32" t="str">
-        <f t="shared" si="24"/>
+      <c r="P103" s="32" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    output: [ec_desc, ec, units]</v>
       </c>
-      <c r="P98" s="32" t="str">
-        <f t="shared" si="24"/>
+      <c r="Q103" s="32" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    output: [ec_desc, ec, units]</v>
       </c>
-      <c r="Q98" s="32" t="str">
-        <f t="shared" si="24"/>
+      <c r="R103" s="32" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    output: [ec_desc, ec, units]</v>
       </c>
-      <c r="R98" s="32" t="str">
-        <f t="shared" si="24"/>
+      <c r="S103" s="32" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    output: [ec_desc, ec, units]</v>
       </c>
-      <c r="T98" s="37"/>
-      <c r="W98" s="33" t="s">
+      <c r="U103" s="37"/>
+      <c r="X103" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="X98" s="36" t="s">
+      <c r="Y103" s="36" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="13" customHeight="1">
-      <c r="B99" s="36" t="s">
+    <row r="104" spans="1:25" ht="13" customHeight="1">
+      <c r="B104" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="C99" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="D99" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="E99" s="36" t="str">
+      <c r="C104" s="36" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="F99" s="36" t="s">
+      <c r="D104" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="G99" s="36" t="str">
-        <f t="shared" si="23"/>
+      <c r="E104" s="36" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="H99" s="36" t="s">
+      <c r="F104" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="I99" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="J99" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="K99" s="33"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="O99" s="32" t="str">
+      <c r="G104" s="36" t="str">
         <f t="shared" si="24"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="P99" s="32" t="str">
-        <f t="shared" si="24"/>
+      <c r="H104" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="I104" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="J104" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="K104" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="L104" s="33"/>
+      <c r="N104" s="37"/>
+      <c r="O104" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="P104" s="32" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="Q99" s="32" t="str">
-        <f t="shared" si="24"/>
+      <c r="Q104" s="32" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="R99" s="32" t="str">
-        <f t="shared" si="24"/>
+      <c r="R104" s="32" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="W99" s="36" t="s">
+      <c r="S104" s="32" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="X104" s="36" t="s">
         <v>959</v>
       </c>
-      <c r="X99" s="36" t="s">
+      <c r="Y104" s="36" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="13" customHeight="1">
-      <c r="A100" s="36" t="s">
+    <row r="105" spans="1:25" ht="13" customHeight="1">
+      <c r="A105" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="B100" s="36" t="s">
+      <c r="B105" s="36" t="s">
         <v>391</v>
       </c>
-      <c r="C100" s="36" t="str">
-        <f t="shared" si="20"/>
+      <c r="C105" s="36" t="str">
+        <f t="shared" si="21"/>
         <v xml:space="preserve">  - file:   [parse, bea_summary.csv]</v>
       </c>
-      <c r="D100" s="36" t="s">
+      <c r="D105" s="36" t="s">
         <v>392</v>
       </c>
-      <c r="E100" s="36" t="str">
-        <f t="shared" si="21"/>
+      <c r="E105" s="36" t="str">
+        <f t="shared" si="22"/>
         <v xml:space="preserve">  - file:   [parse, bea_detail.csv]</v>
       </c>
-      <c r="F100" s="36" t="s">
+      <c r="F105" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="G100" s="36" t="s">
+      <c r="G105" s="36" t="s">
         <v>556</v>
       </c>
-      <c r="I100" s="36" t="s">
+      <c r="H105" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="J105" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="J100" s="36" t="s">
+      <c r="K105" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="K100" s="33"/>
-      <c r="M100" s="37" t="s">
+      <c r="L105" s="33"/>
+      <c r="N105" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="O100" s="32" t="s">
+      <c r="P105" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="P100" s="32" t="str">
-        <f>IF(ISBLANK($O100), "", $O100)</f>
+      <c r="Q105" s="32" t="str">
+        <f>IF(ISBLANK($P105), "", $P105)</f>
         <v xml:space="preserve">  - file:   [parse, regions.csv]</v>
       </c>
-      <c r="Q100" s="32" t="str">
-        <f t="shared" ref="Q100:R105" si="25">IF(ISBLANK($O100), "", $O100)</f>
+      <c r="R105" s="32" t="str">
+        <f t="shared" ref="R105:S110" si="26">IF(ISBLANK($P105), "", $P105)</f>
         <v xml:space="preserve">  - file:   [parse, regions.csv]</v>
       </c>
-      <c r="R100" s="32" t="str">
-        <f>IF(ISBLANK($O100), "", $O100)</f>
+      <c r="S105" s="32" t="str">
+        <f>IF(ISBLANK($P105), "", $P105)</f>
         <v xml:space="preserve">  - file:   [parse, regions.csv]</v>
       </c>
-      <c r="T100" s="36" t="s">
+      <c r="U105" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="V100" s="36" t="s">
+      <c r="W105" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="X100" s="36" t="s">
+      <c r="Y105" s="36" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="13" customHeight="1">
-      <c r="B101" s="36" t="s">
+    <row r="106" spans="1:25" ht="13" customHeight="1">
+      <c r="B106" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="C101" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    from:   [bea_code, bea_desc]</v>
-      </c>
-      <c r="D101" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="E101" s="36" t="str">
+      <c r="C106" s="36" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">    from:   [bea_code, bea_desc]</v>
       </c>
-      <c r="F101" s="36" t="s">
+      <c r="D106" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E106" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    from:   [bea_code, bea_desc]</v>
+      </c>
+      <c r="F106" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="36" t="s">
+      <c r="G106" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="I101" s="36" t="s">
+      <c r="H106" s="36" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J106" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J101" s="36" t="s">
+      <c r="K106" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="33"/>
-      <c r="M101" s="37" t="s">
+      <c r="L106" s="33"/>
+      <c r="N106" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O101" s="32" t="s">
+      <c r="P106" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P101" s="32" t="str">
-        <f t="shared" ref="P101:P105" si="26">IF(ISBLANK($O101), "", $O101)</f>
+      <c r="Q106" s="32" t="str">
+        <f t="shared" ref="Q106:Q110" si="27">IF(ISBLANK($P106), "", $P106)</f>
         <v xml:space="preserve">    from:   from</v>
       </c>
-      <c r="Q101" s="32" t="str">
-        <f t="shared" si="25"/>
+      <c r="R106" s="32" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    from:   from</v>
       </c>
-      <c r="R101" s="32" t="str">
-        <f t="shared" si="25"/>
+      <c r="S106" s="32" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    from:   from</v>
       </c>
-      <c r="T101" s="36" t="s">
+      <c r="U106" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="V101" s="36" t="s">
+      <c r="W106" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="X101" s="36" t="s">
+      <c r="Y106" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="13" customHeight="1">
-      <c r="B102" s="36" t="s">
+    <row r="107" spans="1:25" ht="13" customHeight="1">
+      <c r="B107" s="36" t="s">
         <v>1016</v>
       </c>
-      <c r="C102" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    to:     windc_code</v>
-      </c>
-      <c r="D102" s="36" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E102" s="36" t="str">
+      <c r="C107" s="36" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">    to:     windc_code</v>
       </c>
-      <c r="F102" s="36" t="s">
+      <c r="D107" s="36" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E107" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    to:     windc_code</v>
+      </c>
+      <c r="F107" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G102" s="36" t="s">
+      <c r="G107" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="I102" s="36" t="s">
+      <c r="H107" s="36" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J107" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J102" s="36" t="s">
+      <c r="K107" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K102" s="33"/>
-      <c r="M102" s="37" t="s">
+      <c r="L107" s="33"/>
+      <c r="N107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="O102" s="32" t="s">
+      <c r="P107" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="P102" s="32" t="str">
+      <c r="Q107" s="32" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    to:     to</v>
+      </c>
+      <c r="R107" s="32" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">    to:     to</v>
       </c>
-      <c r="Q102" s="32" t="str">
-        <f t="shared" si="25"/>
+      <c r="S107" s="32" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    to:     to</v>
       </c>
-      <c r="R102" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    to:     to</v>
-      </c>
-      <c r="T102" s="36" t="s">
+      <c r="U107" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="V102" s="36" t="s">
+      <c r="W107" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="X102" s="36" t="s">
+      <c r="Y107" s="36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="13" customHeight="1">
-      <c r="B103" s="36" t="s">
+    <row r="108" spans="1:25" ht="13" customHeight="1">
+      <c r="B108" s="36" t="s">
         <v>576</v>
       </c>
-      <c r="C103" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    input:  [input_bea, input_desc]</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>576</v>
-      </c>
-      <c r="E103" s="36" t="str">
+      <c r="C108" s="36" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">    input:  [input_bea, input_desc]</v>
       </c>
-      <c r="F103" s="36" t="s">
+      <c r="D108" s="36" t="s">
+        <v>576</v>
+      </c>
+      <c r="E108" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    input:  [input_bea, input_desc]</v>
+      </c>
+      <c r="F108" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="G103" s="36" t="s">
+      <c r="G108" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="I103" s="36" t="s">
+      <c r="H108" s="36" t="s">
+        <v>1114</v>
+      </c>
+      <c r="J108" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="J103" s="36" t="s">
+      <c r="K108" s="36" t="s">
         <v>547</v>
       </c>
-      <c r="K103" s="33"/>
-      <c r="M103" s="37" t="s">
+      <c r="L108" s="33"/>
+      <c r="N108" s="37" t="s">
         <v>633</v>
       </c>
-      <c r="O103" s="32" t="s">
+      <c r="P108" s="32" t="s">
         <v>633</v>
       </c>
-      <c r="P103" s="32" t="str">
+      <c r="Q108" s="32" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    input:  r</v>
+      </c>
+      <c r="R108" s="32" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">    input:  r</v>
       </c>
-      <c r="Q103" s="32" t="str">
-        <f t="shared" si="25"/>
+      <c r="S108" s="32" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    input:  r</v>
       </c>
-      <c r="R103" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    input:  r</v>
-      </c>
-      <c r="T103" s="36" t="s">
+      <c r="U108" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="V103" s="36" t="s">
+      <c r="W108" s="36" t="s">
         <v>633</v>
       </c>
-      <c r="X103" s="36" t="s">
+      <c r="Y108" s="36" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="13" customHeight="1">
-      <c r="B104" s="36" t="s">
+    <row r="109" spans="1:25" ht="13" customHeight="1">
+      <c r="B109" s="36" t="s">
         <v>585</v>
       </c>
-      <c r="C104" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    output: i</v>
-      </c>
-      <c r="D104" s="36" t="s">
-        <v>585</v>
-      </c>
-      <c r="E104" s="36" t="str">
+      <c r="C109" s="36" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">    output: i</v>
       </c>
-      <c r="F104" s="36" t="s">
+      <c r="D109" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="E109" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    output: i</v>
+      </c>
+      <c r="F109" s="36" t="s">
         <v>634</v>
       </c>
-      <c r="G104" s="36" t="s">
+      <c r="G109" s="36" t="s">
         <v>645</v>
       </c>
-      <c r="I104" s="36" t="s">
+      <c r="H109" s="36" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J109" s="36" t="s">
         <v>634</v>
       </c>
-      <c r="J104" s="36" t="s">
+      <c r="K109" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="K104" s="33"/>
-      <c r="M104" s="37" t="s">
+      <c r="L109" s="33"/>
+      <c r="N109" s="37" t="s">
         <v>634</v>
       </c>
-      <c r="O104" s="32" t="s">
+      <c r="P109" s="32" t="s">
         <v>634</v>
       </c>
-      <c r="P104" s="32" t="str">
+      <c r="Q109" s="32" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    output: r</v>
+      </c>
+      <c r="R109" s="32" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">    output: r</v>
       </c>
-      <c r="Q104" s="32" t="str">
-        <f t="shared" si="25"/>
+      <c r="S109" s="32" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    output: r</v>
       </c>
-      <c r="R104" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    output: r</v>
-      </c>
-      <c r="T104" s="36" t="s">
+      <c r="U109" s="36" t="s">
         <v>634</v>
       </c>
-      <c r="V104" s="36" t="s">
+      <c r="W109" s="36" t="s">
         <v>634</v>
       </c>
-      <c r="X104" s="36" t="s">
+      <c r="Y109" s="36" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="13" customHeight="1">
-      <c r="B105" s="36" t="s">
+    <row r="110" spans="1:25" ht="13" customHeight="1">
+      <c r="B110" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="C105" s="36" t="str">
-        <f t="shared" si="20"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="D105" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="E105" s="36" t="str">
+      <c r="C110" s="36" t="str">
         <f t="shared" si="21"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="F105" s="36" t="s">
+      <c r="D110" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="G105" s="36" t="s">
+      <c r="E110" s="36" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="F110" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="I105" s="36" t="s">
+      <c r="G110" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="J105" s="36" t="s">
+      <c r="H110" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="K105" s="33"/>
-      <c r="M105" s="36" t="s">
+      <c r="J110" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="O105" s="36" t="s">
+      <c r="K110" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="P105" s="32" t="str">
+      <c r="L110" s="33"/>
+      <c r="N110" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="P110" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q110" s="32" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="R110" s="32" t="str">
         <f t="shared" si="26"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="Q105" s="32" t="str">
-        <f t="shared" si="25"/>
+      <c r="S110" s="32" t="str">
+        <f t="shared" si="26"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="R105" s="32" t="str">
-        <f t="shared" si="25"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="T105" s="36" t="s">
+      <c r="U110" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="V105" s="36" t="s">
+      <c r="W110" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="X105" s="36" t="s">
+      <c r="Y110" s="36" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="13" customHeight="1">
-      <c r="J106" s="36" t="s">
+    <row r="111" spans="1:25" ht="13" customHeight="1">
+      <c r="H111" s="36" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K111" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="K106" s="33"/>
-      <c r="P106" s="32"/>
-      <c r="Q106" s="32"/>
-      <c r="R106" s="32"/>
-      <c r="T106" s="36" t="s">
+      <c r="L111" s="33"/>
+      <c r="Q111" s="32"/>
+      <c r="R111" s="32"/>
+      <c r="S111" s="32"/>
+      <c r="U111" s="36" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="13" customHeight="1">
-      <c r="J107" s="36" t="s">
+    <row r="112" spans="1:25" ht="13" customHeight="1">
+      <c r="H112" s="36" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K112" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="K107" s="33"/>
-      <c r="T107" s="36" t="s">
+      <c r="L112" s="33"/>
+      <c r="U112" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="13" customHeight="1">
-      <c r="J108" s="36" t="s">
+    <row r="113" spans="1:25" ht="13" customHeight="1">
+      <c r="H113" s="36" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K113" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K108" s="33"/>
-      <c r="T108" s="36" t="s">
+      <c r="L113" s="33"/>
+      <c r="U113" s="36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="13" customHeight="1">
-      <c r="J109" s="36" t="s">
+    <row r="114" spans="1:25" ht="13" customHeight="1">
+      <c r="H114" s="36" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K114" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K109" s="33"/>
-      <c r="T109" s="36" t="s">
+      <c r="L114" s="33"/>
+      <c r="U114" s="36" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="13" customHeight="1">
-      <c r="J110" s="36" t="s">
+    <row r="115" spans="1:25" ht="13" customHeight="1">
+      <c r="H115" s="36" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K115" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="K110" s="33"/>
-      <c r="T110" s="36" t="s">
+      <c r="L115" s="33"/>
+      <c r="U115" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="13" customHeight="1">
-      <c r="J111" s="36" t="s">
+    <row r="116" spans="1:25" ht="13" customHeight="1">
+      <c r="H116" s="36" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K116" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="K111" s="33"/>
-      <c r="T111" s="36" t="s">
+      <c r="L116" s="33"/>
+      <c r="U116" s="36" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="13" customHeight="1">
-      <c r="A112" s="36" t="s">
+    <row r="117" spans="1:25" ht="13" customHeight="1">
+      <c r="A117" s="36" t="s">
         <v>590</v>
       </c>
-      <c r="B112" s="36" t="s">
+      <c r="B117" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="C112" s="36" t="str">
-        <f t="shared" ref="C112:I117" si="27">IF(ISBLANK($B112), "", $B112)</f>
+      <c r="C117" s="36" t="str">
+        <f t="shared" ref="C117:J122" si="28">IF(ISBLANK($B117), "", $B117)</f>
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
-      <c r="D112" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
-      </c>
-      <c r="E112" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
-      </c>
-      <c r="F112" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
-      </c>
-      <c r="G112" s="36" t="str">
-        <f>IF(ISBLANK($B112), "", $B112)</f>
-        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
-      </c>
-      <c r="H112" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
-      </c>
-      <c r="I112" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
-      </c>
-      <c r="J112" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="K112" s="33"/>
-      <c r="M112" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="N112" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="O112" s="32" t="str">
-        <f t="shared" ref="O112:R117" si="28">IF(ISBLANK($N112), "", $N112)</f>
-        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
-      </c>
-      <c r="P112" s="32" t="str">
+      <c r="D117" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
-      <c r="Q112" s="32" t="str">
+      <c r="E117" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
-      <c r="R112" s="32" t="str">
+      <c r="F117" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
-      <c r="T112" s="36" t="s">
+      <c r="G117" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
+      </c>
+      <c r="H117" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
+      </c>
+      <c r="I117" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
+      </c>
+      <c r="J117" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
+      </c>
+      <c r="K117" s="36" t="s">
         <v>393</v>
       </c>
-      <c r="X112" s="36" t="str">
-        <f t="shared" ref="X112:X117" si="29">IF(ISBLANK($B112), "", $B112)</f>
+      <c r="L117" s="33"/>
+      <c r="N117" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="O117" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="P117" s="32" t="str">
+        <f t="shared" ref="P117:S122" si="29">IF(ISBLANK($O117), "", $O117)</f>
         <v xml:space="preserve">  - file:   [parse, units.csv]</v>
       </c>
-    </row>
-    <row r="113" spans="1:24" ht="13" customHeight="1">
-      <c r="B113" s="36" t="s">
+      <c r="Q117" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
+      </c>
+      <c r="R117" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
+      </c>
+      <c r="S117" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
+      </c>
+      <c r="U117" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y117" s="36" t="str">
+        <f t="shared" ref="Y117:Y122" si="30">IF(ISBLANK($B117), "", $B117)</f>
+        <v xml:space="preserve">  - file:   [parse, units.csv]</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="13" customHeight="1">
+      <c r="B118" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C113" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="D113" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="E113" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="F113" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="G113" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="H113" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="I113" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    from:   from</v>
-      </c>
-      <c r="J113" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="K113" s="33"/>
-      <c r="M113" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N113" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O113" s="32" t="str">
+      <c r="C118" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    from:   from</v>
       </c>
-      <c r="P113" s="32" t="str">
+      <c r="D118" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    from:   from</v>
       </c>
-      <c r="Q113" s="32" t="str">
+      <c r="E118" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    from:   from</v>
       </c>
-      <c r="R113" s="32" t="str">
+      <c r="F118" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    from:   from</v>
       </c>
-      <c r="T113" s="36" t="s">
+      <c r="G118" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="H118" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="I118" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="J118" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="K118" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="X113" s="36" t="str">
+      <c r="L118" s="33"/>
+      <c r="N118" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="O118" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P118" s="32" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">    from:   from</v>
       </c>
-    </row>
-    <row r="114" spans="1:24" ht="13" customHeight="1">
-      <c r="B114" s="36" t="s">
+      <c r="Q118" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="R118" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="S118" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+      <c r="U118" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y118" s="36" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">    from:   from</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="13" customHeight="1">
+      <c r="B119" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="C114" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
-      </c>
-      <c r="D114" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
-      </c>
-      <c r="E114" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
-      </c>
-      <c r="F114" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
-      </c>
-      <c r="G114" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
-      </c>
-      <c r="H114" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
-      </c>
-      <c r="I114" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
-      </c>
-      <c r="J114" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="K114" s="33"/>
-      <c r="M114" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="N114" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="O114" s="32" t="str">
+      <c r="C119" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
       </c>
-      <c r="P114" s="32" t="str">
+      <c r="D119" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
       </c>
-      <c r="Q114" s="32" t="str">
+      <c r="E119" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
       </c>
-      <c r="R114" s="32" t="str">
+      <c r="F119" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
       </c>
-      <c r="T114" s="36" t="s">
+      <c r="G119" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
+      </c>
+      <c r="H119" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
+      </c>
+      <c r="I119" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
+      </c>
+      <c r="J119" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
+      </c>
+      <c r="K119" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="X114" s="36" t="str">
+      <c r="L119" s="33"/>
+      <c r="N119" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="O119" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="P119" s="32" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" ht="13" customHeight="1">
-      <c r="B115" s="36" t="s">
+      <c r="Q119" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
+      </c>
+      <c r="R119" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
+      </c>
+      <c r="S119" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
+      </c>
+      <c r="U119" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y119" s="36" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">    to:     [to, factor, units_factor]</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="13" customHeight="1">
+      <c r="B120" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="C115" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    input:  units</v>
-      </c>
-      <c r="D115" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    input:  units</v>
-      </c>
-      <c r="E115" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    input:  units</v>
-      </c>
-      <c r="F115" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    input:  units</v>
-      </c>
-      <c r="G115" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    input:  units</v>
-      </c>
-      <c r="H115" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    input:  units</v>
-      </c>
-      <c r="I115" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    input:  units</v>
-      </c>
-      <c r="J115" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="K115" s="33"/>
-      <c r="M115" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="N115" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="O115" s="32" t="str">
+      <c r="C120" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    input:  units</v>
       </c>
-      <c r="P115" s="32" t="str">
+      <c r="D120" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    input:  units</v>
       </c>
-      <c r="Q115" s="32" t="str">
+      <c r="E120" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    input:  units</v>
       </c>
-      <c r="R115" s="32" t="str">
+      <c r="F120" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    input:  units</v>
       </c>
-      <c r="T115" s="36" t="s">
+      <c r="G120" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    input:  units</v>
+      </c>
+      <c r="H120" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    input:  units</v>
+      </c>
+      <c r="I120" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    input:  units</v>
+      </c>
+      <c r="J120" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    input:  units</v>
+      </c>
+      <c r="K120" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="L120" s="33"/>
+      <c r="N120" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="X115" s="36" t="str">
+      <c r="O120" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="P120" s="32" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">    input:  units</v>
       </c>
-    </row>
-    <row r="116" spans="1:24" ht="13" customHeight="1">
-      <c r="B116" s="36" t="s">
+      <c r="Q120" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    input:  units</v>
+      </c>
+      <c r="R120" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    input:  units</v>
+      </c>
+      <c r="S120" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    input:  units</v>
+      </c>
+      <c r="U120" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y120" s="36" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">    input:  units</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="13" customHeight="1">
+      <c r="B121" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="C116" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
-      </c>
-      <c r="D116" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
-      </c>
-      <c r="E116" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
-      </c>
-      <c r="F116" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
-      </c>
-      <c r="G116" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
-      </c>
-      <c r="H116" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
-      </c>
-      <c r="I116" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
-      </c>
-      <c r="J116" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="K116" s="33"/>
-      <c r="M116" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="N116" s="36" t="s">
-        <v>476</v>
-      </c>
-      <c r="O116" s="32" t="str">
+      <c r="C121" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    output: [units, factor, units_factor]</v>
       </c>
-      <c r="P116" s="32" t="str">
+      <c r="D121" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    output: [units, factor, units_factor]</v>
       </c>
-      <c r="Q116" s="32" t="str">
+      <c r="E121" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    output: [units, factor, units_factor]</v>
       </c>
-      <c r="R116" s="32" t="str">
+      <c r="F121" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    output: [units, factor, units_factor]</v>
       </c>
-      <c r="T116" s="36" t="s">
+      <c r="G121" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
+      </c>
+      <c r="H121" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
+      </c>
+      <c r="I121" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
+      </c>
+      <c r="J121" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
+      </c>
+      <c r="K121" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="X116" s="36" t="str">
+      <c r="L121" s="33"/>
+      <c r="N121" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="O121" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="P121" s="32" t="str">
         <f t="shared" si="29"/>
         <v xml:space="preserve">    output: [units, factor, units_factor]</v>
       </c>
-    </row>
-    <row r="117" spans="1:24" ht="13" customHeight="1">
-      <c r="B117" s="36" t="s">
+      <c r="Q121" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
+      </c>
+      <c r="R121" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
+      </c>
+      <c r="S121" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
+      </c>
+      <c r="U121" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y121" s="36" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">    output: [units, factor, units_factor]</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="13" customHeight="1">
+      <c r="B122" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="C117" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="D117" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="E117" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="F117" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="G117" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="H117" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="I117" s="36" t="str">
-        <f t="shared" si="27"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="J117" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="K117" s="33"/>
-      <c r="M117" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="N117" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="O117" s="32" t="str">
-        <f>IF(ISBLANK($N117), "", $N117)</f>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-      <c r="P117" s="32" t="str">
+      <c r="C122" s="36" t="str">
         <f t="shared" si="28"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="Q117" s="32" t="str">
-        <f t="shared" ref="Q117:R117" si="30">IF(ISBLANK($O117), "", $O117)</f>
+      <c r="D122" s="36" t="str">
+        <f t="shared" si="28"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="R117" s="32" t="str">
+      <c r="E122" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="F122" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="G122" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="H122" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="I122" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="J122" s="36" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="K122" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="L122" s="33"/>
+      <c r="N122" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="O122" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="P122" s="32" t="str">
+        <f>IF(ISBLANK($O122), "", $O122)</f>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="Q122" s="32" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="R122" s="32" t="str">
+        <f t="shared" ref="R122:S122" si="31">IF(ISBLANK($P122), "", $P122)</f>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="S122" s="32" t="str">
+        <f t="shared" si="31"/>
+        <v xml:space="preserve">    kind:   left</v>
+      </c>
+      <c r="U122" s="36" t="s">
+        <v>958</v>
+      </c>
+      <c r="Y122" s="36" t="str">
         <f t="shared" si="30"/>
         <v xml:space="preserve">    kind:   left</v>
       </c>
-      <c r="T117" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="X117" s="36" t="str">
-        <f t="shared" si="29"/>
-        <v xml:space="preserve">    kind:   left</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" ht="13" customHeight="1">
-      <c r="A119" s="36" t="s">
+    </row>
+    <row r="124" spans="1:25" ht="13" customHeight="1">
+      <c r="A124" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B124" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C119" s="36" t="str">
-        <f t="shared" ref="C119:C122" si="31">IF(ISBLANK($B119), "", $B119)</f>
+      <c r="C124" s="36" t="str">
+        <f t="shared" ref="C124:C127" si="32">IF(ISBLANK($B124), "", $B124)</f>
         <v>Replace:</v>
       </c>
-      <c r="D119" s="36" t="s">
+      <c r="D124" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E119" s="36" t="str">
-        <f t="shared" ref="E119:E122" si="32">IF(ISBLANK($D119), "", $D119)</f>
+      <c r="E124" s="36" t="str">
+        <f t="shared" ref="E124:E127" si="33">IF(ISBLANK($D124), "", $D124)</f>
         <v>Replace:</v>
       </c>
-      <c r="F119" s="33" t="s">
+      <c r="F124" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G119" s="36" t="str">
-        <f t="shared" ref="G119:G121" si="33">IF(ISBLANK($F119), "", $F119)</f>
+      <c r="G124" s="36" t="str">
+        <f t="shared" ref="G124:H127" si="34">IF(ISBLANK($F124), "", $F124)</f>
         <v>Replace:</v>
       </c>
-      <c r="H119" s="36" t="s">
+      <c r="H124" s="36" t="str">
+        <f t="shared" si="34"/>
+        <v>Replace:</v>
+      </c>
+      <c r="I124" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="I119" s="33"/>
-      <c r="J119" s="36" t="s">
+      <c r="J124" s="33"/>
+      <c r="K124" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M119" s="33" t="s">
+      <c r="N124" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="N119" s="36" t="s">
+      <c r="O124" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="O119" s="32" t="s">
+      <c r="P124" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="P119" s="36" t="s">
+      <c r="Q124" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Q119" s="36" t="s">
+      <c r="R124" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="R119" s="36" t="s">
+      <c r="S124" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="X119" s="36" t="s">
+      <c r="Y124" s="36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="13" customHeight="1">
-      <c r="B120" s="36" t="s">
+    <row r="125" spans="1:25" ht="13" customHeight="1">
+      <c r="B125" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C120" s="36" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  col:  value</v>
-      </c>
-      <c r="D120" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E120" s="36" t="str">
+      <c r="C125" s="36" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  col:  value</v>
       </c>
-      <c r="F120" s="33" t="s">
+      <c r="D125" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E125" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">  col:  value</v>
+      </c>
+      <c r="F125" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G120" s="36" t="str">
-        <f t="shared" si="33"/>
+      <c r="G125" s="36" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">  - col:  value</v>
       </c>
-      <c r="H120" s="36" t="s">
+      <c r="H125" s="36" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">  - col:  value</v>
+      </c>
+      <c r="I125" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I120" s="33"/>
-      <c r="J120" s="36" t="s">
+      <c r="J125" s="33"/>
+      <c r="K125" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="M120" s="33" t="s">
+      <c r="N125" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="N120" s="36" t="s">
+      <c r="O125" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="O120" s="32" t="s">
+      <c r="P125" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="P120" s="36" t="s">
+      <c r="Q125" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="Q120" s="36" t="s">
+      <c r="R125" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="R120" s="36" t="s">
+      <c r="S125" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="X120" s="36" t="s">
+      <c r="Y125" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="13" customHeight="1">
-      <c r="B121" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C121" s="36" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  from: "..."</v>
-      </c>
-      <c r="D121" s="36" t="s">
+    <row r="126" spans="1:25" ht="13" customHeight="1">
+      <c r="B126" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="E121" s="36" t="str">
+      <c r="C126" s="36" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  from: missing</v>
       </c>
-      <c r="F121" s="33" t="s">
+      <c r="D126" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E126" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">  from: missing</v>
+      </c>
+      <c r="F126" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="G121" s="36" t="str">
-        <f t="shared" si="33"/>
+      <c r="G126" s="36" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">    from: [missing, (NA), (D), (H), (L), (T)]</v>
       </c>
-      <c r="H121" s="36" t="s">
+      <c r="H126" s="36" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">    from: [missing, (NA), (D), (H), (L), (T)]</v>
+      </c>
+      <c r="I126" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="I121" s="33"/>
-      <c r="J121" s="36" t="s">
+      <c r="J126" s="33"/>
+      <c r="K126" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="M121" s="33" t="s">
+      <c r="N126" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="N121" s="36" t="s">
+      <c r="O126" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="O121" s="32" t="s">
+      <c r="P126" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="36" t="s">
+      <c r="Q126" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="Q121" s="36" t="s">
+      <c r="R126" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="R121" s="36" t="s">
+      <c r="S126" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="X121" s="36" t="s">
+      <c r="Y126" s="36" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="13" customHeight="1">
-      <c r="B122" s="36" t="s">
+    <row r="127" spans="1:25" ht="13" customHeight="1">
+      <c r="B127" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C122" s="36" t="str">
-        <f t="shared" si="31"/>
-        <v xml:space="preserve">  to:   0</v>
-      </c>
-      <c r="D122" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E122" s="36" t="str">
+      <c r="C127" s="36" t="str">
         <f t="shared" si="32"/>
         <v xml:space="preserve">  to:   0</v>
       </c>
-      <c r="F122" s="33" t="s">
+      <c r="D127" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E127" s="36" t="str">
+        <f t="shared" si="33"/>
+        <v xml:space="preserve">  to:   0</v>
+      </c>
+      <c r="F127" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G122" s="36" t="str">
-        <f>IF(ISBLANK($F122), "", $F122)</f>
+      <c r="G127" s="36" t="str">
+        <f t="shared" si="34"/>
         <v xml:space="preserve">    to:   0</v>
       </c>
-      <c r="H122" s="36" t="s">
+      <c r="H127" s="36" t="str">
+        <f t="shared" si="34"/>
+        <v xml:space="preserve">    to:   0</v>
+      </c>
+      <c r="I127" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I122" s="33"/>
-      <c r="J122" s="36" t="s">
+      <c r="J127" s="33"/>
+      <c r="K127" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="M122" s="33" t="s">
+      <c r="N127" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="N122" s="36" t="s">
+      <c r="O127" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="O122" s="32" t="s">
+      <c r="P127" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="P122" s="36" t="s">
+      <c r="Q127" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="Q122" s="36" t="s">
+      <c r="R127" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="R122" s="36" t="s">
+      <c r="S127" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="X122" s="36" t="s">
+      <c r="Y127" s="36" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="13" customHeight="1">
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="36" t="s">
-        <v>732</v>
-      </c>
-      <c r="I123" s="33"/>
-      <c r="J123" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="M123" s="33"/>
-    </row>
-    <row r="124" spans="1:24" ht="13" customHeight="1">
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="36" t="s">
-        <v>733</v>
-      </c>
-      <c r="I124" s="33"/>
-      <c r="J124" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="M124" s="33"/>
-    </row>
-    <row r="125" spans="1:24" ht="13" customHeight="1">
-      <c r="F125" s="33"/>
-      <c r="G125" s="33"/>
-      <c r="H125" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="I125" s="33"/>
-      <c r="J125" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="M125" s="33"/>
-    </row>
-    <row r="126" spans="1:24" ht="13" customHeight="1">
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="I126" s="33"/>
-      <c r="J126" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="M126" s="33"/>
-    </row>
-    <row r="127" spans="1:24" ht="13" customHeight="1">
-      <c r="F127" s="33"/>
-      <c r="G127" s="33"/>
-      <c r="I127" s="33"/>
-      <c r="J127" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="M127" s="33"/>
-    </row>
-    <row r="128" spans="1:24" ht="13" customHeight="1">
+    <row r="128" spans="1:25" ht="13" customHeight="1">
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
-      <c r="I128" s="33"/>
-      <c r="J128" s="36" t="s">
+      <c r="H128" s="33"/>
+      <c r="I128" s="36" t="s">
+        <v>732</v>
+      </c>
+      <c r="J128" s="33"/>
+      <c r="K128" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N128" s="33"/>
+    </row>
+    <row r="129" spans="1:25" ht="13" customHeight="1">
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="36" t="s">
+        <v>733</v>
+      </c>
+      <c r="J129" s="33"/>
+      <c r="K129" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="N129" s="33"/>
+    </row>
+    <row r="130" spans="1:25" ht="13" customHeight="1">
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="36" t="s">
+        <v>734</v>
+      </c>
+      <c r="J130" s="33"/>
+      <c r="K130" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="N130" s="33"/>
+    </row>
+    <row r="131" spans="1:25" ht="13" customHeight="1">
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N131" s="33"/>
+    </row>
+    <row r="132" spans="1:25" ht="13" customHeight="1">
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N132" s="33"/>
+    </row>
+    <row r="133" spans="1:25" ht="13" customHeight="1">
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="M128" s="33"/>
-    </row>
-    <row r="130" spans="1:24" ht="13" customHeight="1">
-      <c r="A130" s="36" t="s">
+      <c r="N133" s="33"/>
+    </row>
+    <row r="135" spans="1:25" ht="13" customHeight="1">
+      <c r="A135" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="F130" s="36" t="s">
+      <c r="F135" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G130" s="36" t="s">
+      <c r="G135" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H130" s="36" t="s">
+      <c r="H135" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="I130" s="36" t="s">
+      <c r="I135" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="J130" s="36" t="s">
+      <c r="J135" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="M130" s="36" t="s">
+      <c r="K135" s="36" t="s">
         <v>18</v>
       </c